--- a/library/export_travelclaim.xlsx
+++ b/library/export_travelclaim.xlsx
@@ -17,7 +17,7 @@
     <sheet name="DV" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Itinerary!$A$1:$J$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Itinerary!$A$1:$J$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -1677,6 +1677,126 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1692,125 +1812,314 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1845,296 +2154,431 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2198,450 +2642,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2703,7 +2703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2738,7 +2738,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2950,10 +2950,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2971,37 +2971,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1" s="232" t="s">
+      <c r="H1" s="196" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="232"/>
-      <c r="J1" s="232"/>
+      <c r="I1" s="196"/>
+      <c r="J1" s="196"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199"/>
-      <c r="B2" s="199"/>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
-      <c r="I2" s="199"/>
-      <c r="J2" s="199"/>
+      <c r="A2" s="197"/>
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="233" t="s">
+      <c r="A3" s="198" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="233"/>
-      <c r="C3" s="233"/>
-      <c r="D3" s="233"/>
-      <c r="E3" s="233"/>
-      <c r="F3" s="233"/>
-      <c r="G3" s="233"/>
-      <c r="H3" s="233"/>
-      <c r="I3" s="233"/>
-      <c r="J3" s="233"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="38"/>
@@ -3019,8 +3019,8 @@
       <c r="A5" s="187" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="234"/>
-      <c r="C5" s="234"/>
+      <c r="B5" s="200"/>
+      <c r="C5" s="200"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -3033,8 +3033,8 @@
       <c r="A6" s="187" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="234"/>
-      <c r="C6" s="234"/>
+      <c r="B6" s="200"/>
+      <c r="C6" s="200"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="28"/>
@@ -3047,17 +3047,17 @@
       <c r="A7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="235"/>
-      <c r="C7" s="235"/>
+      <c r="B7" s="201"/>
+      <c r="C7" s="201"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="28"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="196" t="s">
+      <c r="H7" s="199" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
+      <c r="I7" s="199"/>
+      <c r="J7" s="199"/>
     </row>
     <row r="8" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -3075,55 +3075,55 @@
       <c r="A9" s="186" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="205" t="s">
+      <c r="B9" s="202" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="205"/>
-      <c r="D9" s="205"/>
-      <c r="E9" s="206"/>
+      <c r="C9" s="202"/>
+      <c r="D9" s="202"/>
+      <c r="E9" s="203"/>
       <c r="F9" s="190" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="205" t="s">
+      <c r="G9" s="202" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="205"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="206"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="202"/>
+      <c r="J9" s="203"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="188" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="203" t="s">
+      <c r="B10" s="241" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="195" t="s">
+      <c r="C10" s="241"/>
+      <c r="D10" s="241"/>
+      <c r="E10" s="242"/>
+      <c r="F10" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="197"/>
+      <c r="G10" s="199"/>
+      <c r="H10" s="199"/>
+      <c r="I10" s="199"/>
+      <c r="J10" s="236"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="188" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="189"/>
-      <c r="C11" s="203" t="s">
+      <c r="C11" s="241" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="203"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="197"/>
+      <c r="D11" s="241"/>
+      <c r="E11" s="242"/>
+      <c r="F11" s="235"/>
+      <c r="G11" s="199"/>
+      <c r="H11" s="199"/>
+      <c r="I11" s="199"/>
+      <c r="J11" s="236"/>
     </row>
     <row r="12" spans="1:10" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
@@ -3138,39 +3138,39 @@
       <c r="J12" s="8"/>
     </row>
     <row r="13" spans="1:10" s="35" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="222" t="s">
+      <c r="A13" s="221" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="201" t="s">
+      <c r="B13" s="237" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="202"/>
-      <c r="D13" s="230" t="s">
+      <c r="C13" s="238"/>
+      <c r="D13" s="229" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="231"/>
+      <c r="E13" s="230"/>
       <c r="F13" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="210" t="s">
+      <c r="G13" s="207" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="212" t="s">
+      <c r="I13" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="214" t="s">
+      <c r="J13" s="211" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="35" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="223"/>
-      <c r="B14" s="198" t="s">
+      <c r="A14" s="222"/>
+      <c r="B14" s="216" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="200"/>
+      <c r="C14" s="217"/>
       <c r="D14" s="40" t="s">
         <v>23</v>
       </c>
@@ -3180,134 +3180,134 @@
       <c r="F14" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="211"/>
+      <c r="G14" s="208"/>
       <c r="H14" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="213"/>
-      <c r="J14" s="215"/>
+      <c r="I14" s="210"/>
+      <c r="J14" s="212"/>
     </row>
     <row r="15" spans="1:10" s="42" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
-      <c r="B15" s="192"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="194"/>
-    </row>
-    <row r="16" spans="1:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="506"/>
-      <c r="B16" s="507"/>
-      <c r="C16" s="508"/>
-      <c r="D16" s="509"/>
-      <c r="E16" s="509"/>
-      <c r="F16" s="510"/>
-      <c r="G16" s="511"/>
-      <c r="H16" s="511"/>
-      <c r="I16" s="512"/>
-      <c r="J16" s="511"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="18" t="s">
+      <c r="A15" s="231"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="232"/>
+      <c r="D15" s="233"/>
+      <c r="E15" s="233"/>
+      <c r="F15" s="232"/>
+      <c r="G15" s="232"/>
+      <c r="H15" s="232"/>
+      <c r="I15" s="232"/>
+      <c r="J15" s="234"/>
+    </row>
+    <row r="16" spans="1:10" s="42" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="191"/>
+      <c r="B16" s="239"/>
+      <c r="C16" s="240"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="194"/>
+    </row>
+    <row r="17" spans="1:10" ht="27.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="191"/>
+      <c r="B17" s="239"/>
+      <c r="C17" s="240"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="194"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="11"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="21"/>
       <c r="F18" s="19"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
       <c r="J18" s="11"/>
     </row>
-    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="219" t="s">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="220"/>
-      <c r="C19" s="220"/>
-      <c r="D19" s="221"/>
-      <c r="E19" s="198" t="s">
+      <c r="B20" s="219"/>
+      <c r="C20" s="219"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="216" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="199"/>
-      <c r="G19" s="199"/>
-      <c r="H19" s="199"/>
-      <c r="I19" s="199"/>
-      <c r="J19" s="200"/>
-    </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="219"/>
-      <c r="B20" s="220"/>
-      <c r="C20" s="220"/>
-      <c r="D20" s="221"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="199"/>
-      <c r="G20" s="199"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="199"/>
-      <c r="J20" s="200"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="219"/>
-      <c r="B21" s="220"/>
-      <c r="C21" s="220"/>
-      <c r="D21" s="221"/>
-      <c r="E21" s="224"/>
-      <c r="F21" s="225"/>
-      <c r="G21" s="225"/>
-      <c r="H21" s="225"/>
-      <c r="I21" s="225"/>
-      <c r="J21" s="226"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="219"/>
-      <c r="B22" s="220"/>
-      <c r="C22" s="220"/>
-      <c r="D22" s="221"/>
-      <c r="E22" s="18" t="s">
+      <c r="F20" s="197"/>
+      <c r="G20" s="197"/>
+      <c r="H20" s="197"/>
+      <c r="I20" s="197"/>
+      <c r="J20" s="217"/>
+    </row>
+    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="218"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="219"/>
+      <c r="D21" s="220"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="217"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="218"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="219"/>
+      <c r="D22" s="220"/>
+      <c r="E22" s="223"/>
+      <c r="F22" s="224"/>
+      <c r="G22" s="224"/>
+      <c r="H22" s="224"/>
+      <c r="I22" s="224"/>
+      <c r="J22" s="225"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="218"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="219"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="10"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="219"/>
-      <c r="B23" s="220"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="221"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="11"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="10"/>
     </row>
     <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="227"/>
-      <c r="B24" s="228"/>
-      <c r="C24" s="228"/>
-      <c r="D24" s="229"/>
+      <c r="A24" s="218"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="219"/>
+      <c r="D24" s="220"/>
       <c r="E24" s="5"/>
       <c r="F24" s="15"/>
       <c r="G24" s="20"/>
@@ -3316,10 +3316,10 @@
       <c r="J24" s="11"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="9"/>
+      <c r="A25" s="226"/>
+      <c r="B25" s="227"/>
+      <c r="C25" s="227"/>
+      <c r="D25" s="228"/>
       <c r="E25" s="5"/>
       <c r="F25" s="15"/>
       <c r="G25" s="20"/>
@@ -3328,92 +3328,130 @@
       <c r="J25" s="11"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="216" t="s">
+      <c r="A26" s="5"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="213" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="217"/>
-      <c r="C26" s="217"/>
-      <c r="D26" s="218"/>
-      <c r="E26" s="198" t="s">
+      <c r="B27" s="214"/>
+      <c r="C27" s="214"/>
+      <c r="D27" s="215"/>
+      <c r="E27" s="216" t="s">
         <v>32</v>
       </c>
-      <c r="F26" s="199"/>
-      <c r="G26" s="199"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="200"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="198" t="s">
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="217"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="216" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="199"/>
-      <c r="C27" s="199"/>
-      <c r="D27" s="200"/>
-      <c r="E27" s="198" t="s">
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
+      <c r="D28" s="217"/>
+      <c r="E28" s="216" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="200"/>
-    </row>
-    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="207" t="s">
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="217"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="208"/>
-      <c r="C28" s="208"/>
-      <c r="D28" s="209"/>
-      <c r="E28" s="207" t="s">
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="206"/>
+      <c r="E29" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="F28" s="208"/>
-      <c r="G28" s="208"/>
-      <c r="H28" s="208"/>
-      <c r="I28" s="208"/>
-      <c r="J28" s="209"/>
-    </row>
-    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="11"/>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="12"/>
-    </row>
-    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
+      <c r="H29" s="205"/>
+      <c r="I29" s="205"/>
+      <c r="J29" s="206"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="32">
+  <mergeCells count="33">
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A20:D24"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="D13:E13"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -3421,31 +3459,6 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A19:D23"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2598425196850001" right="0.98425196850394003" top="0.78740157480314998" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3455,7 +3468,7 @@
     <evenFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</evenFooter>
   </headerFooter>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="30" man="1"/>
+    <brk id="31" man="1"/>
   </rowBreaks>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="10" man="1"/>
@@ -3503,10 +3516,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="236" t="s">
+      <c r="L1" s="339" t="s">
         <v>37</v>
       </c>
-      <c r="M1" s="236"/>
+      <c r="M1" s="339"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3520,442 +3533,442 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="237"/>
-      <c r="M2" s="237"/>
+      <c r="L2" s="340"/>
+      <c r="M2" s="340"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="238" t="s">
+      <c r="A3" s="341" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="239"/>
-      <c r="C3" s="239"/>
-      <c r="D3" s="239"/>
-      <c r="E3" s="239"/>
-      <c r="F3" s="239"/>
-      <c r="G3" s="239"/>
-      <c r="H3" s="239"/>
-      <c r="I3" s="239"/>
-      <c r="J3" s="240"/>
-      <c r="K3" s="241" t="s">
+      <c r="B3" s="342"/>
+      <c r="C3" s="342"/>
+      <c r="D3" s="342"/>
+      <c r="E3" s="342"/>
+      <c r="F3" s="342"/>
+      <c r="G3" s="342"/>
+      <c r="H3" s="342"/>
+      <c r="I3" s="342"/>
+      <c r="J3" s="343"/>
+      <c r="K3" s="344" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="242"/>
-      <c r="M3" s="243"/>
+      <c r="L3" s="345"/>
+      <c r="M3" s="346"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="244" t="s">
+      <c r="A4" s="347" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="245"/>
-      <c r="C4" s="245"/>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245"/>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245"/>
-      <c r="H4" s="245"/>
-      <c r="I4" s="245"/>
-      <c r="J4" s="246"/>
-      <c r="K4" s="247" t="s">
+      <c r="B4" s="348"/>
+      <c r="C4" s="348"/>
+      <c r="D4" s="348"/>
+      <c r="E4" s="348"/>
+      <c r="F4" s="348"/>
+      <c r="G4" s="348"/>
+      <c r="H4" s="348"/>
+      <c r="I4" s="348"/>
+      <c r="J4" s="349"/>
+      <c r="K4" s="269" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="248"/>
-      <c r="M4" s="249"/>
+      <c r="L4" s="270"/>
+      <c r="M4" s="350"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="250" t="s">
+      <c r="A5" s="321" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="251"/>
-      <c r="D5" s="251"/>
-      <c r="E5" s="251"/>
-      <c r="F5" s="251"/>
-      <c r="G5" s="251"/>
-      <c r="H5" s="251"/>
-      <c r="I5" s="251"/>
-      <c r="J5" s="252"/>
-      <c r="K5" s="253" t="s">
+      <c r="B5" s="322"/>
+      <c r="C5" s="322"/>
+      <c r="D5" s="322"/>
+      <c r="E5" s="322"/>
+      <c r="F5" s="322"/>
+      <c r="G5" s="322"/>
+      <c r="H5" s="322"/>
+      <c r="I5" s="322"/>
+      <c r="J5" s="323"/>
+      <c r="K5" s="324" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="254"/>
-      <c r="M5" s="255"/>
+      <c r="L5" s="325"/>
+      <c r="M5" s="326"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="256"/>
-      <c r="B6" s="257"/>
-      <c r="C6" s="258"/>
-      <c r="D6" s="262" t="s">
+      <c r="A6" s="309"/>
+      <c r="B6" s="310"/>
+      <c r="C6" s="311"/>
+      <c r="D6" s="330" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="263"/>
-      <c r="F6" s="263"/>
-      <c r="G6" s="263"/>
-      <c r="H6" s="263"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
-      <c r="K6" s="263"/>
-      <c r="L6" s="263"/>
-      <c r="M6" s="264"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
+      <c r="J6" s="331"/>
+      <c r="K6" s="331"/>
+      <c r="L6" s="331"/>
+      <c r="M6" s="332"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="259"/>
-      <c r="B7" s="260"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="265"/>
-      <c r="E7" s="266"/>
-      <c r="F7" s="266"/>
-      <c r="G7" s="266"/>
-      <c r="H7" s="266"/>
-      <c r="I7" s="266"/>
-      <c r="J7" s="266"/>
-      <c r="K7" s="266"/>
-      <c r="L7" s="266"/>
-      <c r="M7" s="267"/>
+      <c r="A7" s="327"/>
+      <c r="B7" s="328"/>
+      <c r="C7" s="329"/>
+      <c r="D7" s="333"/>
+      <c r="E7" s="334"/>
+      <c r="F7" s="334"/>
+      <c r="G7" s="334"/>
+      <c r="H7" s="334"/>
+      <c r="I7" s="334"/>
+      <c r="J7" s="334"/>
+      <c r="K7" s="334"/>
+      <c r="L7" s="334"/>
+      <c r="M7" s="335"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="268" t="s">
+      <c r="A8" s="298" t="s">
         <v>45</v>
       </c>
-      <c r="B8" s="269"/>
-      <c r="C8" s="270"/>
-      <c r="D8" s="271" t="s">
+      <c r="B8" s="299"/>
+      <c r="C8" s="300"/>
+      <c r="D8" s="303" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="272"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="272"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="272"/>
-      <c r="M8" s="273"/>
+      <c r="E8" s="304"/>
+      <c r="F8" s="304"/>
+      <c r="G8" s="304"/>
+      <c r="H8" s="304"/>
+      <c r="I8" s="304"/>
+      <c r="J8" s="304"/>
+      <c r="K8" s="304"/>
+      <c r="L8" s="304"/>
+      <c r="M8" s="305"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="259"/>
-      <c r="B9" s="260"/>
-      <c r="C9" s="261"/>
-      <c r="D9" s="274"/>
-      <c r="E9" s="275"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="275"/>
-      <c r="K9" s="275"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="276"/>
+      <c r="A9" s="327"/>
+      <c r="B9" s="328"/>
+      <c r="C9" s="329"/>
+      <c r="D9" s="336"/>
+      <c r="E9" s="337"/>
+      <c r="F9" s="337"/>
+      <c r="G9" s="337"/>
+      <c r="H9" s="337"/>
+      <c r="I9" s="337"/>
+      <c r="J9" s="337"/>
+      <c r="K9" s="337"/>
+      <c r="L9" s="337"/>
+      <c r="M9" s="338"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="268" t="s">
+      <c r="A10" s="298" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="269"/>
-      <c r="C10" s="270"/>
-      <c r="D10" s="271" t="e">
+      <c r="B10" s="299"/>
+      <c r="C10" s="300"/>
+      <c r="D10" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="272"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="272"/>
-      <c r="J10" s="272"/>
-      <c r="K10" s="272"/>
-      <c r="L10" s="272"/>
-      <c r="M10" s="273"/>
+      <c r="E10" s="304"/>
+      <c r="F10" s="304"/>
+      <c r="G10" s="304"/>
+      <c r="H10" s="304"/>
+      <c r="I10" s="304"/>
+      <c r="J10" s="304"/>
+      <c r="K10" s="304"/>
+      <c r="L10" s="304"/>
+      <c r="M10" s="305"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="277"/>
-      <c r="B11" s="278"/>
-      <c r="C11" s="279"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="282"/>
+      <c r="A11" s="301"/>
+      <c r="B11" s="263"/>
+      <c r="C11" s="302"/>
+      <c r="D11" s="306"/>
+      <c r="E11" s="307"/>
+      <c r="F11" s="307"/>
+      <c r="G11" s="307"/>
+      <c r="H11" s="307"/>
+      <c r="I11" s="307"/>
+      <c r="J11" s="307"/>
+      <c r="K11" s="307"/>
+      <c r="L11" s="307"/>
+      <c r="M11" s="308"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="256" t="s">
+      <c r="A12" s="309" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="257"/>
-      <c r="C12" s="258"/>
-      <c r="D12" s="283" t="s">
+      <c r="B12" s="310"/>
+      <c r="C12" s="311"/>
+      <c r="D12" s="312" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="284"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="283" t="s">
+      <c r="E12" s="313"/>
+      <c r="F12" s="313"/>
+      <c r="G12" s="313"/>
+      <c r="H12" s="314"/>
+      <c r="I12" s="312" t="s">
         <v>50</v>
       </c>
-      <c r="J12" s="258"/>
-      <c r="K12" s="290" t="s">
+      <c r="J12" s="311"/>
+      <c r="K12" s="318" t="s">
         <v>51</v>
       </c>
-      <c r="L12" s="283" t="s">
+      <c r="L12" s="312" t="s">
         <v>52</v>
       </c>
-      <c r="M12" s="292"/>
+      <c r="M12" s="320"/>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="277"/>
-      <c r="B13" s="278"/>
-      <c r="C13" s="279"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="289"/>
-      <c r="J13" s="279"/>
-      <c r="K13" s="291"/>
-      <c r="L13" s="289"/>
-      <c r="M13" s="293"/>
+      <c r="A13" s="301"/>
+      <c r="B13" s="263"/>
+      <c r="C13" s="302"/>
+      <c r="D13" s="315"/>
+      <c r="E13" s="316"/>
+      <c r="F13" s="316"/>
+      <c r="G13" s="316"/>
+      <c r="H13" s="317"/>
+      <c r="I13" s="262"/>
+      <c r="J13" s="302"/>
+      <c r="K13" s="319"/>
+      <c r="L13" s="262"/>
+      <c r="M13" s="264"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="216"/>
-      <c r="B14" s="217"/>
-      <c r="C14" s="294"/>
-      <c r="D14" s="297" t="s">
+      <c r="A14" s="213"/>
+      <c r="B14" s="214"/>
+      <c r="C14" s="283"/>
+      <c r="D14" s="284" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="217"/>
-      <c r="F14" s="217"/>
-      <c r="G14" s="217"/>
-      <c r="H14" s="294"/>
-      <c r="I14" s="297"/>
-      <c r="J14" s="294"/>
+      <c r="E14" s="214"/>
+      <c r="F14" s="214"/>
+      <c r="G14" s="214"/>
+      <c r="H14" s="283"/>
+      <c r="I14" s="284"/>
+      <c r="J14" s="283"/>
       <c r="K14" s="50"/>
-      <c r="L14" s="297"/>
-      <c r="M14" s="218"/>
+      <c r="L14" s="284"/>
+      <c r="M14" s="215"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="216"/>
-      <c r="B15" s="217"/>
-      <c r="C15" s="294"/>
-      <c r="D15" s="329" t="s">
+      <c r="A15" s="213"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="283"/>
+      <c r="D15" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="E15" s="309"/>
-      <c r="F15" s="309"/>
-      <c r="G15" s="309"/>
-      <c r="H15" s="330"/>
-      <c r="I15" s="297"/>
-      <c r="J15" s="294"/>
+      <c r="E15" s="251"/>
+      <c r="F15" s="251"/>
+      <c r="G15" s="251"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="284"/>
+      <c r="J15" s="283"/>
       <c r="K15" s="51"/>
-      <c r="L15" s="298">
+      <c r="L15" s="294">
         <v>4981</v>
       </c>
-      <c r="M15" s="299"/>
+      <c r="M15" s="295"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="216"/>
-      <c r="B16" s="217"/>
-      <c r="C16" s="294"/>
-      <c r="D16" s="329"/>
-      <c r="E16" s="309"/>
-      <c r="F16" s="309"/>
-      <c r="G16" s="309"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="297"/>
-      <c r="J16" s="294"/>
+      <c r="A16" s="213"/>
+      <c r="B16" s="214"/>
+      <c r="C16" s="283"/>
+      <c r="D16" s="250"/>
+      <c r="E16" s="251"/>
+      <c r="F16" s="251"/>
+      <c r="G16" s="251"/>
+      <c r="H16" s="252"/>
+      <c r="I16" s="284"/>
+      <c r="J16" s="283"/>
       <c r="K16" s="51"/>
-      <c r="L16" s="297"/>
-      <c r="M16" s="218"/>
+      <c r="L16" s="284"/>
+      <c r="M16" s="215"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="216"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="294"/>
-      <c r="D17" s="329"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="330"/>
-      <c r="I17" s="297"/>
-      <c r="J17" s="294"/>
+      <c r="A17" s="213"/>
+      <c r="B17" s="214"/>
+      <c r="C17" s="283"/>
+      <c r="D17" s="250"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="284"/>
+      <c r="J17" s="283"/>
       <c r="K17" s="51"/>
-      <c r="L17" s="300"/>
-      <c r="M17" s="301"/>
+      <c r="L17" s="296"/>
+      <c r="M17" s="297"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="216"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="294"/>
-      <c r="D18" s="329"/>
-      <c r="E18" s="309"/>
-      <c r="F18" s="309"/>
-      <c r="G18" s="309"/>
-      <c r="H18" s="330"/>
-      <c r="I18" s="295"/>
-      <c r="J18" s="296"/>
+      <c r="A18" s="213"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="283"/>
+      <c r="D18" s="250"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="252"/>
+      <c r="I18" s="292"/>
+      <c r="J18" s="293"/>
       <c r="K18" s="51"/>
-      <c r="L18" s="297"/>
-      <c r="M18" s="218"/>
+      <c r="L18" s="284"/>
+      <c r="M18" s="215"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="216"/>
-      <c r="B19" s="217"/>
-      <c r="C19" s="294"/>
-      <c r="D19" s="329"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="330"/>
-      <c r="I19" s="297"/>
-      <c r="J19" s="294"/>
+      <c r="A19" s="213"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="283"/>
+      <c r="D19" s="250"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="252"/>
+      <c r="I19" s="284"/>
+      <c r="J19" s="283"/>
       <c r="K19" s="51"/>
-      <c r="L19" s="297"/>
-      <c r="M19" s="218"/>
+      <c r="L19" s="284"/>
+      <c r="M19" s="215"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="216"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="294"/>
-      <c r="D20" s="329"/>
-      <c r="E20" s="309"/>
-      <c r="F20" s="309"/>
-      <c r="G20" s="309"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="297"/>
-      <c r="J20" s="294"/>
+      <c r="A20" s="213"/>
+      <c r="B20" s="214"/>
+      <c r="C20" s="283"/>
+      <c r="D20" s="250"/>
+      <c r="E20" s="251"/>
+      <c r="F20" s="251"/>
+      <c r="G20" s="251"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="284"/>
+      <c r="J20" s="283"/>
       <c r="K20" s="51"/>
-      <c r="L20" s="297"/>
-      <c r="M20" s="218"/>
+      <c r="L20" s="284"/>
+      <c r="M20" s="215"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="216"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="294"/>
-      <c r="D21" s="329"/>
-      <c r="E21" s="309"/>
-      <c r="F21" s="309"/>
-      <c r="G21" s="309"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="297"/>
-      <c r="J21" s="294"/>
+      <c r="A21" s="213"/>
+      <c r="B21" s="214"/>
+      <c r="C21" s="283"/>
+      <c r="D21" s="250"/>
+      <c r="E21" s="251"/>
+      <c r="F21" s="251"/>
+      <c r="G21" s="251"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="284"/>
+      <c r="J21" s="283"/>
       <c r="K21" s="51"/>
-      <c r="L21" s="297"/>
-      <c r="M21" s="218"/>
+      <c r="L21" s="284"/>
+      <c r="M21" s="215"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="216"/>
-      <c r="B22" s="217"/>
-      <c r="C22" s="294"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="228"/>
-      <c r="F22" s="228"/>
-      <c r="G22" s="228"/>
-      <c r="H22" s="296"/>
-      <c r="I22" s="297"/>
-      <c r="J22" s="294"/>
+      <c r="A22" s="213"/>
+      <c r="B22" s="214"/>
+      <c r="C22" s="283"/>
+      <c r="D22" s="292"/>
+      <c r="E22" s="227"/>
+      <c r="F22" s="227"/>
+      <c r="G22" s="227"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="284"/>
+      <c r="J22" s="283"/>
       <c r="K22" s="52"/>
-      <c r="L22" s="297"/>
-      <c r="M22" s="218"/>
+      <c r="L22" s="284"/>
+      <c r="M22" s="215"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="216"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="294"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="228"/>
-      <c r="F23" s="228"/>
-      <c r="G23" s="228"/>
-      <c r="H23" s="296"/>
-      <c r="I23" s="297"/>
-      <c r="J23" s="294"/>
+      <c r="A23" s="213"/>
+      <c r="B23" s="214"/>
+      <c r="C23" s="283"/>
+      <c r="D23" s="292"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="293"/>
+      <c r="I23" s="284"/>
+      <c r="J23" s="283"/>
       <c r="K23" s="52"/>
-      <c r="L23" s="297"/>
-      <c r="M23" s="218"/>
+      <c r="L23" s="284"/>
+      <c r="M23" s="215"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="216"/>
-      <c r="B24" s="217"/>
-      <c r="C24" s="294"/>
-      <c r="D24" s="295"/>
-      <c r="E24" s="228"/>
-      <c r="F24" s="228"/>
-      <c r="G24" s="228"/>
-      <c r="H24" s="296"/>
-      <c r="I24" s="297"/>
-      <c r="J24" s="294"/>
+      <c r="A24" s="213"/>
+      <c r="B24" s="214"/>
+      <c r="C24" s="283"/>
+      <c r="D24" s="292"/>
+      <c r="E24" s="227"/>
+      <c r="F24" s="227"/>
+      <c r="G24" s="227"/>
+      <c r="H24" s="293"/>
+      <c r="I24" s="284"/>
+      <c r="J24" s="283"/>
       <c r="K24" s="52"/>
-      <c r="L24" s="297"/>
-      <c r="M24" s="218"/>
+      <c r="L24" s="284"/>
+      <c r="M24" s="215"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="216"/>
-      <c r="B25" s="217"/>
-      <c r="C25" s="294"/>
-      <c r="D25" s="297"/>
-      <c r="E25" s="217"/>
-      <c r="F25" s="217"/>
-      <c r="G25" s="217"/>
-      <c r="H25" s="294"/>
-      <c r="I25" s="297"/>
-      <c r="J25" s="294"/>
+      <c r="A25" s="213"/>
+      <c r="B25" s="214"/>
+      <c r="C25" s="283"/>
+      <c r="D25" s="284"/>
+      <c r="E25" s="214"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="283"/>
+      <c r="I25" s="284"/>
+      <c r="J25" s="283"/>
       <c r="K25" s="52"/>
-      <c r="L25" s="297"/>
-      <c r="M25" s="218"/>
+      <c r="L25" s="284"/>
+      <c r="M25" s="215"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="216"/>
-      <c r="B26" s="217"/>
-      <c r="C26" s="294"/>
-      <c r="D26" s="297"/>
-      <c r="E26" s="217"/>
-      <c r="F26" s="217"/>
-      <c r="G26" s="217"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="297"/>
-      <c r="J26" s="294"/>
+      <c r="A26" s="213"/>
+      <c r="B26" s="214"/>
+      <c r="C26" s="283"/>
+      <c r="D26" s="284"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="283"/>
+      <c r="I26" s="284"/>
+      <c r="J26" s="283"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="297"/>
-      <c r="M26" s="218"/>
+      <c r="L26" s="284"/>
+      <c r="M26" s="215"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="224"/>
-      <c r="B27" s="225"/>
-      <c r="C27" s="302"/>
-      <c r="D27" s="303" t="s">
+      <c r="A27" s="223"/>
+      <c r="B27" s="224"/>
+      <c r="C27" s="285"/>
+      <c r="D27" s="286" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="304"/>
-      <c r="F27" s="304"/>
-      <c r="G27" s="304"/>
-      <c r="H27" s="305"/>
-      <c r="I27" s="306"/>
-      <c r="J27" s="302"/>
+      <c r="E27" s="287"/>
+      <c r="F27" s="287"/>
+      <c r="G27" s="287"/>
+      <c r="H27" s="288"/>
+      <c r="I27" s="289"/>
+      <c r="J27" s="285"/>
       <c r="K27" s="49"/>
-      <c r="L27" s="307">
+      <c r="L27" s="290">
         <f>L15</f>
         <v>4981</v>
       </c>
-      <c r="M27" s="308"/>
+      <c r="M27" s="291"/>
     </row>
     <row r="28" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="310" t="s">
+      <c r="A28" s="273" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="53"/>
       <c r="C28" s="33"/>
-      <c r="D28" s="312" t="s">
+      <c r="D28" s="248" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="313"/>
-      <c r="F28" s="313"/>
-      <c r="G28" s="313"/>
-      <c r="H28" s="314"/>
-      <c r="I28" s="315" t="s">
+      <c r="E28" s="275"/>
+      <c r="F28" s="275"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="276"/>
+      <c r="I28" s="277" t="s">
         <v>58</v>
       </c>
       <c r="J28" s="54"/>
@@ -3964,17 +3977,17 @@
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="311"/>
-      <c r="B29" s="316" t="s">
+      <c r="A29" s="274"/>
+      <c r="B29" s="278" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="199"/>
-      <c r="D29" s="313"/>
-      <c r="E29" s="313"/>
-      <c r="F29" s="313"/>
-      <c r="G29" s="313"/>
-      <c r="H29" s="314"/>
-      <c r="I29" s="315"/>
+      <c r="C29" s="197"/>
+      <c r="D29" s="275"/>
+      <c r="E29" s="275"/>
+      <c r="F29" s="275"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="276"/>
+      <c r="I29" s="277"/>
       <c r="J29" s="55" t="s">
         <v>60</v>
       </c>
@@ -3984,15 +3997,15 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="56"/>
-      <c r="B30" s="228" t="s">
+      <c r="B30" s="227" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="229"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="228"/>
       <c r="I30" s="32"/>
       <c r="J30" s="33" t="s">
         <v>62</v>
@@ -4002,7 +4015,7 @@
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="317"/>
+      <c r="A31" s="279"/>
       <c r="B31" s="33" t="s">
         <v>63</v>
       </c>
@@ -4021,7 +4034,7 @@
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="317"/>
+      <c r="A32" s="279"/>
       <c r="B32" s="33"/>
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
@@ -4066,18 +4079,18 @@
       <c r="M34" s="27"/>
     </row>
     <row r="35" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="318" t="s">
+      <c r="A35" s="280" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="319"/>
-      <c r="C35" s="309" t="s">
+      <c r="B35" s="260"/>
+      <c r="C35" s="251" t="s">
         <v>66</v>
       </c>
-      <c r="D35" s="309"/>
-      <c r="E35" s="309"/>
-      <c r="F35" s="309"/>
-      <c r="G35" s="309"/>
-      <c r="H35" s="320"/>
+      <c r="D35" s="251"/>
+      <c r="E35" s="251"/>
+      <c r="F35" s="251"/>
+      <c r="G35" s="251"/>
+      <c r="H35" s="268"/>
       <c r="I35" s="33" t="s">
         <v>67</v>
       </c>
@@ -4104,10 +4117,10 @@
       <c r="M36" s="27"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="321" t="s">
+      <c r="A37" s="281" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="322"/>
+      <c r="B37" s="282"/>
       <c r="C37" s="28" t="s">
         <v>33</v>
       </c>
@@ -4142,18 +4155,18 @@
       <c r="M38" s="27"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="318" t="s">
+      <c r="A39" s="280" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="319"/>
-      <c r="C39" s="312" t="s">
+      <c r="B39" s="260"/>
+      <c r="C39" s="248" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="312"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="312"/>
-      <c r="G39" s="312"/>
-      <c r="H39" s="323"/>
+      <c r="D39" s="248"/>
+      <c r="E39" s="248"/>
+      <c r="F39" s="248"/>
+      <c r="G39" s="248"/>
+      <c r="H39" s="249"/>
       <c r="I39" s="33" t="s">
         <v>71</v>
       </c>
@@ -4167,31 +4180,31 @@
     <row r="40" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="59"/>
       <c r="B40" s="60"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
-      <c r="F40" s="309"/>
-      <c r="G40" s="309"/>
+      <c r="C40" s="251"/>
+      <c r="D40" s="251"/>
+      <c r="E40" s="251"/>
+      <c r="F40" s="251"/>
+      <c r="G40" s="251"/>
       <c r="H40" s="62"/>
       <c r="I40" s="33"/>
       <c r="J40" s="33"/>
-      <c r="K40" s="309"/>
-      <c r="L40" s="309"/>
-      <c r="M40" s="320"/>
+      <c r="K40" s="251"/>
+      <c r="L40" s="251"/>
+      <c r="M40" s="268"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="247" t="s">
+      <c r="A41" s="269" t="s">
         <v>73</v>
       </c>
-      <c r="B41" s="248"/>
-      <c r="C41" s="312" t="s">
+      <c r="B41" s="270"/>
+      <c r="C41" s="248" t="s">
         <v>66</v>
       </c>
-      <c r="D41" s="312"/>
-      <c r="E41" s="312"/>
-      <c r="F41" s="312"/>
-      <c r="G41" s="312"/>
-      <c r="H41" s="323"/>
+      <c r="D41" s="248"/>
+      <c r="E41" s="248"/>
+      <c r="F41" s="248"/>
+      <c r="G41" s="248"/>
+      <c r="H41" s="249"/>
       <c r="I41" s="33" t="s">
         <v>74</v>
       </c>
@@ -4236,81 +4249,81 @@
       <c r="A44" s="70" t="s">
         <v>76</v>
       </c>
-      <c r="B44" s="342" t="s">
+      <c r="B44" s="271" t="s">
         <v>77</v>
       </c>
-      <c r="C44" s="343"/>
-      <c r="D44" s="343"/>
-      <c r="E44" s="343"/>
-      <c r="F44" s="343"/>
-      <c r="G44" s="343"/>
-      <c r="H44" s="343"/>
-      <c r="I44" s="343"/>
-      <c r="J44" s="343"/>
-      <c r="K44" s="343"/>
-      <c r="L44" s="343"/>
-      <c r="M44" s="231"/>
+      <c r="C44" s="272"/>
+      <c r="D44" s="272"/>
+      <c r="E44" s="272"/>
+      <c r="F44" s="272"/>
+      <c r="G44" s="272"/>
+      <c r="H44" s="272"/>
+      <c r="I44" s="272"/>
+      <c r="J44" s="272"/>
+      <c r="K44" s="272"/>
+      <c r="L44" s="272"/>
+      <c r="M44" s="230"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="230" t="s">
+      <c r="A45" s="229" t="s">
         <v>78</v>
       </c>
-      <c r="B45" s="343"/>
-      <c r="C45" s="343"/>
-      <c r="D45" s="343"/>
-      <c r="E45" s="343"/>
-      <c r="F45" s="343"/>
-      <c r="G45" s="231"/>
-      <c r="H45" s="230" t="s">
+      <c r="B45" s="272"/>
+      <c r="C45" s="272"/>
+      <c r="D45" s="272"/>
+      <c r="E45" s="272"/>
+      <c r="F45" s="272"/>
+      <c r="G45" s="230"/>
+      <c r="H45" s="229" t="s">
         <v>52</v>
       </c>
-      <c r="I45" s="343"/>
-      <c r="J45" s="343"/>
-      <c r="K45" s="343"/>
-      <c r="L45" s="343"/>
-      <c r="M45" s="231"/>
+      <c r="I45" s="272"/>
+      <c r="J45" s="272"/>
+      <c r="K45" s="272"/>
+      <c r="L45" s="272"/>
+      <c r="M45" s="230"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="331" t="s">
+      <c r="A46" s="253" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="333" t="s">
+      <c r="B46" s="255" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="334"/>
-      <c r="D46" s="334"/>
-      <c r="E46" s="337" t="s">
+      <c r="C46" s="256"/>
+      <c r="D46" s="256"/>
+      <c r="E46" s="259" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="319"/>
-      <c r="G46" s="338"/>
-      <c r="H46" s="331" t="s">
+      <c r="F46" s="260"/>
+      <c r="G46" s="261"/>
+      <c r="H46" s="253" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="339" t="s">
+      <c r="I46" s="265" t="s">
         <v>81</v>
       </c>
-      <c r="J46" s="340"/>
-      <c r="K46" s="341" t="s">
+      <c r="J46" s="266"/>
+      <c r="K46" s="267" t="s">
         <v>82</v>
       </c>
-      <c r="L46" s="324" t="s">
+      <c r="L46" s="243" t="s">
         <v>83</v>
       </c>
-      <c r="M46" s="325"/>
+      <c r="M46" s="244"/>
     </row>
     <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="331"/>
-      <c r="B47" s="333"/>
-      <c r="C47" s="334"/>
-      <c r="D47" s="334"/>
-      <c r="E47" s="337"/>
-      <c r="F47" s="319"/>
-      <c r="G47" s="338"/>
-      <c r="H47" s="331"/>
-      <c r="I47" s="339"/>
-      <c r="J47" s="340"/>
-      <c r="K47" s="341"/>
+      <c r="A47" s="253"/>
+      <c r="B47" s="255"/>
+      <c r="C47" s="256"/>
+      <c r="D47" s="256"/>
+      <c r="E47" s="259"/>
+      <c r="F47" s="260"/>
+      <c r="G47" s="261"/>
+      <c r="H47" s="253"/>
+      <c r="I47" s="265"/>
+      <c r="J47" s="266"/>
+      <c r="K47" s="267"/>
       <c r="L47" s="71" t="s">
         <v>84</v>
       </c>
@@ -4319,20 +4332,20 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="332"/>
-      <c r="B48" s="335"/>
-      <c r="C48" s="336"/>
-      <c r="D48" s="336"/>
-      <c r="E48" s="289"/>
-      <c r="F48" s="278"/>
-      <c r="G48" s="293"/>
+      <c r="A48" s="254"/>
+      <c r="B48" s="257"/>
+      <c r="C48" s="258"/>
+      <c r="D48" s="258"/>
+      <c r="E48" s="262"/>
+      <c r="F48" s="263"/>
+      <c r="G48" s="264"/>
       <c r="H48" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="I48" s="326" t="s">
+      <c r="I48" s="245" t="s">
         <v>87</v>
       </c>
-      <c r="J48" s="327"/>
+      <c r="J48" s="246"/>
       <c r="K48" s="74" t="s">
         <v>88</v>
       </c>
@@ -4378,9 +4391,9 @@
       <c r="B51" s="87"/>
       <c r="C51" s="33"/>
       <c r="D51" s="79"/>
-      <c r="E51" s="328"/>
-      <c r="F51" s="312"/>
-      <c r="G51" s="323"/>
+      <c r="E51" s="247"/>
+      <c r="F51" s="248"/>
+      <c r="G51" s="249"/>
       <c r="H51" s="88"/>
       <c r="I51" s="89"/>
       <c r="J51" s="90"/>
@@ -4451,6 +4464,86 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="96">
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:M9"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="D10:M11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
     <mergeCell ref="L46:M46"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="E51:G51"/>
@@ -4467,86 +4560,6 @@
     <mergeCell ref="B44:M44"/>
     <mergeCell ref="A45:G45"/>
     <mergeCell ref="H45:M45"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="D10:M11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:M7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:M9"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait"/>
@@ -4579,247 +4592,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB1" s="352" t="s">
+      <c r="AB1" s="500" t="s">
         <v>91</v>
       </c>
-      <c r="AC1" s="352"/>
-      <c r="AD1" s="352"/>
-      <c r="AE1" s="352"/>
-      <c r="AF1" s="352"/>
-      <c r="AG1" s="352"/>
+      <c r="AC1" s="500"/>
+      <c r="AD1" s="500"/>
+      <c r="AE1" s="500"/>
+      <c r="AF1" s="500"/>
+      <c r="AG1" s="500"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AB2" s="106"/>
     </row>
     <row r="3" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="353" t="s">
+      <c r="A3" s="501" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="354"/>
-      <c r="C3" s="354"/>
-      <c r="D3" s="354"/>
-      <c r="E3" s="354"/>
-      <c r="F3" s="354"/>
-      <c r="G3" s="354"/>
-      <c r="H3" s="354"/>
-      <c r="I3" s="354"/>
-      <c r="J3" s="354"/>
-      <c r="K3" s="354"/>
-      <c r="L3" s="354"/>
-      <c r="M3" s="354"/>
-      <c r="N3" s="354"/>
-      <c r="O3" s="354"/>
-      <c r="P3" s="354"/>
-      <c r="Q3" s="354"/>
-      <c r="R3" s="354"/>
-      <c r="S3" s="354"/>
-      <c r="T3" s="354"/>
-      <c r="U3" s="354"/>
-      <c r="V3" s="354"/>
-      <c r="W3" s="354"/>
-      <c r="X3" s="354"/>
-      <c r="Y3" s="354"/>
-      <c r="Z3" s="354"/>
-      <c r="AA3" s="355"/>
-      <c r="AB3" s="356" t="s">
+      <c r="B3" s="502"/>
+      <c r="C3" s="502"/>
+      <c r="D3" s="502"/>
+      <c r="E3" s="502"/>
+      <c r="F3" s="502"/>
+      <c r="G3" s="502"/>
+      <c r="H3" s="502"/>
+      <c r="I3" s="502"/>
+      <c r="J3" s="502"/>
+      <c r="K3" s="502"/>
+      <c r="L3" s="502"/>
+      <c r="M3" s="502"/>
+      <c r="N3" s="502"/>
+      <c r="O3" s="502"/>
+      <c r="P3" s="502"/>
+      <c r="Q3" s="502"/>
+      <c r="R3" s="502"/>
+      <c r="S3" s="502"/>
+      <c r="T3" s="502"/>
+      <c r="U3" s="502"/>
+      <c r="V3" s="502"/>
+      <c r="W3" s="502"/>
+      <c r="X3" s="502"/>
+      <c r="Y3" s="502"/>
+      <c r="Z3" s="502"/>
+      <c r="AA3" s="503"/>
+      <c r="AB3" s="504" t="s">
         <v>92</v>
       </c>
-      <c r="AC3" s="357"/>
-      <c r="AD3" s="357"/>
-      <c r="AE3" s="357"/>
-      <c r="AF3" s="357"/>
-      <c r="AG3" s="358"/>
+      <c r="AC3" s="505"/>
+      <c r="AD3" s="505"/>
+      <c r="AE3" s="505"/>
+      <c r="AF3" s="505"/>
+      <c r="AG3" s="506"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="359" t="s">
+      <c r="A4" s="507" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="360"/>
-      <c r="C4" s="360"/>
-      <c r="D4" s="360"/>
-      <c r="E4" s="360"/>
-      <c r="F4" s="360"/>
-      <c r="G4" s="360"/>
-      <c r="H4" s="360"/>
-      <c r="I4" s="360"/>
-      <c r="J4" s="360"/>
-      <c r="K4" s="360"/>
-      <c r="L4" s="360"/>
-      <c r="M4" s="360"/>
-      <c r="N4" s="360"/>
-      <c r="O4" s="360"/>
-      <c r="P4" s="360"/>
-      <c r="Q4" s="360"/>
-      <c r="R4" s="360"/>
-      <c r="S4" s="360"/>
-      <c r="T4" s="360"/>
-      <c r="U4" s="360"/>
-      <c r="V4" s="360"/>
-      <c r="W4" s="360"/>
-      <c r="X4" s="360"/>
-      <c r="Y4" s="360"/>
-      <c r="Z4" s="360"/>
-      <c r="AA4" s="361"/>
-      <c r="AB4" s="362"/>
-      <c r="AC4" s="363"/>
-      <c r="AD4" s="363"/>
-      <c r="AE4" s="363"/>
-      <c r="AF4" s="363"/>
-      <c r="AG4" s="364"/>
+      <c r="B4" s="508"/>
+      <c r="C4" s="508"/>
+      <c r="D4" s="508"/>
+      <c r="E4" s="508"/>
+      <c r="F4" s="508"/>
+      <c r="G4" s="508"/>
+      <c r="H4" s="508"/>
+      <c r="I4" s="508"/>
+      <c r="J4" s="508"/>
+      <c r="K4" s="508"/>
+      <c r="L4" s="508"/>
+      <c r="M4" s="508"/>
+      <c r="N4" s="508"/>
+      <c r="O4" s="508"/>
+      <c r="P4" s="508"/>
+      <c r="Q4" s="508"/>
+      <c r="R4" s="508"/>
+      <c r="S4" s="508"/>
+      <c r="T4" s="508"/>
+      <c r="U4" s="508"/>
+      <c r="V4" s="508"/>
+      <c r="W4" s="508"/>
+      <c r="X4" s="508"/>
+      <c r="Y4" s="508"/>
+      <c r="Z4" s="508"/>
+      <c r="AA4" s="509"/>
+      <c r="AB4" s="510"/>
+      <c r="AC4" s="511"/>
+      <c r="AD4" s="511"/>
+      <c r="AE4" s="511"/>
+      <c r="AF4" s="511"/>
+      <c r="AG4" s="512"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="379" t="s">
+      <c r="A5" s="466" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="380"/>
-      <c r="C5" s="380"/>
-      <c r="D5" s="380"/>
-      <c r="E5" s="380"/>
-      <c r="F5" s="380"/>
-      <c r="G5" s="380"/>
-      <c r="H5" s="380"/>
-      <c r="I5" s="380"/>
-      <c r="J5" s="380"/>
-      <c r="K5" s="380"/>
-      <c r="L5" s="380"/>
-      <c r="M5" s="380"/>
-      <c r="N5" s="380"/>
-      <c r="O5" s="380"/>
-      <c r="P5" s="380"/>
-      <c r="Q5" s="380"/>
-      <c r="R5" s="380"/>
-      <c r="S5" s="380"/>
-      <c r="T5" s="380"/>
-      <c r="U5" s="380"/>
-      <c r="V5" s="380"/>
-      <c r="W5" s="380"/>
-      <c r="X5" s="380"/>
-      <c r="Y5" s="380"/>
-      <c r="Z5" s="380"/>
-      <c r="AA5" s="381"/>
-      <c r="AB5" s="344" t="s">
+      <c r="B5" s="467"/>
+      <c r="C5" s="467"/>
+      <c r="D5" s="467"/>
+      <c r="E5" s="467"/>
+      <c r="F5" s="467"/>
+      <c r="G5" s="467"/>
+      <c r="H5" s="467"/>
+      <c r="I5" s="467"/>
+      <c r="J5" s="467"/>
+      <c r="K5" s="467"/>
+      <c r="L5" s="467"/>
+      <c r="M5" s="467"/>
+      <c r="N5" s="467"/>
+      <c r="O5" s="467"/>
+      <c r="P5" s="467"/>
+      <c r="Q5" s="467"/>
+      <c r="R5" s="467"/>
+      <c r="S5" s="467"/>
+      <c r="T5" s="467"/>
+      <c r="U5" s="467"/>
+      <c r="V5" s="467"/>
+      <c r="W5" s="467"/>
+      <c r="X5" s="467"/>
+      <c r="Y5" s="467"/>
+      <c r="Z5" s="467"/>
+      <c r="AA5" s="468"/>
+      <c r="AB5" s="492" t="s">
         <v>94</v>
       </c>
-      <c r="AC5" s="345"/>
-      <c r="AD5" s="345"/>
-      <c r="AE5" s="345"/>
-      <c r="AF5" s="345"/>
-      <c r="AG5" s="346"/>
+      <c r="AC5" s="493"/>
+      <c r="AD5" s="493"/>
+      <c r="AE5" s="493"/>
+      <c r="AF5" s="493"/>
+      <c r="AG5" s="494"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="379"/>
-      <c r="B6" s="380"/>
-      <c r="C6" s="380"/>
-      <c r="D6" s="380"/>
-      <c r="E6" s="380"/>
-      <c r="F6" s="380"/>
-      <c r="G6" s="380"/>
-      <c r="H6" s="380"/>
-      <c r="I6" s="380"/>
-      <c r="J6" s="380"/>
-      <c r="K6" s="380"/>
-      <c r="L6" s="380"/>
-      <c r="M6" s="380"/>
-      <c r="N6" s="380"/>
-      <c r="O6" s="380"/>
-      <c r="P6" s="380"/>
-      <c r="Q6" s="380"/>
-      <c r="R6" s="380"/>
-      <c r="S6" s="380"/>
-      <c r="T6" s="380"/>
-      <c r="U6" s="380"/>
-      <c r="V6" s="380"/>
-      <c r="W6" s="380"/>
-      <c r="X6" s="380"/>
-      <c r="Y6" s="380"/>
-      <c r="Z6" s="380"/>
-      <c r="AA6" s="381"/>
-      <c r="AB6" s="347" t="s">
+      <c r="A6" s="466"/>
+      <c r="B6" s="467"/>
+      <c r="C6" s="467"/>
+      <c r="D6" s="467"/>
+      <c r="E6" s="467"/>
+      <c r="F6" s="467"/>
+      <c r="G6" s="467"/>
+      <c r="H6" s="467"/>
+      <c r="I6" s="467"/>
+      <c r="J6" s="467"/>
+      <c r="K6" s="467"/>
+      <c r="L6" s="467"/>
+      <c r="M6" s="467"/>
+      <c r="N6" s="467"/>
+      <c r="O6" s="467"/>
+      <c r="P6" s="467"/>
+      <c r="Q6" s="467"/>
+      <c r="R6" s="467"/>
+      <c r="S6" s="467"/>
+      <c r="T6" s="467"/>
+      <c r="U6" s="467"/>
+      <c r="V6" s="467"/>
+      <c r="W6" s="467"/>
+      <c r="X6" s="467"/>
+      <c r="Y6" s="467"/>
+      <c r="Z6" s="467"/>
+      <c r="AA6" s="468"/>
+      <c r="AB6" s="495" t="s">
         <v>95</v>
       </c>
-      <c r="AC6" s="348"/>
-      <c r="AD6" s="348"/>
-      <c r="AE6" s="348"/>
-      <c r="AF6" s="348"/>
-      <c r="AG6" s="349"/>
+      <c r="AC6" s="496"/>
+      <c r="AD6" s="496"/>
+      <c r="AE6" s="496"/>
+      <c r="AF6" s="496"/>
+      <c r="AG6" s="497"/>
     </row>
     <row r="7" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="382"/>
-      <c r="B7" s="383"/>
-      <c r="C7" s="383"/>
-      <c r="D7" s="383"/>
-      <c r="E7" s="383"/>
-      <c r="F7" s="383"/>
-      <c r="G7" s="383"/>
-      <c r="H7" s="383"/>
-      <c r="I7" s="383"/>
-      <c r="J7" s="383"/>
-      <c r="K7" s="383"/>
-      <c r="L7" s="383"/>
-      <c r="M7" s="383"/>
-      <c r="N7" s="383"/>
-      <c r="O7" s="383"/>
-      <c r="P7" s="383"/>
-      <c r="Q7" s="383"/>
-      <c r="R7" s="383"/>
-      <c r="S7" s="383"/>
-      <c r="T7" s="383"/>
-      <c r="U7" s="383"/>
-      <c r="V7" s="383"/>
-      <c r="W7" s="383"/>
-      <c r="X7" s="383"/>
-      <c r="Y7" s="383"/>
-      <c r="Z7" s="383"/>
-      <c r="AA7" s="384"/>
-      <c r="AB7" s="350"/>
-      <c r="AC7" s="350"/>
-      <c r="AD7" s="350"/>
-      <c r="AE7" s="350"/>
-      <c r="AF7" s="350"/>
-      <c r="AG7" s="351"/>
+      <c r="A7" s="469"/>
+      <c r="B7" s="470"/>
+      <c r="C7" s="470"/>
+      <c r="D7" s="470"/>
+      <c r="E7" s="470"/>
+      <c r="F7" s="470"/>
+      <c r="G7" s="470"/>
+      <c r="H7" s="470"/>
+      <c r="I7" s="470"/>
+      <c r="J7" s="470"/>
+      <c r="K7" s="470"/>
+      <c r="L7" s="470"/>
+      <c r="M7" s="470"/>
+      <c r="N7" s="470"/>
+      <c r="O7" s="470"/>
+      <c r="P7" s="470"/>
+      <c r="Q7" s="470"/>
+      <c r="R7" s="470"/>
+      <c r="S7" s="470"/>
+      <c r="T7" s="470"/>
+      <c r="U7" s="470"/>
+      <c r="V7" s="470"/>
+      <c r="W7" s="470"/>
+      <c r="X7" s="470"/>
+      <c r="Y7" s="470"/>
+      <c r="Z7" s="470"/>
+      <c r="AA7" s="471"/>
+      <c r="AB7" s="498"/>
+      <c r="AC7" s="498"/>
+      <c r="AD7" s="498"/>
+      <c r="AE7" s="498"/>
+      <c r="AF7" s="498"/>
+      <c r="AG7" s="499"/>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="385" t="s">
+      <c r="A8" s="472" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="386"/>
-      <c r="C8" s="387"/>
+      <c r="B8" s="473"/>
+      <c r="C8" s="474"/>
       <c r="D8" s="107"/>
-      <c r="E8" s="394"/>
-      <c r="F8" s="395"/>
-      <c r="G8" s="395"/>
-      <c r="H8" s="395"/>
-      <c r="I8" s="395"/>
-      <c r="J8" s="395"/>
-      <c r="K8" s="395"/>
-      <c r="L8" s="395"/>
-      <c r="M8" s="395"/>
-      <c r="N8" s="395"/>
-      <c r="O8" s="395"/>
-      <c r="P8" s="395"/>
-      <c r="Q8" s="395"/>
-      <c r="R8" s="395"/>
-      <c r="S8" s="395"/>
-      <c r="T8" s="395"/>
-      <c r="U8" s="395"/>
-      <c r="V8" s="395"/>
-      <c r="W8" s="395"/>
-      <c r="X8" s="395"/>
-      <c r="Y8" s="395"/>
-      <c r="Z8" s="395"/>
-      <c r="AA8" s="395"/>
-      <c r="AB8" s="395"/>
-      <c r="AC8" s="395"/>
-      <c r="AD8" s="395"/>
-      <c r="AE8" s="395"/>
-      <c r="AF8" s="395"/>
-      <c r="AG8" s="396"/>
+      <c r="E8" s="481"/>
+      <c r="F8" s="373"/>
+      <c r="G8" s="373"/>
+      <c r="H8" s="373"/>
+      <c r="I8" s="373"/>
+      <c r="J8" s="373"/>
+      <c r="K8" s="373"/>
+      <c r="L8" s="373"/>
+      <c r="M8" s="373"/>
+      <c r="N8" s="373"/>
+      <c r="O8" s="373"/>
+      <c r="P8" s="373"/>
+      <c r="Q8" s="373"/>
+      <c r="R8" s="373"/>
+      <c r="S8" s="373"/>
+      <c r="T8" s="373"/>
+      <c r="U8" s="373"/>
+      <c r="V8" s="373"/>
+      <c r="W8" s="373"/>
+      <c r="X8" s="373"/>
+      <c r="Y8" s="373"/>
+      <c r="Z8" s="373"/>
+      <c r="AA8" s="373"/>
+      <c r="AB8" s="373"/>
+      <c r="AC8" s="373"/>
+      <c r="AD8" s="373"/>
+      <c r="AE8" s="373"/>
+      <c r="AF8" s="373"/>
+      <c r="AG8" s="374"/>
       <c r="AH8" s="9"/>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="388"/>
-      <c r="B9" s="389"/>
-      <c r="C9" s="390"/>
+      <c r="A9" s="475"/>
+      <c r="B9" s="476"/>
+      <c r="C9" s="477"/>
       <c r="D9" s="109"/>
       <c r="E9" s="110"/>
       <c r="F9" s="111"/>
@@ -4861,26 +4874,26 @@
       <c r="AH9" s="9"/>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="391"/>
-      <c r="B10" s="392"/>
-      <c r="C10" s="393"/>
+      <c r="A10" s="478"/>
+      <c r="B10" s="479"/>
+      <c r="C10" s="480"/>
       <c r="D10" s="100"/>
       <c r="E10" s="114"/>
       <c r="F10" s="115"/>
       <c r="G10" s="115"/>
       <c r="H10" s="115"/>
       <c r="I10" s="100"/>
-      <c r="J10" s="397"/>
-      <c r="K10" s="397"/>
-      <c r="L10" s="397"/>
-      <c r="M10" s="397"/>
+      <c r="J10" s="368"/>
+      <c r="K10" s="368"/>
+      <c r="L10" s="368"/>
+      <c r="M10" s="368"/>
       <c r="N10" s="115"/>
-      <c r="O10" s="397"/>
-      <c r="P10" s="397"/>
-      <c r="Q10" s="397"/>
-      <c r="R10" s="397"/>
-      <c r="S10" s="398"/>
-      <c r="T10" s="398"/>
+      <c r="O10" s="368"/>
+      <c r="P10" s="368"/>
+      <c r="Q10" s="368"/>
+      <c r="R10" s="368"/>
+      <c r="S10" s="366"/>
+      <c r="T10" s="366"/>
       <c r="U10" s="111"/>
       <c r="V10" s="111"/>
       <c r="W10" s="111"/>
@@ -4897,110 +4910,110 @@
       <c r="AH10" s="9"/>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="385" t="s">
+      <c r="A11" s="472" t="s">
         <v>101</v>
       </c>
-      <c r="B11" s="386"/>
-      <c r="C11" s="387"/>
+      <c r="B11" s="473"/>
+      <c r="C11" s="474"/>
       <c r="D11" s="118"/>
-      <c r="E11" s="399" t="str">
+      <c r="E11" s="482" t="str">
         <f>ORS!D6</f>
         <v>MAYBELLINE M. MONTEIRO</v>
       </c>
-      <c r="F11" s="386"/>
-      <c r="G11" s="386"/>
-      <c r="H11" s="386"/>
-      <c r="I11" s="386"/>
-      <c r="J11" s="386"/>
-      <c r="K11" s="386"/>
-      <c r="L11" s="386"/>
-      <c r="M11" s="386"/>
-      <c r="N11" s="386"/>
-      <c r="O11" s="386"/>
-      <c r="P11" s="386"/>
-      <c r="Q11" s="386"/>
-      <c r="R11" s="386"/>
-      <c r="S11" s="401" t="s">
+      <c r="F11" s="473"/>
+      <c r="G11" s="473"/>
+      <c r="H11" s="473"/>
+      <c r="I11" s="473"/>
+      <c r="J11" s="473"/>
+      <c r="K11" s="473"/>
+      <c r="L11" s="473"/>
+      <c r="M11" s="473"/>
+      <c r="N11" s="473"/>
+      <c r="O11" s="473"/>
+      <c r="P11" s="473"/>
+      <c r="Q11" s="473"/>
+      <c r="R11" s="473"/>
+      <c r="S11" s="484" t="s">
         <v>102</v>
       </c>
-      <c r="T11" s="402"/>
-      <c r="U11" s="402"/>
-      <c r="V11" s="402"/>
-      <c r="W11" s="402"/>
-      <c r="X11" s="402"/>
-      <c r="Y11" s="402"/>
-      <c r="Z11" s="402"/>
-      <c r="AA11" s="403"/>
-      <c r="AB11" s="404" t="s">
+      <c r="T11" s="485"/>
+      <c r="U11" s="485"/>
+      <c r="V11" s="485"/>
+      <c r="W11" s="485"/>
+      <c r="X11" s="485"/>
+      <c r="Y11" s="485"/>
+      <c r="Z11" s="485"/>
+      <c r="AA11" s="486"/>
+      <c r="AB11" s="487" t="s">
         <v>103</v>
       </c>
-      <c r="AC11" s="404"/>
-      <c r="AD11" s="404"/>
-      <c r="AE11" s="404"/>
-      <c r="AF11" s="404"/>
-      <c r="AG11" s="405"/>
+      <c r="AC11" s="487"/>
+      <c r="AD11" s="487"/>
+      <c r="AE11" s="487"/>
+      <c r="AF11" s="487"/>
+      <c r="AG11" s="488"/>
       <c r="AH11" s="17"/>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="388"/>
-      <c r="B12" s="389"/>
-      <c r="C12" s="390"/>
+      <c r="A12" s="475"/>
+      <c r="B12" s="476"/>
+      <c r="C12" s="477"/>
       <c r="D12" s="109"/>
-      <c r="E12" s="400"/>
-      <c r="F12" s="389"/>
-      <c r="G12" s="389"/>
-      <c r="H12" s="389"/>
-      <c r="I12" s="389"/>
-      <c r="J12" s="389"/>
-      <c r="K12" s="389"/>
-      <c r="L12" s="389"/>
-      <c r="M12" s="389"/>
-      <c r="N12" s="389"/>
-      <c r="O12" s="389"/>
-      <c r="P12" s="389"/>
-      <c r="Q12" s="389"/>
-      <c r="R12" s="389"/>
-      <c r="S12" s="406"/>
-      <c r="T12" s="407"/>
-      <c r="U12" s="407"/>
-      <c r="V12" s="407"/>
-      <c r="W12" s="407"/>
-      <c r="X12" s="407"/>
-      <c r="Y12" s="407"/>
-      <c r="Z12" s="407"/>
-      <c r="AA12" s="408"/>
-      <c r="AB12" s="398"/>
-      <c r="AC12" s="398"/>
-      <c r="AD12" s="398"/>
-      <c r="AE12" s="398"/>
-      <c r="AF12" s="398"/>
-      <c r="AG12" s="409"/>
+      <c r="E12" s="483"/>
+      <c r="F12" s="476"/>
+      <c r="G12" s="476"/>
+      <c r="H12" s="476"/>
+      <c r="I12" s="476"/>
+      <c r="J12" s="476"/>
+      <c r="K12" s="476"/>
+      <c r="L12" s="476"/>
+      <c r="M12" s="476"/>
+      <c r="N12" s="476"/>
+      <c r="O12" s="476"/>
+      <c r="P12" s="476"/>
+      <c r="Q12" s="476"/>
+      <c r="R12" s="476"/>
+      <c r="S12" s="489"/>
+      <c r="T12" s="490"/>
+      <c r="U12" s="490"/>
+      <c r="V12" s="490"/>
+      <c r="W12" s="490"/>
+      <c r="X12" s="490"/>
+      <c r="Y12" s="490"/>
+      <c r="Z12" s="490"/>
+      <c r="AA12" s="491"/>
+      <c r="AB12" s="366"/>
+      <c r="AC12" s="366"/>
+      <c r="AD12" s="366"/>
+      <c r="AE12" s="366"/>
+      <c r="AF12" s="366"/>
+      <c r="AG12" s="367"/>
       <c r="AH12" s="9"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="365" t="s">
+      <c r="A13" s="454" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="366"/>
-      <c r="C13" s="367"/>
+      <c r="B13" s="455"/>
+      <c r="C13" s="456"/>
       <c r="D13" s="109"/>
-      <c r="E13" s="371" t="e">
+      <c r="E13" s="460" t="e">
         <f>ORS!D10</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="366"/>
-      <c r="G13" s="366"/>
-      <c r="H13" s="366"/>
-      <c r="I13" s="366"/>
-      <c r="J13" s="366"/>
-      <c r="K13" s="366"/>
-      <c r="L13" s="366"/>
-      <c r="M13" s="366"/>
-      <c r="N13" s="366"/>
-      <c r="O13" s="366"/>
-      <c r="P13" s="366"/>
-      <c r="Q13" s="366"/>
-      <c r="R13" s="366"/>
+      <c r="F13" s="455"/>
+      <c r="G13" s="455"/>
+      <c r="H13" s="455"/>
+      <c r="I13" s="455"/>
+      <c r="J13" s="455"/>
+      <c r="K13" s="455"/>
+      <c r="L13" s="455"/>
+      <c r="M13" s="455"/>
+      <c r="N13" s="455"/>
+      <c r="O13" s="455"/>
+      <c r="P13" s="455"/>
+      <c r="Q13" s="455"/>
+      <c r="R13" s="455"/>
       <c r="S13" s="108"/>
       <c r="T13" s="108"/>
       <c r="U13" s="108"/>
@@ -5019,24 +5032,24 @@
       <c r="AH13" s="9"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="368"/>
-      <c r="B14" s="369"/>
-      <c r="C14" s="370"/>
+      <c r="A14" s="457"/>
+      <c r="B14" s="458"/>
+      <c r="C14" s="459"/>
       <c r="D14" s="100"/>
-      <c r="E14" s="372"/>
-      <c r="F14" s="369"/>
-      <c r="G14" s="369"/>
-      <c r="H14" s="369"/>
-      <c r="I14" s="369"/>
-      <c r="J14" s="369"/>
-      <c r="K14" s="369"/>
-      <c r="L14" s="369"/>
-      <c r="M14" s="369"/>
-      <c r="N14" s="369"/>
-      <c r="O14" s="369"/>
-      <c r="P14" s="369"/>
-      <c r="Q14" s="369"/>
-      <c r="R14" s="369"/>
+      <c r="E14" s="461"/>
+      <c r="F14" s="458"/>
+      <c r="G14" s="458"/>
+      <c r="H14" s="458"/>
+      <c r="I14" s="458"/>
+      <c r="J14" s="458"/>
+      <c r="K14" s="458"/>
+      <c r="L14" s="458"/>
+      <c r="M14" s="458"/>
+      <c r="N14" s="458"/>
+      <c r="O14" s="458"/>
+      <c r="P14" s="458"/>
+      <c r="Q14" s="458"/>
+      <c r="R14" s="458"/>
       <c r="S14" s="115"/>
       <c r="T14" s="115"/>
       <c r="U14" s="115"/>
@@ -5055,47 +5068,47 @@
       <c r="AH14" s="25"/>
     </row>
     <row r="15" spans="1:34" s="122" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="373" t="s">
+      <c r="A15" s="462" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="374"/>
-      <c r="C15" s="374"/>
-      <c r="D15" s="374"/>
-      <c r="E15" s="374"/>
-      <c r="F15" s="374"/>
-      <c r="G15" s="374"/>
-      <c r="H15" s="374"/>
-      <c r="I15" s="374"/>
-      <c r="J15" s="374"/>
-      <c r="K15" s="374"/>
-      <c r="L15" s="374"/>
-      <c r="M15" s="374"/>
-      <c r="N15" s="374"/>
-      <c r="O15" s="374"/>
-      <c r="P15" s="374"/>
-      <c r="Q15" s="375"/>
-      <c r="R15" s="376" t="s">
+      <c r="B15" s="422"/>
+      <c r="C15" s="422"/>
+      <c r="D15" s="422"/>
+      <c r="E15" s="422"/>
+      <c r="F15" s="422"/>
+      <c r="G15" s="422"/>
+      <c r="H15" s="422"/>
+      <c r="I15" s="422"/>
+      <c r="J15" s="422"/>
+      <c r="K15" s="422"/>
+      <c r="L15" s="422"/>
+      <c r="M15" s="422"/>
+      <c r="N15" s="422"/>
+      <c r="O15" s="422"/>
+      <c r="P15" s="422"/>
+      <c r="Q15" s="463"/>
+      <c r="R15" s="421" t="s">
         <v>48</v>
       </c>
-      <c r="S15" s="377"/>
-      <c r="T15" s="377"/>
-      <c r="U15" s="377"/>
-      <c r="V15" s="378"/>
-      <c r="W15" s="376" t="s">
+      <c r="S15" s="464"/>
+      <c r="T15" s="464"/>
+      <c r="U15" s="464"/>
+      <c r="V15" s="465"/>
+      <c r="W15" s="421" t="s">
         <v>50</v>
       </c>
-      <c r="X15" s="374"/>
-      <c r="Y15" s="374"/>
-      <c r="Z15" s="374"/>
-      <c r="AA15" s="375"/>
-      <c r="AB15" s="376" t="s">
+      <c r="X15" s="422"/>
+      <c r="Y15" s="422"/>
+      <c r="Z15" s="422"/>
+      <c r="AA15" s="463"/>
+      <c r="AB15" s="421" t="s">
         <v>52</v>
       </c>
-      <c r="AC15" s="374"/>
-      <c r="AD15" s="374"/>
-      <c r="AE15" s="374"/>
-      <c r="AF15" s="374"/>
-      <c r="AG15" s="429"/>
+      <c r="AC15" s="422"/>
+      <c r="AD15" s="422"/>
+      <c r="AE15" s="422"/>
+      <c r="AF15" s="422"/>
+      <c r="AG15" s="423"/>
       <c r="AH15" s="121"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5136,23 +5149,23 @@
     </row>
     <row r="17" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="130"/>
-      <c r="B17" s="309" t="s">
+      <c r="B17" s="251" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="309"/>
-      <c r="D17" s="309"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="309"/>
-      <c r="G17" s="309"/>
-      <c r="H17" s="309"/>
-      <c r="I17" s="309"/>
-      <c r="J17" s="309"/>
-      <c r="K17" s="309"/>
-      <c r="L17" s="309"/>
-      <c r="M17" s="309"/>
-      <c r="N17" s="309"/>
-      <c r="O17" s="309"/>
-      <c r="P17" s="309"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="251"/>
+      <c r="G17" s="251"/>
+      <c r="H17" s="251"/>
+      <c r="I17" s="251"/>
+      <c r="J17" s="251"/>
+      <c r="K17" s="251"/>
+      <c r="L17" s="251"/>
+      <c r="M17" s="251"/>
+      <c r="N17" s="251"/>
+      <c r="O17" s="251"/>
+      <c r="P17" s="251"/>
       <c r="Q17" s="131"/>
       <c r="R17" s="132"/>
       <c r="S17" s="133"/>
@@ -5164,34 +5177,34 @@
       <c r="Y17" s="133"/>
       <c r="Z17" s="133"/>
       <c r="AA17" s="131"/>
-      <c r="AB17" s="415">
+      <c r="AB17" s="440">
         <f>ORS!L15</f>
         <v>4981</v>
       </c>
-      <c r="AC17" s="416"/>
-      <c r="AD17" s="416"/>
-      <c r="AE17" s="416"/>
-      <c r="AF17" s="416"/>
-      <c r="AG17" s="417"/>
+      <c r="AC17" s="441"/>
+      <c r="AD17" s="441"/>
+      <c r="AE17" s="441"/>
+      <c r="AF17" s="441"/>
+      <c r="AG17" s="442"/>
       <c r="AH17" s="9"/>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="130"/>
-      <c r="B18" s="309"/>
-      <c r="C18" s="309"/>
-      <c r="D18" s="309"/>
-      <c r="E18" s="309"/>
-      <c r="F18" s="309"/>
-      <c r="G18" s="309"/>
-      <c r="H18" s="309"/>
-      <c r="I18" s="309"/>
-      <c r="J18" s="309"/>
-      <c r="K18" s="309"/>
-      <c r="L18" s="309"/>
-      <c r="M18" s="309"/>
-      <c r="N18" s="309"/>
-      <c r="O18" s="309"/>
-      <c r="P18" s="309"/>
+      <c r="B18" s="251"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="251"/>
+      <c r="E18" s="251"/>
+      <c r="F18" s="251"/>
+      <c r="G18" s="251"/>
+      <c r="H18" s="251"/>
+      <c r="I18" s="251"/>
+      <c r="J18" s="251"/>
+      <c r="K18" s="251"/>
+      <c r="L18" s="251"/>
+      <c r="M18" s="251"/>
+      <c r="N18" s="251"/>
+      <c r="O18" s="251"/>
+      <c r="P18" s="251"/>
       <c r="Q18" s="131"/>
       <c r="R18" s="132"/>
       <c r="S18" s="133"/>
@@ -5213,21 +5226,21 @@
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="130"/>
-      <c r="B19" s="309"/>
-      <c r="C19" s="309"/>
-      <c r="D19" s="309"/>
-      <c r="E19" s="309"/>
-      <c r="F19" s="309"/>
-      <c r="G19" s="309"/>
-      <c r="H19" s="309"/>
-      <c r="I19" s="309"/>
-      <c r="J19" s="309"/>
-      <c r="K19" s="309"/>
-      <c r="L19" s="309"/>
-      <c r="M19" s="309"/>
-      <c r="N19" s="309"/>
-      <c r="O19" s="309"/>
-      <c r="P19" s="309"/>
+      <c r="B19" s="251"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="251"/>
+      <c r="E19" s="251"/>
+      <c r="F19" s="251"/>
+      <c r="G19" s="251"/>
+      <c r="H19" s="251"/>
+      <c r="I19" s="251"/>
+      <c r="J19" s="251"/>
+      <c r="K19" s="251"/>
+      <c r="L19" s="251"/>
+      <c r="M19" s="251"/>
+      <c r="N19" s="251"/>
+      <c r="O19" s="251"/>
+      <c r="P19" s="251"/>
       <c r="Q19" s="131"/>
       <c r="R19" s="132"/>
       <c r="S19" s="133"/>
@@ -5586,25 +5599,25 @@
       <c r="AH28" s="9"/>
     </row>
     <row r="29" spans="1:35" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="418" t="s">
+      <c r="A29" s="443" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="419"/>
-      <c r="C29" s="419"/>
-      <c r="D29" s="419"/>
-      <c r="E29" s="419"/>
-      <c r="F29" s="419"/>
-      <c r="G29" s="419"/>
-      <c r="H29" s="419"/>
-      <c r="I29" s="419"/>
-      <c r="J29" s="419"/>
-      <c r="K29" s="419"/>
-      <c r="L29" s="419"/>
-      <c r="M29" s="419"/>
-      <c r="N29" s="419"/>
-      <c r="O29" s="419"/>
-      <c r="P29" s="419"/>
-      <c r="Q29" s="420"/>
+      <c r="B29" s="444"/>
+      <c r="C29" s="444"/>
+      <c r="D29" s="444"/>
+      <c r="E29" s="444"/>
+      <c r="F29" s="444"/>
+      <c r="G29" s="444"/>
+      <c r="H29" s="444"/>
+      <c r="I29" s="444"/>
+      <c r="J29" s="444"/>
+      <c r="K29" s="444"/>
+      <c r="L29" s="444"/>
+      <c r="M29" s="444"/>
+      <c r="N29" s="444"/>
+      <c r="O29" s="444"/>
+      <c r="P29" s="444"/>
+      <c r="Q29" s="445"/>
       <c r="R29" s="136"/>
       <c r="S29" s="137"/>
       <c r="T29" s="137"/>
@@ -5615,15 +5628,15 @@
       <c r="Y29" s="137"/>
       <c r="Z29" s="137"/>
       <c r="AA29" s="131"/>
-      <c r="AB29" s="421">
+      <c r="AB29" s="446">
         <f>AB17</f>
         <v>4981</v>
       </c>
-      <c r="AC29" s="422"/>
-      <c r="AD29" s="422"/>
-      <c r="AE29" s="422"/>
-      <c r="AF29" s="422"/>
-      <c r="AG29" s="423"/>
+      <c r="AC29" s="447"/>
+      <c r="AD29" s="447"/>
+      <c r="AE29" s="447"/>
+      <c r="AF29" s="447"/>
+      <c r="AG29" s="448"/>
       <c r="AH29" s="9"/>
       <c r="AI29" s="5"/>
     </row>
@@ -5631,40 +5644,40 @@
       <c r="A30" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="424" t="s">
+      <c r="B30" s="449" t="s">
         <v>113</v>
       </c>
-      <c r="C30" s="424"/>
-      <c r="D30" s="424"/>
-      <c r="E30" s="424"/>
-      <c r="F30" s="424"/>
-      <c r="G30" s="424"/>
-      <c r="H30" s="424"/>
-      <c r="I30" s="424"/>
-      <c r="J30" s="424"/>
-      <c r="K30" s="424"/>
-      <c r="L30" s="424"/>
-      <c r="M30" s="424"/>
-      <c r="N30" s="424"/>
-      <c r="O30" s="424"/>
-      <c r="P30" s="424"/>
-      <c r="Q30" s="424"/>
-      <c r="R30" s="424"/>
-      <c r="S30" s="424"/>
-      <c r="T30" s="424"/>
-      <c r="U30" s="424"/>
-      <c r="V30" s="424"/>
-      <c r="W30" s="424"/>
-      <c r="X30" s="424"/>
-      <c r="Y30" s="424"/>
-      <c r="Z30" s="424"/>
-      <c r="AA30" s="424"/>
-      <c r="AB30" s="425"/>
-      <c r="AC30" s="425"/>
-      <c r="AD30" s="425"/>
-      <c r="AE30" s="425"/>
-      <c r="AF30" s="425"/>
-      <c r="AG30" s="426"/>
+      <c r="C30" s="449"/>
+      <c r="D30" s="449"/>
+      <c r="E30" s="449"/>
+      <c r="F30" s="449"/>
+      <c r="G30" s="449"/>
+      <c r="H30" s="449"/>
+      <c r="I30" s="449"/>
+      <c r="J30" s="449"/>
+      <c r="K30" s="449"/>
+      <c r="L30" s="449"/>
+      <c r="M30" s="449"/>
+      <c r="N30" s="449"/>
+      <c r="O30" s="449"/>
+      <c r="P30" s="449"/>
+      <c r="Q30" s="449"/>
+      <c r="R30" s="449"/>
+      <c r="S30" s="449"/>
+      <c r="T30" s="449"/>
+      <c r="U30" s="449"/>
+      <c r="V30" s="449"/>
+      <c r="W30" s="449"/>
+      <c r="X30" s="449"/>
+      <c r="Y30" s="449"/>
+      <c r="Z30" s="449"/>
+      <c r="AA30" s="449"/>
+      <c r="AB30" s="450"/>
+      <c r="AC30" s="450"/>
+      <c r="AD30" s="450"/>
+      <c r="AE30" s="450"/>
+      <c r="AF30" s="450"/>
+      <c r="AG30" s="451"/>
       <c r="AH30" s="9"/>
       <c r="AI30" s="5"/>
     </row>
@@ -5709,80 +5722,80 @@
     </row>
     <row r="32" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="140"/>
-      <c r="B32" s="427" t="str">
+      <c r="B32" s="452" t="str">
         <f>ORS!C37</f>
         <v>DR. CARINA S. CRUZ</v>
       </c>
-      <c r="C32" s="416"/>
-      <c r="D32" s="416"/>
-      <c r="E32" s="416"/>
-      <c r="F32" s="416"/>
-      <c r="G32" s="416"/>
-      <c r="H32" s="416"/>
-      <c r="I32" s="416"/>
-      <c r="J32" s="416"/>
-      <c r="K32" s="416"/>
-      <c r="L32" s="416"/>
-      <c r="M32" s="416"/>
-      <c r="N32" s="416"/>
-      <c r="O32" s="416"/>
-      <c r="P32" s="416"/>
-      <c r="Q32" s="416"/>
-      <c r="R32" s="416"/>
-      <c r="S32" s="416"/>
-      <c r="T32" s="416"/>
-      <c r="U32" s="416"/>
-      <c r="V32" s="416"/>
-      <c r="W32" s="416"/>
-      <c r="X32" s="416"/>
-      <c r="Y32" s="416"/>
-      <c r="Z32" s="416"/>
-      <c r="AA32" s="416"/>
-      <c r="AB32" s="416"/>
-      <c r="AC32" s="416"/>
-      <c r="AD32" s="416"/>
-      <c r="AE32" s="416"/>
-      <c r="AF32" s="416"/>
+      <c r="C32" s="441"/>
+      <c r="D32" s="441"/>
+      <c r="E32" s="441"/>
+      <c r="F32" s="441"/>
+      <c r="G32" s="441"/>
+      <c r="H32" s="441"/>
+      <c r="I32" s="441"/>
+      <c r="J32" s="441"/>
+      <c r="K32" s="441"/>
+      <c r="L32" s="441"/>
+      <c r="M32" s="441"/>
+      <c r="N32" s="441"/>
+      <c r="O32" s="441"/>
+      <c r="P32" s="441"/>
+      <c r="Q32" s="441"/>
+      <c r="R32" s="441"/>
+      <c r="S32" s="441"/>
+      <c r="T32" s="441"/>
+      <c r="U32" s="441"/>
+      <c r="V32" s="441"/>
+      <c r="W32" s="441"/>
+      <c r="X32" s="441"/>
+      <c r="Y32" s="441"/>
+      <c r="Z32" s="441"/>
+      <c r="AA32" s="441"/>
+      <c r="AB32" s="441"/>
+      <c r="AC32" s="441"/>
+      <c r="AD32" s="441"/>
+      <c r="AE32" s="441"/>
+      <c r="AF32" s="441"/>
       <c r="AG32" s="144"/>
       <c r="AH32" s="9"/>
       <c r="AI32" s="5"/>
     </row>
     <row r="33" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="140"/>
-      <c r="B33" s="428" t="str">
+      <c r="B33" s="453" t="str">
         <f>ORS!C39</f>
         <v>Chief, FAD</v>
       </c>
-      <c r="C33" s="428"/>
-      <c r="D33" s="428"/>
-      <c r="E33" s="428"/>
-      <c r="F33" s="428"/>
-      <c r="G33" s="428"/>
-      <c r="H33" s="428"/>
-      <c r="I33" s="428"/>
-      <c r="J33" s="428"/>
-      <c r="K33" s="428"/>
-      <c r="L33" s="428"/>
-      <c r="M33" s="428"/>
-      <c r="N33" s="428"/>
-      <c r="O33" s="428"/>
-      <c r="P33" s="428"/>
-      <c r="Q33" s="428"/>
-      <c r="R33" s="428"/>
-      <c r="S33" s="428"/>
-      <c r="T33" s="428"/>
-      <c r="U33" s="428"/>
-      <c r="V33" s="428"/>
-      <c r="W33" s="428"/>
-      <c r="X33" s="428"/>
-      <c r="Y33" s="428"/>
-      <c r="Z33" s="428"/>
-      <c r="AA33" s="428"/>
-      <c r="AB33" s="428"/>
-      <c r="AC33" s="428"/>
-      <c r="AD33" s="428"/>
-      <c r="AE33" s="428"/>
-      <c r="AF33" s="428"/>
+      <c r="C33" s="453"/>
+      <c r="D33" s="453"/>
+      <c r="E33" s="453"/>
+      <c r="F33" s="453"/>
+      <c r="G33" s="453"/>
+      <c r="H33" s="453"/>
+      <c r="I33" s="453"/>
+      <c r="J33" s="453"/>
+      <c r="K33" s="453"/>
+      <c r="L33" s="453"/>
+      <c r="M33" s="453"/>
+      <c r="N33" s="453"/>
+      <c r="O33" s="453"/>
+      <c r="P33" s="453"/>
+      <c r="Q33" s="453"/>
+      <c r="R33" s="453"/>
+      <c r="S33" s="453"/>
+      <c r="T33" s="453"/>
+      <c r="U33" s="453"/>
+      <c r="V33" s="453"/>
+      <c r="W33" s="453"/>
+      <c r="X33" s="453"/>
+      <c r="Y33" s="453"/>
+      <c r="Z33" s="453"/>
+      <c r="AA33" s="453"/>
+      <c r="AB33" s="453"/>
+      <c r="AC33" s="453"/>
+      <c r="AD33" s="453"/>
+      <c r="AE33" s="453"/>
+      <c r="AF33" s="453"/>
       <c r="AG33" s="144"/>
       <c r="AH33" s="9"/>
       <c r="AI33" s="5"/>
@@ -5799,19 +5812,19 @@
       <c r="I34" s="113"/>
       <c r="J34" s="113"/>
       <c r="K34" s="113"/>
-      <c r="L34" s="428"/>
-      <c r="M34" s="428"/>
-      <c r="N34" s="428"/>
-      <c r="O34" s="428"/>
-      <c r="P34" s="428"/>
-      <c r="Q34" s="428"/>
-      <c r="R34" s="428"/>
-      <c r="S34" s="428"/>
-      <c r="T34" s="428"/>
-      <c r="U34" s="428"/>
-      <c r="V34" s="428"/>
-      <c r="W34" s="428"/>
-      <c r="X34" s="428"/>
+      <c r="L34" s="453"/>
+      <c r="M34" s="453"/>
+      <c r="N34" s="453"/>
+      <c r="O34" s="453"/>
+      <c r="P34" s="453"/>
+      <c r="Q34" s="453"/>
+      <c r="R34" s="453"/>
+      <c r="S34" s="453"/>
+      <c r="T34" s="453"/>
+      <c r="U34" s="453"/>
+      <c r="V34" s="453"/>
+      <c r="W34" s="453"/>
+      <c r="X34" s="453"/>
       <c r="Y34" s="111"/>
       <c r="Z34" s="141"/>
       <c r="AA34" s="141"/>
@@ -5836,19 +5849,19 @@
       <c r="I35" s="109"/>
       <c r="J35" s="109"/>
       <c r="K35" s="109"/>
-      <c r="L35" s="428"/>
-      <c r="M35" s="428"/>
-      <c r="N35" s="428"/>
-      <c r="O35" s="428"/>
-      <c r="P35" s="428"/>
-      <c r="Q35" s="428"/>
-      <c r="R35" s="428"/>
-      <c r="S35" s="428"/>
-      <c r="T35" s="428"/>
-      <c r="U35" s="428"/>
-      <c r="V35" s="428"/>
-      <c r="W35" s="428"/>
-      <c r="X35" s="428"/>
+      <c r="L35" s="453"/>
+      <c r="M35" s="453"/>
+      <c r="N35" s="453"/>
+      <c r="O35" s="453"/>
+      <c r="P35" s="453"/>
+      <c r="Q35" s="453"/>
+      <c r="R35" s="453"/>
+      <c r="S35" s="453"/>
+      <c r="T35" s="453"/>
+      <c r="U35" s="453"/>
+      <c r="V35" s="453"/>
+      <c r="W35" s="453"/>
+      <c r="X35" s="453"/>
       <c r="Y35" s="113"/>
       <c r="Z35" s="113"/>
       <c r="AA35" s="113"/>
@@ -5903,47 +5916,47 @@
       <c r="AI36" s="5"/>
     </row>
     <row r="37" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="410" t="s">
+      <c r="A37" s="435" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="411"/>
-      <c r="C37" s="411"/>
-      <c r="D37" s="411"/>
-      <c r="E37" s="411"/>
-      <c r="F37" s="411"/>
-      <c r="G37" s="411"/>
-      <c r="H37" s="411"/>
-      <c r="I37" s="411"/>
-      <c r="J37" s="411"/>
-      <c r="K37" s="411"/>
-      <c r="L37" s="411"/>
-      <c r="M37" s="411"/>
-      <c r="N37" s="411"/>
-      <c r="O37" s="411"/>
-      <c r="P37" s="411"/>
-      <c r="Q37" s="411"/>
-      <c r="R37" s="411"/>
-      <c r="S37" s="411" t="s">
+      <c r="B37" s="436"/>
+      <c r="C37" s="436"/>
+      <c r="D37" s="436"/>
+      <c r="E37" s="436"/>
+      <c r="F37" s="436"/>
+      <c r="G37" s="436"/>
+      <c r="H37" s="436"/>
+      <c r="I37" s="436"/>
+      <c r="J37" s="436"/>
+      <c r="K37" s="436"/>
+      <c r="L37" s="436"/>
+      <c r="M37" s="436"/>
+      <c r="N37" s="436"/>
+      <c r="O37" s="436"/>
+      <c r="P37" s="436"/>
+      <c r="Q37" s="436"/>
+      <c r="R37" s="436"/>
+      <c r="S37" s="436" t="s">
         <v>117</v>
       </c>
-      <c r="T37" s="411"/>
-      <c r="U37" s="411"/>
-      <c r="V37" s="411"/>
-      <c r="W37" s="411"/>
-      <c r="X37" s="412" t="s">
+      <c r="T37" s="436"/>
+      <c r="U37" s="436"/>
+      <c r="V37" s="436"/>
+      <c r="W37" s="436"/>
+      <c r="X37" s="437" t="s">
         <v>118</v>
       </c>
-      <c r="Y37" s="412"/>
-      <c r="Z37" s="412"/>
-      <c r="AA37" s="412"/>
-      <c r="AB37" s="412"/>
-      <c r="AC37" s="413" t="s">
+      <c r="Y37" s="437"/>
+      <c r="Z37" s="437"/>
+      <c r="AA37" s="437"/>
+      <c r="AB37" s="437"/>
+      <c r="AC37" s="438" t="s">
         <v>119</v>
       </c>
-      <c r="AD37" s="413"/>
-      <c r="AE37" s="413"/>
-      <c r="AF37" s="413"/>
-      <c r="AG37" s="414"/>
+      <c r="AD37" s="438"/>
+      <c r="AE37" s="438"/>
+      <c r="AF37" s="438"/>
+      <c r="AG37" s="439"/>
       <c r="AH37" s="9"/>
       <c r="AI37" s="5"/>
     </row>
@@ -6084,19 +6097,19 @@
       <c r="S41" s="161" t="s">
         <v>121</v>
       </c>
-      <c r="T41" s="430" t="s">
+      <c r="T41" s="424" t="s">
         <v>122</v>
       </c>
-      <c r="U41" s="430"/>
-      <c r="V41" s="430"/>
-      <c r="W41" s="430"/>
-      <c r="X41" s="430"/>
-      <c r="Y41" s="430"/>
-      <c r="Z41" s="430"/>
-      <c r="AA41" s="430"/>
-      <c r="AB41" s="430"/>
-      <c r="AC41" s="430"/>
-      <c r="AD41" s="430"/>
+      <c r="U41" s="424"/>
+      <c r="V41" s="424"/>
+      <c r="W41" s="424"/>
+      <c r="X41" s="424"/>
+      <c r="Y41" s="424"/>
+      <c r="Z41" s="424"/>
+      <c r="AA41" s="424"/>
+      <c r="AB41" s="424"/>
+      <c r="AC41" s="424"/>
+      <c r="AD41" s="424"/>
       <c r="AE41" s="166"/>
       <c r="AF41" s="166"/>
       <c r="AG41" s="167"/>
@@ -6123,31 +6136,31 @@
       <c r="P42" s="113"/>
       <c r="Q42" s="113"/>
       <c r="R42" s="146"/>
-      <c r="S42" s="431"/>
-      <c r="T42" s="432"/>
-      <c r="U42" s="432"/>
-      <c r="V42" s="432"/>
-      <c r="W42" s="432"/>
-      <c r="X42" s="432"/>
-      <c r="Y42" s="432"/>
-      <c r="Z42" s="432"/>
-      <c r="AA42" s="432"/>
-      <c r="AB42" s="432"/>
-      <c r="AC42" s="432"/>
-      <c r="AD42" s="432"/>
-      <c r="AE42" s="432"/>
-      <c r="AF42" s="432"/>
-      <c r="AG42" s="433"/>
+      <c r="S42" s="425"/>
+      <c r="T42" s="426"/>
+      <c r="U42" s="426"/>
+      <c r="V42" s="426"/>
+      <c r="W42" s="426"/>
+      <c r="X42" s="426"/>
+      <c r="Y42" s="426"/>
+      <c r="Z42" s="426"/>
+      <c r="AA42" s="426"/>
+      <c r="AB42" s="426"/>
+      <c r="AC42" s="426"/>
+      <c r="AD42" s="426"/>
+      <c r="AE42" s="426"/>
+      <c r="AF42" s="426"/>
+      <c r="AG42" s="427"/>
       <c r="AH42" s="9"/>
     </row>
     <row r="43" spans="1:35" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="440"/>
-      <c r="B43" s="398"/>
-      <c r="C43" s="398"/>
-      <c r="D43" s="398"/>
-      <c r="E43" s="398"/>
-      <c r="F43" s="398"/>
-      <c r="G43" s="398"/>
+      <c r="A43" s="434"/>
+      <c r="B43" s="366"/>
+      <c r="C43" s="366"/>
+      <c r="D43" s="366"/>
+      <c r="E43" s="366"/>
+      <c r="F43" s="366"/>
+      <c r="G43" s="366"/>
       <c r="H43" s="113"/>
       <c r="I43" s="113"/>
       <c r="J43" s="113"/>
@@ -6159,21 +6172,21 @@
       <c r="P43" s="113"/>
       <c r="Q43" s="113"/>
       <c r="R43" s="146"/>
-      <c r="S43" s="434"/>
-      <c r="T43" s="435"/>
-      <c r="U43" s="435"/>
-      <c r="V43" s="435"/>
-      <c r="W43" s="435"/>
-      <c r="X43" s="435"/>
-      <c r="Y43" s="435"/>
-      <c r="Z43" s="435"/>
-      <c r="AA43" s="435"/>
-      <c r="AB43" s="435"/>
-      <c r="AC43" s="435"/>
-      <c r="AD43" s="435"/>
-      <c r="AE43" s="435"/>
-      <c r="AF43" s="435"/>
-      <c r="AG43" s="436"/>
+      <c r="S43" s="428"/>
+      <c r="T43" s="429"/>
+      <c r="U43" s="429"/>
+      <c r="V43" s="429"/>
+      <c r="W43" s="429"/>
+      <c r="X43" s="429"/>
+      <c r="Y43" s="429"/>
+      <c r="Z43" s="429"/>
+      <c r="AA43" s="429"/>
+      <c r="AB43" s="429"/>
+      <c r="AC43" s="429"/>
+      <c r="AD43" s="429"/>
+      <c r="AE43" s="429"/>
+      <c r="AF43" s="429"/>
+      <c r="AG43" s="430"/>
       <c r="AH43" s="9"/>
     </row>
     <row r="44" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6197,57 +6210,57 @@
       <c r="P44" s="109"/>
       <c r="Q44" s="109"/>
       <c r="R44" s="169"/>
-      <c r="S44" s="434"/>
-      <c r="T44" s="435"/>
-      <c r="U44" s="435"/>
-      <c r="V44" s="435"/>
-      <c r="W44" s="435"/>
-      <c r="X44" s="435"/>
-      <c r="Y44" s="435"/>
-      <c r="Z44" s="435"/>
-      <c r="AA44" s="435"/>
-      <c r="AB44" s="435"/>
-      <c r="AC44" s="435"/>
-      <c r="AD44" s="435"/>
-      <c r="AE44" s="435"/>
-      <c r="AF44" s="435"/>
-      <c r="AG44" s="436"/>
+      <c r="S44" s="428"/>
+      <c r="T44" s="429"/>
+      <c r="U44" s="429"/>
+      <c r="V44" s="429"/>
+      <c r="W44" s="429"/>
+      <c r="X44" s="429"/>
+      <c r="Y44" s="429"/>
+      <c r="Z44" s="429"/>
+      <c r="AA44" s="429"/>
+      <c r="AB44" s="429"/>
+      <c r="AC44" s="429"/>
+      <c r="AD44" s="429"/>
+      <c r="AE44" s="429"/>
+      <c r="AF44" s="429"/>
+      <c r="AG44" s="430"/>
       <c r="AH44" s="9"/>
     </row>
     <row r="45" spans="1:35" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="440"/>
-      <c r="B45" s="398"/>
-      <c r="C45" s="398"/>
-      <c r="D45" s="398"/>
-      <c r="E45" s="398"/>
-      <c r="F45" s="398"/>
-      <c r="G45" s="398"/>
-      <c r="H45" s="398"/>
-      <c r="I45" s="398"/>
-      <c r="J45" s="398"/>
-      <c r="K45" s="398"/>
-      <c r="L45" s="398"/>
-      <c r="M45" s="398"/>
-      <c r="N45" s="398"/>
-      <c r="O45" s="398"/>
-      <c r="P45" s="398"/>
-      <c r="Q45" s="398"/>
-      <c r="R45" s="409"/>
-      <c r="S45" s="434"/>
-      <c r="T45" s="435"/>
-      <c r="U45" s="435"/>
-      <c r="V45" s="435"/>
-      <c r="W45" s="435"/>
-      <c r="X45" s="435"/>
-      <c r="Y45" s="435"/>
-      <c r="Z45" s="435"/>
-      <c r="AA45" s="435"/>
-      <c r="AB45" s="435"/>
-      <c r="AC45" s="435"/>
-      <c r="AD45" s="435"/>
-      <c r="AE45" s="435"/>
-      <c r="AF45" s="435"/>
-      <c r="AG45" s="436"/>
+      <c r="A45" s="434"/>
+      <c r="B45" s="366"/>
+      <c r="C45" s="366"/>
+      <c r="D45" s="366"/>
+      <c r="E45" s="366"/>
+      <c r="F45" s="366"/>
+      <c r="G45" s="366"/>
+      <c r="H45" s="366"/>
+      <c r="I45" s="366"/>
+      <c r="J45" s="366"/>
+      <c r="K45" s="366"/>
+      <c r="L45" s="366"/>
+      <c r="M45" s="366"/>
+      <c r="N45" s="366"/>
+      <c r="O45" s="366"/>
+      <c r="P45" s="366"/>
+      <c r="Q45" s="366"/>
+      <c r="R45" s="367"/>
+      <c r="S45" s="428"/>
+      <c r="T45" s="429"/>
+      <c r="U45" s="429"/>
+      <c r="V45" s="429"/>
+      <c r="W45" s="429"/>
+      <c r="X45" s="429"/>
+      <c r="Y45" s="429"/>
+      <c r="Z45" s="429"/>
+      <c r="AA45" s="429"/>
+      <c r="AB45" s="429"/>
+      <c r="AC45" s="429"/>
+      <c r="AD45" s="429"/>
+      <c r="AE45" s="429"/>
+      <c r="AF45" s="429"/>
+      <c r="AG45" s="430"/>
       <c r="AH45" s="9"/>
     </row>
     <row r="46" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6273,21 +6286,21 @@
       <c r="P46" s="171"/>
       <c r="Q46" s="171"/>
       <c r="R46" s="172"/>
-      <c r="S46" s="434"/>
-      <c r="T46" s="435"/>
-      <c r="U46" s="435"/>
-      <c r="V46" s="435"/>
-      <c r="W46" s="435"/>
-      <c r="X46" s="435"/>
-      <c r="Y46" s="435"/>
-      <c r="Z46" s="435"/>
-      <c r="AA46" s="435"/>
-      <c r="AB46" s="435"/>
-      <c r="AC46" s="435"/>
-      <c r="AD46" s="435"/>
-      <c r="AE46" s="435"/>
-      <c r="AF46" s="435"/>
-      <c r="AG46" s="436"/>
+      <c r="S46" s="428"/>
+      <c r="T46" s="429"/>
+      <c r="U46" s="429"/>
+      <c r="V46" s="429"/>
+      <c r="W46" s="429"/>
+      <c r="X46" s="429"/>
+      <c r="Y46" s="429"/>
+      <c r="Z46" s="429"/>
+      <c r="AA46" s="429"/>
+      <c r="AB46" s="429"/>
+      <c r="AC46" s="429"/>
+      <c r="AD46" s="429"/>
+      <c r="AE46" s="429"/>
+      <c r="AF46" s="429"/>
+      <c r="AG46" s="430"/>
       <c r="AH46" s="9"/>
     </row>
     <row r="47" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6311,21 +6324,21 @@
       <c r="P47" s="171"/>
       <c r="Q47" s="171"/>
       <c r="R47" s="172"/>
-      <c r="S47" s="434"/>
-      <c r="T47" s="435"/>
-      <c r="U47" s="435"/>
-      <c r="V47" s="435"/>
-      <c r="W47" s="435"/>
-      <c r="X47" s="435"/>
-      <c r="Y47" s="435"/>
-      <c r="Z47" s="435"/>
-      <c r="AA47" s="435"/>
-      <c r="AB47" s="435"/>
-      <c r="AC47" s="435"/>
-      <c r="AD47" s="435"/>
-      <c r="AE47" s="435"/>
-      <c r="AF47" s="435"/>
-      <c r="AG47" s="436"/>
+      <c r="S47" s="428"/>
+      <c r="T47" s="429"/>
+      <c r="U47" s="429"/>
+      <c r="V47" s="429"/>
+      <c r="W47" s="429"/>
+      <c r="X47" s="429"/>
+      <c r="Y47" s="429"/>
+      <c r="Z47" s="429"/>
+      <c r="AA47" s="429"/>
+      <c r="AB47" s="429"/>
+      <c r="AC47" s="429"/>
+      <c r="AD47" s="429"/>
+      <c r="AE47" s="429"/>
+      <c r="AF47" s="429"/>
+      <c r="AG47" s="430"/>
       <c r="AH47" s="9"/>
     </row>
     <row r="48" spans="1:35" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6347,336 +6360,336 @@
       <c r="P48" s="176"/>
       <c r="Q48" s="176"/>
       <c r="R48" s="177"/>
-      <c r="S48" s="437"/>
-      <c r="T48" s="438"/>
-      <c r="U48" s="438"/>
-      <c r="V48" s="438"/>
-      <c r="W48" s="438"/>
-      <c r="X48" s="438"/>
-      <c r="Y48" s="438"/>
-      <c r="Z48" s="438"/>
-      <c r="AA48" s="438"/>
-      <c r="AB48" s="438"/>
-      <c r="AC48" s="438"/>
-      <c r="AD48" s="438"/>
-      <c r="AE48" s="438"/>
-      <c r="AF48" s="438"/>
-      <c r="AG48" s="439"/>
+      <c r="S48" s="431"/>
+      <c r="T48" s="432"/>
+      <c r="U48" s="432"/>
+      <c r="V48" s="432"/>
+      <c r="W48" s="432"/>
+      <c r="X48" s="432"/>
+      <c r="Y48" s="432"/>
+      <c r="Z48" s="432"/>
+      <c r="AA48" s="432"/>
+      <c r="AB48" s="432"/>
+      <c r="AC48" s="432"/>
+      <c r="AD48" s="432"/>
+      <c r="AE48" s="432"/>
+      <c r="AF48" s="432"/>
+      <c r="AG48" s="433"/>
       <c r="AH48" s="9"/>
     </row>
     <row r="49" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="441" t="s">
+      <c r="A49" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="442"/>
-      <c r="C49" s="442"/>
-      <c r="D49" s="442"/>
-      <c r="E49" s="445"/>
-      <c r="F49" s="398"/>
-      <c r="G49" s="398"/>
-      <c r="H49" s="398"/>
-      <c r="I49" s="398"/>
-      <c r="J49" s="398"/>
-      <c r="K49" s="398"/>
-      <c r="L49" s="398"/>
-      <c r="M49" s="398"/>
-      <c r="N49" s="398"/>
-      <c r="O49" s="398"/>
-      <c r="P49" s="398"/>
-      <c r="Q49" s="398"/>
-      <c r="R49" s="409"/>
-      <c r="S49" s="441" t="s">
+      <c r="B49" s="401"/>
+      <c r="C49" s="401"/>
+      <c r="D49" s="401"/>
+      <c r="E49" s="379"/>
+      <c r="F49" s="366"/>
+      <c r="G49" s="366"/>
+      <c r="H49" s="366"/>
+      <c r="I49" s="366"/>
+      <c r="J49" s="366"/>
+      <c r="K49" s="366"/>
+      <c r="L49" s="366"/>
+      <c r="M49" s="366"/>
+      <c r="N49" s="366"/>
+      <c r="O49" s="366"/>
+      <c r="P49" s="366"/>
+      <c r="Q49" s="366"/>
+      <c r="R49" s="367"/>
+      <c r="S49" s="375" t="s">
         <v>127</v>
       </c>
-      <c r="T49" s="449"/>
-      <c r="U49" s="449"/>
-      <c r="V49" s="450"/>
-      <c r="W49" s="454"/>
-      <c r="X49" s="455"/>
-      <c r="Y49" s="455"/>
-      <c r="Z49" s="455"/>
-      <c r="AA49" s="455"/>
-      <c r="AB49" s="455"/>
-      <c r="AC49" s="455"/>
-      <c r="AD49" s="455"/>
-      <c r="AE49" s="455"/>
-      <c r="AF49" s="455"/>
-      <c r="AG49" s="456"/>
+      <c r="T49" s="376"/>
+      <c r="U49" s="376"/>
+      <c r="V49" s="405"/>
+      <c r="W49" s="388"/>
+      <c r="X49" s="385"/>
+      <c r="Y49" s="385"/>
+      <c r="Z49" s="385"/>
+      <c r="AA49" s="385"/>
+      <c r="AB49" s="385"/>
+      <c r="AC49" s="385"/>
+      <c r="AD49" s="385"/>
+      <c r="AE49" s="385"/>
+      <c r="AF49" s="385"/>
+      <c r="AG49" s="389"/>
       <c r="AH49" s="9"/>
     </row>
     <row r="50" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="443"/>
-      <c r="B50" s="444"/>
-      <c r="C50" s="444"/>
-      <c r="D50" s="444"/>
-      <c r="E50" s="446"/>
-      <c r="F50" s="447"/>
-      <c r="G50" s="447"/>
-      <c r="H50" s="447"/>
-      <c r="I50" s="447"/>
-      <c r="J50" s="447"/>
-      <c r="K50" s="447"/>
-      <c r="L50" s="447"/>
-      <c r="M50" s="447"/>
-      <c r="N50" s="447"/>
-      <c r="O50" s="447"/>
-      <c r="P50" s="447"/>
-      <c r="Q50" s="447"/>
-      <c r="R50" s="448"/>
-      <c r="S50" s="451"/>
-      <c r="T50" s="452"/>
-      <c r="U50" s="452"/>
-      <c r="V50" s="453"/>
-      <c r="W50" s="457"/>
-      <c r="X50" s="452"/>
-      <c r="Y50" s="452"/>
-      <c r="Z50" s="452"/>
-      <c r="AA50" s="452"/>
-      <c r="AB50" s="452"/>
-      <c r="AC50" s="452"/>
-      <c r="AD50" s="452"/>
-      <c r="AE50" s="452"/>
-      <c r="AF50" s="452"/>
-      <c r="AG50" s="458"/>
+      <c r="A50" s="402"/>
+      <c r="B50" s="403"/>
+      <c r="C50" s="403"/>
+      <c r="D50" s="403"/>
+      <c r="E50" s="358"/>
+      <c r="F50" s="355"/>
+      <c r="G50" s="355"/>
+      <c r="H50" s="355"/>
+      <c r="I50" s="355"/>
+      <c r="J50" s="355"/>
+      <c r="K50" s="355"/>
+      <c r="L50" s="355"/>
+      <c r="M50" s="355"/>
+      <c r="N50" s="355"/>
+      <c r="O50" s="355"/>
+      <c r="P50" s="355"/>
+      <c r="Q50" s="355"/>
+      <c r="R50" s="404"/>
+      <c r="S50" s="377"/>
+      <c r="T50" s="378"/>
+      <c r="U50" s="378"/>
+      <c r="V50" s="387"/>
+      <c r="W50" s="390"/>
+      <c r="X50" s="378"/>
+      <c r="Y50" s="378"/>
+      <c r="Z50" s="378"/>
+      <c r="AA50" s="378"/>
+      <c r="AB50" s="378"/>
+      <c r="AC50" s="378"/>
+      <c r="AD50" s="378"/>
+      <c r="AE50" s="378"/>
+      <c r="AF50" s="378"/>
+      <c r="AG50" s="391"/>
       <c r="AH50" s="9"/>
     </row>
     <row r="51" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="459" t="s">
+      <c r="A51" s="351" t="s">
         <v>128</v>
       </c>
-      <c r="B51" s="460"/>
-      <c r="C51" s="460"/>
-      <c r="D51" s="461"/>
-      <c r="E51" s="463" t="s">
+      <c r="B51" s="406"/>
+      <c r="C51" s="406"/>
+      <c r="D51" s="407"/>
+      <c r="E51" s="409" t="s">
         <v>129</v>
       </c>
-      <c r="F51" s="464"/>
-      <c r="G51" s="464"/>
-      <c r="H51" s="464"/>
-      <c r="I51" s="464"/>
-      <c r="J51" s="464"/>
-      <c r="K51" s="464"/>
-      <c r="L51" s="464"/>
-      <c r="M51" s="464"/>
-      <c r="N51" s="464"/>
-      <c r="O51" s="464"/>
-      <c r="P51" s="464"/>
-      <c r="Q51" s="464"/>
-      <c r="R51" s="465"/>
-      <c r="S51" s="459" t="s">
+      <c r="F51" s="410"/>
+      <c r="G51" s="410"/>
+      <c r="H51" s="410"/>
+      <c r="I51" s="410"/>
+      <c r="J51" s="410"/>
+      <c r="K51" s="410"/>
+      <c r="L51" s="410"/>
+      <c r="M51" s="410"/>
+      <c r="N51" s="410"/>
+      <c r="O51" s="410"/>
+      <c r="P51" s="410"/>
+      <c r="Q51" s="410"/>
+      <c r="R51" s="411"/>
+      <c r="S51" s="351" t="s">
         <v>128</v>
       </c>
-      <c r="T51" s="455"/>
-      <c r="U51" s="455"/>
-      <c r="V51" s="469"/>
-      <c r="W51" s="470" t="s">
+      <c r="T51" s="385"/>
+      <c r="U51" s="385"/>
+      <c r="V51" s="386"/>
+      <c r="W51" s="415" t="s">
         <v>34</v>
       </c>
-      <c r="X51" s="471"/>
-      <c r="Y51" s="471"/>
-      <c r="Z51" s="471"/>
-      <c r="AA51" s="471"/>
-      <c r="AB51" s="471"/>
-      <c r="AC51" s="471"/>
-      <c r="AD51" s="471"/>
-      <c r="AE51" s="471"/>
-      <c r="AF51" s="471"/>
-      <c r="AG51" s="472"/>
+      <c r="X51" s="416"/>
+      <c r="Y51" s="416"/>
+      <c r="Z51" s="416"/>
+      <c r="AA51" s="416"/>
+      <c r="AB51" s="416"/>
+      <c r="AC51" s="416"/>
+      <c r="AD51" s="416"/>
+      <c r="AE51" s="416"/>
+      <c r="AF51" s="416"/>
+      <c r="AG51" s="417"/>
       <c r="AH51" s="9"/>
     </row>
     <row r="52" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="443"/>
-      <c r="B52" s="444"/>
-      <c r="C52" s="444"/>
-      <c r="D52" s="462"/>
-      <c r="E52" s="466"/>
-      <c r="F52" s="467"/>
-      <c r="G52" s="467"/>
-      <c r="H52" s="467"/>
-      <c r="I52" s="467"/>
-      <c r="J52" s="467"/>
-      <c r="K52" s="467"/>
-      <c r="L52" s="467"/>
-      <c r="M52" s="467"/>
-      <c r="N52" s="467"/>
-      <c r="O52" s="467"/>
-      <c r="P52" s="467"/>
-      <c r="Q52" s="467"/>
-      <c r="R52" s="468"/>
-      <c r="S52" s="451"/>
-      <c r="T52" s="452"/>
-      <c r="U52" s="452"/>
-      <c r="V52" s="453"/>
-      <c r="W52" s="473"/>
-      <c r="X52" s="474"/>
-      <c r="Y52" s="474"/>
-      <c r="Z52" s="474"/>
-      <c r="AA52" s="474"/>
-      <c r="AB52" s="474"/>
-      <c r="AC52" s="474"/>
-      <c r="AD52" s="474"/>
-      <c r="AE52" s="474"/>
-      <c r="AF52" s="474"/>
-      <c r="AG52" s="475"/>
+      <c r="A52" s="402"/>
+      <c r="B52" s="403"/>
+      <c r="C52" s="403"/>
+      <c r="D52" s="408"/>
+      <c r="E52" s="412"/>
+      <c r="F52" s="413"/>
+      <c r="G52" s="413"/>
+      <c r="H52" s="413"/>
+      <c r="I52" s="413"/>
+      <c r="J52" s="413"/>
+      <c r="K52" s="413"/>
+      <c r="L52" s="413"/>
+      <c r="M52" s="413"/>
+      <c r="N52" s="413"/>
+      <c r="O52" s="413"/>
+      <c r="P52" s="413"/>
+      <c r="Q52" s="413"/>
+      <c r="R52" s="414"/>
+      <c r="S52" s="377"/>
+      <c r="T52" s="378"/>
+      <c r="U52" s="378"/>
+      <c r="V52" s="387"/>
+      <c r="W52" s="418"/>
+      <c r="X52" s="419"/>
+      <c r="Y52" s="419"/>
+      <c r="Z52" s="419"/>
+      <c r="AA52" s="419"/>
+      <c r="AB52" s="419"/>
+      <c r="AC52" s="419"/>
+      <c r="AD52" s="419"/>
+      <c r="AE52" s="419"/>
+      <c r="AF52" s="419"/>
+      <c r="AG52" s="420"/>
       <c r="AH52" s="9"/>
     </row>
     <row r="53" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="459" t="s">
+      <c r="A53" s="351" t="s">
         <v>130</v>
       </c>
-      <c r="B53" s="455"/>
-      <c r="C53" s="455"/>
-      <c r="D53" s="469"/>
-      <c r="E53" s="454" t="s">
+      <c r="B53" s="385"/>
+      <c r="C53" s="385"/>
+      <c r="D53" s="386"/>
+      <c r="E53" s="388" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="455"/>
-      <c r="G53" s="455"/>
-      <c r="H53" s="455"/>
-      <c r="I53" s="455"/>
-      <c r="J53" s="455"/>
-      <c r="K53" s="455"/>
-      <c r="L53" s="455"/>
-      <c r="M53" s="455"/>
-      <c r="N53" s="455"/>
-      <c r="O53" s="455"/>
-      <c r="P53" s="455"/>
-      <c r="Q53" s="455"/>
-      <c r="R53" s="456"/>
-      <c r="S53" s="459" t="s">
+      <c r="F53" s="385"/>
+      <c r="G53" s="385"/>
+      <c r="H53" s="385"/>
+      <c r="I53" s="385"/>
+      <c r="J53" s="385"/>
+      <c r="K53" s="385"/>
+      <c r="L53" s="385"/>
+      <c r="M53" s="385"/>
+      <c r="N53" s="385"/>
+      <c r="O53" s="385"/>
+      <c r="P53" s="385"/>
+      <c r="Q53" s="385"/>
+      <c r="R53" s="389"/>
+      <c r="S53" s="351" t="s">
         <v>130</v>
       </c>
-      <c r="T53" s="455"/>
-      <c r="U53" s="455"/>
-      <c r="V53" s="469"/>
-      <c r="W53" s="454" t="s">
+      <c r="T53" s="385"/>
+      <c r="U53" s="385"/>
+      <c r="V53" s="386"/>
+      <c r="W53" s="388" t="s">
         <v>132</v>
       </c>
-      <c r="X53" s="455"/>
-      <c r="Y53" s="455"/>
-      <c r="Z53" s="455"/>
-      <c r="AA53" s="455"/>
-      <c r="AB53" s="455"/>
-      <c r="AC53" s="455"/>
-      <c r="AD53" s="455"/>
-      <c r="AE53" s="455"/>
-      <c r="AF53" s="455"/>
-      <c r="AG53" s="456"/>
+      <c r="X53" s="385"/>
+      <c r="Y53" s="385"/>
+      <c r="Z53" s="385"/>
+      <c r="AA53" s="385"/>
+      <c r="AB53" s="385"/>
+      <c r="AC53" s="385"/>
+      <c r="AD53" s="385"/>
+      <c r="AE53" s="385"/>
+      <c r="AF53" s="385"/>
+      <c r="AG53" s="389"/>
       <c r="AH53" s="180"/>
       <c r="AI53" s="15"/>
       <c r="AJ53" s="15"/>
       <c r="AK53" s="15"/>
     </row>
     <row r="54" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="451"/>
-      <c r="B54" s="452"/>
-      <c r="C54" s="452"/>
-      <c r="D54" s="453"/>
-      <c r="E54" s="457"/>
-      <c r="F54" s="452"/>
-      <c r="G54" s="452"/>
-      <c r="H54" s="452"/>
-      <c r="I54" s="452"/>
-      <c r="J54" s="452"/>
-      <c r="K54" s="452"/>
-      <c r="L54" s="452"/>
-      <c r="M54" s="452"/>
-      <c r="N54" s="452"/>
-      <c r="O54" s="452"/>
-      <c r="P54" s="452"/>
-      <c r="Q54" s="452"/>
-      <c r="R54" s="458"/>
-      <c r="S54" s="451"/>
-      <c r="T54" s="452"/>
-      <c r="U54" s="452"/>
-      <c r="V54" s="453"/>
-      <c r="W54" s="457"/>
-      <c r="X54" s="452"/>
-      <c r="Y54" s="452"/>
-      <c r="Z54" s="452"/>
-      <c r="AA54" s="452"/>
-      <c r="AB54" s="452"/>
-      <c r="AC54" s="452"/>
-      <c r="AD54" s="452"/>
-      <c r="AE54" s="452"/>
-      <c r="AF54" s="452"/>
-      <c r="AG54" s="458"/>
+      <c r="A54" s="377"/>
+      <c r="B54" s="378"/>
+      <c r="C54" s="378"/>
+      <c r="D54" s="387"/>
+      <c r="E54" s="390"/>
+      <c r="F54" s="378"/>
+      <c r="G54" s="378"/>
+      <c r="H54" s="378"/>
+      <c r="I54" s="378"/>
+      <c r="J54" s="378"/>
+      <c r="K54" s="378"/>
+      <c r="L54" s="378"/>
+      <c r="M54" s="378"/>
+      <c r="N54" s="378"/>
+      <c r="O54" s="378"/>
+      <c r="P54" s="378"/>
+      <c r="Q54" s="378"/>
+      <c r="R54" s="391"/>
+      <c r="S54" s="377"/>
+      <c r="T54" s="378"/>
+      <c r="U54" s="378"/>
+      <c r="V54" s="387"/>
+      <c r="W54" s="390"/>
+      <c r="X54" s="378"/>
+      <c r="Y54" s="378"/>
+      <c r="Z54" s="378"/>
+      <c r="AA54" s="378"/>
+      <c r="AB54" s="378"/>
+      <c r="AC54" s="378"/>
+      <c r="AD54" s="378"/>
+      <c r="AE54" s="378"/>
+      <c r="AF54" s="378"/>
+      <c r="AG54" s="391"/>
       <c r="AH54" s="9"/>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="459" t="s">
+      <c r="A55" s="351" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="455"/>
-      <c r="C55" s="455"/>
-      <c r="D55" s="469"/>
-      <c r="E55" s="445"/>
-      <c r="F55" s="398"/>
-      <c r="G55" s="398"/>
-      <c r="H55" s="398"/>
-      <c r="I55" s="398"/>
-      <c r="J55" s="398"/>
-      <c r="K55" s="398"/>
-      <c r="L55" s="398"/>
-      <c r="M55" s="398"/>
-      <c r="N55" s="398"/>
-      <c r="O55" s="398"/>
-      <c r="P55" s="398"/>
-      <c r="Q55" s="398"/>
-      <c r="R55" s="409"/>
-      <c r="S55" s="459" t="s">
+      <c r="B55" s="385"/>
+      <c r="C55" s="385"/>
+      <c r="D55" s="386"/>
+      <c r="E55" s="379"/>
+      <c r="F55" s="366"/>
+      <c r="G55" s="366"/>
+      <c r="H55" s="366"/>
+      <c r="I55" s="366"/>
+      <c r="J55" s="366"/>
+      <c r="K55" s="366"/>
+      <c r="L55" s="366"/>
+      <c r="M55" s="366"/>
+      <c r="N55" s="366"/>
+      <c r="O55" s="366"/>
+      <c r="P55" s="366"/>
+      <c r="Q55" s="366"/>
+      <c r="R55" s="367"/>
+      <c r="S55" s="351" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="455"/>
-      <c r="U55" s="455"/>
-      <c r="V55" s="469"/>
-      <c r="W55" s="454"/>
-      <c r="X55" s="455"/>
-      <c r="Y55" s="455"/>
-      <c r="Z55" s="455"/>
-      <c r="AA55" s="455"/>
-      <c r="AB55" s="455"/>
-      <c r="AC55" s="455"/>
-      <c r="AD55" s="455"/>
-      <c r="AE55" s="455"/>
-      <c r="AF55" s="455"/>
-      <c r="AG55" s="456"/>
+      <c r="T55" s="385"/>
+      <c r="U55" s="385"/>
+      <c r="V55" s="386"/>
+      <c r="W55" s="388"/>
+      <c r="X55" s="385"/>
+      <c r="Y55" s="385"/>
+      <c r="Z55" s="385"/>
+      <c r="AA55" s="385"/>
+      <c r="AB55" s="385"/>
+      <c r="AC55" s="385"/>
+      <c r="AD55" s="385"/>
+      <c r="AE55" s="385"/>
+      <c r="AF55" s="385"/>
+      <c r="AG55" s="389"/>
       <c r="AH55" s="9"/>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="490"/>
-      <c r="B56" s="491"/>
-      <c r="C56" s="491"/>
-      <c r="D56" s="492"/>
-      <c r="E56" s="493"/>
-      <c r="F56" s="397"/>
-      <c r="G56" s="397"/>
-      <c r="H56" s="397"/>
-      <c r="I56" s="397"/>
-      <c r="J56" s="397"/>
-      <c r="K56" s="397"/>
-      <c r="L56" s="397"/>
-      <c r="M56" s="397"/>
-      <c r="N56" s="397"/>
-      <c r="O56" s="397"/>
-      <c r="P56" s="397"/>
-      <c r="Q56" s="397"/>
-      <c r="R56" s="494"/>
-      <c r="S56" s="476"/>
-      <c r="T56" s="477"/>
-      <c r="U56" s="477"/>
-      <c r="V56" s="478"/>
-      <c r="W56" s="479"/>
-      <c r="X56" s="477"/>
-      <c r="Y56" s="477"/>
-      <c r="Z56" s="477"/>
-      <c r="AA56" s="477"/>
-      <c r="AB56" s="477"/>
-      <c r="AC56" s="477"/>
-      <c r="AD56" s="477"/>
-      <c r="AE56" s="477"/>
-      <c r="AF56" s="477"/>
-      <c r="AG56" s="480"/>
+      <c r="A56" s="397"/>
+      <c r="B56" s="398"/>
+      <c r="C56" s="398"/>
+      <c r="D56" s="399"/>
+      <c r="E56" s="400"/>
+      <c r="F56" s="368"/>
+      <c r="G56" s="368"/>
+      <c r="H56" s="368"/>
+      <c r="I56" s="368"/>
+      <c r="J56" s="368"/>
+      <c r="K56" s="368"/>
+      <c r="L56" s="368"/>
+      <c r="M56" s="368"/>
+      <c r="N56" s="368"/>
+      <c r="O56" s="368"/>
+      <c r="P56" s="368"/>
+      <c r="Q56" s="368"/>
+      <c r="R56" s="369"/>
+      <c r="S56" s="392"/>
+      <c r="T56" s="393"/>
+      <c r="U56" s="393"/>
+      <c r="V56" s="394"/>
+      <c r="W56" s="395"/>
+      <c r="X56" s="393"/>
+      <c r="Y56" s="393"/>
+      <c r="Z56" s="393"/>
+      <c r="AA56" s="393"/>
+      <c r="AB56" s="393"/>
+      <c r="AC56" s="393"/>
+      <c r="AD56" s="393"/>
+      <c r="AE56" s="393"/>
+      <c r="AF56" s="393"/>
+      <c r="AG56" s="396"/>
       <c r="AH56" s="9"/>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6716,45 +6729,45 @@
       </c>
       <c r="AC57" s="118"/>
       <c r="AD57" s="118"/>
-      <c r="AE57" s="395"/>
-      <c r="AF57" s="395"/>
-      <c r="AG57" s="396"/>
+      <c r="AE57" s="373"/>
+      <c r="AF57" s="373"/>
+      <c r="AG57" s="374"/>
       <c r="AH57" s="9"/>
     </row>
     <row r="58" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="441" t="s">
+      <c r="A58" s="375" t="s">
         <v>136</v>
       </c>
-      <c r="B58" s="449"/>
-      <c r="C58" s="449"/>
+      <c r="B58" s="376"/>
+      <c r="C58" s="376"/>
       <c r="D58" s="109"/>
-      <c r="E58" s="445"/>
-      <c r="F58" s="398"/>
-      <c r="G58" s="398"/>
-      <c r="H58" s="398"/>
-      <c r="I58" s="398"/>
-      <c r="J58" s="398"/>
-      <c r="K58" s="398"/>
-      <c r="L58" s="398"/>
-      <c r="M58" s="481"/>
-      <c r="N58" s="483" t="s">
+      <c r="E58" s="379"/>
+      <c r="F58" s="366"/>
+      <c r="G58" s="366"/>
+      <c r="H58" s="366"/>
+      <c r="I58" s="366"/>
+      <c r="J58" s="366"/>
+      <c r="K58" s="366"/>
+      <c r="L58" s="366"/>
+      <c r="M58" s="380"/>
+      <c r="N58" s="381" t="s">
         <v>94</v>
       </c>
-      <c r="O58" s="484"/>
-      <c r="P58" s="484"/>
-      <c r="Q58" s="484"/>
-      <c r="R58" s="485"/>
-      <c r="S58" s="489" t="s">
+      <c r="O58" s="382"/>
+      <c r="P58" s="382"/>
+      <c r="Q58" s="382"/>
+      <c r="R58" s="383"/>
+      <c r="S58" s="384" t="s">
         <v>137</v>
       </c>
-      <c r="T58" s="484"/>
-      <c r="U58" s="484"/>
-      <c r="V58" s="484"/>
-      <c r="W58" s="484"/>
-      <c r="X58" s="484"/>
-      <c r="Y58" s="484"/>
-      <c r="Z58" s="484"/>
-      <c r="AA58" s="485"/>
+      <c r="T58" s="382"/>
+      <c r="U58" s="382"/>
+      <c r="V58" s="382"/>
+      <c r="W58" s="382"/>
+      <c r="X58" s="382"/>
+      <c r="Y58" s="382"/>
+      <c r="Z58" s="382"/>
+      <c r="AA58" s="383"/>
       <c r="AB58" s="111"/>
       <c r="AC58" s="111"/>
       <c r="AD58" s="111"/>
@@ -6764,33 +6777,33 @@
       <c r="AH58" s="9"/>
     </row>
     <row r="59" spans="1:38" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="451"/>
-      <c r="B59" s="452"/>
-      <c r="C59" s="452"/>
+      <c r="A59" s="377"/>
+      <c r="B59" s="378"/>
+      <c r="C59" s="378"/>
       <c r="D59" s="175"/>
-      <c r="E59" s="446"/>
-      <c r="F59" s="447"/>
-      <c r="G59" s="447"/>
-      <c r="H59" s="447"/>
-      <c r="I59" s="447"/>
-      <c r="J59" s="447"/>
-      <c r="K59" s="447"/>
-      <c r="L59" s="447"/>
-      <c r="M59" s="482"/>
-      <c r="N59" s="486"/>
-      <c r="O59" s="487"/>
-      <c r="P59" s="487"/>
-      <c r="Q59" s="487"/>
-      <c r="R59" s="488"/>
-      <c r="S59" s="486"/>
-      <c r="T59" s="487"/>
-      <c r="U59" s="487"/>
-      <c r="V59" s="487"/>
-      <c r="W59" s="487"/>
-      <c r="X59" s="487"/>
-      <c r="Y59" s="487"/>
-      <c r="Z59" s="487"/>
-      <c r="AA59" s="488"/>
+      <c r="E59" s="358"/>
+      <c r="F59" s="355"/>
+      <c r="G59" s="355"/>
+      <c r="H59" s="355"/>
+      <c r="I59" s="355"/>
+      <c r="J59" s="355"/>
+      <c r="K59" s="355"/>
+      <c r="L59" s="355"/>
+      <c r="M59" s="356"/>
+      <c r="N59" s="362"/>
+      <c r="O59" s="363"/>
+      <c r="P59" s="363"/>
+      <c r="Q59" s="363"/>
+      <c r="R59" s="364"/>
+      <c r="S59" s="362"/>
+      <c r="T59" s="363"/>
+      <c r="U59" s="363"/>
+      <c r="V59" s="363"/>
+      <c r="W59" s="363"/>
+      <c r="X59" s="363"/>
+      <c r="Y59" s="363"/>
+      <c r="Z59" s="363"/>
+      <c r="AA59" s="364"/>
       <c r="AB59" s="175"/>
       <c r="AC59" s="175"/>
       <c r="AD59" s="178"/>
@@ -6800,121 +6813,121 @@
       <c r="AH59" s="9"/>
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="459" t="s">
+      <c r="A60" s="351" t="s">
         <v>138</v>
       </c>
-      <c r="B60" s="495"/>
-      <c r="C60" s="495"/>
-      <c r="D60" s="496"/>
-      <c r="E60" s="498"/>
-      <c r="F60" s="495"/>
-      <c r="G60" s="495"/>
-      <c r="H60" s="495"/>
-      <c r="I60" s="495"/>
-      <c r="J60" s="495"/>
-      <c r="K60" s="495"/>
-      <c r="L60" s="495"/>
-      <c r="M60" s="496"/>
-      <c r="N60" s="499" t="s">
+      <c r="B60" s="352"/>
+      <c r="C60" s="352"/>
+      <c r="D60" s="353"/>
+      <c r="E60" s="357"/>
+      <c r="F60" s="352"/>
+      <c r="G60" s="352"/>
+      <c r="H60" s="352"/>
+      <c r="I60" s="352"/>
+      <c r="J60" s="352"/>
+      <c r="K60" s="352"/>
+      <c r="L60" s="352"/>
+      <c r="M60" s="353"/>
+      <c r="N60" s="359" t="s">
         <v>94</v>
       </c>
-      <c r="O60" s="500"/>
-      <c r="P60" s="500"/>
-      <c r="Q60" s="500"/>
-      <c r="R60" s="501"/>
-      <c r="S60" s="499" t="s">
+      <c r="O60" s="360"/>
+      <c r="P60" s="360"/>
+      <c r="Q60" s="360"/>
+      <c r="R60" s="361"/>
+      <c r="S60" s="359" t="s">
         <v>69</v>
       </c>
-      <c r="T60" s="500"/>
-      <c r="U60" s="500"/>
-      <c r="V60" s="500"/>
-      <c r="W60" s="500"/>
-      <c r="X60" s="500"/>
-      <c r="Y60" s="500"/>
-      <c r="Z60" s="500"/>
-      <c r="AA60" s="501"/>
+      <c r="T60" s="360"/>
+      <c r="U60" s="360"/>
+      <c r="V60" s="360"/>
+      <c r="W60" s="360"/>
+      <c r="X60" s="360"/>
+      <c r="Y60" s="360"/>
+      <c r="Z60" s="360"/>
+      <c r="AA60" s="361"/>
       <c r="AB60" s="183" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="183"/>
-      <c r="AD60" s="495"/>
-      <c r="AE60" s="495"/>
-      <c r="AF60" s="495"/>
-      <c r="AG60" s="502"/>
+      <c r="AD60" s="352"/>
+      <c r="AE60" s="352"/>
+      <c r="AF60" s="352"/>
+      <c r="AG60" s="365"/>
       <c r="AH60" s="9"/>
     </row>
     <row r="61" spans="1:38" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="497"/>
-      <c r="B61" s="447"/>
-      <c r="C61" s="447"/>
-      <c r="D61" s="482"/>
-      <c r="E61" s="446"/>
-      <c r="F61" s="447"/>
-      <c r="G61" s="447"/>
-      <c r="H61" s="447"/>
-      <c r="I61" s="447"/>
-      <c r="J61" s="447"/>
-      <c r="K61" s="447"/>
-      <c r="L61" s="447"/>
-      <c r="M61" s="482"/>
-      <c r="N61" s="486"/>
-      <c r="O61" s="487"/>
-      <c r="P61" s="487"/>
-      <c r="Q61" s="487"/>
-      <c r="R61" s="488"/>
-      <c r="S61" s="486"/>
-      <c r="T61" s="487"/>
-      <c r="U61" s="487"/>
-      <c r="V61" s="487"/>
-      <c r="W61" s="487"/>
-      <c r="X61" s="487"/>
-      <c r="Y61" s="487"/>
-      <c r="Z61" s="487"/>
-      <c r="AA61" s="488"/>
-      <c r="AB61" s="398"/>
-      <c r="AC61" s="398"/>
-      <c r="AD61" s="398"/>
-      <c r="AE61" s="398"/>
-      <c r="AF61" s="398"/>
-      <c r="AG61" s="409"/>
+      <c r="A61" s="354"/>
+      <c r="B61" s="355"/>
+      <c r="C61" s="355"/>
+      <c r="D61" s="356"/>
+      <c r="E61" s="358"/>
+      <c r="F61" s="355"/>
+      <c r="G61" s="355"/>
+      <c r="H61" s="355"/>
+      <c r="I61" s="355"/>
+      <c r="J61" s="355"/>
+      <c r="K61" s="355"/>
+      <c r="L61" s="355"/>
+      <c r="M61" s="356"/>
+      <c r="N61" s="362"/>
+      <c r="O61" s="363"/>
+      <c r="P61" s="363"/>
+      <c r="Q61" s="363"/>
+      <c r="R61" s="364"/>
+      <c r="S61" s="362"/>
+      <c r="T61" s="363"/>
+      <c r="U61" s="363"/>
+      <c r="V61" s="363"/>
+      <c r="W61" s="363"/>
+      <c r="X61" s="363"/>
+      <c r="Y61" s="363"/>
+      <c r="Z61" s="363"/>
+      <c r="AA61" s="364"/>
+      <c r="AB61" s="366"/>
+      <c r="AC61" s="366"/>
+      <c r="AD61" s="366"/>
+      <c r="AE61" s="366"/>
+      <c r="AF61" s="366"/>
+      <c r="AG61" s="367"/>
       <c r="AH61" s="9"/>
     </row>
     <row r="62" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="503" t="s">
+      <c r="A62" s="370" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="504"/>
-      <c r="C62" s="504"/>
-      <c r="D62" s="504"/>
-      <c r="E62" s="504"/>
-      <c r="F62" s="504"/>
-      <c r="G62" s="504"/>
-      <c r="H62" s="504"/>
-      <c r="I62" s="504"/>
-      <c r="J62" s="504"/>
-      <c r="K62" s="504"/>
-      <c r="L62" s="504"/>
-      <c r="M62" s="504"/>
-      <c r="N62" s="504"/>
-      <c r="O62" s="504"/>
-      <c r="P62" s="504"/>
-      <c r="Q62" s="504"/>
-      <c r="R62" s="504"/>
-      <c r="S62" s="504"/>
-      <c r="T62" s="504"/>
-      <c r="U62" s="504"/>
-      <c r="V62" s="504"/>
-      <c r="W62" s="504"/>
-      <c r="X62" s="504"/>
-      <c r="Y62" s="504"/>
-      <c r="Z62" s="504"/>
-      <c r="AA62" s="505"/>
-      <c r="AB62" s="397"/>
-      <c r="AC62" s="397"/>
-      <c r="AD62" s="397"/>
-      <c r="AE62" s="397"/>
-      <c r="AF62" s="397"/>
-      <c r="AG62" s="494"/>
+      <c r="B62" s="371"/>
+      <c r="C62" s="371"/>
+      <c r="D62" s="371"/>
+      <c r="E62" s="371"/>
+      <c r="F62" s="371"/>
+      <c r="G62" s="371"/>
+      <c r="H62" s="371"/>
+      <c r="I62" s="371"/>
+      <c r="J62" s="371"/>
+      <c r="K62" s="371"/>
+      <c r="L62" s="371"/>
+      <c r="M62" s="371"/>
+      <c r="N62" s="371"/>
+      <c r="O62" s="371"/>
+      <c r="P62" s="371"/>
+      <c r="Q62" s="371"/>
+      <c r="R62" s="371"/>
+      <c r="S62" s="371"/>
+      <c r="T62" s="371"/>
+      <c r="U62" s="371"/>
+      <c r="V62" s="371"/>
+      <c r="W62" s="371"/>
+      <c r="X62" s="371"/>
+      <c r="Y62" s="371"/>
+      <c r="Z62" s="371"/>
+      <c r="AA62" s="372"/>
+      <c r="AB62" s="368"/>
+      <c r="AC62" s="368"/>
+      <c r="AD62" s="368"/>
+      <c r="AE62" s="368"/>
+      <c r="AF62" s="368"/>
+      <c r="AG62" s="369"/>
       <c r="AH62" s="184"/>
       <c r="AI62" s="44"/>
       <c r="AJ62" s="44"/>
@@ -6924,34 +6937,32 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="70">
-    <mergeCell ref="A60:D61"/>
-    <mergeCell ref="E60:M61"/>
-    <mergeCell ref="N60:R61"/>
-    <mergeCell ref="S60:AA61"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AB61:AG62"/>
-    <mergeCell ref="A62:AA62"/>
-    <mergeCell ref="AE57:AG57"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="S58:AA59"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:R54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="W53:AG54"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="A4:AA4"/>
+    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="E11:R12"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="A5:AA7"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="E8:AG8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="L34:X34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="E13:R14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
     <mergeCell ref="AB15:AG15"/>
     <mergeCell ref="B17:P19"/>
     <mergeCell ref="T41:AD41"/>
@@ -6968,32 +6979,34 @@
     <mergeCell ref="B30:AG30"/>
     <mergeCell ref="B32:AF32"/>
     <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="L34:X34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="E13:R14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="A5:AA7"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="E8:AG8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="E11:R12"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="S12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="W15:AA15"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="A4:AA4"/>
-    <mergeCell ref="AB4:AG4"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:R54"/>
+    <mergeCell ref="S53:V54"/>
+    <mergeCell ref="W53:AG54"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="AE57:AG57"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="S58:AA59"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="E60:M61"/>
+    <mergeCell ref="N60:R61"/>
+    <mergeCell ref="S60:AA61"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AB61:AG62"/>
+    <mergeCell ref="A62:AA62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait"/>

--- a/library/export_travelclaim.xlsx
+++ b/library/export_travelclaim.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -107,16 +107,7 @@
     <t>Diem</t>
   </si>
   <si>
-    <t>sample to Calamba</t>
-  </si>
-  <si>
-    <t>10:35 AM</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>sample</t>
+    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>Appendix 11</t>
@@ -412,9 +403,6 @@
   </si>
   <si>
     <t>RESTITUTO B. NAÑEZ III</t>
-  </si>
-  <si>
-    <t>NOEL R. BARTOLABAC, CESO V</t>
   </si>
   <si>
     <t>Position</t>
@@ -500,6 +488,12 @@
     </font>
     <font>
       <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
@@ -507,12 +501,6 @@
     </font>
     <font>
       <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -553,7 +541,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1008,21 +996,6 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1092,19 +1065,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -1264,11 +1224,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="486">
+  <cellXfs count="487">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1598,34 +1603,32 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1634,7 +1637,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1643,6 +1646,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1658,7 +1664,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1667,145 +1673,154 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1841,9 +1856,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1937,7 +1949,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,7 +1958,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1958,7 +1970,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1991,7 +2003,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2003,7 +2015,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2012,7 +2024,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2027,13 +2039,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2072,13 +2084,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2090,13 +2102,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2114,15 +2126,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2165,153 +2177,153 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2321,7 +2333,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2390,7 +2402,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2402,7 +2414,7 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2426,7 +2438,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2486,34 +2498,34 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2534,7 +2546,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2603,7 +2615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2638,7 +2650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2852,8 +2864,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2871,56 +2883,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1" s="178" t="s">
+      <c r="H1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="178"/>
-      <c r="J1" s="178"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="180"/>
-      <c r="C3" s="180"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="180"/>
-      <c r="F3" s="180"/>
-      <c r="G3" s="180"/>
-      <c r="H3" s="180"/>
-      <c r="I3" s="180"/>
-      <c r="J3" s="180"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="177"/>
-      <c r="B4" s="177"/>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="177"/>
-      <c r="I4" s="177"/>
-      <c r="J4" s="177"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="170"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="170"/>
+      <c r="G4" s="170"/>
+      <c r="H4" s="170"/>
+      <c r="I4" s="170"/>
+      <c r="J4" s="170"/>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2933,8 +2945,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="182"/>
-      <c r="C6" s="182"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -2947,17 +2959,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="183"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="181" t="s">
+      <c r="H7" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="181"/>
-      <c r="J7" s="181"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -2975,62 +2987,62 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="184" t="s">
+      <c r="B9" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="184"/>
-      <c r="D9" s="184"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="171" t="s">
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="184"/>
+      <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="184"/>
-      <c r="I9" s="184"/>
-      <c r="J9" s="185"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="169" t="s">
+      <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="194" t="s">
+      <c r="B10" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="195"/>
-      <c r="F10" s="204" t="s">
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="181"/>
-      <c r="H10" s="181"/>
-      <c r="I10" s="181"/>
-      <c r="J10" s="205"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="206"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="169" t="s">
+      <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="194" t="s">
+      <c r="B11" s="169"/>
+      <c r="C11" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="194"/>
-      <c r="E11" s="195"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="181"/>
-      <c r="H11" s="181"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="205"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="206"/>
     </row>
     <row r="12" spans="1:10" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -3041,10 +3053,10 @@
       <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="207"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
@@ -3052,25 +3064,25 @@
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="186" t="s">
+      <c r="G13" s="185" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="188" t="s">
+      <c r="I13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="190" t="s">
+      <c r="J13" s="189" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="197"/>
-      <c r="B14" s="192" t="s">
+      <c r="B14" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="193"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3080,54 +3092,36 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="187"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="189"/>
-      <c r="J14" s="191"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="200"/>
       <c r="B15" s="201"/>
       <c r="C15" s="201"/>
       <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
+      <c r="E15" s="203"/>
       <c r="F15" s="201"/>
       <c r="G15" s="201"/>
       <c r="H15" s="201"/>
       <c r="I15" s="201"/>
-      <c r="J15" s="203"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="172" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="208" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="208"/>
-      <c r="D16" s="173" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="173" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="174" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="175">
-        <v>10</v>
-      </c>
-      <c r="H16" s="175">
-        <v>440</v>
-      </c>
-      <c r="I16" s="176" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="175">
-        <v>450</v>
-      </c>
+      <c r="A16" s="171"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="173"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="174"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
@@ -3156,7 +3150,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2598425196850001" right="0.98425196850394003" top="0.78740157480314998" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
-  <pageSetup scale="76" fitToHeight="10" orientation="portrait"/>
+  <pageSetup scale="76" fitToHeight="10" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</oddFooter>
     <evenFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</evenFooter>
@@ -3207,10 +3201,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="312" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="312"/>
+      <c r="L1" s="313" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="313"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3224,443 +3218,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="313"/>
-      <c r="M2" s="313"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="314" t="s">
+      <c r="A3" s="315" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="319"/>
+      <c r="M3" s="320"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="321" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="322"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="315"/>
-      <c r="C3" s="315"/>
-      <c r="D3" s="315"/>
-      <c r="E3" s="315"/>
-      <c r="F3" s="315"/>
-      <c r="G3" s="315"/>
-      <c r="H3" s="315"/>
-      <c r="I3" s="315"/>
-      <c r="J3" s="316"/>
-      <c r="K3" s="317" t="s">
+      <c r="L4" s="237"/>
+      <c r="M4" s="324"/>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="295" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="318"/>
-      <c r="M3" s="319"/>
-    </row>
-    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="320" t="s">
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="298" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="321"/>
-      <c r="C4" s="321"/>
-      <c r="D4" s="321"/>
-      <c r="E4" s="321"/>
-      <c r="F4" s="321"/>
-      <c r="G4" s="321"/>
-      <c r="H4" s="321"/>
-      <c r="I4" s="321"/>
-      <c r="J4" s="322"/>
-      <c r="K4" s="235" t="s">
+      <c r="L5" s="299"/>
+      <c r="M5" s="300"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="283"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="304" t="s">
         <v>35</v>
       </c>
-      <c r="L4" s="236"/>
-      <c r="M4" s="323"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="294" t="s">
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="306"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="301"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="308"/>
+      <c r="J7" s="308"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="309"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="295"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
-      <c r="F5" s="295"/>
-      <c r="G5" s="295"/>
-      <c r="H5" s="295"/>
-      <c r="I5" s="295"/>
-      <c r="J5" s="296"/>
-      <c r="K5" s="297" t="s">
+      <c r="B8" s="273"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="277" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="298"/>
-      <c r="M5" s="299"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="282"/>
-      <c r="B6" s="283"/>
-      <c r="C6" s="284"/>
-      <c r="D6" s="303" t="s">
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="279"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="301"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="311"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="312"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="304"/>
-      <c r="F6" s="304"/>
-      <c r="G6" s="304"/>
-      <c r="H6" s="304"/>
-      <c r="I6" s="304"/>
-      <c r="J6" s="304"/>
-      <c r="K6" s="304"/>
-      <c r="L6" s="304"/>
-      <c r="M6" s="305"/>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="300"/>
-      <c r="B7" s="301"/>
-      <c r="C7" s="302"/>
-      <c r="D7" s="306"/>
-      <c r="E7" s="307"/>
-      <c r="F7" s="307"/>
-      <c r="G7" s="307"/>
-      <c r="H7" s="307"/>
-      <c r="I7" s="307"/>
-      <c r="J7" s="307"/>
-      <c r="K7" s="307"/>
-      <c r="L7" s="307"/>
-      <c r="M7" s="308"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="271" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="272"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="276" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="277"/>
-      <c r="F8" s="277"/>
-      <c r="G8" s="277"/>
-      <c r="H8" s="277"/>
-      <c r="I8" s="277"/>
-      <c r="J8" s="277"/>
-      <c r="K8" s="277"/>
-      <c r="L8" s="277"/>
-      <c r="M8" s="278"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="300"/>
-      <c r="B9" s="301"/>
-      <c r="C9" s="302"/>
-      <c r="D9" s="309"/>
-      <c r="E9" s="310"/>
-      <c r="F9" s="310"/>
-      <c r="G9" s="310"/>
-      <c r="H9" s="310"/>
-      <c r="I9" s="310"/>
-      <c r="J9" s="310"/>
-      <c r="K9" s="310"/>
-      <c r="L9" s="310"/>
-      <c r="M9" s="311"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="271" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="272"/>
-      <c r="C10" s="273"/>
-      <c r="D10" s="276" t="e">
+      <c r="B10" s="273"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="277" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="277"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="277"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="277"/>
-      <c r="J10" s="277"/>
-      <c r="K10" s="277"/>
-      <c r="L10" s="277"/>
-      <c r="M10" s="278"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="279"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="274"/>
-      <c r="B11" s="229"/>
-      <c r="C11" s="275"/>
-      <c r="D11" s="279"/>
-      <c r="E11" s="280"/>
-      <c r="F11" s="280"/>
-      <c r="G11" s="280"/>
-      <c r="H11" s="280"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="280"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="280"/>
-      <c r="M11" s="281"/>
+      <c r="A11" s="275"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="282"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="282" t="s">
+      <c r="A12" s="283" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="286" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="285"/>
+      <c r="K12" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="284"/>
-      <c r="D12" s="285" t="s">
+      <c r="L12" s="286" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="286"/>
-      <c r="F12" s="286"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="285" t="s">
+      <c r="M12" s="294"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="275"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="229"/>
+      <c r="M13" s="231"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="253"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="284"/>
-      <c r="K12" s="291" t="s">
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="253"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="L12" s="285" t="s">
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="268">
+        <v>4981</v>
+      </c>
+      <c r="M15" s="269"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="253"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="256"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="253"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="271"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="253"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="267"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="256"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="253"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="256"/>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="253"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="256"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="253"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="256"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="253"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="254"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="256"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="253"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="254"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="256"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="253"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="256"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="253"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="254"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="256"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="253"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="256"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="257"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="M12" s="293"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="274"/>
-      <c r="B13" s="229"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="289"/>
-      <c r="F13" s="289"/>
-      <c r="G13" s="289"/>
-      <c r="H13" s="290"/>
-      <c r="I13" s="228"/>
-      <c r="J13" s="275"/>
-      <c r="K13" s="292"/>
-      <c r="L13" s="228"/>
-      <c r="M13" s="230"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="251"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="253"/>
-      <c r="D14" s="254" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="252"/>
-      <c r="F14" s="252"/>
-      <c r="G14" s="252"/>
-      <c r="H14" s="253"/>
-      <c r="I14" s="254"/>
-      <c r="J14" s="253"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="254"/>
-      <c r="M14" s="255"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="251"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="253"/>
-      <c r="D15" s="216" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="217"/>
-      <c r="F15" s="217"/>
-      <c r="G15" s="217"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="254"/>
-      <c r="J15" s="253"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="267">
-        <v>4981</v>
-      </c>
-      <c r="M15" s="268"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="251"/>
-      <c r="B16" s="252"/>
-      <c r="C16" s="253"/>
-      <c r="D16" s="216"/>
-      <c r="E16" s="217"/>
-      <c r="F16" s="217"/>
-      <c r="G16" s="217"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="254"/>
-      <c r="J16" s="253"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="254"/>
-      <c r="M16" s="255"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="251"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="253"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="254"/>
-      <c r="J17" s="253"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="270"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="251"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="253"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="265"/>
-      <c r="J18" s="266"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="254"/>
-      <c r="M18" s="255"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="251"/>
-      <c r="B19" s="252"/>
-      <c r="C19" s="253"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="254"/>
-      <c r="J19" s="253"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="254"/>
-      <c r="M19" s="255"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="251"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="253"/>
-      <c r="D20" s="216"/>
-      <c r="E20" s="217"/>
-      <c r="F20" s="217"/>
-      <c r="G20" s="217"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="254"/>
-      <c r="J20" s="253"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="254"/>
-      <c r="M20" s="255"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="251"/>
-      <c r="B21" s="252"/>
-      <c r="C21" s="253"/>
-      <c r="D21" s="216"/>
-      <c r="E21" s="217"/>
-      <c r="F21" s="217"/>
-      <c r="G21" s="217"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="254"/>
-      <c r="J21" s="253"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="254"/>
-      <c r="M21" s="255"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="251"/>
-      <c r="B22" s="252"/>
-      <c r="C22" s="253"/>
-      <c r="D22" s="265"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
-      <c r="H22" s="266"/>
-      <c r="I22" s="254"/>
-      <c r="J22" s="253"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="254"/>
-      <c r="M22" s="255"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="251"/>
-      <c r="B23" s="252"/>
-      <c r="C23" s="253"/>
-      <c r="D23" s="265"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
-      <c r="H23" s="266"/>
-      <c r="I23" s="254"/>
-      <c r="J23" s="253"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="254"/>
-      <c r="M23" s="255"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="251"/>
-      <c r="B24" s="252"/>
-      <c r="C24" s="253"/>
-      <c r="D24" s="265"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="254"/>
-      <c r="J24" s="253"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="254"/>
-      <c r="M24" s="255"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="251"/>
-      <c r="B25" s="252"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="254"/>
-      <c r="E25" s="252"/>
-      <c r="F25" s="252"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="253"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="254"/>
-      <c r="M25" s="255"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="251"/>
-      <c r="B26" s="252"/>
-      <c r="C26" s="253"/>
-      <c r="D26" s="254"/>
-      <c r="E26" s="252"/>
-      <c r="F26" s="252"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="253"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="254"/>
-      <c r="M26" s="255"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="256"/>
-      <c r="B27" s="257"/>
-      <c r="C27" s="258"/>
-      <c r="D27" s="259" t="s">
-        <v>49</v>
-      </c>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
-      <c r="G27" s="260"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="262"/>
-      <c r="J27" s="258"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="259"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="263">
+      <c r="L27" s="264">
         <f>L15</f>
         <v>4981</v>
       </c>
-      <c r="M27" s="264"/>
+      <c r="M27" s="265"/>
     </row>
     <row r="28" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="239" t="s">
-        <v>50</v>
+      <c r="A28" s="241" t="s">
+        <v>47</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="214" t="s">
-        <v>51</v>
-      </c>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="243" t="s">
-        <v>52</v>
+      <c r="D28" s="215" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="245" t="s">
+        <v>49</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -3668,19 +3662,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="240"/>
-      <c r="B29" s="244" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="179"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="243"/>
+      <c r="A29" s="242"/>
+      <c r="B29" s="246" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="177"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="245"/>
       <c r="J29" s="36" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -3688,27 +3682,27 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
-      <c r="B30" s="245" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246"/>
+      <c r="B30" s="247" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="247"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="248"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="247"/>
+      <c r="A31" s="249"/>
       <c r="B31" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3718,14 +3712,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="247"/>
+      <c r="A32" s="249"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3770,24 +3764,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="248" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" s="226"/>
-      <c r="C35" s="217" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="234"/>
+      <c r="A35" s="250" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="227"/>
+      <c r="C35" s="218" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="235"/>
       <c r="I35" s="17" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -3808,12 +3802,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="249" t="s">
-        <v>63</v>
-      </c>
-      <c r="B37" s="250"/>
+      <c r="A37" s="251" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="252"/>
       <c r="C37" s="14" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -3821,11 +3815,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -3846,24 +3840,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="248" t="s">
-        <v>66</v>
-      </c>
-      <c r="B39" s="226"/>
-      <c r="C39" s="214" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
-      <c r="G39" s="214"/>
-      <c r="H39" s="215"/>
+      <c r="A39" s="250" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="227"/>
+      <c r="C39" s="215" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="216"/>
       <c r="I39" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -3871,37 +3865,37 @@
     <row r="40" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="217"/>
-      <c r="D40" s="217"/>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="217"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="217"/>
-      <c r="L40" s="217"/>
-      <c r="M40" s="234"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="235"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="235" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="236"/>
-      <c r="C41" s="214" t="s">
-        <v>60</v>
-      </c>
-      <c r="D41" s="214"/>
-      <c r="E41" s="214"/>
-      <c r="F41" s="214"/>
-      <c r="G41" s="214"/>
-      <c r="H41" s="215"/>
+      <c r="A41" s="236" t="s">
+        <v>66</v>
+      </c>
+      <c r="B41" s="237"/>
+      <c r="C41" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -3938,113 +3932,113 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="51" t="s">
-        <v>72</v>
-      </c>
-      <c r="B44" s="237" t="s">
-        <v>73</v>
-      </c>
-      <c r="C44" s="238"/>
-      <c r="D44" s="238"/>
-      <c r="E44" s="238"/>
-      <c r="F44" s="238"/>
-      <c r="G44" s="238"/>
-      <c r="H44" s="238"/>
-      <c r="I44" s="238"/>
-      <c r="J44" s="238"/>
-      <c r="K44" s="238"/>
-      <c r="L44" s="238"/>
-      <c r="M44" s="199"/>
+        <v>69</v>
+      </c>
+      <c r="B44" s="238" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="240"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="198" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="240"/>
+      <c r="H45" s="198" t="s">
+        <v>43</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="240"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="220" t="s">
+        <v>14</v>
+      </c>
+      <c r="B46" s="222" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="223"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="226" t="s">
+        <v>72</v>
+      </c>
+      <c r="F46" s="227"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="220" t="s">
+        <v>73</v>
+      </c>
+      <c r="I46" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="238"/>
-      <c r="C45" s="238"/>
-      <c r="D45" s="238"/>
-      <c r="E45" s="238"/>
-      <c r="F45" s="238"/>
-      <c r="G45" s="199"/>
-      <c r="H45" s="198" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="238"/>
-      <c r="J45" s="238"/>
-      <c r="K45" s="238"/>
-      <c r="L45" s="238"/>
-      <c r="M45" s="199"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="219" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="221" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="222"/>
-      <c r="D46" s="222"/>
-      <c r="E46" s="225" t="s">
+      <c r="J46" s="233"/>
+      <c r="K46" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="F46" s="226"/>
-      <c r="G46" s="227"/>
-      <c r="H46" s="219" t="s">
+      <c r="L46" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="I46" s="231" t="s">
+      <c r="M46" s="211"/>
+    </row>
+    <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="220"/>
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="227"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="232"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="234"/>
+      <c r="L47" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="J46" s="232"/>
-      <c r="K46" s="233" t="s">
+      <c r="M47" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="L46" s="209" t="s">
+    </row>
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="221"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="230"/>
+      <c r="G48" s="231"/>
+      <c r="H48" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="M46" s="210"/>
-    </row>
-    <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="219"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="222"/>
-      <c r="D47" s="222"/>
-      <c r="E47" s="225"/>
-      <c r="F47" s="226"/>
-      <c r="G47" s="227"/>
-      <c r="H47" s="219"/>
-      <c r="I47" s="231"/>
-      <c r="J47" s="232"/>
-      <c r="K47" s="233"/>
-      <c r="L47" s="52" t="s">
+      <c r="I48" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="M47" s="53" t="s">
+      <c r="J48" s="213"/>
+      <c r="K48" s="55" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="220"/>
-      <c r="B48" s="223"/>
-      <c r="C48" s="224"/>
-      <c r="D48" s="224"/>
-      <c r="E48" s="228"/>
-      <c r="F48" s="229"/>
-      <c r="G48" s="230"/>
-      <c r="H48" s="54" t="s">
+      <c r="L48" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="211" t="s">
+      <c r="M48" s="57" t="s">
         <v>83</v>
-      </c>
-      <c r="J48" s="212"/>
-      <c r="K48" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="L48" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4082,9 +4076,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="213"/>
-      <c r="F51" s="214"/>
-      <c r="G51" s="215"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="216"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4283,260 +4277,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB1" s="473" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC1" s="473"/>
-      <c r="AD1" s="473"/>
-      <c r="AE1" s="473"/>
-      <c r="AF1" s="473"/>
-      <c r="AG1" s="473"/>
+      <c r="AB1" s="474" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" s="474"/>
+      <c r="AD1" s="474"/>
+      <c r="AE1" s="474"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="474"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="474" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="475"/>
-      <c r="C3" s="475"/>
-      <c r="D3" s="475"/>
-      <c r="E3" s="475"/>
-      <c r="F3" s="475"/>
-      <c r="G3" s="475"/>
-      <c r="H3" s="475"/>
-      <c r="I3" s="475"/>
-      <c r="J3" s="475"/>
-      <c r="K3" s="475"/>
-      <c r="L3" s="475"/>
-      <c r="M3" s="475"/>
-      <c r="N3" s="475"/>
-      <c r="O3" s="475"/>
-      <c r="P3" s="475"/>
-      <c r="Q3" s="475"/>
-      <c r="R3" s="475"/>
-      <c r="S3" s="475"/>
-      <c r="T3" s="475"/>
-      <c r="U3" s="475"/>
-      <c r="V3" s="475"/>
-      <c r="W3" s="475"/>
-      <c r="X3" s="475"/>
-      <c r="Y3" s="475"/>
-      <c r="Z3" s="475"/>
-      <c r="AA3" s="476"/>
-      <c r="AB3" s="477" t="s">
+      <c r="A3" s="475" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="476"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="476"/>
+      <c r="T3" s="476"/>
+      <c r="U3" s="476"/>
+      <c r="V3" s="476"/>
+      <c r="W3" s="476"/>
+      <c r="X3" s="476"/>
+      <c r="Y3" s="476"/>
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="477"/>
+      <c r="AB3" s="478" t="s">
+        <v>85</v>
+      </c>
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="479"/>
+      <c r="AF3" s="479"/>
+      <c r="AG3" s="480"/>
+    </row>
+    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="481" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="482"/>
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+      <c r="O4" s="482"/>
+      <c r="P4" s="482"/>
+      <c r="Q4" s="482"/>
+      <c r="R4" s="482"/>
+      <c r="S4" s="482"/>
+      <c r="T4" s="482"/>
+      <c r="U4" s="482"/>
+      <c r="V4" s="482"/>
+      <c r="W4" s="482"/>
+      <c r="X4" s="482"/>
+      <c r="Y4" s="482"/>
+      <c r="Z4" s="482"/>
+      <c r="AA4" s="483"/>
+      <c r="AB4" s="484"/>
+      <c r="AC4" s="485"/>
+      <c r="AD4" s="485"/>
+      <c r="AE4" s="485"/>
+      <c r="AF4" s="485"/>
+      <c r="AG4" s="486"/>
+    </row>
+    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="440" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="441"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="441"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="441"/>
+      <c r="J5" s="441"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="441"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="441"/>
+      <c r="P5" s="441"/>
+      <c r="Q5" s="441"/>
+      <c r="R5" s="441"/>
+      <c r="S5" s="441"/>
+      <c r="T5" s="441"/>
+      <c r="U5" s="441"/>
+      <c r="V5" s="441"/>
+      <c r="W5" s="441"/>
+      <c r="X5" s="441"/>
+      <c r="Y5" s="441"/>
+      <c r="Z5" s="441"/>
+      <c r="AA5" s="442"/>
+      <c r="AB5" s="456" t="s">
+        <v>87</v>
+      </c>
+      <c r="AC5" s="457"/>
+      <c r="AD5" s="457"/>
+      <c r="AE5" s="457"/>
+      <c r="AF5" s="457"/>
+      <c r="AG5" s="458"/>
+    </row>
+    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="440"/>
+      <c r="B6" s="441"/>
+      <c r="C6" s="441"/>
+      <c r="D6" s="441"/>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="441"/>
+      <c r="J6" s="441"/>
+      <c r="K6" s="441"/>
+      <c r="L6" s="441"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="441"/>
+      <c r="Q6" s="441"/>
+      <c r="R6" s="441"/>
+      <c r="S6" s="441"/>
+      <c r="T6" s="441"/>
+      <c r="U6" s="441"/>
+      <c r="V6" s="441"/>
+      <c r="W6" s="441"/>
+      <c r="X6" s="441"/>
+      <c r="Y6" s="441"/>
+      <c r="Z6" s="441"/>
+      <c r="AA6" s="442"/>
+      <c r="AB6" s="459" t="s">
         <v>88</v>
       </c>
-      <c r="AC3" s="478"/>
-      <c r="AD3" s="478"/>
-      <c r="AE3" s="478"/>
-      <c r="AF3" s="478"/>
-      <c r="AG3" s="479"/>
-    </row>
-    <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="480" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="481"/>
-      <c r="C4" s="481"/>
-      <c r="D4" s="481"/>
-      <c r="E4" s="481"/>
-      <c r="F4" s="481"/>
-      <c r="G4" s="481"/>
-      <c r="H4" s="481"/>
-      <c r="I4" s="481"/>
-      <c r="J4" s="481"/>
-      <c r="K4" s="481"/>
-      <c r="L4" s="481"/>
-      <c r="M4" s="481"/>
-      <c r="N4" s="481"/>
-      <c r="O4" s="481"/>
-      <c r="P4" s="481"/>
-      <c r="Q4" s="481"/>
-      <c r="R4" s="481"/>
-      <c r="S4" s="481"/>
-      <c r="T4" s="481"/>
-      <c r="U4" s="481"/>
-      <c r="V4" s="481"/>
-      <c r="W4" s="481"/>
-      <c r="X4" s="481"/>
-      <c r="Y4" s="481"/>
-      <c r="Z4" s="481"/>
-      <c r="AA4" s="482"/>
-      <c r="AB4" s="483"/>
-      <c r="AC4" s="484"/>
-      <c r="AD4" s="484"/>
-      <c r="AE4" s="484"/>
-      <c r="AF4" s="484"/>
-      <c r="AG4" s="485"/>
-    </row>
-    <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="439" t="s">
+      <c r="AC6" s="460"/>
+      <c r="AD6" s="460"/>
+      <c r="AE6" s="460"/>
+      <c r="AF6" s="460"/>
+      <c r="AG6" s="461"/>
+    </row>
+    <row r="7" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="443"/>
+      <c r="B7" s="444"/>
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="444"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="444"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="444"/>
+      <c r="O7" s="444"/>
+      <c r="P7" s="444"/>
+      <c r="Q7" s="444"/>
+      <c r="R7" s="444"/>
+      <c r="S7" s="444"/>
+      <c r="T7" s="444"/>
+      <c r="U7" s="444"/>
+      <c r="V7" s="444"/>
+      <c r="W7" s="444"/>
+      <c r="X7" s="444"/>
+      <c r="Y7" s="444"/>
+      <c r="Z7" s="444"/>
+      <c r="AA7" s="445"/>
+      <c r="AB7" s="462"/>
+      <c r="AC7" s="462"/>
+      <c r="AD7" s="462"/>
+      <c r="AE7" s="462"/>
+      <c r="AF7" s="462"/>
+      <c r="AG7" s="463"/>
+    </row>
+    <row r="8" spans="1:34" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="446" t="s">
         <v>89</v>
       </c>
-      <c r="B5" s="440"/>
-      <c r="C5" s="440"/>
-      <c r="D5" s="440"/>
-      <c r="E5" s="440"/>
-      <c r="F5" s="440"/>
-      <c r="G5" s="440"/>
-      <c r="H5" s="440"/>
-      <c r="I5" s="440"/>
-      <c r="J5" s="440"/>
-      <c r="K5" s="440"/>
-      <c r="L5" s="440"/>
-      <c r="M5" s="440"/>
-      <c r="N5" s="440"/>
-      <c r="O5" s="440"/>
-      <c r="P5" s="440"/>
-      <c r="Q5" s="440"/>
-      <c r="R5" s="440"/>
-      <c r="S5" s="440"/>
-      <c r="T5" s="440"/>
-      <c r="U5" s="440"/>
-      <c r="V5" s="440"/>
-      <c r="W5" s="440"/>
-      <c r="X5" s="440"/>
-      <c r="Y5" s="440"/>
-      <c r="Z5" s="440"/>
-      <c r="AA5" s="441"/>
-      <c r="AB5" s="455" t="s">
-        <v>90</v>
-      </c>
-      <c r="AC5" s="456"/>
-      <c r="AD5" s="456"/>
-      <c r="AE5" s="456"/>
-      <c r="AF5" s="456"/>
-      <c r="AG5" s="457"/>
-    </row>
-    <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="439"/>
-      <c r="B6" s="440"/>
-      <c r="C6" s="440"/>
-      <c r="D6" s="440"/>
-      <c r="E6" s="440"/>
-      <c r="F6" s="440"/>
-      <c r="G6" s="440"/>
-      <c r="H6" s="440"/>
-      <c r="I6" s="440"/>
-      <c r="J6" s="440"/>
-      <c r="K6" s="440"/>
-      <c r="L6" s="440"/>
-      <c r="M6" s="440"/>
-      <c r="N6" s="440"/>
-      <c r="O6" s="440"/>
-      <c r="P6" s="440"/>
-      <c r="Q6" s="440"/>
-      <c r="R6" s="440"/>
-      <c r="S6" s="440"/>
-      <c r="T6" s="440"/>
-      <c r="U6" s="440"/>
-      <c r="V6" s="440"/>
-      <c r="W6" s="440"/>
-      <c r="X6" s="440"/>
-      <c r="Y6" s="440"/>
-      <c r="Z6" s="440"/>
-      <c r="AA6" s="441"/>
-      <c r="AB6" s="458" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC6" s="459"/>
-      <c r="AD6" s="459"/>
-      <c r="AE6" s="459"/>
-      <c r="AF6" s="459"/>
-      <c r="AG6" s="460"/>
-    </row>
-    <row r="7" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="442"/>
-      <c r="B7" s="443"/>
-      <c r="C7" s="443"/>
-      <c r="D7" s="443"/>
-      <c r="E7" s="443"/>
-      <c r="F7" s="443"/>
-      <c r="G7" s="443"/>
-      <c r="H7" s="443"/>
-      <c r="I7" s="443"/>
-      <c r="J7" s="443"/>
-      <c r="K7" s="443"/>
-      <c r="L7" s="443"/>
-      <c r="M7" s="443"/>
-      <c r="N7" s="443"/>
-      <c r="O7" s="443"/>
-      <c r="P7" s="443"/>
-      <c r="Q7" s="443"/>
-      <c r="R7" s="443"/>
-      <c r="S7" s="443"/>
-      <c r="T7" s="443"/>
-      <c r="U7" s="443"/>
-      <c r="V7" s="443"/>
-      <c r="W7" s="443"/>
-      <c r="X7" s="443"/>
-      <c r="Y7" s="443"/>
-      <c r="Z7" s="443"/>
-      <c r="AA7" s="444"/>
-      <c r="AB7" s="461"/>
-      <c r="AC7" s="461"/>
-      <c r="AD7" s="461"/>
-      <c r="AE7" s="461"/>
-      <c r="AF7" s="461"/>
-      <c r="AG7" s="462"/>
-    </row>
-    <row r="8" spans="1:34" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="445" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" s="446"/>
-      <c r="C8" s="447"/>
+      <c r="B8" s="447"/>
+      <c r="C8" s="448"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="454"/>
-      <c r="F8" s="346"/>
-      <c r="G8" s="346"/>
-      <c r="H8" s="346"/>
-      <c r="I8" s="346"/>
-      <c r="J8" s="346"/>
-      <c r="K8" s="346"/>
-      <c r="L8" s="346"/>
-      <c r="M8" s="346"/>
-      <c r="N8" s="346"/>
-      <c r="O8" s="346"/>
-      <c r="P8" s="346"/>
-      <c r="Q8" s="346"/>
-      <c r="R8" s="346"/>
-      <c r="S8" s="346"/>
-      <c r="T8" s="346"/>
-      <c r="U8" s="346"/>
-      <c r="V8" s="346"/>
-      <c r="W8" s="346"/>
-      <c r="X8" s="346"/>
-      <c r="Y8" s="346"/>
-      <c r="Z8" s="346"/>
-      <c r="AA8" s="346"/>
-      <c r="AB8" s="346"/>
-      <c r="AC8" s="346"/>
-      <c r="AD8" s="346"/>
-      <c r="AE8" s="346"/>
-      <c r="AF8" s="346"/>
-      <c r="AG8" s="347"/>
+      <c r="E8" s="455"/>
+      <c r="F8" s="347"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="347"/>
+      <c r="I8" s="347"/>
+      <c r="J8" s="347"/>
+      <c r="K8" s="347"/>
+      <c r="L8" s="347"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
+      <c r="AD8" s="347"/>
+      <c r="AE8" s="347"/>
+      <c r="AF8" s="347"/>
+      <c r="AG8" s="348"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="448"/>
-      <c r="B9" s="449"/>
-      <c r="C9" s="450"/>
+      <c r="A9" s="449"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="451"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4545,13 +4539,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -4565,26 +4559,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="451"/>
-      <c r="B10" s="452"/>
-      <c r="C10" s="453"/>
+      <c r="A10" s="452"/>
+      <c r="B10" s="453"/>
+      <c r="C10" s="454"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="341"/>
-      <c r="K10" s="341"/>
-      <c r="L10" s="341"/>
-      <c r="M10" s="341"/>
+      <c r="J10" s="342"/>
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="342"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="341"/>
-      <c r="P10" s="341"/>
-      <c r="Q10" s="341"/>
-      <c r="R10" s="341"/>
-      <c r="S10" s="339"/>
-      <c r="T10" s="339"/>
+      <c r="O10" s="342"/>
+      <c r="P10" s="342"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="340"/>
+      <c r="T10" s="340"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -4601,110 +4595,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="445" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11" s="446"/>
-      <c r="C11" s="447"/>
+      <c r="A11" s="446" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="463" t="str">
+      <c r="E11" s="464" t="str">
         <f>ORS!D6</f>
         <v>MAYBELLINE M. MONTEIRO</v>
       </c>
-      <c r="F11" s="446"/>
-      <c r="G11" s="446"/>
-      <c r="H11" s="446"/>
-      <c r="I11" s="446"/>
-      <c r="J11" s="446"/>
-      <c r="K11" s="446"/>
-      <c r="L11" s="446"/>
-      <c r="M11" s="446"/>
-      <c r="N11" s="446"/>
-      <c r="O11" s="446"/>
-      <c r="P11" s="446"/>
-      <c r="Q11" s="446"/>
-      <c r="R11" s="446"/>
-      <c r="S11" s="465" t="s">
-        <v>98</v>
-      </c>
-      <c r="T11" s="466"/>
-      <c r="U11" s="466"/>
-      <c r="V11" s="466"/>
-      <c r="W11" s="466"/>
-      <c r="X11" s="466"/>
-      <c r="Y11" s="466"/>
-      <c r="Z11" s="466"/>
-      <c r="AA11" s="467"/>
-      <c r="AB11" s="468" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC11" s="468"/>
-      <c r="AD11" s="468"/>
-      <c r="AE11" s="468"/>
-      <c r="AF11" s="468"/>
-      <c r="AG11" s="469"/>
+      <c r="F11" s="447"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="447"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="447"/>
+      <c r="O11" s="447"/>
+      <c r="P11" s="447"/>
+      <c r="Q11" s="447"/>
+      <c r="R11" s="447"/>
+      <c r="S11" s="466" t="s">
+        <v>95</v>
+      </c>
+      <c r="T11" s="467"/>
+      <c r="U11" s="467"/>
+      <c r="V11" s="467"/>
+      <c r="W11" s="467"/>
+      <c r="X11" s="467"/>
+      <c r="Y11" s="467"/>
+      <c r="Z11" s="467"/>
+      <c r="AA11" s="468"/>
+      <c r="AB11" s="469" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC11" s="469"/>
+      <c r="AD11" s="469"/>
+      <c r="AE11" s="469"/>
+      <c r="AF11" s="469"/>
+      <c r="AG11" s="470"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="448"/>
-      <c r="B12" s="449"/>
-      <c r="C12" s="450"/>
+      <c r="A12" s="449"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="451"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="464"/>
-      <c r="F12" s="449"/>
-      <c r="G12" s="449"/>
-      <c r="H12" s="449"/>
-      <c r="I12" s="449"/>
-      <c r="J12" s="449"/>
-      <c r="K12" s="449"/>
-      <c r="L12" s="449"/>
-      <c r="M12" s="449"/>
-      <c r="N12" s="449"/>
-      <c r="O12" s="449"/>
-      <c r="P12" s="449"/>
-      <c r="Q12" s="449"/>
-      <c r="R12" s="449"/>
-      <c r="S12" s="470"/>
-      <c r="T12" s="471"/>
-      <c r="U12" s="471"/>
-      <c r="V12" s="471"/>
-      <c r="W12" s="471"/>
-      <c r="X12" s="471"/>
-      <c r="Y12" s="471"/>
-      <c r="Z12" s="471"/>
-      <c r="AA12" s="472"/>
-      <c r="AB12" s="339"/>
-      <c r="AC12" s="339"/>
-      <c r="AD12" s="339"/>
-      <c r="AE12" s="339"/>
-      <c r="AF12" s="339"/>
-      <c r="AG12" s="340"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="450"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="450"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="450"/>
+      <c r="Q12" s="450"/>
+      <c r="R12" s="450"/>
+      <c r="S12" s="471"/>
+      <c r="T12" s="472"/>
+      <c r="U12" s="472"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="472"/>
+      <c r="X12" s="472"/>
+      <c r="Y12" s="472"/>
+      <c r="Z12" s="472"/>
+      <c r="AA12" s="473"/>
+      <c r="AB12" s="340"/>
+      <c r="AC12" s="340"/>
+      <c r="AD12" s="340"/>
+      <c r="AE12" s="340"/>
+      <c r="AF12" s="340"/>
+      <c r="AG12" s="341"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="427" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="428"/>
-      <c r="C13" s="429"/>
+      <c r="A13" s="428" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="429"/>
+      <c r="C13" s="430"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="433" t="e">
+      <c r="E13" s="434" t="e">
         <f>ORS!D10</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="428"/>
-      <c r="G13" s="428"/>
-      <c r="H13" s="428"/>
-      <c r="I13" s="428"/>
-      <c r="J13" s="428"/>
-      <c r="K13" s="428"/>
-      <c r="L13" s="428"/>
-      <c r="M13" s="428"/>
-      <c r="N13" s="428"/>
-      <c r="O13" s="428"/>
-      <c r="P13" s="428"/>
-      <c r="Q13" s="428"/>
-      <c r="R13" s="428"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="429"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="429"/>
+      <c r="O13" s="429"/>
+      <c r="P13" s="429"/>
+      <c r="Q13" s="429"/>
+      <c r="R13" s="429"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -4723,24 +4717,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="430"/>
-      <c r="B14" s="431"/>
-      <c r="C14" s="432"/>
+      <c r="A14" s="431"/>
+      <c r="B14" s="432"/>
+      <c r="C14" s="433"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="434"/>
-      <c r="F14" s="431"/>
-      <c r="G14" s="431"/>
-      <c r="H14" s="431"/>
-      <c r="I14" s="431"/>
-      <c r="J14" s="431"/>
-      <c r="K14" s="431"/>
-      <c r="L14" s="431"/>
-      <c r="M14" s="431"/>
-      <c r="N14" s="431"/>
-      <c r="O14" s="431"/>
-      <c r="P14" s="431"/>
-      <c r="Q14" s="431"/>
-      <c r="R14" s="431"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="432"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="432"/>
+      <c r="L14" s="432"/>
+      <c r="M14" s="432"/>
+      <c r="N14" s="432"/>
+      <c r="O14" s="432"/>
+      <c r="P14" s="432"/>
+      <c r="Q14" s="432"/>
+      <c r="R14" s="432"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -4759,47 +4753,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:34" s="103" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="435" t="s">
+      <c r="A15" s="436" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="396"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="396"/>
+      <c r="I15" s="396"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="396"/>
+      <c r="L15" s="396"/>
+      <c r="M15" s="396"/>
+      <c r="N15" s="396"/>
+      <c r="O15" s="396"/>
+      <c r="P15" s="396"/>
+      <c r="Q15" s="437"/>
+      <c r="R15" s="395" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="438"/>
+      <c r="T15" s="438"/>
+      <c r="U15" s="438"/>
+      <c r="V15" s="439"/>
+      <c r="W15" s="395" t="s">
+        <v>41</v>
+      </c>
+      <c r="X15" s="396"/>
+      <c r="Y15" s="396"/>
+      <c r="Z15" s="396"/>
+      <c r="AA15" s="437"/>
+      <c r="AB15" s="395" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="395"/>
-      <c r="C15" s="395"/>
-      <c r="D15" s="395"/>
-      <c r="E15" s="395"/>
-      <c r="F15" s="395"/>
-      <c r="G15" s="395"/>
-      <c r="H15" s="395"/>
-      <c r="I15" s="395"/>
-      <c r="J15" s="395"/>
-      <c r="K15" s="395"/>
-      <c r="L15" s="395"/>
-      <c r="M15" s="395"/>
-      <c r="N15" s="395"/>
-      <c r="O15" s="395"/>
-      <c r="P15" s="395"/>
-      <c r="Q15" s="436"/>
-      <c r="R15" s="394" t="s">
-        <v>42</v>
-      </c>
-      <c r="S15" s="437"/>
-      <c r="T15" s="437"/>
-      <c r="U15" s="437"/>
-      <c r="V15" s="438"/>
-      <c r="W15" s="394" t="s">
-        <v>44</v>
-      </c>
-      <c r="X15" s="395"/>
-      <c r="Y15" s="395"/>
-      <c r="Z15" s="395"/>
-      <c r="AA15" s="436"/>
-      <c r="AB15" s="394" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC15" s="395"/>
-      <c r="AD15" s="395"/>
-      <c r="AE15" s="395"/>
-      <c r="AF15" s="395"/>
-      <c r="AG15" s="396"/>
+      <c r="AC15" s="396"/>
+      <c r="AD15" s="396"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="396"/>
+      <c r="AG15" s="397"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4840,23 +4834,23 @@
     </row>
     <row r="17" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
-      <c r="B17" s="217" t="s">
-        <v>100</v>
-      </c>
-      <c r="C17" s="217"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="217"/>
-      <c r="F17" s="217"/>
-      <c r="G17" s="217"/>
-      <c r="H17" s="217"/>
-      <c r="I17" s="217"/>
-      <c r="J17" s="217"/>
-      <c r="K17" s="217"/>
-      <c r="L17" s="217"/>
-      <c r="M17" s="217"/>
-      <c r="N17" s="217"/>
-      <c r="O17" s="217"/>
-      <c r="P17" s="217"/>
+      <c r="B17" s="218" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -4868,34 +4862,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="413">
+      <c r="AB17" s="414">
         <f>ORS!L15</f>
         <v>4981</v>
       </c>
-      <c r="AC17" s="414"/>
-      <c r="AD17" s="414"/>
-      <c r="AE17" s="414"/>
-      <c r="AF17" s="414"/>
-      <c r="AG17" s="415"/>
+      <c r="AC17" s="415"/>
+      <c r="AD17" s="415"/>
+      <c r="AE17" s="415"/>
+      <c r="AF17" s="415"/>
+      <c r="AG17" s="416"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="217"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217"/>
-      <c r="F18" s="217"/>
-      <c r="G18" s="217"/>
-      <c r="H18" s="217"/>
-      <c r="I18" s="217"/>
-      <c r="J18" s="217"/>
-      <c r="K18" s="217"/>
-      <c r="L18" s="217"/>
-      <c r="M18" s="217"/>
-      <c r="N18" s="217"/>
-      <c r="O18" s="217"/>
-      <c r="P18" s="217"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -4917,21 +4911,21 @@
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
-      <c r="B19" s="217"/>
-      <c r="C19" s="217"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="217"/>
-      <c r="F19" s="217"/>
-      <c r="G19" s="217"/>
-      <c r="H19" s="217"/>
-      <c r="I19" s="217"/>
-      <c r="J19" s="217"/>
-      <c r="K19" s="217"/>
-      <c r="L19" s="217"/>
-      <c r="M19" s="217"/>
-      <c r="N19" s="217"/>
-      <c r="O19" s="217"/>
-      <c r="P19" s="217"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -4990,7 +4984,7 @@
     <row r="21" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5028,7 +5022,7 @@
     <row r="22" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5066,7 +5060,7 @@
     <row r="23" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5104,7 +5098,7 @@
     <row r="24" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5142,7 +5136,7 @@
     <row r="25" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5180,7 +5174,7 @@
     <row r="26" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5218,7 +5212,7 @@
     <row r="27" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5290,25 +5284,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:35" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="416" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="417"/>
-      <c r="C29" s="417"/>
-      <c r="D29" s="417"/>
-      <c r="E29" s="417"/>
-      <c r="F29" s="417"/>
-      <c r="G29" s="417"/>
-      <c r="H29" s="417"/>
-      <c r="I29" s="417"/>
-      <c r="J29" s="417"/>
-      <c r="K29" s="417"/>
-      <c r="L29" s="417"/>
-      <c r="M29" s="417"/>
-      <c r="N29" s="417"/>
-      <c r="O29" s="417"/>
-      <c r="P29" s="417"/>
-      <c r="Q29" s="418"/>
+      <c r="A29" s="417" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="418"/>
+      <c r="C29" s="418"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="418"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="418"/>
+      <c r="H29" s="418"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="418"/>
+      <c r="K29" s="418"/>
+      <c r="L29" s="418"/>
+      <c r="M29" s="418"/>
+      <c r="N29" s="418"/>
+      <c r="O29" s="418"/>
+      <c r="P29" s="418"/>
+      <c r="Q29" s="419"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5319,56 +5313,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="419">
+      <c r="AB29" s="420">
         <f>AB17</f>
         <v>4981</v>
       </c>
-      <c r="AC29" s="420"/>
-      <c r="AD29" s="420"/>
-      <c r="AE29" s="420"/>
-      <c r="AF29" s="420"/>
-      <c r="AG29" s="421"/>
+      <c r="AC29" s="421"/>
+      <c r="AD29" s="421"/>
+      <c r="AE29" s="421"/>
+      <c r="AF29" s="421"/>
+      <c r="AG29" s="422"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:35" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120" t="s">
-        <v>50</v>
-      </c>
-      <c r="B30" s="422" t="s">
-        <v>109</v>
-      </c>
-      <c r="C30" s="422"/>
-      <c r="D30" s="422"/>
-      <c r="E30" s="422"/>
-      <c r="F30" s="422"/>
-      <c r="G30" s="422"/>
-      <c r="H30" s="422"/>
-      <c r="I30" s="422"/>
-      <c r="J30" s="422"/>
-      <c r="K30" s="422"/>
-      <c r="L30" s="422"/>
-      <c r="M30" s="422"/>
-      <c r="N30" s="422"/>
-      <c r="O30" s="422"/>
-      <c r="P30" s="422"/>
-      <c r="Q30" s="422"/>
-      <c r="R30" s="422"/>
-      <c r="S30" s="422"/>
-      <c r="T30" s="422"/>
-      <c r="U30" s="422"/>
-      <c r="V30" s="422"/>
-      <c r="W30" s="422"/>
-      <c r="X30" s="422"/>
-      <c r="Y30" s="422"/>
-      <c r="Z30" s="422"/>
-      <c r="AA30" s="422"/>
-      <c r="AB30" s="423"/>
-      <c r="AC30" s="423"/>
-      <c r="AD30" s="423"/>
-      <c r="AE30" s="423"/>
-      <c r="AF30" s="423"/>
-      <c r="AG30" s="424"/>
+        <v>47</v>
+      </c>
+      <c r="B30" s="423" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="423"/>
+      <c r="D30" s="423"/>
+      <c r="E30" s="423"/>
+      <c r="F30" s="423"/>
+      <c r="G30" s="423"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
+      <c r="K30" s="423"/>
+      <c r="L30" s="423"/>
+      <c r="M30" s="423"/>
+      <c r="N30" s="423"/>
+      <c r="O30" s="423"/>
+      <c r="P30" s="423"/>
+      <c r="Q30" s="423"/>
+      <c r="R30" s="423"/>
+      <c r="S30" s="423"/>
+      <c r="T30" s="423"/>
+      <c r="U30" s="423"/>
+      <c r="V30" s="423"/>
+      <c r="W30" s="423"/>
+      <c r="X30" s="423"/>
+      <c r="Y30" s="423"/>
+      <c r="Z30" s="423"/>
+      <c r="AA30" s="423"/>
+      <c r="AB30" s="424"/>
+      <c r="AC30" s="424"/>
+      <c r="AD30" s="424"/>
+      <c r="AE30" s="424"/>
+      <c r="AF30" s="424"/>
+      <c r="AG30" s="425"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5378,7 +5372,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5413,80 +5407,80 @@
     </row>
     <row r="32" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="121"/>
-      <c r="B32" s="425" t="str">
+      <c r="B32" s="426" t="str">
         <f>ORS!C37</f>
         <v>DR. CARINA S. CRUZ</v>
       </c>
-      <c r="C32" s="414"/>
-      <c r="D32" s="414"/>
-      <c r="E32" s="414"/>
-      <c r="F32" s="414"/>
-      <c r="G32" s="414"/>
-      <c r="H32" s="414"/>
-      <c r="I32" s="414"/>
-      <c r="J32" s="414"/>
-      <c r="K32" s="414"/>
-      <c r="L32" s="414"/>
-      <c r="M32" s="414"/>
-      <c r="N32" s="414"/>
-      <c r="O32" s="414"/>
-      <c r="P32" s="414"/>
-      <c r="Q32" s="414"/>
-      <c r="R32" s="414"/>
-      <c r="S32" s="414"/>
-      <c r="T32" s="414"/>
-      <c r="U32" s="414"/>
-      <c r="V32" s="414"/>
-      <c r="W32" s="414"/>
-      <c r="X32" s="414"/>
-      <c r="Y32" s="414"/>
-      <c r="Z32" s="414"/>
-      <c r="AA32" s="414"/>
-      <c r="AB32" s="414"/>
-      <c r="AC32" s="414"/>
-      <c r="AD32" s="414"/>
-      <c r="AE32" s="414"/>
-      <c r="AF32" s="414"/>
+      <c r="C32" s="415"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="415"/>
+      <c r="I32" s="415"/>
+      <c r="J32" s="415"/>
+      <c r="K32" s="415"/>
+      <c r="L32" s="415"/>
+      <c r="M32" s="415"/>
+      <c r="N32" s="415"/>
+      <c r="O32" s="415"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="415"/>
+      <c r="R32" s="415"/>
+      <c r="S32" s="415"/>
+      <c r="T32" s="415"/>
+      <c r="U32" s="415"/>
+      <c r="V32" s="415"/>
+      <c r="W32" s="415"/>
+      <c r="X32" s="415"/>
+      <c r="Y32" s="415"/>
+      <c r="Z32" s="415"/>
+      <c r="AA32" s="415"/>
+      <c r="AB32" s="415"/>
+      <c r="AC32" s="415"/>
+      <c r="AD32" s="415"/>
+      <c r="AE32" s="415"/>
+      <c r="AF32" s="415"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="121"/>
-      <c r="B33" s="426" t="str">
+      <c r="B33" s="427" t="str">
         <f>ORS!C39</f>
         <v>Chief, FAD</v>
       </c>
-      <c r="C33" s="426"/>
-      <c r="D33" s="426"/>
-      <c r="E33" s="426"/>
-      <c r="F33" s="426"/>
-      <c r="G33" s="426"/>
-      <c r="H33" s="426"/>
-      <c r="I33" s="426"/>
-      <c r="J33" s="426"/>
-      <c r="K33" s="426"/>
-      <c r="L33" s="426"/>
-      <c r="M33" s="426"/>
-      <c r="N33" s="426"/>
-      <c r="O33" s="426"/>
-      <c r="P33" s="426"/>
-      <c r="Q33" s="426"/>
-      <c r="R33" s="426"/>
-      <c r="S33" s="426"/>
-      <c r="T33" s="426"/>
-      <c r="U33" s="426"/>
-      <c r="V33" s="426"/>
-      <c r="W33" s="426"/>
-      <c r="X33" s="426"/>
-      <c r="Y33" s="426"/>
-      <c r="Z33" s="426"/>
-      <c r="AA33" s="426"/>
-      <c r="AB33" s="426"/>
-      <c r="AC33" s="426"/>
-      <c r="AD33" s="426"/>
-      <c r="AE33" s="426"/>
-      <c r="AF33" s="426"/>
+      <c r="C33" s="427"/>
+      <c r="D33" s="427"/>
+      <c r="E33" s="427"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="427"/>
+      <c r="H33" s="427"/>
+      <c r="I33" s="427"/>
+      <c r="J33" s="427"/>
+      <c r="K33" s="427"/>
+      <c r="L33" s="427"/>
+      <c r="M33" s="427"/>
+      <c r="N33" s="427"/>
+      <c r="O33" s="427"/>
+      <c r="P33" s="427"/>
+      <c r="Q33" s="427"/>
+      <c r="R33" s="427"/>
+      <c r="S33" s="427"/>
+      <c r="T33" s="427"/>
+      <c r="U33" s="427"/>
+      <c r="V33" s="427"/>
+      <c r="W33" s="427"/>
+      <c r="X33" s="427"/>
+      <c r="Y33" s="427"/>
+      <c r="Z33" s="427"/>
+      <c r="AA33" s="427"/>
+      <c r="AB33" s="427"/>
+      <c r="AC33" s="427"/>
+      <c r="AD33" s="427"/>
+      <c r="AE33" s="427"/>
+      <c r="AF33" s="427"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5503,19 +5497,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="426"/>
-      <c r="M34" s="426"/>
-      <c r="N34" s="426"/>
-      <c r="O34" s="426"/>
-      <c r="P34" s="426"/>
-      <c r="Q34" s="426"/>
-      <c r="R34" s="426"/>
-      <c r="S34" s="426"/>
-      <c r="T34" s="426"/>
-      <c r="U34" s="426"/>
-      <c r="V34" s="426"/>
-      <c r="W34" s="426"/>
-      <c r="X34" s="426"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="427"/>
+      <c r="N34" s="427"/>
+      <c r="O34" s="427"/>
+      <c r="P34" s="427"/>
+      <c r="Q34" s="427"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
+      <c r="X34" s="427"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -5540,19 +5534,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="426"/>
-      <c r="M35" s="426"/>
-      <c r="N35" s="426"/>
-      <c r="O35" s="426"/>
-      <c r="P35" s="426"/>
-      <c r="Q35" s="426"/>
-      <c r="R35" s="426"/>
-      <c r="S35" s="426"/>
-      <c r="T35" s="426"/>
-      <c r="U35" s="426"/>
-      <c r="V35" s="426"/>
-      <c r="W35" s="426"/>
-      <c r="X35" s="426"/>
+      <c r="L35" s="427"/>
+      <c r="M35" s="427"/>
+      <c r="N35" s="427"/>
+      <c r="O35" s="427"/>
+      <c r="P35" s="427"/>
+      <c r="Q35" s="427"/>
+      <c r="R35" s="427"/>
+      <c r="S35" s="427"/>
+      <c r="T35" s="427"/>
+      <c r="U35" s="427"/>
+      <c r="V35" s="427"/>
+      <c r="W35" s="427"/>
+      <c r="X35" s="427"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -5567,10 +5561,10 @@
     </row>
     <row r="36" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="128" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -5607,47 +5601,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="408" t="s">
+      <c r="A37" s="409" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="410"/>
+      <c r="C37" s="410"/>
+      <c r="D37" s="410"/>
+      <c r="E37" s="410"/>
+      <c r="F37" s="410"/>
+      <c r="G37" s="410"/>
+      <c r="H37" s="410"/>
+      <c r="I37" s="410"/>
+      <c r="J37" s="410"/>
+      <c r="K37" s="410"/>
+      <c r="L37" s="410"/>
+      <c r="M37" s="410"/>
+      <c r="N37" s="410"/>
+      <c r="O37" s="410"/>
+      <c r="P37" s="410"/>
+      <c r="Q37" s="410"/>
+      <c r="R37" s="410"/>
+      <c r="S37" s="410" t="s">
+        <v>110</v>
+      </c>
+      <c r="T37" s="410"/>
+      <c r="U37" s="410"/>
+      <c r="V37" s="410"/>
+      <c r="W37" s="410"/>
+      <c r="X37" s="411" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y37" s="411"/>
+      <c r="Z37" s="411"/>
+      <c r="AA37" s="411"/>
+      <c r="AB37" s="411"/>
+      <c r="AC37" s="412" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="409"/>
-      <c r="C37" s="409"/>
-      <c r="D37" s="409"/>
-      <c r="E37" s="409"/>
-      <c r="F37" s="409"/>
-      <c r="G37" s="409"/>
-      <c r="H37" s="409"/>
-      <c r="I37" s="409"/>
-      <c r="J37" s="409"/>
-      <c r="K37" s="409"/>
-      <c r="L37" s="409"/>
-      <c r="M37" s="409"/>
-      <c r="N37" s="409"/>
-      <c r="O37" s="409"/>
-      <c r="P37" s="409"/>
-      <c r="Q37" s="409"/>
-      <c r="R37" s="409"/>
-      <c r="S37" s="409" t="s">
-        <v>113</v>
-      </c>
-      <c r="T37" s="409"/>
-      <c r="U37" s="409"/>
-      <c r="V37" s="409"/>
-      <c r="W37" s="409"/>
-      <c r="X37" s="410" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y37" s="410"/>
-      <c r="Z37" s="410"/>
-      <c r="AA37" s="410"/>
-      <c r="AB37" s="410"/>
-      <c r="AC37" s="411" t="s">
-        <v>115</v>
-      </c>
-      <c r="AD37" s="411"/>
-      <c r="AE37" s="411"/>
-      <c r="AF37" s="411"/>
-      <c r="AG37" s="412"/>
+      <c r="AD37" s="412"/>
+      <c r="AE37" s="412"/>
+      <c r="AF37" s="412"/>
+      <c r="AG37" s="413"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -5727,7 +5721,7 @@
     <row r="40" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -5764,10 +5758,10 @@
     </row>
     <row r="41" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="142" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -5786,21 +5780,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>117</v>
-      </c>
-      <c r="T41" s="397" t="s">
-        <v>118</v>
-      </c>
-      <c r="U41" s="397"/>
-      <c r="V41" s="397"/>
-      <c r="W41" s="397"/>
-      <c r="X41" s="397"/>
-      <c r="Y41" s="397"/>
-      <c r="Z41" s="397"/>
-      <c r="AA41" s="397"/>
-      <c r="AB41" s="397"/>
-      <c r="AC41" s="397"/>
-      <c r="AD41" s="397"/>
+        <v>114</v>
+      </c>
+      <c r="T41" s="398" t="s">
+        <v>115</v>
+      </c>
+      <c r="U41" s="398"/>
+      <c r="V41" s="398"/>
+      <c r="W41" s="398"/>
+      <c r="X41" s="398"/>
+      <c r="Y41" s="398"/>
+      <c r="Z41" s="398"/>
+      <c r="AA41" s="398"/>
+      <c r="AB41" s="398"/>
+      <c r="AC41" s="398"/>
+      <c r="AD41" s="398"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -5810,7 +5804,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -5827,31 +5821,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="398"/>
-      <c r="T42" s="399"/>
-      <c r="U42" s="399"/>
-      <c r="V42" s="399"/>
-      <c r="W42" s="399"/>
-      <c r="X42" s="399"/>
-      <c r="Y42" s="399"/>
-      <c r="Z42" s="399"/>
-      <c r="AA42" s="399"/>
-      <c r="AB42" s="399"/>
-      <c r="AC42" s="399"/>
-      <c r="AD42" s="399"/>
-      <c r="AE42" s="399"/>
-      <c r="AF42" s="399"/>
-      <c r="AG42" s="400"/>
+      <c r="S42" s="399"/>
+      <c r="T42" s="400"/>
+      <c r="U42" s="400"/>
+      <c r="V42" s="400"/>
+      <c r="W42" s="400"/>
+      <c r="X42" s="400"/>
+      <c r="Y42" s="400"/>
+      <c r="Z42" s="400"/>
+      <c r="AA42" s="400"/>
+      <c r="AB42" s="400"/>
+      <c r="AC42" s="400"/>
+      <c r="AD42" s="400"/>
+      <c r="AE42" s="400"/>
+      <c r="AF42" s="400"/>
+      <c r="AG42" s="401"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:35" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="407"/>
-      <c r="B43" s="339"/>
-      <c r="C43" s="339"/>
-      <c r="D43" s="339"/>
-      <c r="E43" s="339"/>
-      <c r="F43" s="339"/>
-      <c r="G43" s="339"/>
+      <c r="A43" s="408"/>
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -5863,28 +5857,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="401"/>
-      <c r="T43" s="402"/>
-      <c r="U43" s="402"/>
-      <c r="V43" s="402"/>
-      <c r="W43" s="402"/>
-      <c r="X43" s="402"/>
-      <c r="Y43" s="402"/>
-      <c r="Z43" s="402"/>
-      <c r="AA43" s="402"/>
-      <c r="AB43" s="402"/>
-      <c r="AC43" s="402"/>
-      <c r="AD43" s="402"/>
-      <c r="AE43" s="402"/>
-      <c r="AF43" s="402"/>
-      <c r="AG43" s="403"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="403"/>
+      <c r="U43" s="403"/>
+      <c r="V43" s="403"/>
+      <c r="W43" s="403"/>
+      <c r="X43" s="403"/>
+      <c r="Y43" s="403"/>
+      <c r="Z43" s="403"/>
+      <c r="AA43" s="403"/>
+      <c r="AB43" s="403"/>
+      <c r="AC43" s="403"/>
+      <c r="AD43" s="403"/>
+      <c r="AE43" s="403"/>
+      <c r="AF43" s="403"/>
+      <c r="AG43" s="404"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -5901,67 +5895,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="401"/>
-      <c r="T44" s="402"/>
-      <c r="U44" s="402"/>
-      <c r="V44" s="402"/>
-      <c r="W44" s="402"/>
-      <c r="X44" s="402"/>
-      <c r="Y44" s="402"/>
-      <c r="Z44" s="402"/>
-      <c r="AA44" s="402"/>
-      <c r="AB44" s="402"/>
-      <c r="AC44" s="402"/>
-      <c r="AD44" s="402"/>
-      <c r="AE44" s="402"/>
-      <c r="AF44" s="402"/>
-      <c r="AG44" s="403"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="403"/>
+      <c r="U44" s="403"/>
+      <c r="V44" s="403"/>
+      <c r="W44" s="403"/>
+      <c r="X44" s="403"/>
+      <c r="Y44" s="403"/>
+      <c r="Z44" s="403"/>
+      <c r="AA44" s="403"/>
+      <c r="AB44" s="403"/>
+      <c r="AC44" s="403"/>
+      <c r="AD44" s="403"/>
+      <c r="AE44" s="403"/>
+      <c r="AF44" s="403"/>
+      <c r="AG44" s="404"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:35" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="407"/>
-      <c r="B45" s="339"/>
-      <c r="C45" s="339"/>
-      <c r="D45" s="339"/>
-      <c r="E45" s="339"/>
-      <c r="F45" s="339"/>
-      <c r="G45" s="339"/>
-      <c r="H45" s="339"/>
-      <c r="I45" s="339"/>
-      <c r="J45" s="339"/>
-      <c r="K45" s="339"/>
-      <c r="L45" s="339"/>
-      <c r="M45" s="339"/>
-      <c r="N45" s="339"/>
-      <c r="O45" s="339"/>
-      <c r="P45" s="339"/>
-      <c r="Q45" s="339"/>
-      <c r="R45" s="340"/>
-      <c r="S45" s="401"/>
-      <c r="T45" s="402"/>
-      <c r="U45" s="402"/>
-      <c r="V45" s="402"/>
-      <c r="W45" s="402"/>
-      <c r="X45" s="402"/>
-      <c r="Y45" s="402"/>
-      <c r="Z45" s="402"/>
-      <c r="AA45" s="402"/>
-      <c r="AB45" s="402"/>
-      <c r="AC45" s="402"/>
-      <c r="AD45" s="402"/>
-      <c r="AE45" s="402"/>
-      <c r="AF45" s="402"/>
-      <c r="AG45" s="403"/>
+      <c r="A45" s="408"/>
+      <c r="B45" s="340"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
+      <c r="G45" s="340"/>
+      <c r="H45" s="340"/>
+      <c r="I45" s="340"/>
+      <c r="J45" s="340"/>
+      <c r="K45" s="340"/>
+      <c r="L45" s="340"/>
+      <c r="M45" s="340"/>
+      <c r="N45" s="340"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="340"/>
+      <c r="Q45" s="340"/>
+      <c r="R45" s="341"/>
+      <c r="S45" s="402"/>
+      <c r="T45" s="403"/>
+      <c r="U45" s="403"/>
+      <c r="V45" s="403"/>
+      <c r="W45" s="403"/>
+      <c r="X45" s="403"/>
+      <c r="Y45" s="403"/>
+      <c r="Z45" s="403"/>
+      <c r="AA45" s="403"/>
+      <c r="AB45" s="403"/>
+      <c r="AC45" s="403"/>
+      <c r="AD45" s="403"/>
+      <c r="AE45" s="403"/>
+      <c r="AF45" s="403"/>
+      <c r="AG45" s="404"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -5977,28 +5971,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="401"/>
-      <c r="T46" s="402"/>
-      <c r="U46" s="402"/>
-      <c r="V46" s="402"/>
-      <c r="W46" s="402"/>
-      <c r="X46" s="402"/>
-      <c r="Y46" s="402"/>
-      <c r="Z46" s="402"/>
-      <c r="AA46" s="402"/>
-      <c r="AB46" s="402"/>
-      <c r="AC46" s="402"/>
-      <c r="AD46" s="402"/>
-      <c r="AE46" s="402"/>
-      <c r="AF46" s="402"/>
-      <c r="AG46" s="403"/>
+      <c r="S46" s="402"/>
+      <c r="T46" s="403"/>
+      <c r="U46" s="403"/>
+      <c r="V46" s="403"/>
+      <c r="W46" s="403"/>
+      <c r="X46" s="403"/>
+      <c r="Y46" s="403"/>
+      <c r="Z46" s="403"/>
+      <c r="AA46" s="403"/>
+      <c r="AB46" s="403"/>
+      <c r="AC46" s="403"/>
+      <c r="AD46" s="403"/>
+      <c r="AE46" s="403"/>
+      <c r="AF46" s="403"/>
+      <c r="AG46" s="404"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6015,21 +6009,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="401"/>
-      <c r="T47" s="402"/>
-      <c r="U47" s="402"/>
-      <c r="V47" s="402"/>
-      <c r="W47" s="402"/>
-      <c r="X47" s="402"/>
-      <c r="Y47" s="402"/>
-      <c r="Z47" s="402"/>
-      <c r="AA47" s="402"/>
-      <c r="AB47" s="402"/>
-      <c r="AC47" s="402"/>
-      <c r="AD47" s="402"/>
-      <c r="AE47" s="402"/>
-      <c r="AF47" s="402"/>
-      <c r="AG47" s="403"/>
+      <c r="S47" s="402"/>
+      <c r="T47" s="403"/>
+      <c r="U47" s="403"/>
+      <c r="V47" s="403"/>
+      <c r="W47" s="403"/>
+      <c r="X47" s="403"/>
+      <c r="Y47" s="403"/>
+      <c r="Z47" s="403"/>
+      <c r="AA47" s="403"/>
+      <c r="AB47" s="403"/>
+      <c r="AC47" s="403"/>
+      <c r="AD47" s="403"/>
+      <c r="AE47" s="403"/>
+      <c r="AF47" s="403"/>
+      <c r="AG47" s="404"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:35" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6051,344 +6045,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="404"/>
-      <c r="T48" s="405"/>
-      <c r="U48" s="405"/>
-      <c r="V48" s="405"/>
-      <c r="W48" s="405"/>
-      <c r="X48" s="405"/>
-      <c r="Y48" s="405"/>
-      <c r="Z48" s="405"/>
-      <c r="AA48" s="405"/>
-      <c r="AB48" s="405"/>
-      <c r="AC48" s="405"/>
-      <c r="AD48" s="405"/>
-      <c r="AE48" s="405"/>
-      <c r="AF48" s="405"/>
-      <c r="AG48" s="406"/>
+      <c r="S48" s="405"/>
+      <c r="T48" s="406"/>
+      <c r="U48" s="406"/>
+      <c r="V48" s="406"/>
+      <c r="W48" s="406"/>
+      <c r="X48" s="406"/>
+      <c r="Y48" s="406"/>
+      <c r="Z48" s="406"/>
+      <c r="AA48" s="406"/>
+      <c r="AB48" s="406"/>
+      <c r="AC48" s="406"/>
+      <c r="AD48" s="406"/>
+      <c r="AE48" s="406"/>
+      <c r="AF48" s="406"/>
+      <c r="AG48" s="407"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="348" t="s">
+      <c r="A49" s="349" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="375"/>
+      <c r="C49" s="375"/>
+      <c r="D49" s="375"/>
+      <c r="E49" s="353"/>
+      <c r="F49" s="340"/>
+      <c r="G49" s="340"/>
+      <c r="H49" s="340"/>
+      <c r="I49" s="340"/>
+      <c r="J49" s="340"/>
+      <c r="K49" s="340"/>
+      <c r="L49" s="340"/>
+      <c r="M49" s="340"/>
+      <c r="N49" s="340"/>
+      <c r="O49" s="340"/>
+      <c r="P49" s="340"/>
+      <c r="Q49" s="340"/>
+      <c r="R49" s="341"/>
+      <c r="S49" s="349" t="s">
+        <v>120</v>
+      </c>
+      <c r="T49" s="350"/>
+      <c r="U49" s="350"/>
+      <c r="V49" s="379"/>
+      <c r="W49" s="362"/>
+      <c r="X49" s="359"/>
+      <c r="Y49" s="359"/>
+      <c r="Z49" s="359"/>
+      <c r="AA49" s="359"/>
+      <c r="AB49" s="359"/>
+      <c r="AC49" s="359"/>
+      <c r="AD49" s="359"/>
+      <c r="AE49" s="359"/>
+      <c r="AF49" s="359"/>
+      <c r="AG49" s="363"/>
+      <c r="AH49" s="8"/>
+    </row>
+    <row r="50" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="376"/>
+      <c r="B50" s="377"/>
+      <c r="C50" s="377"/>
+      <c r="D50" s="377"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="329"/>
+      <c r="G50" s="329"/>
+      <c r="H50" s="329"/>
+      <c r="I50" s="329"/>
+      <c r="J50" s="329"/>
+      <c r="K50" s="329"/>
+      <c r="L50" s="329"/>
+      <c r="M50" s="329"/>
+      <c r="N50" s="329"/>
+      <c r="O50" s="329"/>
+      <c r="P50" s="329"/>
+      <c r="Q50" s="329"/>
+      <c r="R50" s="378"/>
+      <c r="S50" s="351"/>
+      <c r="T50" s="352"/>
+      <c r="U50" s="352"/>
+      <c r="V50" s="361"/>
+      <c r="W50" s="364"/>
+      <c r="X50" s="352"/>
+      <c r="Y50" s="352"/>
+      <c r="Z50" s="352"/>
+      <c r="AA50" s="352"/>
+      <c r="AB50" s="352"/>
+      <c r="AC50" s="352"/>
+      <c r="AD50" s="352"/>
+      <c r="AE50" s="352"/>
+      <c r="AF50" s="352"/>
+      <c r="AG50" s="365"/>
+      <c r="AH50" s="8"/>
+    </row>
+    <row r="51" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="325" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="380"/>
+      <c r="C51" s="380"/>
+      <c r="D51" s="381"/>
+      <c r="E51" s="383" t="s">
+        <v>122</v>
+      </c>
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="I51" s="384"/>
+      <c r="J51" s="384"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
+      <c r="N51" s="384"/>
+      <c r="O51" s="384"/>
+      <c r="P51" s="384"/>
+      <c r="Q51" s="384"/>
+      <c r="R51" s="385"/>
+      <c r="S51" s="325" t="s">
+        <v>121</v>
+      </c>
+      <c r="T51" s="359"/>
+      <c r="U51" s="359"/>
+      <c r="V51" s="360"/>
+      <c r="W51" s="389" t="s">
+        <v>27</v>
+      </c>
+      <c r="X51" s="390"/>
+      <c r="Y51" s="390"/>
+      <c r="Z51" s="390"/>
+      <c r="AA51" s="390"/>
+      <c r="AB51" s="390"/>
+      <c r="AC51" s="390"/>
+      <c r="AD51" s="390"/>
+      <c r="AE51" s="390"/>
+      <c r="AF51" s="390"/>
+      <c r="AG51" s="391"/>
+      <c r="AH51" s="8"/>
+    </row>
+    <row r="52" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="376"/>
+      <c r="B52" s="377"/>
+      <c r="C52" s="377"/>
+      <c r="D52" s="382"/>
+      <c r="E52" s="386"/>
+      <c r="F52" s="387"/>
+      <c r="G52" s="387"/>
+      <c r="H52" s="387"/>
+      <c r="I52" s="387"/>
+      <c r="J52" s="387"/>
+      <c r="K52" s="387"/>
+      <c r="L52" s="387"/>
+      <c r="M52" s="387"/>
+      <c r="N52" s="387"/>
+      <c r="O52" s="387"/>
+      <c r="P52" s="387"/>
+      <c r="Q52" s="387"/>
+      <c r="R52" s="388"/>
+      <c r="S52" s="351"/>
+      <c r="T52" s="352"/>
+      <c r="U52" s="352"/>
+      <c r="V52" s="361"/>
+      <c r="W52" s="392"/>
+      <c r="X52" s="393"/>
+      <c r="Y52" s="393"/>
+      <c r="Z52" s="393"/>
+      <c r="AA52" s="393"/>
+      <c r="AB52" s="393"/>
+      <c r="AC52" s="393"/>
+      <c r="AD52" s="393"/>
+      <c r="AE52" s="393"/>
+      <c r="AF52" s="393"/>
+      <c r="AG52" s="394"/>
+      <c r="AH52" s="8"/>
+    </row>
+    <row r="53" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="325" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="374"/>
-      <c r="C49" s="374"/>
-      <c r="D49" s="374"/>
-      <c r="E49" s="352"/>
-      <c r="F49" s="339"/>
-      <c r="G49" s="339"/>
-      <c r="H49" s="339"/>
-      <c r="I49" s="339"/>
-      <c r="J49" s="339"/>
-      <c r="K49" s="339"/>
-      <c r="L49" s="339"/>
-      <c r="M49" s="339"/>
-      <c r="N49" s="339"/>
-      <c r="O49" s="339"/>
-      <c r="P49" s="339"/>
-      <c r="Q49" s="339"/>
-      <c r="R49" s="340"/>
-      <c r="S49" s="348" t="s">
+      <c r="B53" s="359"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="360"/>
+      <c r="E53" s="362" t="s">
+        <v>124</v>
+      </c>
+      <c r="F53" s="359"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
+      <c r="J53" s="359"/>
+      <c r="K53" s="359"/>
+      <c r="L53" s="359"/>
+      <c r="M53" s="359"/>
+      <c r="N53" s="359"/>
+      <c r="O53" s="359"/>
+      <c r="P53" s="359"/>
+      <c r="Q53" s="359"/>
+      <c r="R53" s="363"/>
+      <c r="S53" s="325" t="s">
         <v>123</v>
       </c>
-      <c r="T49" s="349"/>
-      <c r="U49" s="349"/>
-      <c r="V49" s="378"/>
-      <c r="W49" s="361"/>
-      <c r="X49" s="358"/>
-      <c r="Y49" s="358"/>
-      <c r="Z49" s="358"/>
-      <c r="AA49" s="358"/>
-      <c r="AB49" s="358"/>
-      <c r="AC49" s="358"/>
-      <c r="AD49" s="358"/>
-      <c r="AE49" s="358"/>
-      <c r="AF49" s="358"/>
-      <c r="AG49" s="362"/>
-      <c r="AH49" s="8"/>
-    </row>
-    <row r="50" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="375"/>
-      <c r="B50" s="376"/>
-      <c r="C50" s="376"/>
-      <c r="D50" s="376"/>
-      <c r="E50" s="331"/>
-      <c r="F50" s="328"/>
-      <c r="G50" s="328"/>
-      <c r="H50" s="328"/>
-      <c r="I50" s="328"/>
-      <c r="J50" s="328"/>
-      <c r="K50" s="328"/>
-      <c r="L50" s="328"/>
-      <c r="M50" s="328"/>
-      <c r="N50" s="328"/>
-      <c r="O50" s="328"/>
-      <c r="P50" s="328"/>
-      <c r="Q50" s="328"/>
-      <c r="R50" s="377"/>
-      <c r="S50" s="350"/>
-      <c r="T50" s="351"/>
-      <c r="U50" s="351"/>
-      <c r="V50" s="360"/>
-      <c r="W50" s="363"/>
-      <c r="X50" s="351"/>
-      <c r="Y50" s="351"/>
-      <c r="Z50" s="351"/>
-      <c r="AA50" s="351"/>
-      <c r="AB50" s="351"/>
-      <c r="AC50" s="351"/>
-      <c r="AD50" s="351"/>
-      <c r="AE50" s="351"/>
-      <c r="AF50" s="351"/>
-      <c r="AG50" s="364"/>
-      <c r="AH50" s="8"/>
-    </row>
-    <row r="51" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="324" t="s">
-        <v>124</v>
-      </c>
-      <c r="B51" s="379"/>
-      <c r="C51" s="379"/>
-      <c r="D51" s="380"/>
-      <c r="E51" s="382" t="s">
+      <c r="T53" s="359"/>
+      <c r="U53" s="359"/>
+      <c r="V53" s="360"/>
+      <c r="W53" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="F51" s="383"/>
-      <c r="G51" s="383"/>
-      <c r="H51" s="383"/>
-      <c r="I51" s="383"/>
-      <c r="J51" s="383"/>
-      <c r="K51" s="383"/>
-      <c r="L51" s="383"/>
-      <c r="M51" s="383"/>
-      <c r="N51" s="383"/>
-      <c r="O51" s="383"/>
-      <c r="P51" s="383"/>
-      <c r="Q51" s="383"/>
-      <c r="R51" s="384"/>
-      <c r="S51" s="324" t="s">
-        <v>124</v>
-      </c>
-      <c r="T51" s="358"/>
-      <c r="U51" s="358"/>
-      <c r="V51" s="359"/>
-      <c r="W51" s="388" t="s">
-        <v>126</v>
-      </c>
-      <c r="X51" s="389"/>
-      <c r="Y51" s="389"/>
-      <c r="Z51" s="389"/>
-      <c r="AA51" s="389"/>
-      <c r="AB51" s="389"/>
-      <c r="AC51" s="389"/>
-      <c r="AD51" s="389"/>
-      <c r="AE51" s="389"/>
-      <c r="AF51" s="389"/>
-      <c r="AG51" s="390"/>
-      <c r="AH51" s="8"/>
-    </row>
-    <row r="52" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="375"/>
-      <c r="B52" s="376"/>
-      <c r="C52" s="376"/>
-      <c r="D52" s="381"/>
-      <c r="E52" s="385"/>
-      <c r="F52" s="386"/>
-      <c r="G52" s="386"/>
-      <c r="H52" s="386"/>
-      <c r="I52" s="386"/>
-      <c r="J52" s="386"/>
-      <c r="K52" s="386"/>
-      <c r="L52" s="386"/>
-      <c r="M52" s="386"/>
-      <c r="N52" s="386"/>
-      <c r="O52" s="386"/>
-      <c r="P52" s="386"/>
-      <c r="Q52" s="386"/>
-      <c r="R52" s="387"/>
-      <c r="S52" s="350"/>
-      <c r="T52" s="351"/>
-      <c r="U52" s="351"/>
-      <c r="V52" s="360"/>
-      <c r="W52" s="391"/>
-      <c r="X52" s="392"/>
-      <c r="Y52" s="392"/>
-      <c r="Z52" s="392"/>
-      <c r="AA52" s="392"/>
-      <c r="AB52" s="392"/>
-      <c r="AC52" s="392"/>
-      <c r="AD52" s="392"/>
-      <c r="AE52" s="392"/>
-      <c r="AF52" s="392"/>
-      <c r="AG52" s="393"/>
-      <c r="AH52" s="8"/>
-    </row>
-    <row r="53" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="324" t="s">
-        <v>127</v>
-      </c>
-      <c r="B53" s="358"/>
-      <c r="C53" s="358"/>
-      <c r="D53" s="359"/>
-      <c r="E53" s="361" t="s">
-        <v>128</v>
-      </c>
-      <c r="F53" s="358"/>
-      <c r="G53" s="358"/>
-      <c r="H53" s="358"/>
-      <c r="I53" s="358"/>
-      <c r="J53" s="358"/>
-      <c r="K53" s="358"/>
-      <c r="L53" s="358"/>
-      <c r="M53" s="358"/>
-      <c r="N53" s="358"/>
-      <c r="O53" s="358"/>
-      <c r="P53" s="358"/>
-      <c r="Q53" s="358"/>
-      <c r="R53" s="362"/>
-      <c r="S53" s="324" t="s">
-        <v>127</v>
-      </c>
-      <c r="T53" s="358"/>
-      <c r="U53" s="358"/>
-      <c r="V53" s="359"/>
-      <c r="W53" s="361" t="s">
-        <v>129</v>
-      </c>
-      <c r="X53" s="358"/>
-      <c r="Y53" s="358"/>
-      <c r="Z53" s="358"/>
-      <c r="AA53" s="358"/>
-      <c r="AB53" s="358"/>
-      <c r="AC53" s="358"/>
-      <c r="AD53" s="358"/>
-      <c r="AE53" s="358"/>
-      <c r="AF53" s="358"/>
-      <c r="AG53" s="362"/>
+      <c r="X53" s="359"/>
+      <c r="Y53" s="359"/>
+      <c r="Z53" s="359"/>
+      <c r="AA53" s="359"/>
+      <c r="AB53" s="359"/>
+      <c r="AC53" s="359"/>
+      <c r="AD53" s="359"/>
+      <c r="AE53" s="359"/>
+      <c r="AF53" s="359"/>
+      <c r="AG53" s="363"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="350"/>
-      <c r="B54" s="351"/>
-      <c r="C54" s="351"/>
-      <c r="D54" s="360"/>
-      <c r="E54" s="363"/>
-      <c r="F54" s="351"/>
-      <c r="G54" s="351"/>
-      <c r="H54" s="351"/>
-      <c r="I54" s="351"/>
-      <c r="J54" s="351"/>
-      <c r="K54" s="351"/>
-      <c r="L54" s="351"/>
-      <c r="M54" s="351"/>
-      <c r="N54" s="351"/>
-      <c r="O54" s="351"/>
-      <c r="P54" s="351"/>
-      <c r="Q54" s="351"/>
-      <c r="R54" s="364"/>
-      <c r="S54" s="350"/>
-      <c r="T54" s="351"/>
-      <c r="U54" s="351"/>
-      <c r="V54" s="360"/>
-      <c r="W54" s="363"/>
-      <c r="X54" s="351"/>
-      <c r="Y54" s="351"/>
-      <c r="Z54" s="351"/>
-      <c r="AA54" s="351"/>
-      <c r="AB54" s="351"/>
-      <c r="AC54" s="351"/>
-      <c r="AD54" s="351"/>
-      <c r="AE54" s="351"/>
-      <c r="AF54" s="351"/>
-      <c r="AG54" s="364"/>
+      <c r="A54" s="351"/>
+      <c r="B54" s="352"/>
+      <c r="C54" s="352"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="364"/>
+      <c r="F54" s="352"/>
+      <c r="G54" s="352"/>
+      <c r="H54" s="352"/>
+      <c r="I54" s="352"/>
+      <c r="J54" s="352"/>
+      <c r="K54" s="352"/>
+      <c r="L54" s="352"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="352"/>
+      <c r="O54" s="352"/>
+      <c r="P54" s="352"/>
+      <c r="Q54" s="352"/>
+      <c r="R54" s="365"/>
+      <c r="S54" s="351"/>
+      <c r="T54" s="352"/>
+      <c r="U54" s="352"/>
+      <c r="V54" s="361"/>
+      <c r="W54" s="364"/>
+      <c r="X54" s="352"/>
+      <c r="Y54" s="352"/>
+      <c r="Z54" s="352"/>
+      <c r="AA54" s="352"/>
+      <c r="AB54" s="352"/>
+      <c r="AC54" s="352"/>
+      <c r="AD54" s="352"/>
+      <c r="AE54" s="352"/>
+      <c r="AF54" s="352"/>
+      <c r="AG54" s="365"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="324" t="s">
+      <c r="A55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="358"/>
-      <c r="C55" s="358"/>
-      <c r="D55" s="359"/>
-      <c r="E55" s="352"/>
-      <c r="F55" s="339"/>
-      <c r="G55" s="339"/>
-      <c r="H55" s="339"/>
-      <c r="I55" s="339"/>
-      <c r="J55" s="339"/>
-      <c r="K55" s="339"/>
-      <c r="L55" s="339"/>
-      <c r="M55" s="339"/>
-      <c r="N55" s="339"/>
-      <c r="O55" s="339"/>
-      <c r="P55" s="339"/>
-      <c r="Q55" s="339"/>
-      <c r="R55" s="340"/>
-      <c r="S55" s="324" t="s">
+      <c r="B55" s="359"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="360"/>
+      <c r="E55" s="353"/>
+      <c r="F55" s="340"/>
+      <c r="G55" s="340"/>
+      <c r="H55" s="340"/>
+      <c r="I55" s="340"/>
+      <c r="J55" s="340"/>
+      <c r="K55" s="340"/>
+      <c r="L55" s="340"/>
+      <c r="M55" s="340"/>
+      <c r="N55" s="340"/>
+      <c r="O55" s="340"/>
+      <c r="P55" s="340"/>
+      <c r="Q55" s="340"/>
+      <c r="R55" s="341"/>
+      <c r="S55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="358"/>
-      <c r="U55" s="358"/>
-      <c r="V55" s="359"/>
-      <c r="W55" s="361"/>
-      <c r="X55" s="358"/>
-      <c r="Y55" s="358"/>
-      <c r="Z55" s="358"/>
-      <c r="AA55" s="358"/>
-      <c r="AB55" s="358"/>
-      <c r="AC55" s="358"/>
-      <c r="AD55" s="358"/>
-      <c r="AE55" s="358"/>
-      <c r="AF55" s="358"/>
-      <c r="AG55" s="362"/>
+      <c r="T55" s="359"/>
+      <c r="U55" s="359"/>
+      <c r="V55" s="360"/>
+      <c r="W55" s="362"/>
+      <c r="X55" s="359"/>
+      <c r="Y55" s="359"/>
+      <c r="Z55" s="359"/>
+      <c r="AA55" s="359"/>
+      <c r="AB55" s="359"/>
+      <c r="AC55" s="359"/>
+      <c r="AD55" s="359"/>
+      <c r="AE55" s="359"/>
+      <c r="AF55" s="359"/>
+      <c r="AG55" s="363"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="370"/>
-      <c r="B56" s="371"/>
-      <c r="C56" s="371"/>
-      <c r="D56" s="372"/>
-      <c r="E56" s="373"/>
-      <c r="F56" s="341"/>
-      <c r="G56" s="341"/>
-      <c r="H56" s="341"/>
-      <c r="I56" s="341"/>
-      <c r="J56" s="341"/>
-      <c r="K56" s="341"/>
-      <c r="L56" s="341"/>
-      <c r="M56" s="341"/>
-      <c r="N56" s="341"/>
-      <c r="O56" s="341"/>
-      <c r="P56" s="341"/>
-      <c r="Q56" s="341"/>
-      <c r="R56" s="342"/>
-      <c r="S56" s="365"/>
-      <c r="T56" s="366"/>
-      <c r="U56" s="366"/>
-      <c r="V56" s="367"/>
-      <c r="W56" s="368"/>
-      <c r="X56" s="366"/>
-      <c r="Y56" s="366"/>
-      <c r="Z56" s="366"/>
-      <c r="AA56" s="366"/>
-      <c r="AB56" s="366"/>
-      <c r="AC56" s="366"/>
-      <c r="AD56" s="366"/>
-      <c r="AE56" s="366"/>
-      <c r="AF56" s="366"/>
-      <c r="AG56" s="369"/>
+      <c r="A56" s="371"/>
+      <c r="B56" s="372"/>
+      <c r="C56" s="372"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="374"/>
+      <c r="F56" s="342"/>
+      <c r="G56" s="342"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="342"/>
+      <c r="J56" s="342"/>
+      <c r="K56" s="342"/>
+      <c r="L56" s="342"/>
+      <c r="M56" s="342"/>
+      <c r="N56" s="342"/>
+      <c r="O56" s="342"/>
+      <c r="P56" s="342"/>
+      <c r="Q56" s="342"/>
+      <c r="R56" s="343"/>
+      <c r="S56" s="366"/>
+      <c r="T56" s="367"/>
+      <c r="U56" s="367"/>
+      <c r="V56" s="368"/>
+      <c r="W56" s="369"/>
+      <c r="X56" s="367"/>
+      <c r="Y56" s="367"/>
+      <c r="Z56" s="367"/>
+      <c r="AA56" s="367"/>
+      <c r="AB56" s="367"/>
+      <c r="AC56" s="367"/>
+      <c r="AD56" s="367"/>
+      <c r="AE56" s="367"/>
+      <c r="AF56" s="367"/>
+      <c r="AG56" s="370"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="142" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6416,49 +6410,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="346"/>
-      <c r="AF57" s="346"/>
-      <c r="AG57" s="347"/>
+      <c r="AE57" s="347"/>
+      <c r="AF57" s="347"/>
+      <c r="AG57" s="348"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="348" t="s">
-        <v>133</v>
-      </c>
-      <c r="B58" s="349"/>
-      <c r="C58" s="349"/>
+      <c r="A58" s="349" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" s="350"/>
+      <c r="C58" s="350"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="352"/>
-      <c r="F58" s="339"/>
-      <c r="G58" s="339"/>
-      <c r="H58" s="339"/>
-      <c r="I58" s="339"/>
-      <c r="J58" s="339"/>
-      <c r="K58" s="339"/>
-      <c r="L58" s="339"/>
-      <c r="M58" s="353"/>
-      <c r="N58" s="354" t="s">
-        <v>90</v>
-      </c>
-      <c r="O58" s="355"/>
-      <c r="P58" s="355"/>
-      <c r="Q58" s="355"/>
-      <c r="R58" s="356"/>
-      <c r="S58" s="357" t="s">
-        <v>134</v>
-      </c>
-      <c r="T58" s="355"/>
-      <c r="U58" s="355"/>
-      <c r="V58" s="355"/>
-      <c r="W58" s="355"/>
-      <c r="X58" s="355"/>
-      <c r="Y58" s="355"/>
-      <c r="Z58" s="355"/>
-      <c r="AA58" s="356"/>
+      <c r="E58" s="353"/>
+      <c r="F58" s="340"/>
+      <c r="G58" s="340"/>
+      <c r="H58" s="340"/>
+      <c r="I58" s="340"/>
+      <c r="J58" s="340"/>
+      <c r="K58" s="340"/>
+      <c r="L58" s="340"/>
+      <c r="M58" s="354"/>
+      <c r="N58" s="355" t="s">
+        <v>87</v>
+      </c>
+      <c r="O58" s="356"/>
+      <c r="P58" s="356"/>
+      <c r="Q58" s="356"/>
+      <c r="R58" s="357"/>
+      <c r="S58" s="358" t="s">
+        <v>130</v>
+      </c>
+      <c r="T58" s="356"/>
+      <c r="U58" s="356"/>
+      <c r="V58" s="356"/>
+      <c r="W58" s="356"/>
+      <c r="X58" s="356"/>
+      <c r="Y58" s="356"/>
+      <c r="Z58" s="356"/>
+      <c r="AA58" s="357"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6468,33 +6462,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="350"/>
-      <c r="B59" s="351"/>
-      <c r="C59" s="351"/>
+      <c r="A59" s="351"/>
+      <c r="B59" s="352"/>
+      <c r="C59" s="352"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="331"/>
-      <c r="F59" s="328"/>
-      <c r="G59" s="328"/>
-      <c r="H59" s="328"/>
-      <c r="I59" s="328"/>
-      <c r="J59" s="328"/>
-      <c r="K59" s="328"/>
-      <c r="L59" s="328"/>
-      <c r="M59" s="329"/>
-      <c r="N59" s="335"/>
-      <c r="O59" s="336"/>
-      <c r="P59" s="336"/>
-      <c r="Q59" s="336"/>
-      <c r="R59" s="337"/>
-      <c r="S59" s="335"/>
-      <c r="T59" s="336"/>
-      <c r="U59" s="336"/>
-      <c r="V59" s="336"/>
-      <c r="W59" s="336"/>
-      <c r="X59" s="336"/>
-      <c r="Y59" s="336"/>
-      <c r="Z59" s="336"/>
-      <c r="AA59" s="337"/>
+      <c r="E59" s="332"/>
+      <c r="F59" s="329"/>
+      <c r="G59" s="329"/>
+      <c r="H59" s="329"/>
+      <c r="I59" s="329"/>
+      <c r="J59" s="329"/>
+      <c r="K59" s="329"/>
+      <c r="L59" s="329"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="336"/>
+      <c r="O59" s="337"/>
+      <c r="P59" s="337"/>
+      <c r="Q59" s="337"/>
+      <c r="R59" s="338"/>
+      <c r="S59" s="336"/>
+      <c r="T59" s="337"/>
+      <c r="U59" s="337"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="337"/>
+      <c r="X59" s="337"/>
+      <c r="Y59" s="337"/>
+      <c r="Z59" s="337"/>
+      <c r="AA59" s="338"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6504,121 +6498,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="324" t="s">
-        <v>135</v>
-      </c>
-      <c r="B60" s="325"/>
-      <c r="C60" s="325"/>
-      <c r="D60" s="326"/>
-      <c r="E60" s="330"/>
-      <c r="F60" s="325"/>
-      <c r="G60" s="325"/>
-      <c r="H60" s="325"/>
-      <c r="I60" s="325"/>
-      <c r="J60" s="325"/>
-      <c r="K60" s="325"/>
-      <c r="L60" s="325"/>
-      <c r="M60" s="326"/>
-      <c r="N60" s="332" t="s">
-        <v>90</v>
-      </c>
-      <c r="O60" s="333"/>
-      <c r="P60" s="333"/>
-      <c r="Q60" s="333"/>
-      <c r="R60" s="334"/>
-      <c r="S60" s="332" t="s">
-        <v>63</v>
-      </c>
-      <c r="T60" s="333"/>
-      <c r="U60" s="333"/>
-      <c r="V60" s="333"/>
-      <c r="W60" s="333"/>
-      <c r="X60" s="333"/>
-      <c r="Y60" s="333"/>
-      <c r="Z60" s="333"/>
-      <c r="AA60" s="334"/>
+      <c r="A60" s="325" t="s">
+        <v>131</v>
+      </c>
+      <c r="B60" s="326"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="326"/>
+      <c r="G60" s="326"/>
+      <c r="H60" s="326"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="326"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="333" t="s">
+        <v>87</v>
+      </c>
+      <c r="O60" s="334"/>
+      <c r="P60" s="334"/>
+      <c r="Q60" s="334"/>
+      <c r="R60" s="335"/>
+      <c r="S60" s="333" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" s="334"/>
+      <c r="U60" s="334"/>
+      <c r="V60" s="334"/>
+      <c r="W60" s="334"/>
+      <c r="X60" s="334"/>
+      <c r="Y60" s="334"/>
+      <c r="Z60" s="334"/>
+      <c r="AA60" s="335"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="325"/>
-      <c r="AE60" s="325"/>
-      <c r="AF60" s="325"/>
-      <c r="AG60" s="338"/>
+      <c r="AD60" s="326"/>
+      <c r="AE60" s="326"/>
+      <c r="AF60" s="326"/>
+      <c r="AG60" s="339"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="327"/>
-      <c r="B61" s="328"/>
-      <c r="C61" s="328"/>
-      <c r="D61" s="329"/>
-      <c r="E61" s="331"/>
-      <c r="F61" s="328"/>
-      <c r="G61" s="328"/>
-      <c r="H61" s="328"/>
-      <c r="I61" s="328"/>
-      <c r="J61" s="328"/>
-      <c r="K61" s="328"/>
-      <c r="L61" s="328"/>
-      <c r="M61" s="329"/>
-      <c r="N61" s="335"/>
-      <c r="O61" s="336"/>
-      <c r="P61" s="336"/>
-      <c r="Q61" s="336"/>
-      <c r="R61" s="337"/>
-      <c r="S61" s="335"/>
-      <c r="T61" s="336"/>
-      <c r="U61" s="336"/>
-      <c r="V61" s="336"/>
-      <c r="W61" s="336"/>
-      <c r="X61" s="336"/>
-      <c r="Y61" s="336"/>
-      <c r="Z61" s="336"/>
-      <c r="AA61" s="337"/>
-      <c r="AB61" s="339"/>
-      <c r="AC61" s="339"/>
-      <c r="AD61" s="339"/>
-      <c r="AE61" s="339"/>
-      <c r="AF61" s="339"/>
-      <c r="AG61" s="340"/>
+      <c r="A61" s="328"/>
+      <c r="B61" s="329"/>
+      <c r="C61" s="329"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="329"/>
+      <c r="G61" s="329"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="329"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="329"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="330"/>
+      <c r="N61" s="336"/>
+      <c r="O61" s="337"/>
+      <c r="P61" s="337"/>
+      <c r="Q61" s="337"/>
+      <c r="R61" s="338"/>
+      <c r="S61" s="336"/>
+      <c r="T61" s="337"/>
+      <c r="U61" s="337"/>
+      <c r="V61" s="337"/>
+      <c r="W61" s="337"/>
+      <c r="X61" s="337"/>
+      <c r="Y61" s="337"/>
+      <c r="Z61" s="337"/>
+      <c r="AA61" s="338"/>
+      <c r="AB61" s="340"/>
+      <c r="AC61" s="340"/>
+      <c r="AD61" s="340"/>
+      <c r="AE61" s="340"/>
+      <c r="AF61" s="340"/>
+      <c r="AG61" s="341"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="343" t="s">
-        <v>136</v>
-      </c>
-      <c r="B62" s="344"/>
-      <c r="C62" s="344"/>
-      <c r="D62" s="344"/>
-      <c r="E62" s="344"/>
-      <c r="F62" s="344"/>
-      <c r="G62" s="344"/>
-      <c r="H62" s="344"/>
-      <c r="I62" s="344"/>
-      <c r="J62" s="344"/>
-      <c r="K62" s="344"/>
-      <c r="L62" s="344"/>
-      <c r="M62" s="344"/>
-      <c r="N62" s="344"/>
-      <c r="O62" s="344"/>
-      <c r="P62" s="344"/>
-      <c r="Q62" s="344"/>
-      <c r="R62" s="344"/>
-      <c r="S62" s="344"/>
-      <c r="T62" s="344"/>
-      <c r="U62" s="344"/>
-      <c r="V62" s="344"/>
-      <c r="W62" s="344"/>
-      <c r="X62" s="344"/>
-      <c r="Y62" s="344"/>
-      <c r="Z62" s="344"/>
-      <c r="AA62" s="345"/>
-      <c r="AB62" s="341"/>
-      <c r="AC62" s="341"/>
-      <c r="AD62" s="341"/>
-      <c r="AE62" s="341"/>
-      <c r="AF62" s="341"/>
-      <c r="AG62" s="342"/>
+      <c r="A62" s="344" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="345"/>
+      <c r="C62" s="345"/>
+      <c r="D62" s="345"/>
+      <c r="E62" s="345"/>
+      <c r="F62" s="345"/>
+      <c r="G62" s="345"/>
+      <c r="H62" s="345"/>
+      <c r="I62" s="345"/>
+      <c r="J62" s="345"/>
+      <c r="K62" s="345"/>
+      <c r="L62" s="345"/>
+      <c r="M62" s="345"/>
+      <c r="N62" s="345"/>
+      <c r="O62" s="345"/>
+      <c r="P62" s="345"/>
+      <c r="Q62" s="345"/>
+      <c r="R62" s="345"/>
+      <c r="S62" s="345"/>
+      <c r="T62" s="345"/>
+      <c r="U62" s="345"/>
+      <c r="V62" s="345"/>
+      <c r="W62" s="345"/>
+      <c r="X62" s="345"/>
+      <c r="Y62" s="345"/>
+      <c r="Z62" s="345"/>
+      <c r="AA62" s="346"/>
+      <c r="AB62" s="342"/>
+      <c r="AC62" s="342"/>
+      <c r="AD62" s="342"/>
+      <c r="AE62" s="342"/>
+      <c r="AF62" s="342"/>
+      <c r="AG62" s="343"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/library/export_travelclaim.xlsx
+++ b/library/export_travelclaim.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-08-01</t>
+    <t>2020-09-02</t>
   </si>
   <si>
     <t>Position:</t>
@@ -59,7 +59,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: AAAAA</t>
+    <t>Purpose of Travel: SAMPLE MEETING 2</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Diem</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -217,9 +220,6 @@
   </si>
   <si>
     <t>Printed Name:</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>JORIELYN S. CUBIO</t>
@@ -541,7 +541,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -996,6 +996,21 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1014,47 +1029,38 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -1097,6 +1103,19 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1147,6 +1166,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1224,56 +1256,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="487">
+  <cellXfs count="484">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1607,20 +1594,29 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1637,7 +1633,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1646,7 +1642,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,198 +1660,180 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1970,7 +1948,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2126,15 +2104,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2279,7 +2257,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2321,7 +2299,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2333,7 +2311,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2402,7 +2380,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2864,8 +2842,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2883,37 +2861,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="179" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="179"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
+      <c r="A2" s="180"/>
+      <c r="B2" s="180"/>
+      <c r="C2" s="180"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="180"/>
+      <c r="F2" s="180"/>
+      <c r="G2" s="180"/>
+      <c r="H2" s="180"/>
+      <c r="I2" s="180"/>
+      <c r="J2" s="180"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="181" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="B3" s="181"/>
+      <c r="C3" s="181"/>
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="G3" s="181"/>
+      <c r="H3" s="181"/>
+      <c r="I3" s="181"/>
+      <c r="J3" s="181"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
@@ -2931,8 +2909,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2945,8 +2923,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
+      <c r="B6" s="183"/>
+      <c r="C6" s="183"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -2959,17 +2937,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
+      <c r="B7" s="184"/>
+      <c r="C7" s="184"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="179" t="s">
+      <c r="H7" s="182" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="182"/>
+      <c r="J7" s="182"/>
     </row>
     <row r="8" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -2987,55 +2965,55 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="184"/>
+      <c r="C9" s="185"/>
+      <c r="D9" s="185"/>
+      <c r="E9" s="187"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="182" t="s">
+      <c r="G9" s="185" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="H9" s="185"/>
+      <c r="I9" s="185"/>
+      <c r="J9" s="186"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="193" t="s">
+      <c r="B10" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="205" t="s">
+      <c r="C10" s="195"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="196"/>
+      <c r="F10" s="203" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="206"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="204"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="193" t="s">
+      <c r="C11" s="195" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
+      <c r="D11" s="195"/>
+      <c r="E11" s="196"/>
       <c r="F11" s="205"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="206"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="204"/>
     </row>
     <row r="12" spans="1:10" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -3050,39 +3028,39 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="198" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="198" t="s">
+      <c r="C13" s="207"/>
+      <c r="D13" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="199"/>
+      <c r="E13" s="201"/>
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="185" t="s">
+      <c r="G13" s="188" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="187" t="s">
+      <c r="I13" s="190" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="189" t="s">
+      <c r="J13" s="192" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="197"/>
-      <c r="B14" s="191" t="s">
+      <c r="A14" s="199"/>
+      <c r="B14" s="176" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="192"/>
+      <c r="C14" s="194"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3092,29 +3070,29 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="186"/>
+      <c r="G14" s="189"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="188"/>
-      <c r="J14" s="190"/>
+      <c r="I14" s="191"/>
+      <c r="J14" s="193"/>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="200"/>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
+      <c r="A15" s="202"/>
+      <c r="B15" s="202"/>
+      <c r="C15" s="202"/>
       <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="204"/>
+      <c r="E15" s="202"/>
+      <c r="F15" s="202"/>
+      <c r="G15" s="202"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="202"/>
+      <c r="J15" s="202"/>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="171"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
+      <c r="B16" s="197"/>
+      <c r="C16" s="197"/>
       <c r="D16" s="172"/>
       <c r="E16" s="172"/>
       <c r="F16" s="173"/>
@@ -3126,20 +3104,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="I13:I14"/>
-    <mergeCell ref="J13:J14"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A3:J3"/>
@@ -3147,10 +3119,16 @@
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="I13:I14"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="B14:C14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2598425196850001" right="0.98425196850394003" top="0.78740157480314998" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
-  <pageSetup scale="76" fitToHeight="10" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="10" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</oddFooter>
     <evenFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</evenFooter>
@@ -3201,10 +3179,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="313" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="313"/>
+      <c r="L1" s="310" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="310"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3218,443 +3196,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
+      <c r="L2" s="311"/>
+      <c r="M2" s="311"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="315" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318" t="s">
+      <c r="A3" s="312" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="319"/>
-      <c r="M3" s="320"/>
+      <c r="B3" s="313"/>
+      <c r="C3" s="313"/>
+      <c r="D3" s="313"/>
+      <c r="E3" s="313"/>
+      <c r="F3" s="313"/>
+      <c r="G3" s="313"/>
+      <c r="H3" s="313"/>
+      <c r="I3" s="313"/>
+      <c r="J3" s="314"/>
+      <c r="K3" s="315" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="316"/>
+      <c r="M3" s="317"/>
     </row>
     <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="321" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="236" t="s">
+      <c r="A4" s="318" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="237"/>
-      <c r="M4" s="324"/>
+      <c r="B4" s="319"/>
+      <c r="C4" s="319"/>
+      <c r="D4" s="319"/>
+      <c r="E4" s="319"/>
+      <c r="F4" s="319"/>
+      <c r="G4" s="319"/>
+      <c r="H4" s="319"/>
+      <c r="I4" s="319"/>
+      <c r="J4" s="320"/>
+      <c r="K4" s="234" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="235"/>
+      <c r="M4" s="321"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="295" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298" t="s">
+      <c r="A5" s="292" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="300"/>
+      <c r="B5" s="293"/>
+      <c r="C5" s="293"/>
+      <c r="D5" s="293"/>
+      <c r="E5" s="293"/>
+      <c r="F5" s="293"/>
+      <c r="G5" s="293"/>
+      <c r="H5" s="293"/>
+      <c r="I5" s="293"/>
+      <c r="J5" s="294"/>
+      <c r="K5" s="295" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="296"/>
+      <c r="M5" s="297"/>
     </row>
     <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="283"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="304" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="306"/>
+      <c r="A6" s="280"/>
+      <c r="B6" s="281"/>
+      <c r="C6" s="282"/>
+      <c r="D6" s="301" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
+      <c r="G6" s="302"/>
+      <c r="H6" s="302"/>
+      <c r="I6" s="302"/>
+      <c r="J6" s="302"/>
+      <c r="K6" s="302"/>
+      <c r="L6" s="302"/>
+      <c r="M6" s="303"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="301"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="309"/>
+      <c r="A7" s="298"/>
+      <c r="B7" s="299"/>
+      <c r="C7" s="300"/>
+      <c r="D7" s="304"/>
+      <c r="E7" s="305"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="305"/>
+      <c r="H7" s="305"/>
+      <c r="I7" s="305"/>
+      <c r="J7" s="305"/>
+      <c r="K7" s="305"/>
+      <c r="L7" s="305"/>
+      <c r="M7" s="306"/>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="272" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="277" t="s">
+      <c r="A8" s="269" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="279"/>
+      <c r="B8" s="270"/>
+      <c r="C8" s="271"/>
+      <c r="D8" s="274" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="275"/>
+      <c r="F8" s="275"/>
+      <c r="G8" s="275"/>
+      <c r="H8" s="275"/>
+      <c r="I8" s="275"/>
+      <c r="J8" s="275"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="275"/>
+      <c r="M8" s="276"/>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="301"/>
-      <c r="B9" s="302"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="312"/>
+      <c r="A9" s="298"/>
+      <c r="B9" s="299"/>
+      <c r="C9" s="300"/>
+      <c r="D9" s="307"/>
+      <c r="E9" s="308"/>
+      <c r="F9" s="308"/>
+      <c r="G9" s="308"/>
+      <c r="H9" s="308"/>
+      <c r="I9" s="308"/>
+      <c r="J9" s="308"/>
+      <c r="K9" s="308"/>
+      <c r="L9" s="308"/>
+      <c r="M9" s="309"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="272" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="277" t="e">
+      <c r="A10" s="269" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="270"/>
+      <c r="C10" s="271"/>
+      <c r="D10" s="274" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="278"/>
-      <c r="K10" s="278"/>
-      <c r="L10" s="278"/>
-      <c r="M10" s="279"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
+      <c r="J10" s="275"/>
+      <c r="K10" s="275"/>
+      <c r="L10" s="275"/>
+      <c r="M10" s="276"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="275"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="276"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="282"/>
+      <c r="A11" s="272"/>
+      <c r="B11" s="228"/>
+      <c r="C11" s="273"/>
+      <c r="D11" s="277"/>
+      <c r="E11" s="278"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="278"/>
+      <c r="H11" s="278"/>
+      <c r="I11" s="278"/>
+      <c r="J11" s="278"/>
+      <c r="K11" s="278"/>
+      <c r="L11" s="278"/>
+      <c r="M11" s="279"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="283" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="284"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="286" t="s">
+      <c r="A12" s="280" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="286" t="s">
+      <c r="B12" s="281"/>
+      <c r="C12" s="282"/>
+      <c r="D12" s="283" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="285"/>
-      <c r="K12" s="292" t="s">
+      <c r="E12" s="284"/>
+      <c r="F12" s="284"/>
+      <c r="G12" s="284"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="283" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="286" t="s">
+      <c r="J12" s="282"/>
+      <c r="K12" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="M12" s="294"/>
+      <c r="L12" s="283" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="291"/>
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="275"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="276"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="231"/>
+      <c r="A13" s="272"/>
+      <c r="B13" s="228"/>
+      <c r="C13" s="273"/>
+      <c r="D13" s="286"/>
+      <c r="E13" s="287"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="227"/>
+      <c r="J13" s="273"/>
+      <c r="K13" s="290"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="229"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="253"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="255" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="254"/>
+      <c r="A14" s="177"/>
+      <c r="B14" s="250"/>
+      <c r="C14" s="251"/>
+      <c r="D14" s="252" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="250"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="250"/>
+      <c r="H14" s="251"/>
+      <c r="I14" s="252"/>
+      <c r="J14" s="251"/>
       <c r="K14" s="31"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="256"/>
+      <c r="L14" s="252"/>
+      <c r="M14" s="253"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="253"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="217" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="254"/>
+      <c r="A15" s="177"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="251"/>
+      <c r="D15" s="215" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="216"/>
+      <c r="F15" s="216"/>
+      <c r="G15" s="216"/>
+      <c r="H15" s="217"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="251"/>
       <c r="K15" s="32"/>
-      <c r="L15" s="268">
+      <c r="L15" s="265">
         <v>4981</v>
       </c>
-      <c r="M15" s="269"/>
+      <c r="M15" s="266"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="253"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="254"/>
+      <c r="A16" s="177"/>
+      <c r="B16" s="250"/>
+      <c r="C16" s="251"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="216"/>
+      <c r="F16" s="216"/>
+      <c r="G16" s="216"/>
+      <c r="H16" s="217"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="251"/>
       <c r="K16" s="32"/>
-      <c r="L16" s="255"/>
-      <c r="M16" s="256"/>
+      <c r="L16" s="252"/>
+      <c r="M16" s="253"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="254"/>
+      <c r="A17" s="177"/>
+      <c r="B17" s="250"/>
+      <c r="C17" s="251"/>
+      <c r="D17" s="215"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="217"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="251"/>
       <c r="K17" s="32"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="268"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="253"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="267"/>
+      <c r="A18" s="177"/>
+      <c r="B18" s="250"/>
+      <c r="C18" s="251"/>
+      <c r="D18" s="215"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="263"/>
+      <c r="J18" s="264"/>
       <c r="K18" s="32"/>
-      <c r="L18" s="255"/>
-      <c r="M18" s="256"/>
+      <c r="L18" s="252"/>
+      <c r="M18" s="253"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="253"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="254"/>
+      <c r="A19" s="177"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="251"/>
+      <c r="D19" s="215"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="217"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="251"/>
       <c r="K19" s="32"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="256"/>
+      <c r="L19" s="252"/>
+      <c r="M19" s="253"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="253"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="254"/>
+      <c r="A20" s="177"/>
+      <c r="B20" s="250"/>
+      <c r="C20" s="251"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="216"/>
+      <c r="F20" s="216"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="217"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="251"/>
       <c r="K20" s="32"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="256"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="253"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="253"/>
-      <c r="B21" s="209"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="254"/>
+      <c r="A21" s="177"/>
+      <c r="B21" s="250"/>
+      <c r="C21" s="251"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="216"/>
+      <c r="F21" s="216"/>
+      <c r="G21" s="216"/>
+      <c r="H21" s="217"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="251"/>
       <c r="K21" s="32"/>
-      <c r="L21" s="255"/>
-      <c r="M21" s="256"/>
+      <c r="L21" s="252"/>
+      <c r="M21" s="253"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="253"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="254"/>
+      <c r="A22" s="177"/>
+      <c r="B22" s="250"/>
+      <c r="C22" s="251"/>
+      <c r="D22" s="263"/>
+      <c r="E22" s="245"/>
+      <c r="F22" s="245"/>
+      <c r="G22" s="245"/>
+      <c r="H22" s="264"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="251"/>
       <c r="K22" s="33"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="256"/>
+      <c r="L22" s="252"/>
+      <c r="M22" s="253"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="253"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="254"/>
+      <c r="A23" s="177"/>
+      <c r="B23" s="250"/>
+      <c r="C23" s="251"/>
+      <c r="D23" s="263"/>
+      <c r="E23" s="245"/>
+      <c r="F23" s="245"/>
+      <c r="G23" s="245"/>
+      <c r="H23" s="264"/>
+      <c r="I23" s="252"/>
+      <c r="J23" s="251"/>
       <c r="K23" s="33"/>
-      <c r="L23" s="255"/>
-      <c r="M23" s="256"/>
+      <c r="L23" s="252"/>
+      <c r="M23" s="253"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="253"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="254"/>
+      <c r="A24" s="177"/>
+      <c r="B24" s="250"/>
+      <c r="C24" s="251"/>
+      <c r="D24" s="263"/>
+      <c r="E24" s="245"/>
+      <c r="F24" s="245"/>
+      <c r="G24" s="245"/>
+      <c r="H24" s="264"/>
+      <c r="I24" s="252"/>
+      <c r="J24" s="251"/>
       <c r="K24" s="33"/>
-      <c r="L24" s="255"/>
-      <c r="M24" s="256"/>
+      <c r="L24" s="252"/>
+      <c r="M24" s="253"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="253"/>
-      <c r="B25" s="209"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="254"/>
+      <c r="A25" s="177"/>
+      <c r="B25" s="250"/>
+      <c r="C25" s="251"/>
+      <c r="D25" s="252"/>
+      <c r="E25" s="250"/>
+      <c r="F25" s="250"/>
+      <c r="G25" s="250"/>
+      <c r="H25" s="251"/>
+      <c r="I25" s="252"/>
+      <c r="J25" s="251"/>
       <c r="K25" s="33"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="256"/>
+      <c r="L25" s="252"/>
+      <c r="M25" s="253"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="253"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="254"/>
+      <c r="A26" s="177"/>
+      <c r="B26" s="250"/>
+      <c r="C26" s="251"/>
+      <c r="D26" s="252"/>
+      <c r="E26" s="250"/>
+      <c r="F26" s="250"/>
+      <c r="G26" s="250"/>
+      <c r="H26" s="251"/>
+      <c r="I26" s="252"/>
+      <c r="J26" s="251"/>
       <c r="K26" s="33"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="256"/>
+      <c r="L26" s="252"/>
+      <c r="M26" s="253"/>
     </row>
     <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="257"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="259"/>
+      <c r="A27" s="254"/>
+      <c r="B27" s="255"/>
+      <c r="C27" s="256"/>
+      <c r="D27" s="257" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="258"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="260"/>
+      <c r="J27" s="256"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="264">
+      <c r="L27" s="261">
         <f>L15</f>
         <v>4981</v>
       </c>
-      <c r="M27" s="265"/>
+      <c r="M27" s="262"/>
     </row>
     <row r="28" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="241" t="s">
-        <v>47</v>
+      <c r="A28" s="239" t="s">
+        <v>48</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="245" t="s">
+      <c r="D28" s="213" t="s">
         <v>49</v>
+      </c>
+      <c r="E28" s="241"/>
+      <c r="F28" s="241"/>
+      <c r="G28" s="241"/>
+      <c r="H28" s="242"/>
+      <c r="I28" s="243" t="s">
+        <v>50</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -3662,19 +3640,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="242"/>
-      <c r="B29" s="246" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="245"/>
+      <c r="A29" s="240"/>
+      <c r="B29" s="244" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="180"/>
+      <c r="D29" s="241"/>
+      <c r="E29" s="241"/>
+      <c r="F29" s="241"/>
+      <c r="G29" s="241"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="243"/>
       <c r="J29" s="36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -3682,27 +3660,27 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
-      <c r="B30" s="247" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="247"/>
-      <c r="D30" s="247"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="248"/>
+      <c r="B30" s="245" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="245"/>
+      <c r="D30" s="245"/>
+      <c r="E30" s="245"/>
+      <c r="F30" s="245"/>
+      <c r="G30" s="245"/>
+      <c r="H30" s="246"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="249"/>
+      <c r="A31" s="178"/>
       <c r="B31" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3712,14 +3690,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="249"/>
+      <c r="A32" s="178"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3764,24 +3742,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="250" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="227"/>
-      <c r="C35" s="218" t="s">
+      <c r="A35" s="247" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="235"/>
+      <c r="B35" s="225"/>
+      <c r="C35" s="216" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="216"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+      <c r="H35" s="233"/>
       <c r="I35" s="17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -3802,12 +3780,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="251" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="252"/>
+      <c r="A37" s="248" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="249"/>
       <c r="C37" s="14" t="s">
-        <v>61</v>
+        <v>27</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -3815,7 +3793,7 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
@@ -3840,18 +3818,18 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="250" t="s">
+      <c r="A39" s="247" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="215" t="s">
+      <c r="B39" s="225"/>
+      <c r="C39" s="213" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216"/>
+      <c r="D39" s="213"/>
+      <c r="E39" s="213"/>
+      <c r="F39" s="213"/>
+      <c r="G39" s="213"/>
+      <c r="H39" s="214"/>
       <c r="I39" s="17" t="s">
         <v>63</v>
       </c>
@@ -3865,31 +3843,31 @@
     <row r="40" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
+      <c r="C40" s="216"/>
+      <c r="D40" s="216"/>
+      <c r="E40" s="216"/>
+      <c r="F40" s="216"/>
+      <c r="G40" s="216"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="235"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="216"/>
+      <c r="M40" s="233"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="236" t="s">
+      <c r="A41" s="234" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="237"/>
-      <c r="C41" s="215" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216"/>
+      <c r="B41" s="235"/>
+      <c r="C41" s="213" t="s">
+        <v>58</v>
+      </c>
+      <c r="D41" s="213"/>
+      <c r="E41" s="213"/>
+      <c r="F41" s="213"/>
+      <c r="G41" s="213"/>
+      <c r="H41" s="214"/>
       <c r="I41" s="17" t="s">
         <v>67</v>
       </c>
@@ -3934,81 +3912,81 @@
       <c r="A44" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="238" t="s">
+      <c r="B44" s="236" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="239"/>
-      <c r="G44" s="239"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="240"/>
+      <c r="C44" s="237"/>
+      <c r="D44" s="237"/>
+      <c r="E44" s="237"/>
+      <c r="F44" s="237"/>
+      <c r="G44" s="237"/>
+      <c r="H44" s="237"/>
+      <c r="I44" s="237"/>
+      <c r="J44" s="237"/>
+      <c r="K44" s="237"/>
+      <c r="L44" s="237"/>
+      <c r="M44" s="238"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="200" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="240"/>
-      <c r="H45" s="198" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="240"/>
+      <c r="B45" s="237"/>
+      <c r="C45" s="237"/>
+      <c r="D45" s="237"/>
+      <c r="E45" s="237"/>
+      <c r="F45" s="237"/>
+      <c r="G45" s="238"/>
+      <c r="H45" s="200" t="s">
+        <v>44</v>
+      </c>
+      <c r="I45" s="237"/>
+      <c r="J45" s="237"/>
+      <c r="K45" s="237"/>
+      <c r="L45" s="237"/>
+      <c r="M45" s="238"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="220" t="s">
+      <c r="A46" s="218" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="222" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="223"/>
-      <c r="D46" s="223"/>
-      <c r="E46" s="226" t="s">
+      <c r="B46" s="220" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="221"/>
+      <c r="D46" s="221"/>
+      <c r="E46" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="220" t="s">
+      <c r="F46" s="225"/>
+      <c r="G46" s="226"/>
+      <c r="H46" s="218" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="232" t="s">
+      <c r="I46" s="230" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="233"/>
-      <c r="K46" s="234" t="s">
+      <c r="J46" s="231"/>
+      <c r="K46" s="232" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="210" t="s">
+      <c r="L46" s="208" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="211"/>
+      <c r="M46" s="209"/>
     </row>
     <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="220"/>
-      <c r="B47" s="222"/>
-      <c r="C47" s="223"/>
-      <c r="D47" s="223"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="227"/>
-      <c r="G47" s="228"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="232"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="234"/>
+      <c r="A47" s="218"/>
+      <c r="B47" s="220"/>
+      <c r="C47" s="221"/>
+      <c r="D47" s="221"/>
+      <c r="E47" s="224"/>
+      <c r="F47" s="225"/>
+      <c r="G47" s="226"/>
+      <c r="H47" s="218"/>
+      <c r="I47" s="230"/>
+      <c r="J47" s="231"/>
+      <c r="K47" s="232"/>
       <c r="L47" s="52" t="s">
         <v>77</v>
       </c>
@@ -4017,20 +3995,20 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="221"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="231"/>
+      <c r="A48" s="219"/>
+      <c r="B48" s="222"/>
+      <c r="C48" s="223"/>
+      <c r="D48" s="223"/>
+      <c r="E48" s="227"/>
+      <c r="F48" s="228"/>
+      <c r="G48" s="229"/>
       <c r="H48" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="212" t="s">
+      <c r="I48" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="213"/>
+      <c r="J48" s="211"/>
       <c r="K48" s="55" t="s">
         <v>81</v>
       </c>
@@ -4076,9 +4054,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="214"/>
-      <c r="F51" s="215"/>
-      <c r="G51" s="216"/>
+      <c r="E51" s="212"/>
+      <c r="F51" s="213"/>
+      <c r="G51" s="214"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4277,247 +4255,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB1" s="474" t="s">
+      <c r="AB1" s="471" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="474"/>
-      <c r="AD1" s="474"/>
-      <c r="AE1" s="474"/>
-      <c r="AF1" s="474"/>
-      <c r="AG1" s="474"/>
+      <c r="AC1" s="471"/>
+      <c r="AD1" s="471"/>
+      <c r="AE1" s="471"/>
+      <c r="AF1" s="471"/>
+      <c r="AG1" s="471"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="475" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="476"/>
-      <c r="C3" s="476"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="476"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="476"/>
-      <c r="T3" s="476"/>
-      <c r="U3" s="476"/>
-      <c r="V3" s="476"/>
-      <c r="W3" s="476"/>
-      <c r="X3" s="476"/>
-      <c r="Y3" s="476"/>
-      <c r="Z3" s="476"/>
-      <c r="AA3" s="477"/>
-      <c r="AB3" s="478" t="s">
+      <c r="A3" s="472" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="473"/>
+      <c r="C3" s="473"/>
+      <c r="D3" s="473"/>
+      <c r="E3" s="473"/>
+      <c r="F3" s="473"/>
+      <c r="G3" s="473"/>
+      <c r="H3" s="473"/>
+      <c r="I3" s="473"/>
+      <c r="J3" s="473"/>
+      <c r="K3" s="473"/>
+      <c r="L3" s="473"/>
+      <c r="M3" s="473"/>
+      <c r="N3" s="473"/>
+      <c r="O3" s="473"/>
+      <c r="P3" s="473"/>
+      <c r="Q3" s="473"/>
+      <c r="R3" s="473"/>
+      <c r="S3" s="473"/>
+      <c r="T3" s="473"/>
+      <c r="U3" s="473"/>
+      <c r="V3" s="473"/>
+      <c r="W3" s="473"/>
+      <c r="X3" s="473"/>
+      <c r="Y3" s="473"/>
+      <c r="Z3" s="473"/>
+      <c r="AA3" s="474"/>
+      <c r="AB3" s="475" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" s="479"/>
-      <c r="AD3" s="479"/>
-      <c r="AE3" s="479"/>
-      <c r="AF3" s="479"/>
-      <c r="AG3" s="480"/>
+      <c r="AC3" s="476"/>
+      <c r="AD3" s="476"/>
+      <c r="AE3" s="476"/>
+      <c r="AF3" s="476"/>
+      <c r="AG3" s="477"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="481" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="482"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
-      <c r="O4" s="482"/>
-      <c r="P4" s="482"/>
-      <c r="Q4" s="482"/>
-      <c r="R4" s="482"/>
-      <c r="S4" s="482"/>
-      <c r="T4" s="482"/>
-      <c r="U4" s="482"/>
-      <c r="V4" s="482"/>
-      <c r="W4" s="482"/>
-      <c r="X4" s="482"/>
-      <c r="Y4" s="482"/>
-      <c r="Z4" s="482"/>
-      <c r="AA4" s="483"/>
-      <c r="AB4" s="484"/>
-      <c r="AC4" s="485"/>
-      <c r="AD4" s="485"/>
-      <c r="AE4" s="485"/>
-      <c r="AF4" s="485"/>
-      <c r="AG4" s="486"/>
+      <c r="A4" s="478" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="479"/>
+      <c r="C4" s="479"/>
+      <c r="D4" s="479"/>
+      <c r="E4" s="479"/>
+      <c r="F4" s="479"/>
+      <c r="G4" s="479"/>
+      <c r="H4" s="479"/>
+      <c r="I4" s="479"/>
+      <c r="J4" s="479"/>
+      <c r="K4" s="479"/>
+      <c r="L4" s="479"/>
+      <c r="M4" s="479"/>
+      <c r="N4" s="479"/>
+      <c r="O4" s="479"/>
+      <c r="P4" s="479"/>
+      <c r="Q4" s="479"/>
+      <c r="R4" s="479"/>
+      <c r="S4" s="479"/>
+      <c r="T4" s="479"/>
+      <c r="U4" s="479"/>
+      <c r="V4" s="479"/>
+      <c r="W4" s="479"/>
+      <c r="X4" s="479"/>
+      <c r="Y4" s="479"/>
+      <c r="Z4" s="479"/>
+      <c r="AA4" s="480"/>
+      <c r="AB4" s="481"/>
+      <c r="AC4" s="482"/>
+      <c r="AD4" s="482"/>
+      <c r="AE4" s="482"/>
+      <c r="AF4" s="482"/>
+      <c r="AG4" s="483"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="440" t="s">
+      <c r="A5" s="437" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="441"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="441"/>
-      <c r="E5" s="441"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="441"/>
-      <c r="I5" s="441"/>
-      <c r="J5" s="441"/>
-      <c r="K5" s="441"/>
-      <c r="L5" s="441"/>
-      <c r="M5" s="441"/>
-      <c r="N5" s="441"/>
-      <c r="O5" s="441"/>
-      <c r="P5" s="441"/>
-      <c r="Q5" s="441"/>
-      <c r="R5" s="441"/>
-      <c r="S5" s="441"/>
-      <c r="T5" s="441"/>
-      <c r="U5" s="441"/>
-      <c r="V5" s="441"/>
-      <c r="W5" s="441"/>
-      <c r="X5" s="441"/>
-      <c r="Y5" s="441"/>
-      <c r="Z5" s="441"/>
-      <c r="AA5" s="442"/>
-      <c r="AB5" s="456" t="s">
+      <c r="B5" s="438"/>
+      <c r="C5" s="438"/>
+      <c r="D5" s="438"/>
+      <c r="E5" s="438"/>
+      <c r="F5" s="438"/>
+      <c r="G5" s="438"/>
+      <c r="H5" s="438"/>
+      <c r="I5" s="438"/>
+      <c r="J5" s="438"/>
+      <c r="K5" s="438"/>
+      <c r="L5" s="438"/>
+      <c r="M5" s="438"/>
+      <c r="N5" s="438"/>
+      <c r="O5" s="438"/>
+      <c r="P5" s="438"/>
+      <c r="Q5" s="438"/>
+      <c r="R5" s="438"/>
+      <c r="S5" s="438"/>
+      <c r="T5" s="438"/>
+      <c r="U5" s="438"/>
+      <c r="V5" s="438"/>
+      <c r="W5" s="438"/>
+      <c r="X5" s="438"/>
+      <c r="Y5" s="438"/>
+      <c r="Z5" s="438"/>
+      <c r="AA5" s="439"/>
+      <c r="AB5" s="453" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" s="457"/>
-      <c r="AD5" s="457"/>
-      <c r="AE5" s="457"/>
-      <c r="AF5" s="457"/>
-      <c r="AG5" s="458"/>
+      <c r="AC5" s="454"/>
+      <c r="AD5" s="454"/>
+      <c r="AE5" s="454"/>
+      <c r="AF5" s="454"/>
+      <c r="AG5" s="455"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="440"/>
-      <c r="B6" s="441"/>
-      <c r="C6" s="441"/>
-      <c r="D6" s="441"/>
-      <c r="E6" s="441"/>
-      <c r="F6" s="441"/>
-      <c r="G6" s="441"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="441"/>
-      <c r="J6" s="441"/>
-      <c r="K6" s="441"/>
-      <c r="L6" s="441"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="441"/>
-      <c r="O6" s="441"/>
-      <c r="P6" s="441"/>
-      <c r="Q6" s="441"/>
-      <c r="R6" s="441"/>
-      <c r="S6" s="441"/>
-      <c r="T6" s="441"/>
-      <c r="U6" s="441"/>
-      <c r="V6" s="441"/>
-      <c r="W6" s="441"/>
-      <c r="X6" s="441"/>
-      <c r="Y6" s="441"/>
-      <c r="Z6" s="441"/>
-      <c r="AA6" s="442"/>
-      <c r="AB6" s="459" t="s">
+      <c r="A6" s="437"/>
+      <c r="B6" s="438"/>
+      <c r="C6" s="438"/>
+      <c r="D6" s="438"/>
+      <c r="E6" s="438"/>
+      <c r="F6" s="438"/>
+      <c r="G6" s="438"/>
+      <c r="H6" s="438"/>
+      <c r="I6" s="438"/>
+      <c r="J6" s="438"/>
+      <c r="K6" s="438"/>
+      <c r="L6" s="438"/>
+      <c r="M6" s="438"/>
+      <c r="N6" s="438"/>
+      <c r="O6" s="438"/>
+      <c r="P6" s="438"/>
+      <c r="Q6" s="438"/>
+      <c r="R6" s="438"/>
+      <c r="S6" s="438"/>
+      <c r="T6" s="438"/>
+      <c r="U6" s="438"/>
+      <c r="V6" s="438"/>
+      <c r="W6" s="438"/>
+      <c r="X6" s="438"/>
+      <c r="Y6" s="438"/>
+      <c r="Z6" s="438"/>
+      <c r="AA6" s="439"/>
+      <c r="AB6" s="456" t="s">
         <v>88</v>
       </c>
-      <c r="AC6" s="460"/>
-      <c r="AD6" s="460"/>
-      <c r="AE6" s="460"/>
-      <c r="AF6" s="460"/>
-      <c r="AG6" s="461"/>
+      <c r="AC6" s="457"/>
+      <c r="AD6" s="457"/>
+      <c r="AE6" s="457"/>
+      <c r="AF6" s="457"/>
+      <c r="AG6" s="458"/>
     </row>
     <row r="7" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="443"/>
-      <c r="B7" s="444"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="444"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="444"/>
-      <c r="K7" s="444"/>
-      <c r="L7" s="444"/>
-      <c r="M7" s="444"/>
-      <c r="N7" s="444"/>
-      <c r="O7" s="444"/>
-      <c r="P7" s="444"/>
-      <c r="Q7" s="444"/>
-      <c r="R7" s="444"/>
-      <c r="S7" s="444"/>
-      <c r="T7" s="444"/>
-      <c r="U7" s="444"/>
-      <c r="V7" s="444"/>
-      <c r="W7" s="444"/>
-      <c r="X7" s="444"/>
-      <c r="Y7" s="444"/>
-      <c r="Z7" s="444"/>
-      <c r="AA7" s="445"/>
-      <c r="AB7" s="462"/>
-      <c r="AC7" s="462"/>
-      <c r="AD7" s="462"/>
-      <c r="AE7" s="462"/>
-      <c r="AF7" s="462"/>
-      <c r="AG7" s="463"/>
+      <c r="A7" s="440"/>
+      <c r="B7" s="441"/>
+      <c r="C7" s="441"/>
+      <c r="D7" s="441"/>
+      <c r="E7" s="441"/>
+      <c r="F7" s="441"/>
+      <c r="G7" s="441"/>
+      <c r="H7" s="441"/>
+      <c r="I7" s="441"/>
+      <c r="J7" s="441"/>
+      <c r="K7" s="441"/>
+      <c r="L7" s="441"/>
+      <c r="M7" s="441"/>
+      <c r="N7" s="441"/>
+      <c r="O7" s="441"/>
+      <c r="P7" s="441"/>
+      <c r="Q7" s="441"/>
+      <c r="R7" s="441"/>
+      <c r="S7" s="441"/>
+      <c r="T7" s="441"/>
+      <c r="U7" s="441"/>
+      <c r="V7" s="441"/>
+      <c r="W7" s="441"/>
+      <c r="X7" s="441"/>
+      <c r="Y7" s="441"/>
+      <c r="Z7" s="441"/>
+      <c r="AA7" s="442"/>
+      <c r="AB7" s="459"/>
+      <c r="AC7" s="459"/>
+      <c r="AD7" s="459"/>
+      <c r="AE7" s="459"/>
+      <c r="AF7" s="459"/>
+      <c r="AG7" s="460"/>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="446" t="s">
+      <c r="A8" s="443" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="447"/>
-      <c r="C8" s="448"/>
+      <c r="B8" s="444"/>
+      <c r="C8" s="445"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="455"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347"/>
-      <c r="H8" s="347"/>
-      <c r="I8" s="347"/>
-      <c r="J8" s="347"/>
-      <c r="K8" s="347"/>
-      <c r="L8" s="347"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="347"/>
-      <c r="AE8" s="347"/>
-      <c r="AF8" s="347"/>
-      <c r="AG8" s="348"/>
+      <c r="E8" s="452"/>
+      <c r="F8" s="344"/>
+      <c r="G8" s="344"/>
+      <c r="H8" s="344"/>
+      <c r="I8" s="344"/>
+      <c r="J8" s="344"/>
+      <c r="K8" s="344"/>
+      <c r="L8" s="344"/>
+      <c r="M8" s="344"/>
+      <c r="N8" s="344"/>
+      <c r="O8" s="344"/>
+      <c r="P8" s="344"/>
+      <c r="Q8" s="344"/>
+      <c r="R8" s="344"/>
+      <c r="S8" s="344"/>
+      <c r="T8" s="344"/>
+      <c r="U8" s="344"/>
+      <c r="V8" s="344"/>
+      <c r="W8" s="344"/>
+      <c r="X8" s="344"/>
+      <c r="Y8" s="344"/>
+      <c r="Z8" s="344"/>
+      <c r="AA8" s="344"/>
+      <c r="AB8" s="344"/>
+      <c r="AC8" s="344"/>
+      <c r="AD8" s="344"/>
+      <c r="AE8" s="344"/>
+      <c r="AF8" s="344"/>
+      <c r="AG8" s="345"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="449"/>
-      <c r="B9" s="450"/>
-      <c r="C9" s="451"/>
+      <c r="A9" s="446"/>
+      <c r="B9" s="447"/>
+      <c r="C9" s="448"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
@@ -4559,26 +4537,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="452"/>
-      <c r="B10" s="453"/>
-      <c r="C10" s="454"/>
+      <c r="A10" s="449"/>
+      <c r="B10" s="450"/>
+      <c r="C10" s="451"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="342"/>
-      <c r="K10" s="342"/>
-      <c r="L10" s="342"/>
-      <c r="M10" s="342"/>
+      <c r="J10" s="339"/>
+      <c r="K10" s="339"/>
+      <c r="L10" s="339"/>
+      <c r="M10" s="339"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="342"/>
-      <c r="P10" s="342"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="342"/>
-      <c r="S10" s="340"/>
-      <c r="T10" s="340"/>
+      <c r="O10" s="339"/>
+      <c r="P10" s="339"/>
+      <c r="Q10" s="339"/>
+      <c r="R10" s="339"/>
+      <c r="S10" s="337"/>
+      <c r="T10" s="337"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -4595,110 +4573,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="446" t="s">
+      <c r="A11" s="443" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="447"/>
-      <c r="C11" s="448"/>
+      <c r="B11" s="444"/>
+      <c r="C11" s="445"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="464" t="str">
+      <c r="E11" s="461" t="str">
         <f>ORS!D6</f>
         <v>MAYBELLINE M. MONTEIRO</v>
       </c>
-      <c r="F11" s="447"/>
-      <c r="G11" s="447"/>
-      <c r="H11" s="447"/>
-      <c r="I11" s="447"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="447"/>
-      <c r="L11" s="447"/>
-      <c r="M11" s="447"/>
-      <c r="N11" s="447"/>
-      <c r="O11" s="447"/>
-      <c r="P11" s="447"/>
-      <c r="Q11" s="447"/>
-      <c r="R11" s="447"/>
-      <c r="S11" s="466" t="s">
+      <c r="F11" s="444"/>
+      <c r="G11" s="444"/>
+      <c r="H11" s="444"/>
+      <c r="I11" s="444"/>
+      <c r="J11" s="444"/>
+      <c r="K11" s="444"/>
+      <c r="L11" s="444"/>
+      <c r="M11" s="444"/>
+      <c r="N11" s="444"/>
+      <c r="O11" s="444"/>
+      <c r="P11" s="444"/>
+      <c r="Q11" s="444"/>
+      <c r="R11" s="444"/>
+      <c r="S11" s="463" t="s">
         <v>95</v>
       </c>
-      <c r="T11" s="467"/>
-      <c r="U11" s="467"/>
-      <c r="V11" s="467"/>
-      <c r="W11" s="467"/>
-      <c r="X11" s="467"/>
-      <c r="Y11" s="467"/>
-      <c r="Z11" s="467"/>
-      <c r="AA11" s="468"/>
-      <c r="AB11" s="469" t="s">
+      <c r="T11" s="464"/>
+      <c r="U11" s="464"/>
+      <c r="V11" s="464"/>
+      <c r="W11" s="464"/>
+      <c r="X11" s="464"/>
+      <c r="Y11" s="464"/>
+      <c r="Z11" s="464"/>
+      <c r="AA11" s="465"/>
+      <c r="AB11" s="466" t="s">
         <v>96</v>
       </c>
-      <c r="AC11" s="469"/>
-      <c r="AD11" s="469"/>
-      <c r="AE11" s="469"/>
-      <c r="AF11" s="469"/>
-      <c r="AG11" s="470"/>
+      <c r="AC11" s="466"/>
+      <c r="AD11" s="466"/>
+      <c r="AE11" s="466"/>
+      <c r="AF11" s="466"/>
+      <c r="AG11" s="467"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="449"/>
-      <c r="B12" s="450"/>
-      <c r="C12" s="451"/>
+      <c r="A12" s="446"/>
+      <c r="B12" s="447"/>
+      <c r="C12" s="448"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="450"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="450"/>
-      <c r="I12" s="450"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="450"/>
-      <c r="L12" s="450"/>
-      <c r="M12" s="450"/>
-      <c r="N12" s="450"/>
-      <c r="O12" s="450"/>
-      <c r="P12" s="450"/>
-      <c r="Q12" s="450"/>
-      <c r="R12" s="450"/>
-      <c r="S12" s="471"/>
-      <c r="T12" s="472"/>
-      <c r="U12" s="472"/>
-      <c r="V12" s="472"/>
-      <c r="W12" s="472"/>
-      <c r="X12" s="472"/>
-      <c r="Y12" s="472"/>
-      <c r="Z12" s="472"/>
-      <c r="AA12" s="473"/>
-      <c r="AB12" s="340"/>
-      <c r="AC12" s="340"/>
-      <c r="AD12" s="340"/>
-      <c r="AE12" s="340"/>
-      <c r="AF12" s="340"/>
-      <c r="AG12" s="341"/>
+      <c r="E12" s="462"/>
+      <c r="F12" s="447"/>
+      <c r="G12" s="447"/>
+      <c r="H12" s="447"/>
+      <c r="I12" s="447"/>
+      <c r="J12" s="447"/>
+      <c r="K12" s="447"/>
+      <c r="L12" s="447"/>
+      <c r="M12" s="447"/>
+      <c r="N12" s="447"/>
+      <c r="O12" s="447"/>
+      <c r="P12" s="447"/>
+      <c r="Q12" s="447"/>
+      <c r="R12" s="447"/>
+      <c r="S12" s="468"/>
+      <c r="T12" s="469"/>
+      <c r="U12" s="469"/>
+      <c r="V12" s="469"/>
+      <c r="W12" s="469"/>
+      <c r="X12" s="469"/>
+      <c r="Y12" s="469"/>
+      <c r="Z12" s="469"/>
+      <c r="AA12" s="470"/>
+      <c r="AB12" s="337"/>
+      <c r="AC12" s="337"/>
+      <c r="AD12" s="337"/>
+      <c r="AE12" s="337"/>
+      <c r="AF12" s="337"/>
+      <c r="AG12" s="338"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="428" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="429"/>
-      <c r="C13" s="430"/>
+      <c r="A13" s="425" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="426"/>
+      <c r="C13" s="427"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="434" t="e">
+      <c r="E13" s="431" t="e">
         <f>ORS!D10</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="429"/>
-      <c r="G13" s="429"/>
-      <c r="H13" s="429"/>
-      <c r="I13" s="429"/>
-      <c r="J13" s="429"/>
-      <c r="K13" s="429"/>
-      <c r="L13" s="429"/>
-      <c r="M13" s="429"/>
-      <c r="N13" s="429"/>
-      <c r="O13" s="429"/>
-      <c r="P13" s="429"/>
-      <c r="Q13" s="429"/>
-      <c r="R13" s="429"/>
+      <c r="F13" s="426"/>
+      <c r="G13" s="426"/>
+      <c r="H13" s="426"/>
+      <c r="I13" s="426"/>
+      <c r="J13" s="426"/>
+      <c r="K13" s="426"/>
+      <c r="L13" s="426"/>
+      <c r="M13" s="426"/>
+      <c r="N13" s="426"/>
+      <c r="O13" s="426"/>
+      <c r="P13" s="426"/>
+      <c r="Q13" s="426"/>
+      <c r="R13" s="426"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -4717,24 +4695,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="431"/>
-      <c r="B14" s="432"/>
-      <c r="C14" s="433"/>
+      <c r="A14" s="428"/>
+      <c r="B14" s="429"/>
+      <c r="C14" s="430"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="435"/>
-      <c r="F14" s="432"/>
-      <c r="G14" s="432"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="432"/>
-      <c r="J14" s="432"/>
-      <c r="K14" s="432"/>
-      <c r="L14" s="432"/>
-      <c r="M14" s="432"/>
-      <c r="N14" s="432"/>
-      <c r="O14" s="432"/>
-      <c r="P14" s="432"/>
-      <c r="Q14" s="432"/>
-      <c r="R14" s="432"/>
+      <c r="E14" s="432"/>
+      <c r="F14" s="429"/>
+      <c r="G14" s="429"/>
+      <c r="H14" s="429"/>
+      <c r="I14" s="429"/>
+      <c r="J14" s="429"/>
+      <c r="K14" s="429"/>
+      <c r="L14" s="429"/>
+      <c r="M14" s="429"/>
+      <c r="N14" s="429"/>
+      <c r="O14" s="429"/>
+      <c r="P14" s="429"/>
+      <c r="Q14" s="429"/>
+      <c r="R14" s="429"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -4753,47 +4731,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:34" s="103" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="436" t="s">
+      <c r="A15" s="433" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="393"/>
+      <c r="C15" s="393"/>
+      <c r="D15" s="393"/>
+      <c r="E15" s="393"/>
+      <c r="F15" s="393"/>
+      <c r="G15" s="393"/>
+      <c r="H15" s="393"/>
+      <c r="I15" s="393"/>
+      <c r="J15" s="393"/>
+      <c r="K15" s="393"/>
+      <c r="L15" s="393"/>
+      <c r="M15" s="393"/>
+      <c r="N15" s="393"/>
+      <c r="O15" s="393"/>
+      <c r="P15" s="393"/>
+      <c r="Q15" s="434"/>
+      <c r="R15" s="392" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="396"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="396"/>
-      <c r="L15" s="396"/>
-      <c r="M15" s="396"/>
-      <c r="N15" s="396"/>
-      <c r="O15" s="396"/>
-      <c r="P15" s="396"/>
-      <c r="Q15" s="437"/>
-      <c r="R15" s="395" t="s">
-        <v>39</v>
-      </c>
-      <c r="S15" s="438"/>
-      <c r="T15" s="438"/>
-      <c r="U15" s="438"/>
-      <c r="V15" s="439"/>
-      <c r="W15" s="395" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="396"/>
-      <c r="Y15" s="396"/>
-      <c r="Z15" s="396"/>
-      <c r="AA15" s="437"/>
-      <c r="AB15" s="395" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="396"/>
-      <c r="AD15" s="396"/>
-      <c r="AE15" s="396"/>
-      <c r="AF15" s="396"/>
-      <c r="AG15" s="397"/>
+      <c r="S15" s="435"/>
+      <c r="T15" s="435"/>
+      <c r="U15" s="435"/>
+      <c r="V15" s="436"/>
+      <c r="W15" s="392" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" s="393"/>
+      <c r="Y15" s="393"/>
+      <c r="Z15" s="393"/>
+      <c r="AA15" s="434"/>
+      <c r="AB15" s="392" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" s="393"/>
+      <c r="AD15" s="393"/>
+      <c r="AE15" s="393"/>
+      <c r="AF15" s="393"/>
+      <c r="AG15" s="394"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4834,23 +4812,23 @@
     </row>
     <row r="17" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
-      <c r="B17" s="218" t="s">
+      <c r="B17" s="216" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="216"/>
+      <c r="M17" s="216"/>
+      <c r="N17" s="216"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="216"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -4862,34 +4840,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="414">
+      <c r="AB17" s="411">
         <f>ORS!L15</f>
         <v>4981</v>
       </c>
-      <c r="AC17" s="415"/>
-      <c r="AD17" s="415"/>
-      <c r="AE17" s="415"/>
-      <c r="AF17" s="415"/>
-      <c r="AG17" s="416"/>
+      <c r="AC17" s="412"/>
+      <c r="AD17" s="412"/>
+      <c r="AE17" s="412"/>
+      <c r="AF17" s="412"/>
+      <c r="AG17" s="413"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
+      <c r="B18" s="216"/>
+      <c r="C18" s="216"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
+      <c r="H18" s="216"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="216"/>
+      <c r="K18" s="216"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="216"/>
+      <c r="N18" s="216"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="216"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -4911,21 +4889,21 @@
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
+      <c r="B19" s="216"/>
+      <c r="C19" s="216"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
+      <c r="H19" s="216"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="216"/>
+      <c r="K19" s="216"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="216"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="216"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5284,25 +5262,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:35" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="417" t="s">
+      <c r="A29" s="414" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="418"/>
-      <c r="C29" s="418"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="418"/>
-      <c r="G29" s="418"/>
-      <c r="H29" s="418"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="418"/>
-      <c r="K29" s="418"/>
-      <c r="L29" s="418"/>
-      <c r="M29" s="418"/>
-      <c r="N29" s="418"/>
-      <c r="O29" s="418"/>
-      <c r="P29" s="418"/>
-      <c r="Q29" s="419"/>
+      <c r="B29" s="415"/>
+      <c r="C29" s="415"/>
+      <c r="D29" s="415"/>
+      <c r="E29" s="415"/>
+      <c r="F29" s="415"/>
+      <c r="G29" s="415"/>
+      <c r="H29" s="415"/>
+      <c r="I29" s="415"/>
+      <c r="J29" s="415"/>
+      <c r="K29" s="415"/>
+      <c r="L29" s="415"/>
+      <c r="M29" s="415"/>
+      <c r="N29" s="415"/>
+      <c r="O29" s="415"/>
+      <c r="P29" s="415"/>
+      <c r="Q29" s="416"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5313,56 +5291,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="420">
+      <c r="AB29" s="417">
         <f>AB17</f>
         <v>4981</v>
       </c>
-      <c r="AC29" s="421"/>
-      <c r="AD29" s="421"/>
-      <c r="AE29" s="421"/>
-      <c r="AF29" s="421"/>
-      <c r="AG29" s="422"/>
+      <c r="AC29" s="418"/>
+      <c r="AD29" s="418"/>
+      <c r="AE29" s="418"/>
+      <c r="AF29" s="418"/>
+      <c r="AG29" s="419"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:35" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="423" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="420" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="423"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="423"/>
-      <c r="H30" s="423"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-      <c r="K30" s="423"/>
-      <c r="L30" s="423"/>
-      <c r="M30" s="423"/>
-      <c r="N30" s="423"/>
-      <c r="O30" s="423"/>
-      <c r="P30" s="423"/>
-      <c r="Q30" s="423"/>
-      <c r="R30" s="423"/>
-      <c r="S30" s="423"/>
-      <c r="T30" s="423"/>
-      <c r="U30" s="423"/>
-      <c r="V30" s="423"/>
-      <c r="W30" s="423"/>
-      <c r="X30" s="423"/>
-      <c r="Y30" s="423"/>
-      <c r="Z30" s="423"/>
-      <c r="AA30" s="423"/>
-      <c r="AB30" s="424"/>
-      <c r="AC30" s="424"/>
-      <c r="AD30" s="424"/>
-      <c r="AE30" s="424"/>
-      <c r="AF30" s="424"/>
-      <c r="AG30" s="425"/>
+      <c r="C30" s="420"/>
+      <c r="D30" s="420"/>
+      <c r="E30" s="420"/>
+      <c r="F30" s="420"/>
+      <c r="G30" s="420"/>
+      <c r="H30" s="420"/>
+      <c r="I30" s="420"/>
+      <c r="J30" s="420"/>
+      <c r="K30" s="420"/>
+      <c r="L30" s="420"/>
+      <c r="M30" s="420"/>
+      <c r="N30" s="420"/>
+      <c r="O30" s="420"/>
+      <c r="P30" s="420"/>
+      <c r="Q30" s="420"/>
+      <c r="R30" s="420"/>
+      <c r="S30" s="420"/>
+      <c r="T30" s="420"/>
+      <c r="U30" s="420"/>
+      <c r="V30" s="420"/>
+      <c r="W30" s="420"/>
+      <c r="X30" s="420"/>
+      <c r="Y30" s="420"/>
+      <c r="Z30" s="420"/>
+      <c r="AA30" s="420"/>
+      <c r="AB30" s="421"/>
+      <c r="AC30" s="421"/>
+      <c r="AD30" s="421"/>
+      <c r="AE30" s="421"/>
+      <c r="AF30" s="421"/>
+      <c r="AG30" s="422"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5407,80 +5385,80 @@
     </row>
     <row r="32" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="121"/>
-      <c r="B32" s="426" t="str">
+      <c r="B32" s="423" t="str">
         <f>ORS!C37</f>
         <v>DR. CARINA S. CRUZ</v>
       </c>
-      <c r="C32" s="415"/>
-      <c r="D32" s="415"/>
-      <c r="E32" s="415"/>
-      <c r="F32" s="415"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="415"/>
-      <c r="I32" s="415"/>
-      <c r="J32" s="415"/>
-      <c r="K32" s="415"/>
-      <c r="L32" s="415"/>
-      <c r="M32" s="415"/>
-      <c r="N32" s="415"/>
-      <c r="O32" s="415"/>
-      <c r="P32" s="415"/>
-      <c r="Q32" s="415"/>
-      <c r="R32" s="415"/>
-      <c r="S32" s="415"/>
-      <c r="T32" s="415"/>
-      <c r="U32" s="415"/>
-      <c r="V32" s="415"/>
-      <c r="W32" s="415"/>
-      <c r="X32" s="415"/>
-      <c r="Y32" s="415"/>
-      <c r="Z32" s="415"/>
-      <c r="AA32" s="415"/>
-      <c r="AB32" s="415"/>
-      <c r="AC32" s="415"/>
-      <c r="AD32" s="415"/>
-      <c r="AE32" s="415"/>
-      <c r="AF32" s="415"/>
+      <c r="C32" s="412"/>
+      <c r="D32" s="412"/>
+      <c r="E32" s="412"/>
+      <c r="F32" s="412"/>
+      <c r="G32" s="412"/>
+      <c r="H32" s="412"/>
+      <c r="I32" s="412"/>
+      <c r="J32" s="412"/>
+      <c r="K32" s="412"/>
+      <c r="L32" s="412"/>
+      <c r="M32" s="412"/>
+      <c r="N32" s="412"/>
+      <c r="O32" s="412"/>
+      <c r="P32" s="412"/>
+      <c r="Q32" s="412"/>
+      <c r="R32" s="412"/>
+      <c r="S32" s="412"/>
+      <c r="T32" s="412"/>
+      <c r="U32" s="412"/>
+      <c r="V32" s="412"/>
+      <c r="W32" s="412"/>
+      <c r="X32" s="412"/>
+      <c r="Y32" s="412"/>
+      <c r="Z32" s="412"/>
+      <c r="AA32" s="412"/>
+      <c r="AB32" s="412"/>
+      <c r="AC32" s="412"/>
+      <c r="AD32" s="412"/>
+      <c r="AE32" s="412"/>
+      <c r="AF32" s="412"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="121"/>
-      <c r="B33" s="427" t="str">
+      <c r="B33" s="424" t="str">
         <f>ORS!C39</f>
         <v>Chief, FAD</v>
       </c>
-      <c r="C33" s="427"/>
-      <c r="D33" s="427"/>
-      <c r="E33" s="427"/>
-      <c r="F33" s="427"/>
-      <c r="G33" s="427"/>
-      <c r="H33" s="427"/>
-      <c r="I33" s="427"/>
-      <c r="J33" s="427"/>
-      <c r="K33" s="427"/>
-      <c r="L33" s="427"/>
-      <c r="M33" s="427"/>
-      <c r="N33" s="427"/>
-      <c r="O33" s="427"/>
-      <c r="P33" s="427"/>
-      <c r="Q33" s="427"/>
-      <c r="R33" s="427"/>
-      <c r="S33" s="427"/>
-      <c r="T33" s="427"/>
-      <c r="U33" s="427"/>
-      <c r="V33" s="427"/>
-      <c r="W33" s="427"/>
-      <c r="X33" s="427"/>
-      <c r="Y33" s="427"/>
-      <c r="Z33" s="427"/>
-      <c r="AA33" s="427"/>
-      <c r="AB33" s="427"/>
-      <c r="AC33" s="427"/>
-      <c r="AD33" s="427"/>
-      <c r="AE33" s="427"/>
-      <c r="AF33" s="427"/>
+      <c r="C33" s="424"/>
+      <c r="D33" s="424"/>
+      <c r="E33" s="424"/>
+      <c r="F33" s="424"/>
+      <c r="G33" s="424"/>
+      <c r="H33" s="424"/>
+      <c r="I33" s="424"/>
+      <c r="J33" s="424"/>
+      <c r="K33" s="424"/>
+      <c r="L33" s="424"/>
+      <c r="M33" s="424"/>
+      <c r="N33" s="424"/>
+      <c r="O33" s="424"/>
+      <c r="P33" s="424"/>
+      <c r="Q33" s="424"/>
+      <c r="R33" s="424"/>
+      <c r="S33" s="424"/>
+      <c r="T33" s="424"/>
+      <c r="U33" s="424"/>
+      <c r="V33" s="424"/>
+      <c r="W33" s="424"/>
+      <c r="X33" s="424"/>
+      <c r="Y33" s="424"/>
+      <c r="Z33" s="424"/>
+      <c r="AA33" s="424"/>
+      <c r="AB33" s="424"/>
+      <c r="AC33" s="424"/>
+      <c r="AD33" s="424"/>
+      <c r="AE33" s="424"/>
+      <c r="AF33" s="424"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5497,19 +5475,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="427"/>
-      <c r="M34" s="427"/>
-      <c r="N34" s="427"/>
-      <c r="O34" s="427"/>
-      <c r="P34" s="427"/>
-      <c r="Q34" s="427"/>
-      <c r="R34" s="427"/>
-      <c r="S34" s="427"/>
-      <c r="T34" s="427"/>
-      <c r="U34" s="427"/>
-      <c r="V34" s="427"/>
-      <c r="W34" s="427"/>
-      <c r="X34" s="427"/>
+      <c r="L34" s="424"/>
+      <c r="M34" s="424"/>
+      <c r="N34" s="424"/>
+      <c r="O34" s="424"/>
+      <c r="P34" s="424"/>
+      <c r="Q34" s="424"/>
+      <c r="R34" s="424"/>
+      <c r="S34" s="424"/>
+      <c r="T34" s="424"/>
+      <c r="U34" s="424"/>
+      <c r="V34" s="424"/>
+      <c r="W34" s="424"/>
+      <c r="X34" s="424"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -5534,19 +5512,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="427"/>
-      <c r="M35" s="427"/>
-      <c r="N35" s="427"/>
-      <c r="O35" s="427"/>
-      <c r="P35" s="427"/>
-      <c r="Q35" s="427"/>
-      <c r="R35" s="427"/>
-      <c r="S35" s="427"/>
-      <c r="T35" s="427"/>
-      <c r="U35" s="427"/>
-      <c r="V35" s="427"/>
-      <c r="W35" s="427"/>
-      <c r="X35" s="427"/>
+      <c r="L35" s="424"/>
+      <c r="M35" s="424"/>
+      <c r="N35" s="424"/>
+      <c r="O35" s="424"/>
+      <c r="P35" s="424"/>
+      <c r="Q35" s="424"/>
+      <c r="R35" s="424"/>
+      <c r="S35" s="424"/>
+      <c r="T35" s="424"/>
+      <c r="U35" s="424"/>
+      <c r="V35" s="424"/>
+      <c r="W35" s="424"/>
+      <c r="X35" s="424"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -5561,7 +5539,7 @@
     </row>
     <row r="36" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="128" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B36" s="129" t="s">
         <v>108</v>
@@ -5601,47 +5579,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="409" t="s">
+      <c r="A37" s="406" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="410"/>
-      <c r="C37" s="410"/>
-      <c r="D37" s="410"/>
-      <c r="E37" s="410"/>
-      <c r="F37" s="410"/>
-      <c r="G37" s="410"/>
-      <c r="H37" s="410"/>
-      <c r="I37" s="410"/>
-      <c r="J37" s="410"/>
-      <c r="K37" s="410"/>
-      <c r="L37" s="410"/>
-      <c r="M37" s="410"/>
-      <c r="N37" s="410"/>
-      <c r="O37" s="410"/>
-      <c r="P37" s="410"/>
-      <c r="Q37" s="410"/>
-      <c r="R37" s="410"/>
-      <c r="S37" s="410" t="s">
+      <c r="B37" s="407"/>
+      <c r="C37" s="407"/>
+      <c r="D37" s="407"/>
+      <c r="E37" s="407"/>
+      <c r="F37" s="407"/>
+      <c r="G37" s="407"/>
+      <c r="H37" s="407"/>
+      <c r="I37" s="407"/>
+      <c r="J37" s="407"/>
+      <c r="K37" s="407"/>
+      <c r="L37" s="407"/>
+      <c r="M37" s="407"/>
+      <c r="N37" s="407"/>
+      <c r="O37" s="407"/>
+      <c r="P37" s="407"/>
+      <c r="Q37" s="407"/>
+      <c r="R37" s="407"/>
+      <c r="S37" s="407" t="s">
         <v>110</v>
       </c>
-      <c r="T37" s="410"/>
-      <c r="U37" s="410"/>
-      <c r="V37" s="410"/>
-      <c r="W37" s="410"/>
-      <c r="X37" s="411" t="s">
+      <c r="T37" s="407"/>
+      <c r="U37" s="407"/>
+      <c r="V37" s="407"/>
+      <c r="W37" s="407"/>
+      <c r="X37" s="408" t="s">
         <v>111</v>
       </c>
-      <c r="Y37" s="411"/>
-      <c r="Z37" s="411"/>
-      <c r="AA37" s="411"/>
-      <c r="AB37" s="411"/>
-      <c r="AC37" s="412" t="s">
+      <c r="Y37" s="408"/>
+      <c r="Z37" s="408"/>
+      <c r="AA37" s="408"/>
+      <c r="AB37" s="408"/>
+      <c r="AC37" s="409" t="s">
         <v>112</v>
       </c>
-      <c r="AD37" s="412"/>
-      <c r="AE37" s="412"/>
-      <c r="AF37" s="412"/>
-      <c r="AG37" s="413"/>
+      <c r="AD37" s="409"/>
+      <c r="AE37" s="409"/>
+      <c r="AF37" s="409"/>
+      <c r="AG37" s="410"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -5761,7 +5739,7 @@
         <v>69</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -5782,19 +5760,19 @@
       <c r="S41" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="T41" s="398" t="s">
+      <c r="T41" s="395" t="s">
         <v>115</v>
       </c>
-      <c r="U41" s="398"/>
-      <c r="V41" s="398"/>
-      <c r="W41" s="398"/>
-      <c r="X41" s="398"/>
-      <c r="Y41" s="398"/>
-      <c r="Z41" s="398"/>
-      <c r="AA41" s="398"/>
-      <c r="AB41" s="398"/>
-      <c r="AC41" s="398"/>
-      <c r="AD41" s="398"/>
+      <c r="U41" s="395"/>
+      <c r="V41" s="395"/>
+      <c r="W41" s="395"/>
+      <c r="X41" s="395"/>
+      <c r="Y41" s="395"/>
+      <c r="Z41" s="395"/>
+      <c r="AA41" s="395"/>
+      <c r="AB41" s="395"/>
+      <c r="AC41" s="395"/>
+      <c r="AD41" s="395"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -5821,31 +5799,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="399"/>
-      <c r="T42" s="400"/>
-      <c r="U42" s="400"/>
-      <c r="V42" s="400"/>
-      <c r="W42" s="400"/>
-      <c r="X42" s="400"/>
-      <c r="Y42" s="400"/>
-      <c r="Z42" s="400"/>
-      <c r="AA42" s="400"/>
-      <c r="AB42" s="400"/>
-      <c r="AC42" s="400"/>
-      <c r="AD42" s="400"/>
-      <c r="AE42" s="400"/>
-      <c r="AF42" s="400"/>
-      <c r="AG42" s="401"/>
+      <c r="S42" s="396"/>
+      <c r="T42" s="397"/>
+      <c r="U42" s="397"/>
+      <c r="V42" s="397"/>
+      <c r="W42" s="397"/>
+      <c r="X42" s="397"/>
+      <c r="Y42" s="397"/>
+      <c r="Z42" s="397"/>
+      <c r="AA42" s="397"/>
+      <c r="AB42" s="397"/>
+      <c r="AC42" s="397"/>
+      <c r="AD42" s="397"/>
+      <c r="AE42" s="397"/>
+      <c r="AF42" s="397"/>
+      <c r="AG42" s="398"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:35" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="408"/>
-      <c r="B43" s="340"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
-      <c r="G43" s="340"/>
+      <c r="A43" s="405"/>
+      <c r="B43" s="337"/>
+      <c r="C43" s="337"/>
+      <c r="D43" s="337"/>
+      <c r="E43" s="337"/>
+      <c r="F43" s="337"/>
+      <c r="G43" s="337"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -5857,21 +5835,21 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="402"/>
-      <c r="T43" s="403"/>
-      <c r="U43" s="403"/>
-      <c r="V43" s="403"/>
-      <c r="W43" s="403"/>
-      <c r="X43" s="403"/>
-      <c r="Y43" s="403"/>
-      <c r="Z43" s="403"/>
-      <c r="AA43" s="403"/>
-      <c r="AB43" s="403"/>
-      <c r="AC43" s="403"/>
-      <c r="AD43" s="403"/>
-      <c r="AE43" s="403"/>
-      <c r="AF43" s="403"/>
-      <c r="AG43" s="404"/>
+      <c r="S43" s="399"/>
+      <c r="T43" s="400"/>
+      <c r="U43" s="400"/>
+      <c r="V43" s="400"/>
+      <c r="W43" s="400"/>
+      <c r="X43" s="400"/>
+      <c r="Y43" s="400"/>
+      <c r="Z43" s="400"/>
+      <c r="AA43" s="400"/>
+      <c r="AB43" s="400"/>
+      <c r="AC43" s="400"/>
+      <c r="AD43" s="400"/>
+      <c r="AE43" s="400"/>
+      <c r="AF43" s="400"/>
+      <c r="AG43" s="401"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5895,57 +5873,57 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="402"/>
-      <c r="T44" s="403"/>
-      <c r="U44" s="403"/>
-      <c r="V44" s="403"/>
-      <c r="W44" s="403"/>
-      <c r="X44" s="403"/>
-      <c r="Y44" s="403"/>
-      <c r="Z44" s="403"/>
-      <c r="AA44" s="403"/>
-      <c r="AB44" s="403"/>
-      <c r="AC44" s="403"/>
-      <c r="AD44" s="403"/>
-      <c r="AE44" s="403"/>
-      <c r="AF44" s="403"/>
-      <c r="AG44" s="404"/>
+      <c r="S44" s="399"/>
+      <c r="T44" s="400"/>
+      <c r="U44" s="400"/>
+      <c r="V44" s="400"/>
+      <c r="W44" s="400"/>
+      <c r="X44" s="400"/>
+      <c r="Y44" s="400"/>
+      <c r="Z44" s="400"/>
+      <c r="AA44" s="400"/>
+      <c r="AB44" s="400"/>
+      <c r="AC44" s="400"/>
+      <c r="AD44" s="400"/>
+      <c r="AE44" s="400"/>
+      <c r="AF44" s="400"/>
+      <c r="AG44" s="401"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:35" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="408"/>
-      <c r="B45" s="340"/>
-      <c r="C45" s="340"/>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="340"/>
-      <c r="G45" s="340"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="340"/>
-      <c r="J45" s="340"/>
-      <c r="K45" s="340"/>
-      <c r="L45" s="340"/>
-      <c r="M45" s="340"/>
-      <c r="N45" s="340"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="340"/>
-      <c r="Q45" s="340"/>
-      <c r="R45" s="341"/>
-      <c r="S45" s="402"/>
-      <c r="T45" s="403"/>
-      <c r="U45" s="403"/>
-      <c r="V45" s="403"/>
-      <c r="W45" s="403"/>
-      <c r="X45" s="403"/>
-      <c r="Y45" s="403"/>
-      <c r="Z45" s="403"/>
-      <c r="AA45" s="403"/>
-      <c r="AB45" s="403"/>
-      <c r="AC45" s="403"/>
-      <c r="AD45" s="403"/>
-      <c r="AE45" s="403"/>
-      <c r="AF45" s="403"/>
-      <c r="AG45" s="404"/>
+      <c r="A45" s="405"/>
+      <c r="B45" s="337"/>
+      <c r="C45" s="337"/>
+      <c r="D45" s="337"/>
+      <c r="E45" s="337"/>
+      <c r="F45" s="337"/>
+      <c r="G45" s="337"/>
+      <c r="H45" s="337"/>
+      <c r="I45" s="337"/>
+      <c r="J45" s="337"/>
+      <c r="K45" s="337"/>
+      <c r="L45" s="337"/>
+      <c r="M45" s="337"/>
+      <c r="N45" s="337"/>
+      <c r="O45" s="337"/>
+      <c r="P45" s="337"/>
+      <c r="Q45" s="337"/>
+      <c r="R45" s="338"/>
+      <c r="S45" s="399"/>
+      <c r="T45" s="400"/>
+      <c r="U45" s="400"/>
+      <c r="V45" s="400"/>
+      <c r="W45" s="400"/>
+      <c r="X45" s="400"/>
+      <c r="Y45" s="400"/>
+      <c r="Z45" s="400"/>
+      <c r="AA45" s="400"/>
+      <c r="AB45" s="400"/>
+      <c r="AC45" s="400"/>
+      <c r="AD45" s="400"/>
+      <c r="AE45" s="400"/>
+      <c r="AF45" s="400"/>
+      <c r="AG45" s="401"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5971,21 +5949,21 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="402"/>
-      <c r="T46" s="403"/>
-      <c r="U46" s="403"/>
-      <c r="V46" s="403"/>
-      <c r="W46" s="403"/>
-      <c r="X46" s="403"/>
-      <c r="Y46" s="403"/>
-      <c r="Z46" s="403"/>
-      <c r="AA46" s="403"/>
-      <c r="AB46" s="403"/>
-      <c r="AC46" s="403"/>
-      <c r="AD46" s="403"/>
-      <c r="AE46" s="403"/>
-      <c r="AF46" s="403"/>
-      <c r="AG46" s="404"/>
+      <c r="S46" s="399"/>
+      <c r="T46" s="400"/>
+      <c r="U46" s="400"/>
+      <c r="V46" s="400"/>
+      <c r="W46" s="400"/>
+      <c r="X46" s="400"/>
+      <c r="Y46" s="400"/>
+      <c r="Z46" s="400"/>
+      <c r="AA46" s="400"/>
+      <c r="AB46" s="400"/>
+      <c r="AC46" s="400"/>
+      <c r="AD46" s="400"/>
+      <c r="AE46" s="400"/>
+      <c r="AF46" s="400"/>
+      <c r="AG46" s="401"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6009,21 +5987,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="402"/>
-      <c r="T47" s="403"/>
-      <c r="U47" s="403"/>
-      <c r="V47" s="403"/>
-      <c r="W47" s="403"/>
-      <c r="X47" s="403"/>
-      <c r="Y47" s="403"/>
-      <c r="Z47" s="403"/>
-      <c r="AA47" s="403"/>
-      <c r="AB47" s="403"/>
-      <c r="AC47" s="403"/>
-      <c r="AD47" s="403"/>
-      <c r="AE47" s="403"/>
-      <c r="AF47" s="403"/>
-      <c r="AG47" s="404"/>
+      <c r="S47" s="399"/>
+      <c r="T47" s="400"/>
+      <c r="U47" s="400"/>
+      <c r="V47" s="400"/>
+      <c r="W47" s="400"/>
+      <c r="X47" s="400"/>
+      <c r="Y47" s="400"/>
+      <c r="Z47" s="400"/>
+      <c r="AA47" s="400"/>
+      <c r="AB47" s="400"/>
+      <c r="AC47" s="400"/>
+      <c r="AD47" s="400"/>
+      <c r="AE47" s="400"/>
+      <c r="AF47" s="400"/>
+      <c r="AG47" s="401"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:35" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6045,336 +6023,336 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="405"/>
-      <c r="T48" s="406"/>
-      <c r="U48" s="406"/>
-      <c r="V48" s="406"/>
-      <c r="W48" s="406"/>
-      <c r="X48" s="406"/>
-      <c r="Y48" s="406"/>
-      <c r="Z48" s="406"/>
-      <c r="AA48" s="406"/>
-      <c r="AB48" s="406"/>
-      <c r="AC48" s="406"/>
-      <c r="AD48" s="406"/>
-      <c r="AE48" s="406"/>
-      <c r="AF48" s="406"/>
-      <c r="AG48" s="407"/>
+      <c r="S48" s="402"/>
+      <c r="T48" s="403"/>
+      <c r="U48" s="403"/>
+      <c r="V48" s="403"/>
+      <c r="W48" s="403"/>
+      <c r="X48" s="403"/>
+      <c r="Y48" s="403"/>
+      <c r="Z48" s="403"/>
+      <c r="AA48" s="403"/>
+      <c r="AB48" s="403"/>
+      <c r="AC48" s="403"/>
+      <c r="AD48" s="403"/>
+      <c r="AE48" s="403"/>
+      <c r="AF48" s="403"/>
+      <c r="AG48" s="404"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="349" t="s">
+      <c r="A49" s="346" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="375"/>
-      <c r="C49" s="375"/>
-      <c r="D49" s="375"/>
-      <c r="E49" s="353"/>
-      <c r="F49" s="340"/>
-      <c r="G49" s="340"/>
-      <c r="H49" s="340"/>
-      <c r="I49" s="340"/>
-      <c r="J49" s="340"/>
-      <c r="K49" s="340"/>
-      <c r="L49" s="340"/>
-      <c r="M49" s="340"/>
-      <c r="N49" s="340"/>
-      <c r="O49" s="340"/>
-      <c r="P49" s="340"/>
-      <c r="Q49" s="340"/>
-      <c r="R49" s="341"/>
-      <c r="S49" s="349" t="s">
+      <c r="B49" s="372"/>
+      <c r="C49" s="372"/>
+      <c r="D49" s="372"/>
+      <c r="E49" s="350"/>
+      <c r="F49" s="337"/>
+      <c r="G49" s="337"/>
+      <c r="H49" s="337"/>
+      <c r="I49" s="337"/>
+      <c r="J49" s="337"/>
+      <c r="K49" s="337"/>
+      <c r="L49" s="337"/>
+      <c r="M49" s="337"/>
+      <c r="N49" s="337"/>
+      <c r="O49" s="337"/>
+      <c r="P49" s="337"/>
+      <c r="Q49" s="337"/>
+      <c r="R49" s="338"/>
+      <c r="S49" s="346" t="s">
         <v>120</v>
       </c>
-      <c r="T49" s="350"/>
-      <c r="U49" s="350"/>
-      <c r="V49" s="379"/>
-      <c r="W49" s="362"/>
-      <c r="X49" s="359"/>
-      <c r="Y49" s="359"/>
-      <c r="Z49" s="359"/>
-      <c r="AA49" s="359"/>
-      <c r="AB49" s="359"/>
-      <c r="AC49" s="359"/>
-      <c r="AD49" s="359"/>
-      <c r="AE49" s="359"/>
-      <c r="AF49" s="359"/>
-      <c r="AG49" s="363"/>
+      <c r="T49" s="347"/>
+      <c r="U49" s="347"/>
+      <c r="V49" s="376"/>
+      <c r="W49" s="359"/>
+      <c r="X49" s="356"/>
+      <c r="Y49" s="356"/>
+      <c r="Z49" s="356"/>
+      <c r="AA49" s="356"/>
+      <c r="AB49" s="356"/>
+      <c r="AC49" s="356"/>
+      <c r="AD49" s="356"/>
+      <c r="AE49" s="356"/>
+      <c r="AF49" s="356"/>
+      <c r="AG49" s="360"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="376"/>
-      <c r="B50" s="377"/>
-      <c r="C50" s="377"/>
-      <c r="D50" s="377"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="329"/>
-      <c r="G50" s="329"/>
-      <c r="H50" s="329"/>
-      <c r="I50" s="329"/>
-      <c r="J50" s="329"/>
-      <c r="K50" s="329"/>
-      <c r="L50" s="329"/>
-      <c r="M50" s="329"/>
-      <c r="N50" s="329"/>
-      <c r="O50" s="329"/>
-      <c r="P50" s="329"/>
-      <c r="Q50" s="329"/>
-      <c r="R50" s="378"/>
-      <c r="S50" s="351"/>
-      <c r="T50" s="352"/>
-      <c r="U50" s="352"/>
-      <c r="V50" s="361"/>
-      <c r="W50" s="364"/>
-      <c r="X50" s="352"/>
-      <c r="Y50" s="352"/>
-      <c r="Z50" s="352"/>
-      <c r="AA50" s="352"/>
-      <c r="AB50" s="352"/>
-      <c r="AC50" s="352"/>
-      <c r="AD50" s="352"/>
-      <c r="AE50" s="352"/>
-      <c r="AF50" s="352"/>
-      <c r="AG50" s="365"/>
+      <c r="A50" s="373"/>
+      <c r="B50" s="374"/>
+      <c r="C50" s="374"/>
+      <c r="D50" s="374"/>
+      <c r="E50" s="329"/>
+      <c r="F50" s="326"/>
+      <c r="G50" s="326"/>
+      <c r="H50" s="326"/>
+      <c r="I50" s="326"/>
+      <c r="J50" s="326"/>
+      <c r="K50" s="326"/>
+      <c r="L50" s="326"/>
+      <c r="M50" s="326"/>
+      <c r="N50" s="326"/>
+      <c r="O50" s="326"/>
+      <c r="P50" s="326"/>
+      <c r="Q50" s="326"/>
+      <c r="R50" s="375"/>
+      <c r="S50" s="348"/>
+      <c r="T50" s="349"/>
+      <c r="U50" s="349"/>
+      <c r="V50" s="358"/>
+      <c r="W50" s="361"/>
+      <c r="X50" s="349"/>
+      <c r="Y50" s="349"/>
+      <c r="Z50" s="349"/>
+      <c r="AA50" s="349"/>
+      <c r="AB50" s="349"/>
+      <c r="AC50" s="349"/>
+      <c r="AD50" s="349"/>
+      <c r="AE50" s="349"/>
+      <c r="AF50" s="349"/>
+      <c r="AG50" s="362"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="325" t="s">
+      <c r="A51" s="322" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="380"/>
-      <c r="C51" s="380"/>
-      <c r="D51" s="381"/>
-      <c r="E51" s="383" t="s">
+      <c r="B51" s="377"/>
+      <c r="C51" s="377"/>
+      <c r="D51" s="378"/>
+      <c r="E51" s="380" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="I51" s="384"/>
-      <c r="J51" s="384"/>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
-      <c r="N51" s="384"/>
-      <c r="O51" s="384"/>
-      <c r="P51" s="384"/>
-      <c r="Q51" s="384"/>
-      <c r="R51" s="385"/>
-      <c r="S51" s="325" t="s">
+      <c r="F51" s="381"/>
+      <c r="G51" s="381"/>
+      <c r="H51" s="381"/>
+      <c r="I51" s="381"/>
+      <c r="J51" s="381"/>
+      <c r="K51" s="381"/>
+      <c r="L51" s="381"/>
+      <c r="M51" s="381"/>
+      <c r="N51" s="381"/>
+      <c r="O51" s="381"/>
+      <c r="P51" s="381"/>
+      <c r="Q51" s="381"/>
+      <c r="R51" s="382"/>
+      <c r="S51" s="322" t="s">
         <v>121</v>
       </c>
-      <c r="T51" s="359"/>
-      <c r="U51" s="359"/>
-      <c r="V51" s="360"/>
-      <c r="W51" s="389" t="s">
-        <v>27</v>
-      </c>
-      <c r="X51" s="390"/>
-      <c r="Y51" s="390"/>
-      <c r="Z51" s="390"/>
-      <c r="AA51" s="390"/>
-      <c r="AB51" s="390"/>
-      <c r="AC51" s="390"/>
-      <c r="AD51" s="390"/>
-      <c r="AE51" s="390"/>
-      <c r="AF51" s="390"/>
-      <c r="AG51" s="391"/>
+      <c r="T51" s="356"/>
+      <c r="U51" s="356"/>
+      <c r="V51" s="357"/>
+      <c r="W51" s="386" t="s">
+        <v>28</v>
+      </c>
+      <c r="X51" s="387"/>
+      <c r="Y51" s="387"/>
+      <c r="Z51" s="387"/>
+      <c r="AA51" s="387"/>
+      <c r="AB51" s="387"/>
+      <c r="AC51" s="387"/>
+      <c r="AD51" s="387"/>
+      <c r="AE51" s="387"/>
+      <c r="AF51" s="387"/>
+      <c r="AG51" s="388"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="376"/>
-      <c r="B52" s="377"/>
-      <c r="C52" s="377"/>
-      <c r="D52" s="382"/>
-      <c r="E52" s="386"/>
-      <c r="F52" s="387"/>
-      <c r="G52" s="387"/>
-      <c r="H52" s="387"/>
-      <c r="I52" s="387"/>
-      <c r="J52" s="387"/>
-      <c r="K52" s="387"/>
-      <c r="L52" s="387"/>
-      <c r="M52" s="387"/>
-      <c r="N52" s="387"/>
-      <c r="O52" s="387"/>
-      <c r="P52" s="387"/>
-      <c r="Q52" s="387"/>
-      <c r="R52" s="388"/>
-      <c r="S52" s="351"/>
-      <c r="T52" s="352"/>
-      <c r="U52" s="352"/>
-      <c r="V52" s="361"/>
-      <c r="W52" s="392"/>
-      <c r="X52" s="393"/>
-      <c r="Y52" s="393"/>
-      <c r="Z52" s="393"/>
-      <c r="AA52" s="393"/>
-      <c r="AB52" s="393"/>
-      <c r="AC52" s="393"/>
-      <c r="AD52" s="393"/>
-      <c r="AE52" s="393"/>
-      <c r="AF52" s="393"/>
-      <c r="AG52" s="394"/>
+      <c r="A52" s="373"/>
+      <c r="B52" s="374"/>
+      <c r="C52" s="374"/>
+      <c r="D52" s="379"/>
+      <c r="E52" s="383"/>
+      <c r="F52" s="384"/>
+      <c r="G52" s="384"/>
+      <c r="H52" s="384"/>
+      <c r="I52" s="384"/>
+      <c r="J52" s="384"/>
+      <c r="K52" s="384"/>
+      <c r="L52" s="384"/>
+      <c r="M52" s="384"/>
+      <c r="N52" s="384"/>
+      <c r="O52" s="384"/>
+      <c r="P52" s="384"/>
+      <c r="Q52" s="384"/>
+      <c r="R52" s="385"/>
+      <c r="S52" s="348"/>
+      <c r="T52" s="349"/>
+      <c r="U52" s="349"/>
+      <c r="V52" s="358"/>
+      <c r="W52" s="389"/>
+      <c r="X52" s="390"/>
+      <c r="Y52" s="390"/>
+      <c r="Z52" s="390"/>
+      <c r="AA52" s="390"/>
+      <c r="AB52" s="390"/>
+      <c r="AC52" s="390"/>
+      <c r="AD52" s="390"/>
+      <c r="AE52" s="390"/>
+      <c r="AF52" s="390"/>
+      <c r="AG52" s="391"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="325" t="s">
+      <c r="A53" s="322" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="359"/>
-      <c r="C53" s="359"/>
-      <c r="D53" s="360"/>
-      <c r="E53" s="362" t="s">
+      <c r="B53" s="356"/>
+      <c r="C53" s="356"/>
+      <c r="D53" s="357"/>
+      <c r="E53" s="359" t="s">
         <v>124</v>
       </c>
-      <c r="F53" s="359"/>
-      <c r="G53" s="359"/>
-      <c r="H53" s="359"/>
-      <c r="I53" s="359"/>
-      <c r="J53" s="359"/>
-      <c r="K53" s="359"/>
-      <c r="L53" s="359"/>
-      <c r="M53" s="359"/>
-      <c r="N53" s="359"/>
-      <c r="O53" s="359"/>
-      <c r="P53" s="359"/>
-      <c r="Q53" s="359"/>
-      <c r="R53" s="363"/>
-      <c r="S53" s="325" t="s">
+      <c r="F53" s="356"/>
+      <c r="G53" s="356"/>
+      <c r="H53" s="356"/>
+      <c r="I53" s="356"/>
+      <c r="J53" s="356"/>
+      <c r="K53" s="356"/>
+      <c r="L53" s="356"/>
+      <c r="M53" s="356"/>
+      <c r="N53" s="356"/>
+      <c r="O53" s="356"/>
+      <c r="P53" s="356"/>
+      <c r="Q53" s="356"/>
+      <c r="R53" s="360"/>
+      <c r="S53" s="322" t="s">
         <v>123</v>
       </c>
-      <c r="T53" s="359"/>
-      <c r="U53" s="359"/>
-      <c r="V53" s="360"/>
-      <c r="W53" s="362" t="s">
+      <c r="T53" s="356"/>
+      <c r="U53" s="356"/>
+      <c r="V53" s="357"/>
+      <c r="W53" s="359" t="s">
         <v>125</v>
       </c>
-      <c r="X53" s="359"/>
-      <c r="Y53" s="359"/>
-      <c r="Z53" s="359"/>
-      <c r="AA53" s="359"/>
-      <c r="AB53" s="359"/>
-      <c r="AC53" s="359"/>
-      <c r="AD53" s="359"/>
-      <c r="AE53" s="359"/>
-      <c r="AF53" s="359"/>
-      <c r="AG53" s="363"/>
+      <c r="X53" s="356"/>
+      <c r="Y53" s="356"/>
+      <c r="Z53" s="356"/>
+      <c r="AA53" s="356"/>
+      <c r="AB53" s="356"/>
+      <c r="AC53" s="356"/>
+      <c r="AD53" s="356"/>
+      <c r="AE53" s="356"/>
+      <c r="AF53" s="356"/>
+      <c r="AG53" s="360"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="351"/>
-      <c r="B54" s="352"/>
-      <c r="C54" s="352"/>
-      <c r="D54" s="361"/>
-      <c r="E54" s="364"/>
-      <c r="F54" s="352"/>
-      <c r="G54" s="352"/>
-      <c r="H54" s="352"/>
-      <c r="I54" s="352"/>
-      <c r="J54" s="352"/>
-      <c r="K54" s="352"/>
-      <c r="L54" s="352"/>
-      <c r="M54" s="352"/>
-      <c r="N54" s="352"/>
-      <c r="O54" s="352"/>
-      <c r="P54" s="352"/>
-      <c r="Q54" s="352"/>
-      <c r="R54" s="365"/>
-      <c r="S54" s="351"/>
-      <c r="T54" s="352"/>
-      <c r="U54" s="352"/>
-      <c r="V54" s="361"/>
-      <c r="W54" s="364"/>
-      <c r="X54" s="352"/>
-      <c r="Y54" s="352"/>
-      <c r="Z54" s="352"/>
-      <c r="AA54" s="352"/>
-      <c r="AB54" s="352"/>
-      <c r="AC54" s="352"/>
-      <c r="AD54" s="352"/>
-      <c r="AE54" s="352"/>
-      <c r="AF54" s="352"/>
-      <c r="AG54" s="365"/>
+      <c r="A54" s="348"/>
+      <c r="B54" s="349"/>
+      <c r="C54" s="349"/>
+      <c r="D54" s="358"/>
+      <c r="E54" s="361"/>
+      <c r="F54" s="349"/>
+      <c r="G54" s="349"/>
+      <c r="H54" s="349"/>
+      <c r="I54" s="349"/>
+      <c r="J54" s="349"/>
+      <c r="K54" s="349"/>
+      <c r="L54" s="349"/>
+      <c r="M54" s="349"/>
+      <c r="N54" s="349"/>
+      <c r="O54" s="349"/>
+      <c r="P54" s="349"/>
+      <c r="Q54" s="349"/>
+      <c r="R54" s="362"/>
+      <c r="S54" s="348"/>
+      <c r="T54" s="349"/>
+      <c r="U54" s="349"/>
+      <c r="V54" s="358"/>
+      <c r="W54" s="361"/>
+      <c r="X54" s="349"/>
+      <c r="Y54" s="349"/>
+      <c r="Z54" s="349"/>
+      <c r="AA54" s="349"/>
+      <c r="AB54" s="349"/>
+      <c r="AC54" s="349"/>
+      <c r="AD54" s="349"/>
+      <c r="AE54" s="349"/>
+      <c r="AF54" s="349"/>
+      <c r="AG54" s="362"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="325" t="s">
+      <c r="A55" s="322" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="359"/>
-      <c r="C55" s="359"/>
-      <c r="D55" s="360"/>
-      <c r="E55" s="353"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="341"/>
-      <c r="S55" s="325" t="s">
+      <c r="B55" s="356"/>
+      <c r="C55" s="356"/>
+      <c r="D55" s="357"/>
+      <c r="E55" s="350"/>
+      <c r="F55" s="337"/>
+      <c r="G55" s="337"/>
+      <c r="H55" s="337"/>
+      <c r="I55" s="337"/>
+      <c r="J55" s="337"/>
+      <c r="K55" s="337"/>
+      <c r="L55" s="337"/>
+      <c r="M55" s="337"/>
+      <c r="N55" s="337"/>
+      <c r="O55" s="337"/>
+      <c r="P55" s="337"/>
+      <c r="Q55" s="337"/>
+      <c r="R55" s="338"/>
+      <c r="S55" s="322" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="359"/>
-      <c r="U55" s="359"/>
-      <c r="V55" s="360"/>
-      <c r="W55" s="362"/>
-      <c r="X55" s="359"/>
-      <c r="Y55" s="359"/>
-      <c r="Z55" s="359"/>
-      <c r="AA55" s="359"/>
-      <c r="AB55" s="359"/>
-      <c r="AC55" s="359"/>
-      <c r="AD55" s="359"/>
-      <c r="AE55" s="359"/>
-      <c r="AF55" s="359"/>
-      <c r="AG55" s="363"/>
+      <c r="T55" s="356"/>
+      <c r="U55" s="356"/>
+      <c r="V55" s="357"/>
+      <c r="W55" s="359"/>
+      <c r="X55" s="356"/>
+      <c r="Y55" s="356"/>
+      <c r="Z55" s="356"/>
+      <c r="AA55" s="356"/>
+      <c r="AB55" s="356"/>
+      <c r="AC55" s="356"/>
+      <c r="AD55" s="356"/>
+      <c r="AE55" s="356"/>
+      <c r="AF55" s="356"/>
+      <c r="AG55" s="360"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="371"/>
-      <c r="B56" s="372"/>
-      <c r="C56" s="372"/>
-      <c r="D56" s="373"/>
-      <c r="E56" s="374"/>
-      <c r="F56" s="342"/>
-      <c r="G56" s="342"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="342"/>
-      <c r="J56" s="342"/>
-      <c r="K56" s="342"/>
-      <c r="L56" s="342"/>
-      <c r="M56" s="342"/>
-      <c r="N56" s="342"/>
-      <c r="O56" s="342"/>
-      <c r="P56" s="342"/>
-      <c r="Q56" s="342"/>
-      <c r="R56" s="343"/>
-      <c r="S56" s="366"/>
-      <c r="T56" s="367"/>
-      <c r="U56" s="367"/>
-      <c r="V56" s="368"/>
-      <c r="W56" s="369"/>
-      <c r="X56" s="367"/>
-      <c r="Y56" s="367"/>
-      <c r="Z56" s="367"/>
-      <c r="AA56" s="367"/>
-      <c r="AB56" s="367"/>
-      <c r="AC56" s="367"/>
-      <c r="AD56" s="367"/>
-      <c r="AE56" s="367"/>
-      <c r="AF56" s="367"/>
-      <c r="AG56" s="370"/>
+      <c r="A56" s="368"/>
+      <c r="B56" s="369"/>
+      <c r="C56" s="369"/>
+      <c r="D56" s="370"/>
+      <c r="E56" s="371"/>
+      <c r="F56" s="339"/>
+      <c r="G56" s="339"/>
+      <c r="H56" s="339"/>
+      <c r="I56" s="339"/>
+      <c r="J56" s="339"/>
+      <c r="K56" s="339"/>
+      <c r="L56" s="339"/>
+      <c r="M56" s="339"/>
+      <c r="N56" s="339"/>
+      <c r="O56" s="339"/>
+      <c r="P56" s="339"/>
+      <c r="Q56" s="339"/>
+      <c r="R56" s="340"/>
+      <c r="S56" s="363"/>
+      <c r="T56" s="364"/>
+      <c r="U56" s="364"/>
+      <c r="V56" s="365"/>
+      <c r="W56" s="366"/>
+      <c r="X56" s="364"/>
+      <c r="Y56" s="364"/>
+      <c r="Z56" s="364"/>
+      <c r="AA56" s="364"/>
+      <c r="AB56" s="364"/>
+      <c r="AC56" s="364"/>
+      <c r="AD56" s="364"/>
+      <c r="AE56" s="364"/>
+      <c r="AF56" s="364"/>
+      <c r="AG56" s="367"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6414,45 +6392,45 @@
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="347"/>
-      <c r="AF57" s="347"/>
-      <c r="AG57" s="348"/>
+      <c r="AE57" s="344"/>
+      <c r="AF57" s="344"/>
+      <c r="AG57" s="345"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="349" t="s">
+      <c r="A58" s="346" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="350"/>
-      <c r="C58" s="350"/>
+      <c r="B58" s="347"/>
+      <c r="C58" s="347"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="353"/>
-      <c r="F58" s="340"/>
-      <c r="G58" s="340"/>
-      <c r="H58" s="340"/>
-      <c r="I58" s="340"/>
-      <c r="J58" s="340"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="340"/>
-      <c r="M58" s="354"/>
-      <c r="N58" s="355" t="s">
+      <c r="E58" s="350"/>
+      <c r="F58" s="337"/>
+      <c r="G58" s="337"/>
+      <c r="H58" s="337"/>
+      <c r="I58" s="337"/>
+      <c r="J58" s="337"/>
+      <c r="K58" s="337"/>
+      <c r="L58" s="337"/>
+      <c r="M58" s="351"/>
+      <c r="N58" s="352" t="s">
         <v>87</v>
       </c>
-      <c r="O58" s="356"/>
-      <c r="P58" s="356"/>
-      <c r="Q58" s="356"/>
-      <c r="R58" s="357"/>
-      <c r="S58" s="358" t="s">
+      <c r="O58" s="353"/>
+      <c r="P58" s="353"/>
+      <c r="Q58" s="353"/>
+      <c r="R58" s="354"/>
+      <c r="S58" s="355" t="s">
         <v>130</v>
       </c>
-      <c r="T58" s="356"/>
-      <c r="U58" s="356"/>
-      <c r="V58" s="356"/>
-      <c r="W58" s="356"/>
-      <c r="X58" s="356"/>
-      <c r="Y58" s="356"/>
-      <c r="Z58" s="356"/>
-      <c r="AA58" s="357"/>
+      <c r="T58" s="353"/>
+      <c r="U58" s="353"/>
+      <c r="V58" s="353"/>
+      <c r="W58" s="353"/>
+      <c r="X58" s="353"/>
+      <c r="Y58" s="353"/>
+      <c r="Z58" s="353"/>
+      <c r="AA58" s="354"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6462,33 +6440,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="351"/>
-      <c r="B59" s="352"/>
-      <c r="C59" s="352"/>
+      <c r="A59" s="348"/>
+      <c r="B59" s="349"/>
+      <c r="C59" s="349"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="332"/>
-      <c r="F59" s="329"/>
-      <c r="G59" s="329"/>
-      <c r="H59" s="329"/>
-      <c r="I59" s="329"/>
-      <c r="J59" s="329"/>
-      <c r="K59" s="329"/>
-      <c r="L59" s="329"/>
-      <c r="M59" s="330"/>
-      <c r="N59" s="336"/>
-      <c r="O59" s="337"/>
-      <c r="P59" s="337"/>
-      <c r="Q59" s="337"/>
-      <c r="R59" s="338"/>
-      <c r="S59" s="336"/>
-      <c r="T59" s="337"/>
-      <c r="U59" s="337"/>
-      <c r="V59" s="337"/>
-      <c r="W59" s="337"/>
-      <c r="X59" s="337"/>
-      <c r="Y59" s="337"/>
-      <c r="Z59" s="337"/>
-      <c r="AA59" s="338"/>
+      <c r="E59" s="329"/>
+      <c r="F59" s="326"/>
+      <c r="G59" s="326"/>
+      <c r="H59" s="326"/>
+      <c r="I59" s="326"/>
+      <c r="J59" s="326"/>
+      <c r="K59" s="326"/>
+      <c r="L59" s="326"/>
+      <c r="M59" s="327"/>
+      <c r="N59" s="333"/>
+      <c r="O59" s="334"/>
+      <c r="P59" s="334"/>
+      <c r="Q59" s="334"/>
+      <c r="R59" s="335"/>
+      <c r="S59" s="333"/>
+      <c r="T59" s="334"/>
+      <c r="U59" s="334"/>
+      <c r="V59" s="334"/>
+      <c r="W59" s="334"/>
+      <c r="X59" s="334"/>
+      <c r="Y59" s="334"/>
+      <c r="Z59" s="334"/>
+      <c r="AA59" s="335"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6498,121 +6476,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="325" t="s">
+      <c r="A60" s="322" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="326"/>
-      <c r="C60" s="326"/>
-      <c r="D60" s="327"/>
-      <c r="E60" s="331"/>
-      <c r="F60" s="326"/>
-      <c r="G60" s="326"/>
-      <c r="H60" s="326"/>
-      <c r="I60" s="326"/>
-      <c r="J60" s="326"/>
-      <c r="K60" s="326"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="333" t="s">
+      <c r="B60" s="323"/>
+      <c r="C60" s="323"/>
+      <c r="D60" s="324"/>
+      <c r="E60" s="328"/>
+      <c r="F60" s="323"/>
+      <c r="G60" s="323"/>
+      <c r="H60" s="323"/>
+      <c r="I60" s="323"/>
+      <c r="J60" s="323"/>
+      <c r="K60" s="323"/>
+      <c r="L60" s="323"/>
+      <c r="M60" s="324"/>
+      <c r="N60" s="330" t="s">
         <v>87</v>
       </c>
-      <c r="O60" s="334"/>
-      <c r="P60" s="334"/>
-      <c r="Q60" s="334"/>
-      <c r="R60" s="335"/>
-      <c r="S60" s="333" t="s">
-        <v>60</v>
-      </c>
-      <c r="T60" s="334"/>
-      <c r="U60" s="334"/>
-      <c r="V60" s="334"/>
-      <c r="W60" s="334"/>
-      <c r="X60" s="334"/>
-      <c r="Y60" s="334"/>
-      <c r="Z60" s="334"/>
-      <c r="AA60" s="335"/>
+      <c r="O60" s="331"/>
+      <c r="P60" s="331"/>
+      <c r="Q60" s="331"/>
+      <c r="R60" s="332"/>
+      <c r="S60" s="330" t="s">
+        <v>61</v>
+      </c>
+      <c r="T60" s="331"/>
+      <c r="U60" s="331"/>
+      <c r="V60" s="331"/>
+      <c r="W60" s="331"/>
+      <c r="X60" s="331"/>
+      <c r="Y60" s="331"/>
+      <c r="Z60" s="331"/>
+      <c r="AA60" s="332"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="326"/>
-      <c r="AE60" s="326"/>
-      <c r="AF60" s="326"/>
-      <c r="AG60" s="339"/>
+      <c r="AD60" s="323"/>
+      <c r="AE60" s="323"/>
+      <c r="AF60" s="323"/>
+      <c r="AG60" s="336"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="328"/>
-      <c r="B61" s="329"/>
-      <c r="C61" s="329"/>
-      <c r="D61" s="330"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="329"/>
-      <c r="G61" s="329"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="329"/>
-      <c r="J61" s="329"/>
-      <c r="K61" s="329"/>
-      <c r="L61" s="329"/>
-      <c r="M61" s="330"/>
-      <c r="N61" s="336"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="338"/>
-      <c r="S61" s="336"/>
-      <c r="T61" s="337"/>
-      <c r="U61" s="337"/>
-      <c r="V61" s="337"/>
-      <c r="W61" s="337"/>
-      <c r="X61" s="337"/>
-      <c r="Y61" s="337"/>
-      <c r="Z61" s="337"/>
-      <c r="AA61" s="338"/>
-      <c r="AB61" s="340"/>
-      <c r="AC61" s="340"/>
-      <c r="AD61" s="340"/>
-      <c r="AE61" s="340"/>
-      <c r="AF61" s="340"/>
-      <c r="AG61" s="341"/>
+      <c r="A61" s="325"/>
+      <c r="B61" s="326"/>
+      <c r="C61" s="326"/>
+      <c r="D61" s="327"/>
+      <c r="E61" s="329"/>
+      <c r="F61" s="326"/>
+      <c r="G61" s="326"/>
+      <c r="H61" s="326"/>
+      <c r="I61" s="326"/>
+      <c r="J61" s="326"/>
+      <c r="K61" s="326"/>
+      <c r="L61" s="326"/>
+      <c r="M61" s="327"/>
+      <c r="N61" s="333"/>
+      <c r="O61" s="334"/>
+      <c r="P61" s="334"/>
+      <c r="Q61" s="334"/>
+      <c r="R61" s="335"/>
+      <c r="S61" s="333"/>
+      <c r="T61" s="334"/>
+      <c r="U61" s="334"/>
+      <c r="V61" s="334"/>
+      <c r="W61" s="334"/>
+      <c r="X61" s="334"/>
+      <c r="Y61" s="334"/>
+      <c r="Z61" s="334"/>
+      <c r="AA61" s="335"/>
+      <c r="AB61" s="337"/>
+      <c r="AC61" s="337"/>
+      <c r="AD61" s="337"/>
+      <c r="AE61" s="337"/>
+      <c r="AF61" s="337"/>
+      <c r="AG61" s="338"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="344" t="s">
+      <c r="A62" s="341" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="345"/>
-      <c r="C62" s="345"/>
-      <c r="D62" s="345"/>
-      <c r="E62" s="345"/>
-      <c r="F62" s="345"/>
-      <c r="G62" s="345"/>
-      <c r="H62" s="345"/>
-      <c r="I62" s="345"/>
-      <c r="J62" s="345"/>
-      <c r="K62" s="345"/>
-      <c r="L62" s="345"/>
-      <c r="M62" s="345"/>
-      <c r="N62" s="345"/>
-      <c r="O62" s="345"/>
-      <c r="P62" s="345"/>
-      <c r="Q62" s="345"/>
-      <c r="R62" s="345"/>
-      <c r="S62" s="345"/>
-      <c r="T62" s="345"/>
-      <c r="U62" s="345"/>
-      <c r="V62" s="345"/>
-      <c r="W62" s="345"/>
-      <c r="X62" s="345"/>
-      <c r="Y62" s="345"/>
-      <c r="Z62" s="345"/>
-      <c r="AA62" s="346"/>
-      <c r="AB62" s="342"/>
-      <c r="AC62" s="342"/>
-      <c r="AD62" s="342"/>
-      <c r="AE62" s="342"/>
-      <c r="AF62" s="342"/>
-      <c r="AG62" s="343"/>
+      <c r="B62" s="342"/>
+      <c r="C62" s="342"/>
+      <c r="D62" s="342"/>
+      <c r="E62" s="342"/>
+      <c r="F62" s="342"/>
+      <c r="G62" s="342"/>
+      <c r="H62" s="342"/>
+      <c r="I62" s="342"/>
+      <c r="J62" s="342"/>
+      <c r="K62" s="342"/>
+      <c r="L62" s="342"/>
+      <c r="M62" s="342"/>
+      <c r="N62" s="342"/>
+      <c r="O62" s="342"/>
+      <c r="P62" s="342"/>
+      <c r="Q62" s="342"/>
+      <c r="R62" s="342"/>
+      <c r="S62" s="342"/>
+      <c r="T62" s="342"/>
+      <c r="U62" s="342"/>
+      <c r="V62" s="342"/>
+      <c r="W62" s="342"/>
+      <c r="X62" s="342"/>
+      <c r="Y62" s="342"/>
+      <c r="Z62" s="342"/>
+      <c r="AA62" s="343"/>
+      <c r="AB62" s="339"/>
+      <c r="AC62" s="339"/>
+      <c r="AD62" s="339"/>
+      <c r="AE62" s="339"/>
+      <c r="AF62" s="339"/>
+      <c r="AG62" s="340"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/library/export_travelclaim.xlsx
+++ b/library/export_travelclaim.xlsx
@@ -493,17 +493,17 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
@@ -519,15 +519,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1005,6 +1005,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1019,11 +1045,13 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1032,13 +1060,133 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1049,22 +1197,7 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1074,19 +1207,10 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1096,7 +1220,9 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1106,74 +1232,13 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1187,71 +1252,6 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1609,228 +1609,228 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1927,7 +1927,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,7 +1936,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,7 +1948,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1981,7 +1981,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1993,7 +1993,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2002,7 +2002,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,13 +2062,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,13 +2080,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,13 +2104,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2155,7 +2155,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,7 +2164,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,7 +2218,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,7 +2230,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2248,7 +2248,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,7 +2257,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,7 +2299,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,7 +2311,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,7 +2380,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,19 +2395,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,7 +2416,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,31 +2470,31 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,7 +2503,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2524,7 +2524,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,7 +2593,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2628,7 +2628,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2843,7 +2843,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2861,37 +2861,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1" s="179" t="s">
+      <c r="H1" s="187" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="179"/>
-      <c r="J1" s="179"/>
+      <c r="I1" s="187"/>
+      <c r="J1" s="187"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="180"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-      <c r="F2" s="180"/>
-      <c r="G2" s="180"/>
-      <c r="H2" s="180"/>
-      <c r="I2" s="180"/>
-      <c r="J2" s="180"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
+      <c r="D2" s="188"/>
+      <c r="E2" s="188"/>
+      <c r="F2" s="188"/>
+      <c r="G2" s="188"/>
+      <c r="H2" s="188"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="181" t="s">
+      <c r="A3" s="189" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="189"/>
+      <c r="I3" s="189"/>
+      <c r="J3" s="189"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
@@ -2909,8 +2909,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="183"/>
-      <c r="C5" s="183"/>
+      <c r="B5" s="191"/>
+      <c r="C5" s="191"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2923,8 +2923,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="183"/>
-      <c r="C6" s="183"/>
+      <c r="B6" s="191"/>
+      <c r="C6" s="191"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -2937,17 +2937,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="184"/>
-      <c r="C7" s="184"/>
+      <c r="B7" s="192"/>
+      <c r="C7" s="192"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="182" t="s">
+      <c r="H7" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="182"/>
-      <c r="J7" s="182"/>
+      <c r="I7" s="190"/>
+      <c r="J7" s="190"/>
     </row>
     <row r="8" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -2965,55 +2965,55 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="185" t="s">
+      <c r="B9" s="176" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="185"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="187"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="176"/>
+      <c r="E9" s="178"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="185" t="s">
+      <c r="G9" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="185"/>
-      <c r="I9" s="185"/>
-      <c r="J9" s="186"/>
+      <c r="H9" s="176"/>
+      <c r="I9" s="176"/>
+      <c r="J9" s="177"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="193" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="203" t="s">
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="201" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="204"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="202"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="195" t="s">
+      <c r="C11" s="193" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="195"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="204"/>
+      <c r="D11" s="193"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="203"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="202"/>
     </row>
     <row r="12" spans="1:10" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -3028,39 +3028,39 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="198" t="s">
+      <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="206" t="s">
+      <c r="B13" s="204" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="207"/>
-      <c r="D13" s="200" t="s">
+      <c r="C13" s="205"/>
+      <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="201"/>
+      <c r="E13" s="199"/>
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="188" t="s">
+      <c r="G13" s="179" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="190" t="s">
+      <c r="I13" s="181" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="192" t="s">
+      <c r="J13" s="183" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="199"/>
-      <c r="B14" s="176" t="s">
+      <c r="A14" s="197"/>
+      <c r="B14" s="185" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="194"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3070,29 +3070,29 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="189"/>
+      <c r="G14" s="180"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="191"/>
-      <c r="J14" s="193"/>
+      <c r="I14" s="182"/>
+      <c r="J14" s="184"/>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="202"/>
-      <c r="B15" s="202"/>
-      <c r="C15" s="202"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="202"/>
-      <c r="F15" s="202"/>
-      <c r="G15" s="202"/>
-      <c r="H15" s="202"/>
-      <c r="I15" s="202"/>
-      <c r="J15" s="202"/>
+      <c r="A15" s="200"/>
+      <c r="B15" s="200"/>
+      <c r="C15" s="200"/>
+      <c r="D15" s="200"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="171"/>
-      <c r="B16" s="197"/>
-      <c r="C16" s="197"/>
+      <c r="B16" s="195"/>
+      <c r="C16" s="195"/>
       <c r="D16" s="172"/>
       <c r="E16" s="172"/>
       <c r="F16" s="173"/>
@@ -3104,8 +3104,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="C11:E11"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="D13:E13"/>
@@ -3125,6 +3123,8 @@
     <mergeCell ref="I13:I14"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C11:E11"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2598425196850001" right="0.98425196850394003" top="0.78740157480314998" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
@@ -3231,10 +3231,10 @@
       <c r="H4" s="319"/>
       <c r="I4" s="319"/>
       <c r="J4" s="320"/>
-      <c r="K4" s="234" t="s">
+      <c r="K4" s="232" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="235"/>
+      <c r="L4" s="233"/>
       <c r="M4" s="321"/>
     </row>
     <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3344,7 +3344,7 @@
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="272"/>
-      <c r="B11" s="228"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="273"/>
       <c r="D11" s="277"/>
       <c r="E11" s="278"/>
@@ -3384,21 +3384,21 @@
     </row>
     <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="272"/>
-      <c r="B13" s="228"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="273"/>
       <c r="D13" s="286"/>
       <c r="E13" s="287"/>
       <c r="F13" s="287"/>
       <c r="G13" s="287"/>
       <c r="H13" s="288"/>
-      <c r="I13" s="227"/>
+      <c r="I13" s="225"/>
       <c r="J13" s="273"/>
       <c r="K13" s="290"/>
-      <c r="L13" s="227"/>
-      <c r="M13" s="229"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="227"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="177"/>
+      <c r="A14" s="249"/>
       <c r="B14" s="250"/>
       <c r="C14" s="251"/>
       <c r="D14" s="252" t="s">
@@ -3415,16 +3415,16 @@
       <c r="M14" s="253"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="177"/>
+      <c r="A15" s="249"/>
       <c r="B15" s="250"/>
       <c r="C15" s="251"/>
-      <c r="D15" s="215" t="s">
+      <c r="D15" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="216"/>
-      <c r="F15" s="216"/>
-      <c r="G15" s="216"/>
-      <c r="H15" s="217"/>
+      <c r="E15" s="214"/>
+      <c r="F15" s="214"/>
+      <c r="G15" s="214"/>
+      <c r="H15" s="215"/>
       <c r="I15" s="252"/>
       <c r="J15" s="251"/>
       <c r="K15" s="32"/>
@@ -3434,14 +3434,14 @@
       <c r="M15" s="266"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="177"/>
+      <c r="A16" s="249"/>
       <c r="B16" s="250"/>
       <c r="C16" s="251"/>
-      <c r="D16" s="215"/>
-      <c r="E16" s="216"/>
-      <c r="F16" s="216"/>
-      <c r="G16" s="216"/>
-      <c r="H16" s="217"/>
+      <c r="D16" s="213"/>
+      <c r="E16" s="214"/>
+      <c r="F16" s="214"/>
+      <c r="G16" s="214"/>
+      <c r="H16" s="215"/>
       <c r="I16" s="252"/>
       <c r="J16" s="251"/>
       <c r="K16" s="32"/>
@@ -3449,14 +3449,14 @@
       <c r="M16" s="253"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="177"/>
+      <c r="A17" s="249"/>
       <c r="B17" s="250"/>
       <c r="C17" s="251"/>
-      <c r="D17" s="215"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="217"/>
+      <c r="D17" s="213"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="215"/>
       <c r="I17" s="252"/>
       <c r="J17" s="251"/>
       <c r="K17" s="32"/>
@@ -3464,14 +3464,14 @@
       <c r="M17" s="268"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="177"/>
+      <c r="A18" s="249"/>
       <c r="B18" s="250"/>
       <c r="C18" s="251"/>
-      <c r="D18" s="215"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="217"/>
+      <c r="D18" s="213"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="215"/>
       <c r="I18" s="263"/>
       <c r="J18" s="264"/>
       <c r="K18" s="32"/>
@@ -3479,14 +3479,14 @@
       <c r="M18" s="253"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="177"/>
+      <c r="A19" s="249"/>
       <c r="B19" s="250"/>
       <c r="C19" s="251"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="217"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="215"/>
       <c r="I19" s="252"/>
       <c r="J19" s="251"/>
       <c r="K19" s="32"/>
@@ -3494,14 +3494,14 @@
       <c r="M19" s="253"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="177"/>
+      <c r="A20" s="249"/>
       <c r="B20" s="250"/>
       <c r="C20" s="251"/>
-      <c r="D20" s="215"/>
-      <c r="E20" s="216"/>
-      <c r="F20" s="216"/>
-      <c r="G20" s="216"/>
-      <c r="H20" s="217"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
+      <c r="H20" s="215"/>
       <c r="I20" s="252"/>
       <c r="J20" s="251"/>
       <c r="K20" s="32"/>
@@ -3509,14 +3509,14 @@
       <c r="M20" s="253"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="177"/>
+      <c r="A21" s="249"/>
       <c r="B21" s="250"/>
       <c r="C21" s="251"/>
-      <c r="D21" s="215"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="216"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="217"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="215"/>
       <c r="I21" s="252"/>
       <c r="J21" s="251"/>
       <c r="K21" s="32"/>
@@ -3524,13 +3524,13 @@
       <c r="M21" s="253"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="177"/>
+      <c r="A22" s="249"/>
       <c r="B22" s="250"/>
       <c r="C22" s="251"/>
       <c r="D22" s="263"/>
-      <c r="E22" s="245"/>
-      <c r="F22" s="245"/>
-      <c r="G22" s="245"/>
+      <c r="E22" s="243"/>
+      <c r="F22" s="243"/>
+      <c r="G22" s="243"/>
       <c r="H22" s="264"/>
       <c r="I22" s="252"/>
       <c r="J22" s="251"/>
@@ -3539,13 +3539,13 @@
       <c r="M22" s="253"/>
     </row>
     <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="177"/>
+      <c r="A23" s="249"/>
       <c r="B23" s="250"/>
       <c r="C23" s="251"/>
       <c r="D23" s="263"/>
-      <c r="E23" s="245"/>
-      <c r="F23" s="245"/>
-      <c r="G23" s="245"/>
+      <c r="E23" s="243"/>
+      <c r="F23" s="243"/>
+      <c r="G23" s="243"/>
       <c r="H23" s="264"/>
       <c r="I23" s="252"/>
       <c r="J23" s="251"/>
@@ -3554,13 +3554,13 @@
       <c r="M23" s="253"/>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="177"/>
+      <c r="A24" s="249"/>
       <c r="B24" s="250"/>
       <c r="C24" s="251"/>
       <c r="D24" s="263"/>
-      <c r="E24" s="245"/>
-      <c r="F24" s="245"/>
-      <c r="G24" s="245"/>
+      <c r="E24" s="243"/>
+      <c r="F24" s="243"/>
+      <c r="G24" s="243"/>
       <c r="H24" s="264"/>
       <c r="I24" s="252"/>
       <c r="J24" s="251"/>
@@ -3569,7 +3569,7 @@
       <c r="M24" s="253"/>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="177"/>
+      <c r="A25" s="249"/>
       <c r="B25" s="250"/>
       <c r="C25" s="251"/>
       <c r="D25" s="252"/>
@@ -3584,7 +3584,7 @@
       <c r="M25" s="253"/>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="177"/>
+      <c r="A26" s="249"/>
       <c r="B26" s="250"/>
       <c r="C26" s="251"/>
       <c r="D26" s="252"/>
@@ -3619,19 +3619,19 @@
       <c r="M27" s="262"/>
     </row>
     <row r="28" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="239" t="s">
+      <c r="A28" s="237" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="213" t="s">
+      <c r="D28" s="211" t="s">
         <v>49</v>
       </c>
-      <c r="E28" s="241"/>
-      <c r="F28" s="241"/>
-      <c r="G28" s="241"/>
-      <c r="H28" s="242"/>
-      <c r="I28" s="243" t="s">
+      <c r="E28" s="239"/>
+      <c r="F28" s="239"/>
+      <c r="G28" s="239"/>
+      <c r="H28" s="240"/>
+      <c r="I28" s="241" t="s">
         <v>50</v>
       </c>
       <c r="J28" s="35"/>
@@ -3640,17 +3640,17 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="240"/>
-      <c r="B29" s="244" t="s">
+      <c r="A29" s="238"/>
+      <c r="B29" s="242" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="180"/>
-      <c r="D29" s="241"/>
-      <c r="E29" s="241"/>
-      <c r="F29" s="241"/>
-      <c r="G29" s="241"/>
-      <c r="H29" s="242"/>
-      <c r="I29" s="243"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="239"/>
+      <c r="F29" s="239"/>
+      <c r="G29" s="239"/>
+      <c r="H29" s="240"/>
+      <c r="I29" s="241"/>
       <c r="J29" s="36" t="s">
         <v>52</v>
       </c>
@@ -3660,15 +3660,15 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
-      <c r="B30" s="245" t="s">
+      <c r="B30" s="243" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="245"/>
-      <c r="D30" s="245"/>
-      <c r="E30" s="245"/>
-      <c r="F30" s="245"/>
-      <c r="G30" s="245"/>
-      <c r="H30" s="246"/>
+      <c r="C30" s="243"/>
+      <c r="D30" s="243"/>
+      <c r="E30" s="243"/>
+      <c r="F30" s="243"/>
+      <c r="G30" s="243"/>
+      <c r="H30" s="244"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
         <v>54</v>
@@ -3678,7 +3678,7 @@
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="178"/>
+      <c r="A31" s="245"/>
       <c r="B31" s="17" t="s">
         <v>55</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="178"/>
+      <c r="A32" s="245"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3742,18 +3742,18 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="247" t="s">
+      <c r="A35" s="246" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="225"/>
-      <c r="C35" s="216" t="s">
+      <c r="B35" s="223"/>
+      <c r="C35" s="214" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="216"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
-      <c r="H35" s="233"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="231"/>
       <c r="I35" s="17" t="s">
         <v>59</v>
       </c>
@@ -3780,10 +3780,10 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="248" t="s">
+      <c r="A37" s="247" t="s">
         <v>61</v>
       </c>
-      <c r="B37" s="249"/>
+      <c r="B37" s="248"/>
       <c r="C37" s="14" t="s">
         <v>27</v>
       </c>
@@ -3818,18 +3818,18 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="247" t="s">
+      <c r="A39" s="246" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="225"/>
-      <c r="C39" s="213" t="s">
+      <c r="B39" s="223"/>
+      <c r="C39" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="213"/>
-      <c r="E39" s="213"/>
-      <c r="F39" s="213"/>
-      <c r="G39" s="213"/>
-      <c r="H39" s="214"/>
+      <c r="D39" s="211"/>
+      <c r="E39" s="211"/>
+      <c r="F39" s="211"/>
+      <c r="G39" s="211"/>
+      <c r="H39" s="212"/>
       <c r="I39" s="17" t="s">
         <v>63</v>
       </c>
@@ -3843,31 +3843,31 @@
     <row r="40" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="216"/>
-      <c r="D40" s="216"/>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
-      <c r="G40" s="216"/>
+      <c r="C40" s="214"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="216"/>
-      <c r="L40" s="216"/>
-      <c r="M40" s="233"/>
+      <c r="K40" s="214"/>
+      <c r="L40" s="214"/>
+      <c r="M40" s="231"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="234" t="s">
+      <c r="A41" s="232" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="235"/>
-      <c r="C41" s="213" t="s">
+      <c r="B41" s="233"/>
+      <c r="C41" s="211" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="213"/>
-      <c r="G41" s="213"/>
-      <c r="H41" s="214"/>
+      <c r="D41" s="211"/>
+      <c r="E41" s="211"/>
+      <c r="F41" s="211"/>
+      <c r="G41" s="211"/>
+      <c r="H41" s="212"/>
       <c r="I41" s="17" t="s">
         <v>67</v>
       </c>
@@ -3912,81 +3912,81 @@
       <c r="A44" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="236" t="s">
+      <c r="B44" s="234" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="237"/>
-      <c r="D44" s="237"/>
-      <c r="E44" s="237"/>
-      <c r="F44" s="237"/>
-      <c r="G44" s="237"/>
-      <c r="H44" s="237"/>
-      <c r="I44" s="237"/>
-      <c r="J44" s="237"/>
-      <c r="K44" s="237"/>
-      <c r="L44" s="237"/>
-      <c r="M44" s="238"/>
+      <c r="C44" s="235"/>
+      <c r="D44" s="235"/>
+      <c r="E44" s="235"/>
+      <c r="F44" s="235"/>
+      <c r="G44" s="235"/>
+      <c r="H44" s="235"/>
+      <c r="I44" s="235"/>
+      <c r="J44" s="235"/>
+      <c r="K44" s="235"/>
+      <c r="L44" s="235"/>
+      <c r="M44" s="236"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="200" t="s">
+      <c r="A45" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="237"/>
-      <c r="C45" s="237"/>
-      <c r="D45" s="237"/>
-      <c r="E45" s="237"/>
-      <c r="F45" s="237"/>
-      <c r="G45" s="238"/>
-      <c r="H45" s="200" t="s">
+      <c r="B45" s="235"/>
+      <c r="C45" s="235"/>
+      <c r="D45" s="235"/>
+      <c r="E45" s="235"/>
+      <c r="F45" s="235"/>
+      <c r="G45" s="236"/>
+      <c r="H45" s="198" t="s">
         <v>44</v>
       </c>
-      <c r="I45" s="237"/>
-      <c r="J45" s="237"/>
-      <c r="K45" s="237"/>
-      <c r="L45" s="237"/>
-      <c r="M45" s="238"/>
+      <c r="I45" s="235"/>
+      <c r="J45" s="235"/>
+      <c r="K45" s="235"/>
+      <c r="L45" s="235"/>
+      <c r="M45" s="236"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="218" t="s">
+      <c r="A46" s="216" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="220" t="s">
+      <c r="B46" s="218" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="221"/>
-      <c r="D46" s="221"/>
-      <c r="E46" s="224" t="s">
+      <c r="C46" s="219"/>
+      <c r="D46" s="219"/>
+      <c r="E46" s="222" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="225"/>
-      <c r="G46" s="226"/>
-      <c r="H46" s="218" t="s">
+      <c r="F46" s="223"/>
+      <c r="G46" s="224"/>
+      <c r="H46" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="230" t="s">
+      <c r="I46" s="228" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="231"/>
-      <c r="K46" s="232" t="s">
+      <c r="J46" s="229"/>
+      <c r="K46" s="230" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="208" t="s">
+      <c r="L46" s="206" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="209"/>
+      <c r="M46" s="207"/>
     </row>
     <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="218"/>
-      <c r="B47" s="220"/>
-      <c r="C47" s="221"/>
-      <c r="D47" s="221"/>
-      <c r="E47" s="224"/>
-      <c r="F47" s="225"/>
-      <c r="G47" s="226"/>
-      <c r="H47" s="218"/>
-      <c r="I47" s="230"/>
-      <c r="J47" s="231"/>
-      <c r="K47" s="232"/>
+      <c r="A47" s="216"/>
+      <c r="B47" s="218"/>
+      <c r="C47" s="219"/>
+      <c r="D47" s="219"/>
+      <c r="E47" s="222"/>
+      <c r="F47" s="223"/>
+      <c r="G47" s="224"/>
+      <c r="H47" s="216"/>
+      <c r="I47" s="228"/>
+      <c r="J47" s="229"/>
+      <c r="K47" s="230"/>
       <c r="L47" s="52" t="s">
         <v>77</v>
       </c>
@@ -3995,20 +3995,20 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="219"/>
-      <c r="B48" s="222"/>
-      <c r="C48" s="223"/>
-      <c r="D48" s="223"/>
-      <c r="E48" s="227"/>
-      <c r="F48" s="228"/>
-      <c r="G48" s="229"/>
+      <c r="A48" s="217"/>
+      <c r="B48" s="220"/>
+      <c r="C48" s="221"/>
+      <c r="D48" s="221"/>
+      <c r="E48" s="225"/>
+      <c r="F48" s="226"/>
+      <c r="G48" s="227"/>
       <c r="H48" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="210" t="s">
+      <c r="I48" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="211"/>
+      <c r="J48" s="209"/>
       <c r="K48" s="55" t="s">
         <v>81</v>
       </c>
@@ -4054,9 +4054,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="212"/>
-      <c r="F51" s="213"/>
-      <c r="G51" s="214"/>
+      <c r="E51" s="210"/>
+      <c r="F51" s="211"/>
+      <c r="G51" s="212"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4812,23 +4812,23 @@
     </row>
     <row r="17" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
-      <c r="B17" s="216" t="s">
+      <c r="B17" s="214" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="216"/>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
-      <c r="H17" s="216"/>
-      <c r="I17" s="216"/>
-      <c r="J17" s="216"/>
-      <c r="K17" s="216"/>
-      <c r="L17" s="216"/>
-      <c r="M17" s="216"/>
-      <c r="N17" s="216"/>
-      <c r="O17" s="216"/>
-      <c r="P17" s="216"/>
+      <c r="C17" s="214"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
+      <c r="H17" s="214"/>
+      <c r="I17" s="214"/>
+      <c r="J17" s="214"/>
+      <c r="K17" s="214"/>
+      <c r="L17" s="214"/>
+      <c r="M17" s="214"/>
+      <c r="N17" s="214"/>
+      <c r="O17" s="214"/>
+      <c r="P17" s="214"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -4853,21 +4853,21 @@
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
-      <c r="B18" s="216"/>
-      <c r="C18" s="216"/>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
-      <c r="H18" s="216"/>
-      <c r="I18" s="216"/>
-      <c r="J18" s="216"/>
-      <c r="K18" s="216"/>
-      <c r="L18" s="216"/>
-      <c r="M18" s="216"/>
-      <c r="N18" s="216"/>
-      <c r="O18" s="216"/>
-      <c r="P18" s="216"/>
+      <c r="B18" s="214"/>
+      <c r="C18" s="214"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
+      <c r="H18" s="214"/>
+      <c r="I18" s="214"/>
+      <c r="J18" s="214"/>
+      <c r="K18" s="214"/>
+      <c r="L18" s="214"/>
+      <c r="M18" s="214"/>
+      <c r="N18" s="214"/>
+      <c r="O18" s="214"/>
+      <c r="P18" s="214"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -4889,21 +4889,21 @@
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
-      <c r="B19" s="216"/>
-      <c r="C19" s="216"/>
-      <c r="D19" s="216"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
-      <c r="H19" s="216"/>
-      <c r="I19" s="216"/>
-      <c r="J19" s="216"/>
-      <c r="K19" s="216"/>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
-      <c r="N19" s="216"/>
-      <c r="O19" s="216"/>
-      <c r="P19" s="216"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
+      <c r="H19" s="214"/>
+      <c r="I19" s="214"/>
+      <c r="J19" s="214"/>
+      <c r="K19" s="214"/>
+      <c r="L19" s="214"/>
+      <c r="M19" s="214"/>
+      <c r="N19" s="214"/>
+      <c r="O19" s="214"/>
+      <c r="P19" s="214"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>

--- a/library/export_travelclaim.xlsx
+++ b/library/export_travelclaim.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28755" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-09-02</t>
+    <t>2020-08-01</t>
   </si>
   <si>
     <t>Position:</t>
@@ -59,7 +59,7 @@
     <t>Web Developer</t>
   </si>
   <si>
-    <t>Purpose of Travel: SAMPLE MEETING 2</t>
+    <t>Purpose of Travel: AAAAA</t>
   </si>
   <si>
     <t xml:space="preserve">Official Station : </t>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>Diem</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>Printed Name:</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>JORIELYN S. CUBIO</t>
@@ -493,17 +493,17 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
@@ -519,15 +519,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -541,7 +541,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="60">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -996,7 +996,203 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -1010,84 +1206,6 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -1098,31 +1216,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
@@ -1134,46 +1228,13 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
+      <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1182,60 +1243,10 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -1247,8 +1258,10 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
@@ -1260,7 +1273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="484">
+  <cellXfs count="487">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1594,20 +1607,38 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="18" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1615,7 +1646,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,7 +1664,7 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,73 +1673,67 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1783,19 +1808,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1831,9 +1856,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1927,7 +1949,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1936,7 +1958,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1948,7 +1970,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1981,7 +2003,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1993,7 +2015,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2002,7 +2024,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2062,13 +2084,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2080,13 +2102,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,15 +2126,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2155,7 +2177,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2164,7 +2186,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2218,7 +2240,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2230,7 +2252,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2248,7 +2270,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2257,7 +2279,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2299,7 +2321,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2311,7 +2333,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2380,7 +2402,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,19 +2417,19 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2416,7 +2438,7 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,31 +2492,31 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2503,7 +2525,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2524,7 +2546,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2593,7 +2615,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2628,7 +2650,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2842,8 +2864,8 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2861,37 +2883,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1" s="187" t="s">
+      <c r="H1" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="187"/>
-      <c r="J1" s="187"/>
+      <c r="I1" s="176"/>
+      <c r="J1" s="176"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="188"/>
-      <c r="G2" s="188"/>
-      <c r="H2" s="188"/>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="E2" s="177"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="177"/>
+      <c r="H2" s="177"/>
+      <c r="I2" s="177"/>
+      <c r="J2" s="177"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="189" t="s">
+      <c r="A3" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
@@ -2909,8 +2931,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="191"/>
-      <c r="C5" s="191"/>
+      <c r="B5" s="180"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2923,8 +2945,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="191"/>
-      <c r="C6" s="191"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -2937,17 +2959,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="192"/>
+      <c r="B7" s="181"/>
+      <c r="C7" s="181"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="190" t="s">
+      <c r="H7" s="179" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="190"/>
-      <c r="J7" s="190"/>
+      <c r="I7" s="179"/>
+      <c r="J7" s="179"/>
     </row>
     <row r="8" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -2965,21 +2987,21 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="182" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="176"/>
-      <c r="D9" s="176"/>
-      <c r="E9" s="178"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="184"/>
       <c r="F9" s="167" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="176" t="s">
+      <c r="G9" s="182" t="s">
         <v>8</v>
       </c>
-      <c r="H9" s="176"/>
-      <c r="I9" s="176"/>
-      <c r="J9" s="177"/>
+      <c r="H9" s="182"/>
+      <c r="I9" s="182"/>
+      <c r="J9" s="183"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
@@ -2991,13 +3013,13 @@
       <c r="C10" s="193"/>
       <c r="D10" s="193"/>
       <c r="E10" s="194"/>
-      <c r="F10" s="201" t="s">
+      <c r="F10" s="205" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="202"/>
+      <c r="G10" s="179"/>
+      <c r="H10" s="179"/>
+      <c r="I10" s="179"/>
+      <c r="J10" s="206"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
@@ -3009,11 +3031,11 @@
       </c>
       <c r="D11" s="193"/>
       <c r="E11" s="194"/>
-      <c r="F11" s="203"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="202"/>
+      <c r="F11" s="205"/>
+      <c r="G11" s="179"/>
+      <c r="H11" s="179"/>
+      <c r="I11" s="179"/>
+      <c r="J11" s="206"/>
     </row>
     <row r="12" spans="1:10" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -3031,10 +3053,10 @@
       <c r="A13" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="204" t="s">
+      <c r="B13" s="207" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="205"/>
+      <c r="C13" s="208"/>
       <c r="D13" s="198" t="s">
         <v>16</v>
       </c>
@@ -3042,25 +3064,25 @@
       <c r="F13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="179" t="s">
+      <c r="G13" s="185" t="s">
         <v>18</v>
       </c>
       <c r="H13" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="181" t="s">
+      <c r="I13" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="183" t="s">
+      <c r="J13" s="189" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="197"/>
-      <c r="B14" s="185" t="s">
+      <c r="B14" s="191" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="186"/>
+      <c r="C14" s="192"/>
       <c r="D14" s="21" t="s">
         <v>23</v>
       </c>
@@ -3070,24 +3092,24 @@
       <c r="F14" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="180"/>
+      <c r="G14" s="186"/>
       <c r="H14" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="182"/>
-      <c r="J14" s="184"/>
+      <c r="I14" s="188"/>
+      <c r="J14" s="190"/>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="200"/>
-      <c r="B15" s="200"/>
-      <c r="C15" s="200"/>
-      <c r="D15" s="200"/>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="201"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="201"/>
+      <c r="G15" s="201"/>
+      <c r="H15" s="201"/>
+      <c r="I15" s="201"/>
+      <c r="J15" s="204"/>
     </row>
     <row r="16" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="171"/>
@@ -3110,13 +3132,6 @@
     <mergeCell ref="A15:J15"/>
     <mergeCell ref="F10:J11"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G13:G14"/>
@@ -3125,10 +3140,17 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2598425196850001" right="0.98425196850394003" top="0.78740157480314998" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
-  <pageSetup scale="76" fitToHeight="10" orientation="portrait"/>
+  <pageSetup scale="76" fitToHeight="10" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</oddFooter>
     <evenFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</evenFooter>
@@ -3179,10 +3201,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="310" t="s">
-        <v>29</v>
-      </c>
-      <c r="M1" s="310"/>
+      <c r="L1" s="313" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="313"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3196,443 +3218,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="311"/>
-      <c r="M2" s="311"/>
+      <c r="L2" s="314"/>
+      <c r="M2" s="314"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="312" t="s">
+      <c r="A3" s="315" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="316"/>
+      <c r="C3" s="316"/>
+      <c r="D3" s="316"/>
+      <c r="E3" s="316"/>
+      <c r="F3" s="316"/>
+      <c r="G3" s="316"/>
+      <c r="H3" s="316"/>
+      <c r="I3" s="316"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="318" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
-      <c r="G3" s="313"/>
-      <c r="H3" s="313"/>
-      <c r="I3" s="313"/>
-      <c r="J3" s="314"/>
-      <c r="K3" s="315" t="s">
+      <c r="L3" s="319"/>
+      <c r="M3" s="320"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="321" t="s">
         <v>31</v>
       </c>
-      <c r="L3" s="316"/>
-      <c r="M3" s="317"/>
-    </row>
-    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="318" t="s">
+      <c r="B4" s="322"/>
+      <c r="C4" s="322"/>
+      <c r="D4" s="322"/>
+      <c r="E4" s="322"/>
+      <c r="F4" s="322"/>
+      <c r="G4" s="322"/>
+      <c r="H4" s="322"/>
+      <c r="I4" s="322"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="236" t="s">
         <v>32</v>
       </c>
-      <c r="B4" s="319"/>
-      <c r="C4" s="319"/>
-      <c r="D4" s="319"/>
-      <c r="E4" s="319"/>
-      <c r="F4" s="319"/>
-      <c r="G4" s="319"/>
-      <c r="H4" s="319"/>
-      <c r="I4" s="319"/>
-      <c r="J4" s="320"/>
-      <c r="K4" s="232" t="s">
+      <c r="L4" s="237"/>
+      <c r="M4" s="324"/>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="295" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="233"/>
-      <c r="M4" s="321"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="292" t="s">
+      <c r="B5" s="296"/>
+      <c r="C5" s="296"/>
+      <c r="D5" s="296"/>
+      <c r="E5" s="296"/>
+      <c r="F5" s="296"/>
+      <c r="G5" s="296"/>
+      <c r="H5" s="296"/>
+      <c r="I5" s="296"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="298" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="293"/>
-      <c r="C5" s="293"/>
-      <c r="D5" s="293"/>
-      <c r="E5" s="293"/>
-      <c r="F5" s="293"/>
-      <c r="G5" s="293"/>
-      <c r="H5" s="293"/>
-      <c r="I5" s="293"/>
-      <c r="J5" s="294"/>
-      <c r="K5" s="295" t="s">
+      <c r="L5" s="299"/>
+      <c r="M5" s="300"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="283"/>
+      <c r="B6" s="284"/>
+      <c r="C6" s="285"/>
+      <c r="D6" s="304" t="s">
         <v>35</v>
       </c>
-      <c r="L5" s="296"/>
-      <c r="M5" s="297"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="280"/>
-      <c r="B6" s="281"/>
-      <c r="C6" s="282"/>
-      <c r="D6" s="301" t="s">
+      <c r="E6" s="305"/>
+      <c r="F6" s="305"/>
+      <c r="G6" s="305"/>
+      <c r="H6" s="305"/>
+      <c r="I6" s="305"/>
+      <c r="J6" s="305"/>
+      <c r="K6" s="305"/>
+      <c r="L6" s="305"/>
+      <c r="M6" s="306"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="301"/>
+      <c r="B7" s="302"/>
+      <c r="C7" s="303"/>
+      <c r="D7" s="307"/>
+      <c r="E7" s="308"/>
+      <c r="F7" s="308"/>
+      <c r="G7" s="308"/>
+      <c r="H7" s="308"/>
+      <c r="I7" s="308"/>
+      <c r="J7" s="308"/>
+      <c r="K7" s="308"/>
+      <c r="L7" s="308"/>
+      <c r="M7" s="309"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="272" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="302"/>
-      <c r="F6" s="302"/>
-      <c r="G6" s="302"/>
-      <c r="H6" s="302"/>
-      <c r="I6" s="302"/>
-      <c r="J6" s="302"/>
-      <c r="K6" s="302"/>
-      <c r="L6" s="302"/>
-      <c r="M6" s="303"/>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="298"/>
-      <c r="B7" s="299"/>
-      <c r="C7" s="300"/>
-      <c r="D7" s="304"/>
-      <c r="E7" s="305"/>
-      <c r="F7" s="305"/>
-      <c r="G7" s="305"/>
-      <c r="H7" s="305"/>
-      <c r="I7" s="305"/>
-      <c r="J7" s="305"/>
-      <c r="K7" s="305"/>
-      <c r="L7" s="305"/>
-      <c r="M7" s="306"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="269" t="s">
+      <c r="B8" s="273"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="277" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="270"/>
-      <c r="C8" s="271"/>
-      <c r="D8" s="274" t="s">
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="278"/>
+      <c r="H8" s="278"/>
+      <c r="I8" s="278"/>
+      <c r="J8" s="278"/>
+      <c r="K8" s="278"/>
+      <c r="L8" s="278"/>
+      <c r="M8" s="279"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="301"/>
+      <c r="B9" s="302"/>
+      <c r="C9" s="303"/>
+      <c r="D9" s="310"/>
+      <c r="E9" s="311"/>
+      <c r="F9" s="311"/>
+      <c r="G9" s="311"/>
+      <c r="H9" s="311"/>
+      <c r="I9" s="311"/>
+      <c r="J9" s="311"/>
+      <c r="K9" s="311"/>
+      <c r="L9" s="311"/>
+      <c r="M9" s="312"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="272" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="275"/>
-      <c r="F8" s="275"/>
-      <c r="G8" s="275"/>
-      <c r="H8" s="275"/>
-      <c r="I8" s="275"/>
-      <c r="J8" s="275"/>
-      <c r="K8" s="275"/>
-      <c r="L8" s="275"/>
-      <c r="M8" s="276"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="298"/>
-      <c r="B9" s="299"/>
-      <c r="C9" s="300"/>
-      <c r="D9" s="307"/>
-      <c r="E9" s="308"/>
-      <c r="F9" s="308"/>
-      <c r="G9" s="308"/>
-      <c r="H9" s="308"/>
-      <c r="I9" s="308"/>
-      <c r="J9" s="308"/>
-      <c r="K9" s="308"/>
-      <c r="L9" s="308"/>
-      <c r="M9" s="309"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="269" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="270"/>
-      <c r="C10" s="271"/>
-      <c r="D10" s="274" t="e">
+      <c r="B10" s="273"/>
+      <c r="C10" s="274"/>
+      <c r="D10" s="277" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="275"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="275"/>
-      <c r="H10" s="275"/>
-      <c r="I10" s="275"/>
-      <c r="J10" s="275"/>
-      <c r="K10" s="275"/>
-      <c r="L10" s="275"/>
-      <c r="M10" s="276"/>
+      <c r="E10" s="278"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="278"/>
+      <c r="J10" s="278"/>
+      <c r="K10" s="278"/>
+      <c r="L10" s="278"/>
+      <c r="M10" s="279"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="272"/>
-      <c r="B11" s="226"/>
-      <c r="C11" s="273"/>
-      <c r="D11" s="277"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="278"/>
-      <c r="H11" s="278"/>
-      <c r="I11" s="278"/>
-      <c r="J11" s="278"/>
-      <c r="K11" s="278"/>
-      <c r="L11" s="278"/>
-      <c r="M11" s="279"/>
+      <c r="A11" s="275"/>
+      <c r="B11" s="230"/>
+      <c r="C11" s="276"/>
+      <c r="D11" s="280"/>
+      <c r="E11" s="281"/>
+      <c r="F11" s="281"/>
+      <c r="G11" s="281"/>
+      <c r="H11" s="281"/>
+      <c r="I11" s="281"/>
+      <c r="J11" s="281"/>
+      <c r="K11" s="281"/>
+      <c r="L11" s="281"/>
+      <c r="M11" s="282"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="280" t="s">
+      <c r="A12" s="283" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="284"/>
+      <c r="C12" s="285"/>
+      <c r="D12" s="286" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="281"/>
-      <c r="C12" s="282"/>
-      <c r="D12" s="283" t="s">
+      <c r="E12" s="287"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="286" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="284"/>
-      <c r="F12" s="284"/>
-      <c r="G12" s="284"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="283" t="s">
+      <c r="J12" s="285"/>
+      <c r="K12" s="292" t="s">
         <v>42</v>
       </c>
-      <c r="J12" s="282"/>
-      <c r="K12" s="289" t="s">
+      <c r="L12" s="286" t="s">
         <v>43</v>
       </c>
-      <c r="L12" s="283" t="s">
+      <c r="M12" s="294"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="275"/>
+      <c r="B13" s="230"/>
+      <c r="C13" s="276"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="290"/>
+      <c r="H13" s="291"/>
+      <c r="I13" s="229"/>
+      <c r="J13" s="276"/>
+      <c r="K13" s="293"/>
+      <c r="L13" s="229"/>
+      <c r="M13" s="231"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="253"/>
+      <c r="B14" s="209"/>
+      <c r="C14" s="254"/>
+      <c r="D14" s="255" t="s">
         <v>44</v>
       </c>
-      <c r="M12" s="291"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="272"/>
-      <c r="B13" s="226"/>
-      <c r="C13" s="273"/>
-      <c r="D13" s="286"/>
-      <c r="E13" s="287"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="287"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="225"/>
-      <c r="J13" s="273"/>
-      <c r="K13" s="290"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="227"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="249"/>
-      <c r="B14" s="250"/>
-      <c r="C14" s="251"/>
-      <c r="D14" s="252" t="s">
+      <c r="E14" s="209"/>
+      <c r="F14" s="209"/>
+      <c r="G14" s="209"/>
+      <c r="H14" s="254"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="254"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="255"/>
+      <c r="M14" s="256"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="253"/>
+      <c r="B15" s="209"/>
+      <c r="C15" s="254"/>
+      <c r="D15" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="250"/>
-      <c r="F14" s="250"/>
-      <c r="G14" s="250"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="252"/>
-      <c r="J14" s="251"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="252"/>
-      <c r="M14" s="253"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="249"/>
-      <c r="B15" s="250"/>
-      <c r="C15" s="251"/>
-      <c r="D15" s="213" t="s">
+      <c r="E15" s="218"/>
+      <c r="F15" s="218"/>
+      <c r="G15" s="218"/>
+      <c r="H15" s="219"/>
+      <c r="I15" s="255"/>
+      <c r="J15" s="254"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="268">
+        <v>4981</v>
+      </c>
+      <c r="M15" s="269"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="253"/>
+      <c r="B16" s="209"/>
+      <c r="C16" s="254"/>
+      <c r="D16" s="217"/>
+      <c r="E16" s="218"/>
+      <c r="F16" s="218"/>
+      <c r="G16" s="218"/>
+      <c r="H16" s="219"/>
+      <c r="I16" s="255"/>
+      <c r="J16" s="254"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="255"/>
+      <c r="M16" s="256"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="253"/>
+      <c r="B17" s="209"/>
+      <c r="C17" s="254"/>
+      <c r="D17" s="217"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="219"/>
+      <c r="I17" s="255"/>
+      <c r="J17" s="254"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="270"/>
+      <c r="M17" s="271"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="253"/>
+      <c r="B18" s="209"/>
+      <c r="C18" s="254"/>
+      <c r="D18" s="217"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="219"/>
+      <c r="I18" s="266"/>
+      <c r="J18" s="267"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="255"/>
+      <c r="M18" s="256"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="253"/>
+      <c r="B19" s="209"/>
+      <c r="C19" s="254"/>
+      <c r="D19" s="217"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="219"/>
+      <c r="I19" s="255"/>
+      <c r="J19" s="254"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="255"/>
+      <c r="M19" s="256"/>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="253"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="254"/>
+      <c r="D20" s="217"/>
+      <c r="E20" s="218"/>
+      <c r="F20" s="218"/>
+      <c r="G20" s="218"/>
+      <c r="H20" s="219"/>
+      <c r="I20" s="255"/>
+      <c r="J20" s="254"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="255"/>
+      <c r="M20" s="256"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="253"/>
+      <c r="B21" s="209"/>
+      <c r="C21" s="254"/>
+      <c r="D21" s="217"/>
+      <c r="E21" s="218"/>
+      <c r="F21" s="218"/>
+      <c r="G21" s="218"/>
+      <c r="H21" s="219"/>
+      <c r="I21" s="255"/>
+      <c r="J21" s="254"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="255"/>
+      <c r="M21" s="256"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="253"/>
+      <c r="B22" s="209"/>
+      <c r="C22" s="254"/>
+      <c r="D22" s="266"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
+      <c r="H22" s="267"/>
+      <c r="I22" s="255"/>
+      <c r="J22" s="254"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="255"/>
+      <c r="M22" s="256"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="253"/>
+      <c r="B23" s="209"/>
+      <c r="C23" s="254"/>
+      <c r="D23" s="266"/>
+      <c r="E23" s="247"/>
+      <c r="F23" s="247"/>
+      <c r="G23" s="247"/>
+      <c r="H23" s="267"/>
+      <c r="I23" s="255"/>
+      <c r="J23" s="254"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="255"/>
+      <c r="M23" s="256"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="253"/>
+      <c r="B24" s="209"/>
+      <c r="C24" s="254"/>
+      <c r="D24" s="266"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="267"/>
+      <c r="I24" s="255"/>
+      <c r="J24" s="254"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="255"/>
+      <c r="M24" s="256"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="253"/>
+      <c r="B25" s="209"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="209"/>
+      <c r="F25" s="209"/>
+      <c r="G25" s="209"/>
+      <c r="H25" s="254"/>
+      <c r="I25" s="255"/>
+      <c r="J25" s="254"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="255"/>
+      <c r="M25" s="256"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="253"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="254"/>
+      <c r="D26" s="255"/>
+      <c r="E26" s="209"/>
+      <c r="F26" s="209"/>
+      <c r="G26" s="209"/>
+      <c r="H26" s="254"/>
+      <c r="I26" s="255"/>
+      <c r="J26" s="254"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="255"/>
+      <c r="M26" s="256"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="257"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="259"/>
+      <c r="D27" s="260" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="214"/>
-      <c r="F15" s="214"/>
-      <c r="G15" s="214"/>
-      <c r="H15" s="215"/>
-      <c r="I15" s="252"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="265">
-        <v>4981</v>
-      </c>
-      <c r="M15" s="266"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="249"/>
-      <c r="B16" s="250"/>
-      <c r="C16" s="251"/>
-      <c r="D16" s="213"/>
-      <c r="E16" s="214"/>
-      <c r="F16" s="214"/>
-      <c r="G16" s="214"/>
-      <c r="H16" s="215"/>
-      <c r="I16" s="252"/>
-      <c r="J16" s="251"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="252"/>
-      <c r="M16" s="253"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="249"/>
-      <c r="B17" s="250"/>
-      <c r="C17" s="251"/>
-      <c r="D17" s="213"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="215"/>
-      <c r="I17" s="252"/>
-      <c r="J17" s="251"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="268"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="249"/>
-      <c r="B18" s="250"/>
-      <c r="C18" s="251"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="215"/>
-      <c r="I18" s="263"/>
-      <c r="J18" s="264"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="252"/>
-      <c r="M18" s="253"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="249"/>
-      <c r="B19" s="250"/>
-      <c r="C19" s="251"/>
-      <c r="D19" s="213"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="215"/>
-      <c r="I19" s="252"/>
-      <c r="J19" s="251"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="252"/>
-      <c r="M19" s="253"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="249"/>
-      <c r="B20" s="250"/>
-      <c r="C20" s="251"/>
-      <c r="D20" s="213"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
-      <c r="H20" s="215"/>
-      <c r="I20" s="252"/>
-      <c r="J20" s="251"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="252"/>
-      <c r="M20" s="253"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="249"/>
-      <c r="B21" s="250"/>
-      <c r="C21" s="251"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
-      <c r="H21" s="215"/>
-      <c r="I21" s="252"/>
-      <c r="J21" s="251"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="252"/>
-      <c r="M21" s="253"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="249"/>
-      <c r="B22" s="250"/>
-      <c r="C22" s="251"/>
-      <c r="D22" s="263"/>
-      <c r="E22" s="243"/>
-      <c r="F22" s="243"/>
-      <c r="G22" s="243"/>
-      <c r="H22" s="264"/>
-      <c r="I22" s="252"/>
-      <c r="J22" s="251"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="252"/>
-      <c r="M22" s="253"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="249"/>
-      <c r="B23" s="250"/>
-      <c r="C23" s="251"/>
-      <c r="D23" s="263"/>
-      <c r="E23" s="243"/>
-      <c r="F23" s="243"/>
-      <c r="G23" s="243"/>
-      <c r="H23" s="264"/>
-      <c r="I23" s="252"/>
-      <c r="J23" s="251"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="252"/>
-      <c r="M23" s="253"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="249"/>
-      <c r="B24" s="250"/>
-      <c r="C24" s="251"/>
-      <c r="D24" s="263"/>
-      <c r="E24" s="243"/>
-      <c r="F24" s="243"/>
-      <c r="G24" s="243"/>
-      <c r="H24" s="264"/>
-      <c r="I24" s="252"/>
-      <c r="J24" s="251"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="252"/>
-      <c r="M24" s="253"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="249"/>
-      <c r="B25" s="250"/>
-      <c r="C25" s="251"/>
-      <c r="D25" s="252"/>
-      <c r="E25" s="250"/>
-      <c r="F25" s="250"/>
-      <c r="G25" s="250"/>
-      <c r="H25" s="251"/>
-      <c r="I25" s="252"/>
-      <c r="J25" s="251"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="252"/>
-      <c r="M25" s="253"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="249"/>
-      <c r="B26" s="250"/>
-      <c r="C26" s="251"/>
-      <c r="D26" s="252"/>
-      <c r="E26" s="250"/>
-      <c r="F26" s="250"/>
-      <c r="G26" s="250"/>
-      <c r="H26" s="251"/>
-      <c r="I26" s="252"/>
-      <c r="J26" s="251"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="252"/>
-      <c r="M26" s="253"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="254"/>
-      <c r="B27" s="255"/>
-      <c r="C27" s="256"/>
-      <c r="D27" s="257" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="258"/>
-      <c r="F27" s="258"/>
-      <c r="G27" s="258"/>
-      <c r="H27" s="259"/>
-      <c r="I27" s="260"/>
-      <c r="J27" s="256"/>
+      <c r="E27" s="261"/>
+      <c r="F27" s="261"/>
+      <c r="G27" s="261"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="263"/>
+      <c r="J27" s="259"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="261">
+      <c r="L27" s="264">
         <f>L15</f>
         <v>4981</v>
       </c>
-      <c r="M27" s="262"/>
+      <c r="M27" s="265"/>
     </row>
     <row r="28" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="237" t="s">
-        <v>48</v>
+      <c r="A28" s="241" t="s">
+        <v>47</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="211" t="s">
+      <c r="D28" s="215" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" s="243"/>
+      <c r="F28" s="243"/>
+      <c r="G28" s="243"/>
+      <c r="H28" s="244"/>
+      <c r="I28" s="245" t="s">
         <v>49</v>
-      </c>
-      <c r="E28" s="239"/>
-      <c r="F28" s="239"/>
-      <c r="G28" s="239"/>
-      <c r="H28" s="240"/>
-      <c r="I28" s="241" t="s">
-        <v>50</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -3640,19 +3662,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="238"/>
-      <c r="B29" s="242" t="s">
+      <c r="A29" s="242"/>
+      <c r="B29" s="246" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="177"/>
+      <c r="D29" s="243"/>
+      <c r="E29" s="243"/>
+      <c r="F29" s="243"/>
+      <c r="G29" s="243"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="245"/>
+      <c r="J29" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="C29" s="188"/>
-      <c r="D29" s="239"/>
-      <c r="E29" s="239"/>
-      <c r="F29" s="239"/>
-      <c r="G29" s="239"/>
-      <c r="H29" s="240"/>
-      <c r="I29" s="241"/>
-      <c r="J29" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -3660,27 +3682,27 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
-      <c r="B30" s="243" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="243"/>
-      <c r="D30" s="243"/>
-      <c r="E30" s="243"/>
-      <c r="F30" s="243"/>
-      <c r="G30" s="243"/>
-      <c r="H30" s="244"/>
+      <c r="B30" s="247" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="247"/>
+      <c r="D30" s="247"/>
+      <c r="E30" s="247"/>
+      <c r="F30" s="247"/>
+      <c r="G30" s="247"/>
+      <c r="H30" s="248"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="245"/>
+      <c r="A31" s="249"/>
       <c r="B31" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3690,14 +3712,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="245"/>
+      <c r="A32" s="249"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3742,24 +3764,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="246" t="s">
+      <c r="A35" s="250" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="227"/>
+      <c r="C35" s="218" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="223"/>
-      <c r="C35" s="214" t="s">
+      <c r="D35" s="218"/>
+      <c r="E35" s="218"/>
+      <c r="F35" s="218"/>
+      <c r="G35" s="218"/>
+      <c r="H35" s="235"/>
+      <c r="I35" s="17" t="s">
         <v>58</v>
-      </c>
-      <c r="D35" s="214"/>
-      <c r="E35" s="214"/>
-      <c r="F35" s="214"/>
-      <c r="G35" s="214"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="17" t="s">
-        <v>59</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -3780,12 +3802,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="247" t="s">
+      <c r="A37" s="251" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="252"/>
+      <c r="C37" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="B37" s="248"/>
-      <c r="C37" s="14" t="s">
-        <v>27</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -3793,7 +3815,7 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
@@ -3818,18 +3840,18 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="246" t="s">
+      <c r="A39" s="250" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="223"/>
-      <c r="C39" s="211" t="s">
+      <c r="B39" s="227"/>
+      <c r="C39" s="215" t="s">
         <v>64</v>
       </c>
-      <c r="D39" s="211"/>
-      <c r="E39" s="211"/>
-      <c r="F39" s="211"/>
-      <c r="G39" s="211"/>
-      <c r="H39" s="212"/>
+      <c r="D39" s="215"/>
+      <c r="E39" s="215"/>
+      <c r="F39" s="215"/>
+      <c r="G39" s="215"/>
+      <c r="H39" s="216"/>
       <c r="I39" s="17" t="s">
         <v>63</v>
       </c>
@@ -3843,31 +3865,31 @@
     <row r="40" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="214"/>
-      <c r="D40" s="214"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
+      <c r="C40" s="218"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="214"/>
-      <c r="M40" s="231"/>
+      <c r="K40" s="218"/>
+      <c r="L40" s="218"/>
+      <c r="M40" s="235"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="232" t="s">
+      <c r="A41" s="236" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="233"/>
-      <c r="C41" s="211" t="s">
-        <v>58</v>
-      </c>
-      <c r="D41" s="211"/>
-      <c r="E41" s="211"/>
-      <c r="F41" s="211"/>
-      <c r="G41" s="211"/>
-      <c r="H41" s="212"/>
+      <c r="B41" s="237"/>
+      <c r="C41" s="215" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="215"/>
+      <c r="E41" s="215"/>
+      <c r="F41" s="215"/>
+      <c r="G41" s="215"/>
+      <c r="H41" s="216"/>
       <c r="I41" s="17" t="s">
         <v>67</v>
       </c>
@@ -3912,81 +3934,81 @@
       <c r="A44" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="234" t="s">
+      <c r="B44" s="238" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="235"/>
-      <c r="D44" s="235"/>
-      <c r="E44" s="235"/>
-      <c r="F44" s="235"/>
-      <c r="G44" s="235"/>
-      <c r="H44" s="235"/>
-      <c r="I44" s="235"/>
-      <c r="J44" s="235"/>
-      <c r="K44" s="235"/>
-      <c r="L44" s="235"/>
-      <c r="M44" s="236"/>
+      <c r="C44" s="239"/>
+      <c r="D44" s="239"/>
+      <c r="E44" s="239"/>
+      <c r="F44" s="239"/>
+      <c r="G44" s="239"/>
+      <c r="H44" s="239"/>
+      <c r="I44" s="239"/>
+      <c r="J44" s="239"/>
+      <c r="K44" s="239"/>
+      <c r="L44" s="239"/>
+      <c r="M44" s="240"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="198" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="235"/>
-      <c r="C45" s="235"/>
-      <c r="D45" s="235"/>
-      <c r="E45" s="235"/>
-      <c r="F45" s="235"/>
-      <c r="G45" s="236"/>
+      <c r="B45" s="239"/>
+      <c r="C45" s="239"/>
+      <c r="D45" s="239"/>
+      <c r="E45" s="239"/>
+      <c r="F45" s="239"/>
+      <c r="G45" s="240"/>
       <c r="H45" s="198" t="s">
-        <v>44</v>
-      </c>
-      <c r="I45" s="235"/>
-      <c r="J45" s="235"/>
-      <c r="K45" s="235"/>
-      <c r="L45" s="235"/>
-      <c r="M45" s="236"/>
+        <v>43</v>
+      </c>
+      <c r="I45" s="239"/>
+      <c r="J45" s="239"/>
+      <c r="K45" s="239"/>
+      <c r="L45" s="239"/>
+      <c r="M45" s="240"/>
     </row>
     <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="216" t="s">
+      <c r="A46" s="220" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="218" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="219"/>
-      <c r="D46" s="219"/>
-      <c r="E46" s="222" t="s">
+      <c r="B46" s="222" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="223"/>
+      <c r="D46" s="223"/>
+      <c r="E46" s="226" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="223"/>
-      <c r="G46" s="224"/>
-      <c r="H46" s="216" t="s">
+      <c r="F46" s="227"/>
+      <c r="G46" s="228"/>
+      <c r="H46" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="228" t="s">
+      <c r="I46" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="229"/>
-      <c r="K46" s="230" t="s">
+      <c r="J46" s="233"/>
+      <c r="K46" s="234" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="206" t="s">
+      <c r="L46" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="207"/>
+      <c r="M46" s="211"/>
     </row>
     <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="216"/>
-      <c r="B47" s="218"/>
-      <c r="C47" s="219"/>
-      <c r="D47" s="219"/>
-      <c r="E47" s="222"/>
-      <c r="F47" s="223"/>
-      <c r="G47" s="224"/>
-      <c r="H47" s="216"/>
-      <c r="I47" s="228"/>
-      <c r="J47" s="229"/>
-      <c r="K47" s="230"/>
+      <c r="A47" s="220"/>
+      <c r="B47" s="222"/>
+      <c r="C47" s="223"/>
+      <c r="D47" s="223"/>
+      <c r="E47" s="226"/>
+      <c r="F47" s="227"/>
+      <c r="G47" s="228"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="232"/>
+      <c r="J47" s="233"/>
+      <c r="K47" s="234"/>
       <c r="L47" s="52" t="s">
         <v>77</v>
       </c>
@@ -3995,20 +4017,20 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="217"/>
-      <c r="B48" s="220"/>
-      <c r="C48" s="221"/>
-      <c r="D48" s="221"/>
-      <c r="E48" s="225"/>
-      <c r="F48" s="226"/>
-      <c r="G48" s="227"/>
+      <c r="A48" s="221"/>
+      <c r="B48" s="224"/>
+      <c r="C48" s="225"/>
+      <c r="D48" s="225"/>
+      <c r="E48" s="229"/>
+      <c r="F48" s="230"/>
+      <c r="G48" s="231"/>
       <c r="H48" s="54" t="s">
         <v>79</v>
       </c>
-      <c r="I48" s="208" t="s">
+      <c r="I48" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="J48" s="209"/>
+      <c r="J48" s="213"/>
       <c r="K48" s="55" t="s">
         <v>81</v>
       </c>
@@ -4054,9 +4076,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="210"/>
-      <c r="F51" s="211"/>
-      <c r="G51" s="212"/>
+      <c r="E51" s="214"/>
+      <c r="F51" s="215"/>
+      <c r="G51" s="216"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4255,247 +4277,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB1" s="471" t="s">
+      <c r="AB1" s="474" t="s">
         <v>84</v>
       </c>
-      <c r="AC1" s="471"/>
-      <c r="AD1" s="471"/>
-      <c r="AE1" s="471"/>
-      <c r="AF1" s="471"/>
-      <c r="AG1" s="471"/>
+      <c r="AC1" s="474"/>
+      <c r="AD1" s="474"/>
+      <c r="AE1" s="474"/>
+      <c r="AF1" s="474"/>
+      <c r="AG1" s="474"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="472" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="473"/>
-      <c r="C3" s="473"/>
-      <c r="D3" s="473"/>
-      <c r="E3" s="473"/>
-      <c r="F3" s="473"/>
-      <c r="G3" s="473"/>
-      <c r="H3" s="473"/>
-      <c r="I3" s="473"/>
-      <c r="J3" s="473"/>
-      <c r="K3" s="473"/>
-      <c r="L3" s="473"/>
-      <c r="M3" s="473"/>
-      <c r="N3" s="473"/>
-      <c r="O3" s="473"/>
-      <c r="P3" s="473"/>
-      <c r="Q3" s="473"/>
-      <c r="R3" s="473"/>
-      <c r="S3" s="473"/>
-      <c r="T3" s="473"/>
-      <c r="U3" s="473"/>
-      <c r="V3" s="473"/>
-      <c r="W3" s="473"/>
-      <c r="X3" s="473"/>
-      <c r="Y3" s="473"/>
-      <c r="Z3" s="473"/>
-      <c r="AA3" s="474"/>
-      <c r="AB3" s="475" t="s">
+      <c r="A3" s="475" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="476"/>
+      <c r="C3" s="476"/>
+      <c r="D3" s="476"/>
+      <c r="E3" s="476"/>
+      <c r="F3" s="476"/>
+      <c r="G3" s="476"/>
+      <c r="H3" s="476"/>
+      <c r="I3" s="476"/>
+      <c r="J3" s="476"/>
+      <c r="K3" s="476"/>
+      <c r="L3" s="476"/>
+      <c r="M3" s="476"/>
+      <c r="N3" s="476"/>
+      <c r="O3" s="476"/>
+      <c r="P3" s="476"/>
+      <c r="Q3" s="476"/>
+      <c r="R3" s="476"/>
+      <c r="S3" s="476"/>
+      <c r="T3" s="476"/>
+      <c r="U3" s="476"/>
+      <c r="V3" s="476"/>
+      <c r="W3" s="476"/>
+      <c r="X3" s="476"/>
+      <c r="Y3" s="476"/>
+      <c r="Z3" s="476"/>
+      <c r="AA3" s="477"/>
+      <c r="AB3" s="478" t="s">
         <v>85</v>
       </c>
-      <c r="AC3" s="476"/>
-      <c r="AD3" s="476"/>
-      <c r="AE3" s="476"/>
-      <c r="AF3" s="476"/>
-      <c r="AG3" s="477"/>
+      <c r="AC3" s="479"/>
+      <c r="AD3" s="479"/>
+      <c r="AE3" s="479"/>
+      <c r="AF3" s="479"/>
+      <c r="AG3" s="480"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="478" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="479"/>
-      <c r="C4" s="479"/>
-      <c r="D4" s="479"/>
-      <c r="E4" s="479"/>
-      <c r="F4" s="479"/>
-      <c r="G4" s="479"/>
-      <c r="H4" s="479"/>
-      <c r="I4" s="479"/>
-      <c r="J4" s="479"/>
-      <c r="K4" s="479"/>
-      <c r="L4" s="479"/>
-      <c r="M4" s="479"/>
-      <c r="N4" s="479"/>
-      <c r="O4" s="479"/>
-      <c r="P4" s="479"/>
-      <c r="Q4" s="479"/>
-      <c r="R4" s="479"/>
-      <c r="S4" s="479"/>
-      <c r="T4" s="479"/>
-      <c r="U4" s="479"/>
-      <c r="V4" s="479"/>
-      <c r="W4" s="479"/>
-      <c r="X4" s="479"/>
-      <c r="Y4" s="479"/>
-      <c r="Z4" s="479"/>
-      <c r="AA4" s="480"/>
-      <c r="AB4" s="481"/>
-      <c r="AC4" s="482"/>
-      <c r="AD4" s="482"/>
-      <c r="AE4" s="482"/>
-      <c r="AF4" s="482"/>
-      <c r="AG4" s="483"/>
+      <c r="A4" s="481" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="482"/>
+      <c r="C4" s="482"/>
+      <c r="D4" s="482"/>
+      <c r="E4" s="482"/>
+      <c r="F4" s="482"/>
+      <c r="G4" s="482"/>
+      <c r="H4" s="482"/>
+      <c r="I4" s="482"/>
+      <c r="J4" s="482"/>
+      <c r="K4" s="482"/>
+      <c r="L4" s="482"/>
+      <c r="M4" s="482"/>
+      <c r="N4" s="482"/>
+      <c r="O4" s="482"/>
+      <c r="P4" s="482"/>
+      <c r="Q4" s="482"/>
+      <c r="R4" s="482"/>
+      <c r="S4" s="482"/>
+      <c r="T4" s="482"/>
+      <c r="U4" s="482"/>
+      <c r="V4" s="482"/>
+      <c r="W4" s="482"/>
+      <c r="X4" s="482"/>
+      <c r="Y4" s="482"/>
+      <c r="Z4" s="482"/>
+      <c r="AA4" s="483"/>
+      <c r="AB4" s="484"/>
+      <c r="AC4" s="485"/>
+      <c r="AD4" s="485"/>
+      <c r="AE4" s="485"/>
+      <c r="AF4" s="485"/>
+      <c r="AG4" s="486"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="437" t="s">
+      <c r="A5" s="440" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="438"/>
-      <c r="C5" s="438"/>
-      <c r="D5" s="438"/>
-      <c r="E5" s="438"/>
-      <c r="F5" s="438"/>
-      <c r="G5" s="438"/>
-      <c r="H5" s="438"/>
-      <c r="I5" s="438"/>
-      <c r="J5" s="438"/>
-      <c r="K5" s="438"/>
-      <c r="L5" s="438"/>
-      <c r="M5" s="438"/>
-      <c r="N5" s="438"/>
-      <c r="O5" s="438"/>
-      <c r="P5" s="438"/>
-      <c r="Q5" s="438"/>
-      <c r="R5" s="438"/>
-      <c r="S5" s="438"/>
-      <c r="T5" s="438"/>
-      <c r="U5" s="438"/>
-      <c r="V5" s="438"/>
-      <c r="W5" s="438"/>
-      <c r="X5" s="438"/>
-      <c r="Y5" s="438"/>
-      <c r="Z5" s="438"/>
-      <c r="AA5" s="439"/>
-      <c r="AB5" s="453" t="s">
+      <c r="B5" s="441"/>
+      <c r="C5" s="441"/>
+      <c r="D5" s="441"/>
+      <c r="E5" s="441"/>
+      <c r="F5" s="441"/>
+      <c r="G5" s="441"/>
+      <c r="H5" s="441"/>
+      <c r="I5" s="441"/>
+      <c r="J5" s="441"/>
+      <c r="K5" s="441"/>
+      <c r="L5" s="441"/>
+      <c r="M5" s="441"/>
+      <c r="N5" s="441"/>
+      <c r="O5" s="441"/>
+      <c r="P5" s="441"/>
+      <c r="Q5" s="441"/>
+      <c r="R5" s="441"/>
+      <c r="S5" s="441"/>
+      <c r="T5" s="441"/>
+      <c r="U5" s="441"/>
+      <c r="V5" s="441"/>
+      <c r="W5" s="441"/>
+      <c r="X5" s="441"/>
+      <c r="Y5" s="441"/>
+      <c r="Z5" s="441"/>
+      <c r="AA5" s="442"/>
+      <c r="AB5" s="456" t="s">
         <v>87</v>
       </c>
-      <c r="AC5" s="454"/>
-      <c r="AD5" s="454"/>
-      <c r="AE5" s="454"/>
-      <c r="AF5" s="454"/>
-      <c r="AG5" s="455"/>
+      <c r="AC5" s="457"/>
+      <c r="AD5" s="457"/>
+      <c r="AE5" s="457"/>
+      <c r="AF5" s="457"/>
+      <c r="AG5" s="458"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="437"/>
-      <c r="B6" s="438"/>
-      <c r="C6" s="438"/>
-      <c r="D6" s="438"/>
-      <c r="E6" s="438"/>
-      <c r="F6" s="438"/>
-      <c r="G6" s="438"/>
-      <c r="H6" s="438"/>
-      <c r="I6" s="438"/>
-      <c r="J6" s="438"/>
-      <c r="K6" s="438"/>
-      <c r="L6" s="438"/>
-      <c r="M6" s="438"/>
-      <c r="N6" s="438"/>
-      <c r="O6" s="438"/>
-      <c r="P6" s="438"/>
-      <c r="Q6" s="438"/>
-      <c r="R6" s="438"/>
-      <c r="S6" s="438"/>
-      <c r="T6" s="438"/>
-      <c r="U6" s="438"/>
-      <c r="V6" s="438"/>
-      <c r="W6" s="438"/>
-      <c r="X6" s="438"/>
-      <c r="Y6" s="438"/>
-      <c r="Z6" s="438"/>
-      <c r="AA6" s="439"/>
-      <c r="AB6" s="456" t="s">
+      <c r="A6" s="440"/>
+      <c r="B6" s="441"/>
+      <c r="C6" s="441"/>
+      <c r="D6" s="441"/>
+      <c r="E6" s="441"/>
+      <c r="F6" s="441"/>
+      <c r="G6" s="441"/>
+      <c r="H6" s="441"/>
+      <c r="I6" s="441"/>
+      <c r="J6" s="441"/>
+      <c r="K6" s="441"/>
+      <c r="L6" s="441"/>
+      <c r="M6" s="441"/>
+      <c r="N6" s="441"/>
+      <c r="O6" s="441"/>
+      <c r="P6" s="441"/>
+      <c r="Q6" s="441"/>
+      <c r="R6" s="441"/>
+      <c r="S6" s="441"/>
+      <c r="T6" s="441"/>
+      <c r="U6" s="441"/>
+      <c r="V6" s="441"/>
+      <c r="W6" s="441"/>
+      <c r="X6" s="441"/>
+      <c r="Y6" s="441"/>
+      <c r="Z6" s="441"/>
+      <c r="AA6" s="442"/>
+      <c r="AB6" s="459" t="s">
         <v>88</v>
       </c>
-      <c r="AC6" s="457"/>
-      <c r="AD6" s="457"/>
-      <c r="AE6" s="457"/>
-      <c r="AF6" s="457"/>
-      <c r="AG6" s="458"/>
+      <c r="AC6" s="460"/>
+      <c r="AD6" s="460"/>
+      <c r="AE6" s="460"/>
+      <c r="AF6" s="460"/>
+      <c r="AG6" s="461"/>
     </row>
     <row r="7" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="440"/>
-      <c r="B7" s="441"/>
-      <c r="C7" s="441"/>
-      <c r="D7" s="441"/>
-      <c r="E7" s="441"/>
-      <c r="F7" s="441"/>
-      <c r="G7" s="441"/>
-      <c r="H7" s="441"/>
-      <c r="I7" s="441"/>
-      <c r="J7" s="441"/>
-      <c r="K7" s="441"/>
-      <c r="L7" s="441"/>
-      <c r="M7" s="441"/>
-      <c r="N7" s="441"/>
-      <c r="O7" s="441"/>
-      <c r="P7" s="441"/>
-      <c r="Q7" s="441"/>
-      <c r="R7" s="441"/>
-      <c r="S7" s="441"/>
-      <c r="T7" s="441"/>
-      <c r="U7" s="441"/>
-      <c r="V7" s="441"/>
-      <c r="W7" s="441"/>
-      <c r="X7" s="441"/>
-      <c r="Y7" s="441"/>
-      <c r="Z7" s="441"/>
-      <c r="AA7" s="442"/>
-      <c r="AB7" s="459"/>
-      <c r="AC7" s="459"/>
-      <c r="AD7" s="459"/>
-      <c r="AE7" s="459"/>
-      <c r="AF7" s="459"/>
-      <c r="AG7" s="460"/>
+      <c r="A7" s="443"/>
+      <c r="B7" s="444"/>
+      <c r="C7" s="444"/>
+      <c r="D7" s="444"/>
+      <c r="E7" s="444"/>
+      <c r="F7" s="444"/>
+      <c r="G7" s="444"/>
+      <c r="H7" s="444"/>
+      <c r="I7" s="444"/>
+      <c r="J7" s="444"/>
+      <c r="K7" s="444"/>
+      <c r="L7" s="444"/>
+      <c r="M7" s="444"/>
+      <c r="N7" s="444"/>
+      <c r="O7" s="444"/>
+      <c r="P7" s="444"/>
+      <c r="Q7" s="444"/>
+      <c r="R7" s="444"/>
+      <c r="S7" s="444"/>
+      <c r="T7" s="444"/>
+      <c r="U7" s="444"/>
+      <c r="V7" s="444"/>
+      <c r="W7" s="444"/>
+      <c r="X7" s="444"/>
+      <c r="Y7" s="444"/>
+      <c r="Z7" s="444"/>
+      <c r="AA7" s="445"/>
+      <c r="AB7" s="462"/>
+      <c r="AC7" s="462"/>
+      <c r="AD7" s="462"/>
+      <c r="AE7" s="462"/>
+      <c r="AF7" s="462"/>
+      <c r="AG7" s="463"/>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="443" t="s">
+      <c r="A8" s="446" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="444"/>
-      <c r="C8" s="445"/>
+      <c r="B8" s="447"/>
+      <c r="C8" s="448"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="452"/>
-      <c r="F8" s="344"/>
-      <c r="G8" s="344"/>
-      <c r="H8" s="344"/>
-      <c r="I8" s="344"/>
-      <c r="J8" s="344"/>
-      <c r="K8" s="344"/>
-      <c r="L8" s="344"/>
-      <c r="M8" s="344"/>
-      <c r="N8" s="344"/>
-      <c r="O8" s="344"/>
-      <c r="P8" s="344"/>
-      <c r="Q8" s="344"/>
-      <c r="R8" s="344"/>
-      <c r="S8" s="344"/>
-      <c r="T8" s="344"/>
-      <c r="U8" s="344"/>
-      <c r="V8" s="344"/>
-      <c r="W8" s="344"/>
-      <c r="X8" s="344"/>
-      <c r="Y8" s="344"/>
-      <c r="Z8" s="344"/>
-      <c r="AA8" s="344"/>
-      <c r="AB8" s="344"/>
-      <c r="AC8" s="344"/>
-      <c r="AD8" s="344"/>
-      <c r="AE8" s="344"/>
-      <c r="AF8" s="344"/>
-      <c r="AG8" s="345"/>
+      <c r="E8" s="455"/>
+      <c r="F8" s="347"/>
+      <c r="G8" s="347"/>
+      <c r="H8" s="347"/>
+      <c r="I8" s="347"/>
+      <c r="J8" s="347"/>
+      <c r="K8" s="347"/>
+      <c r="L8" s="347"/>
+      <c r="M8" s="347"/>
+      <c r="N8" s="347"/>
+      <c r="O8" s="347"/>
+      <c r="P8" s="347"/>
+      <c r="Q8" s="347"/>
+      <c r="R8" s="347"/>
+      <c r="S8" s="347"/>
+      <c r="T8" s="347"/>
+      <c r="U8" s="347"/>
+      <c r="V8" s="347"/>
+      <c r="W8" s="347"/>
+      <c r="X8" s="347"/>
+      <c r="Y8" s="347"/>
+      <c r="Z8" s="347"/>
+      <c r="AA8" s="347"/>
+      <c r="AB8" s="347"/>
+      <c r="AC8" s="347"/>
+      <c r="AD8" s="347"/>
+      <c r="AE8" s="347"/>
+      <c r="AF8" s="347"/>
+      <c r="AG8" s="348"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="446"/>
-      <c r="B9" s="447"/>
-      <c r="C9" s="448"/>
+      <c r="A9" s="449"/>
+      <c r="B9" s="450"/>
+      <c r="C9" s="451"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
@@ -4537,26 +4559,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="449"/>
-      <c r="B10" s="450"/>
-      <c r="C10" s="451"/>
+      <c r="A10" s="452"/>
+      <c r="B10" s="453"/>
+      <c r="C10" s="454"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="339"/>
-      <c r="K10" s="339"/>
-      <c r="L10" s="339"/>
-      <c r="M10" s="339"/>
+      <c r="J10" s="342"/>
+      <c r="K10" s="342"/>
+      <c r="L10" s="342"/>
+      <c r="M10" s="342"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="339"/>
-      <c r="P10" s="339"/>
-      <c r="Q10" s="339"/>
-      <c r="R10" s="339"/>
-      <c r="S10" s="337"/>
-      <c r="T10" s="337"/>
+      <c r="O10" s="342"/>
+      <c r="P10" s="342"/>
+      <c r="Q10" s="342"/>
+      <c r="R10" s="342"/>
+      <c r="S10" s="340"/>
+      <c r="T10" s="340"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -4573,110 +4595,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="443" t="s">
+      <c r="A11" s="446" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="444"/>
-      <c r="C11" s="445"/>
+      <c r="B11" s="447"/>
+      <c r="C11" s="448"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="461" t="str">
+      <c r="E11" s="464" t="str">
         <f>ORS!D6</f>
         <v>MAYBELLINE M. MONTEIRO</v>
       </c>
-      <c r="F11" s="444"/>
-      <c r="G11" s="444"/>
-      <c r="H11" s="444"/>
-      <c r="I11" s="444"/>
-      <c r="J11" s="444"/>
-      <c r="K11" s="444"/>
-      <c r="L11" s="444"/>
-      <c r="M11" s="444"/>
-      <c r="N11" s="444"/>
-      <c r="O11" s="444"/>
-      <c r="P11" s="444"/>
-      <c r="Q11" s="444"/>
-      <c r="R11" s="444"/>
-      <c r="S11" s="463" t="s">
+      <c r="F11" s="447"/>
+      <c r="G11" s="447"/>
+      <c r="H11" s="447"/>
+      <c r="I11" s="447"/>
+      <c r="J11" s="447"/>
+      <c r="K11" s="447"/>
+      <c r="L11" s="447"/>
+      <c r="M11" s="447"/>
+      <c r="N11" s="447"/>
+      <c r="O11" s="447"/>
+      <c r="P11" s="447"/>
+      <c r="Q11" s="447"/>
+      <c r="R11" s="447"/>
+      <c r="S11" s="466" t="s">
         <v>95</v>
       </c>
-      <c r="T11" s="464"/>
-      <c r="U11" s="464"/>
-      <c r="V11" s="464"/>
-      <c r="W11" s="464"/>
-      <c r="X11" s="464"/>
-      <c r="Y11" s="464"/>
-      <c r="Z11" s="464"/>
-      <c r="AA11" s="465"/>
-      <c r="AB11" s="466" t="s">
+      <c r="T11" s="467"/>
+      <c r="U11" s="467"/>
+      <c r="V11" s="467"/>
+      <c r="W11" s="467"/>
+      <c r="X11" s="467"/>
+      <c r="Y11" s="467"/>
+      <c r="Z11" s="467"/>
+      <c r="AA11" s="468"/>
+      <c r="AB11" s="469" t="s">
         <v>96</v>
       </c>
-      <c r="AC11" s="466"/>
-      <c r="AD11" s="466"/>
-      <c r="AE11" s="466"/>
-      <c r="AF11" s="466"/>
-      <c r="AG11" s="467"/>
+      <c r="AC11" s="469"/>
+      <c r="AD11" s="469"/>
+      <c r="AE11" s="469"/>
+      <c r="AF11" s="469"/>
+      <c r="AG11" s="470"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="446"/>
-      <c r="B12" s="447"/>
-      <c r="C12" s="448"/>
+      <c r="A12" s="449"/>
+      <c r="B12" s="450"/>
+      <c r="C12" s="451"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="462"/>
-      <c r="F12" s="447"/>
-      <c r="G12" s="447"/>
-      <c r="H12" s="447"/>
-      <c r="I12" s="447"/>
-      <c r="J12" s="447"/>
-      <c r="K12" s="447"/>
-      <c r="L12" s="447"/>
-      <c r="M12" s="447"/>
-      <c r="N12" s="447"/>
-      <c r="O12" s="447"/>
-      <c r="P12" s="447"/>
-      <c r="Q12" s="447"/>
-      <c r="R12" s="447"/>
-      <c r="S12" s="468"/>
-      <c r="T12" s="469"/>
-      <c r="U12" s="469"/>
-      <c r="V12" s="469"/>
-      <c r="W12" s="469"/>
-      <c r="X12" s="469"/>
-      <c r="Y12" s="469"/>
-      <c r="Z12" s="469"/>
-      <c r="AA12" s="470"/>
-      <c r="AB12" s="337"/>
-      <c r="AC12" s="337"/>
-      <c r="AD12" s="337"/>
-      <c r="AE12" s="337"/>
-      <c r="AF12" s="337"/>
-      <c r="AG12" s="338"/>
+      <c r="E12" s="465"/>
+      <c r="F12" s="450"/>
+      <c r="G12" s="450"/>
+      <c r="H12" s="450"/>
+      <c r="I12" s="450"/>
+      <c r="J12" s="450"/>
+      <c r="K12" s="450"/>
+      <c r="L12" s="450"/>
+      <c r="M12" s="450"/>
+      <c r="N12" s="450"/>
+      <c r="O12" s="450"/>
+      <c r="P12" s="450"/>
+      <c r="Q12" s="450"/>
+      <c r="R12" s="450"/>
+      <c r="S12" s="471"/>
+      <c r="T12" s="472"/>
+      <c r="U12" s="472"/>
+      <c r="V12" s="472"/>
+      <c r="W12" s="472"/>
+      <c r="X12" s="472"/>
+      <c r="Y12" s="472"/>
+      <c r="Z12" s="472"/>
+      <c r="AA12" s="473"/>
+      <c r="AB12" s="340"/>
+      <c r="AC12" s="340"/>
+      <c r="AD12" s="340"/>
+      <c r="AE12" s="340"/>
+      <c r="AF12" s="340"/>
+      <c r="AG12" s="341"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="425" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="426"/>
-      <c r="C13" s="427"/>
+      <c r="A13" s="428" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="429"/>
+      <c r="C13" s="430"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="431" t="e">
+      <c r="E13" s="434" t="e">
         <f>ORS!D10</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="426"/>
-      <c r="G13" s="426"/>
-      <c r="H13" s="426"/>
-      <c r="I13" s="426"/>
-      <c r="J13" s="426"/>
-      <c r="K13" s="426"/>
-      <c r="L13" s="426"/>
-      <c r="M13" s="426"/>
-      <c r="N13" s="426"/>
-      <c r="O13" s="426"/>
-      <c r="P13" s="426"/>
-      <c r="Q13" s="426"/>
-      <c r="R13" s="426"/>
+      <c r="F13" s="429"/>
+      <c r="G13" s="429"/>
+      <c r="H13" s="429"/>
+      <c r="I13" s="429"/>
+      <c r="J13" s="429"/>
+      <c r="K13" s="429"/>
+      <c r="L13" s="429"/>
+      <c r="M13" s="429"/>
+      <c r="N13" s="429"/>
+      <c r="O13" s="429"/>
+      <c r="P13" s="429"/>
+      <c r="Q13" s="429"/>
+      <c r="R13" s="429"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -4695,24 +4717,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="428"/>
-      <c r="B14" s="429"/>
-      <c r="C14" s="430"/>
+      <c r="A14" s="431"/>
+      <c r="B14" s="432"/>
+      <c r="C14" s="433"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="432"/>
-      <c r="F14" s="429"/>
-      <c r="G14" s="429"/>
-      <c r="H14" s="429"/>
-      <c r="I14" s="429"/>
-      <c r="J14" s="429"/>
-      <c r="K14" s="429"/>
-      <c r="L14" s="429"/>
-      <c r="M14" s="429"/>
-      <c r="N14" s="429"/>
-      <c r="O14" s="429"/>
-      <c r="P14" s="429"/>
-      <c r="Q14" s="429"/>
-      <c r="R14" s="429"/>
+      <c r="E14" s="435"/>
+      <c r="F14" s="432"/>
+      <c r="G14" s="432"/>
+      <c r="H14" s="432"/>
+      <c r="I14" s="432"/>
+      <c r="J14" s="432"/>
+      <c r="K14" s="432"/>
+      <c r="L14" s="432"/>
+      <c r="M14" s="432"/>
+      <c r="N14" s="432"/>
+      <c r="O14" s="432"/>
+      <c r="P14" s="432"/>
+      <c r="Q14" s="432"/>
+      <c r="R14" s="432"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -4731,47 +4753,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:34" s="103" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="433" t="s">
+      <c r="A15" s="436" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="396"/>
+      <c r="C15" s="396"/>
+      <c r="D15" s="396"/>
+      <c r="E15" s="396"/>
+      <c r="F15" s="396"/>
+      <c r="G15" s="396"/>
+      <c r="H15" s="396"/>
+      <c r="I15" s="396"/>
+      <c r="J15" s="396"/>
+      <c r="K15" s="396"/>
+      <c r="L15" s="396"/>
+      <c r="M15" s="396"/>
+      <c r="N15" s="396"/>
+      <c r="O15" s="396"/>
+      <c r="P15" s="396"/>
+      <c r="Q15" s="437"/>
+      <c r="R15" s="395" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="438"/>
+      <c r="T15" s="438"/>
+      <c r="U15" s="438"/>
+      <c r="V15" s="439"/>
+      <c r="W15" s="395" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="393"/>
-      <c r="C15" s="393"/>
-      <c r="D15" s="393"/>
-      <c r="E15" s="393"/>
-      <c r="F15" s="393"/>
-      <c r="G15" s="393"/>
-      <c r="H15" s="393"/>
-      <c r="I15" s="393"/>
-      <c r="J15" s="393"/>
-      <c r="K15" s="393"/>
-      <c r="L15" s="393"/>
-      <c r="M15" s="393"/>
-      <c r="N15" s="393"/>
-      <c r="O15" s="393"/>
-      <c r="P15" s="393"/>
-      <c r="Q15" s="434"/>
-      <c r="R15" s="392" t="s">
-        <v>40</v>
-      </c>
-      <c r="S15" s="435"/>
-      <c r="T15" s="435"/>
-      <c r="U15" s="435"/>
-      <c r="V15" s="436"/>
-      <c r="W15" s="392" t="s">
-        <v>42</v>
-      </c>
-      <c r="X15" s="393"/>
-      <c r="Y15" s="393"/>
-      <c r="Z15" s="393"/>
-      <c r="AA15" s="434"/>
-      <c r="AB15" s="392" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC15" s="393"/>
-      <c r="AD15" s="393"/>
-      <c r="AE15" s="393"/>
-      <c r="AF15" s="393"/>
-      <c r="AG15" s="394"/>
+      <c r="X15" s="396"/>
+      <c r="Y15" s="396"/>
+      <c r="Z15" s="396"/>
+      <c r="AA15" s="437"/>
+      <c r="AB15" s="395" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC15" s="396"/>
+      <c r="AD15" s="396"/>
+      <c r="AE15" s="396"/>
+      <c r="AF15" s="396"/>
+      <c r="AG15" s="397"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4812,23 +4834,23 @@
     </row>
     <row r="17" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
-      <c r="B17" s="214" t="s">
+      <c r="B17" s="218" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="214"/>
-      <c r="D17" s="214"/>
-      <c r="E17" s="214"/>
-      <c r="F17" s="214"/>
-      <c r="G17" s="214"/>
-      <c r="H17" s="214"/>
-      <c r="I17" s="214"/>
-      <c r="J17" s="214"/>
-      <c r="K17" s="214"/>
-      <c r="L17" s="214"/>
-      <c r="M17" s="214"/>
-      <c r="N17" s="214"/>
-      <c r="O17" s="214"/>
-      <c r="P17" s="214"/>
+      <c r="C17" s="218"/>
+      <c r="D17" s="218"/>
+      <c r="E17" s="218"/>
+      <c r="F17" s="218"/>
+      <c r="G17" s="218"/>
+      <c r="H17" s="218"/>
+      <c r="I17" s="218"/>
+      <c r="J17" s="218"/>
+      <c r="K17" s="218"/>
+      <c r="L17" s="218"/>
+      <c r="M17" s="218"/>
+      <c r="N17" s="218"/>
+      <c r="O17" s="218"/>
+      <c r="P17" s="218"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -4840,34 +4862,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="411">
+      <c r="AB17" s="414">
         <f>ORS!L15</f>
         <v>4981</v>
       </c>
-      <c r="AC17" s="412"/>
-      <c r="AD17" s="412"/>
-      <c r="AE17" s="412"/>
-      <c r="AF17" s="412"/>
-      <c r="AG17" s="413"/>
+      <c r="AC17" s="415"/>
+      <c r="AD17" s="415"/>
+      <c r="AE17" s="415"/>
+      <c r="AF17" s="415"/>
+      <c r="AG17" s="416"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
-      <c r="B18" s="214"/>
-      <c r="C18" s="214"/>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
-      <c r="H18" s="214"/>
-      <c r="I18" s="214"/>
-      <c r="J18" s="214"/>
-      <c r="K18" s="214"/>
-      <c r="L18" s="214"/>
-      <c r="M18" s="214"/>
-      <c r="N18" s="214"/>
-      <c r="O18" s="214"/>
-      <c r="P18" s="214"/>
+      <c r="B18" s="218"/>
+      <c r="C18" s="218"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="218"/>
+      <c r="F18" s="218"/>
+      <c r="G18" s="218"/>
+      <c r="H18" s="218"/>
+      <c r="I18" s="218"/>
+      <c r="J18" s="218"/>
+      <c r="K18" s="218"/>
+      <c r="L18" s="218"/>
+      <c r="M18" s="218"/>
+      <c r="N18" s="218"/>
+      <c r="O18" s="218"/>
+      <c r="P18" s="218"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -4889,21 +4911,21 @@
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
-      <c r="B19" s="214"/>
-      <c r="C19" s="214"/>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
-      <c r="H19" s="214"/>
-      <c r="I19" s="214"/>
-      <c r="J19" s="214"/>
-      <c r="K19" s="214"/>
-      <c r="L19" s="214"/>
-      <c r="M19" s="214"/>
-      <c r="N19" s="214"/>
-      <c r="O19" s="214"/>
-      <c r="P19" s="214"/>
+      <c r="B19" s="218"/>
+      <c r="C19" s="218"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="218"/>
+      <c r="F19" s="218"/>
+      <c r="G19" s="218"/>
+      <c r="H19" s="218"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="218"/>
+      <c r="K19" s="218"/>
+      <c r="L19" s="218"/>
+      <c r="M19" s="218"/>
+      <c r="N19" s="218"/>
+      <c r="O19" s="218"/>
+      <c r="P19" s="218"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -5262,25 +5284,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:35" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="414" t="s">
+      <c r="A29" s="417" t="s">
         <v>105</v>
       </c>
-      <c r="B29" s="415"/>
-      <c r="C29" s="415"/>
-      <c r="D29" s="415"/>
-      <c r="E29" s="415"/>
-      <c r="F29" s="415"/>
-      <c r="G29" s="415"/>
-      <c r="H29" s="415"/>
-      <c r="I29" s="415"/>
-      <c r="J29" s="415"/>
-      <c r="K29" s="415"/>
-      <c r="L29" s="415"/>
-      <c r="M29" s="415"/>
-      <c r="N29" s="415"/>
-      <c r="O29" s="415"/>
-      <c r="P29" s="415"/>
-      <c r="Q29" s="416"/>
+      <c r="B29" s="418"/>
+      <c r="C29" s="418"/>
+      <c r="D29" s="418"/>
+      <c r="E29" s="418"/>
+      <c r="F29" s="418"/>
+      <c r="G29" s="418"/>
+      <c r="H29" s="418"/>
+      <c r="I29" s="418"/>
+      <c r="J29" s="418"/>
+      <c r="K29" s="418"/>
+      <c r="L29" s="418"/>
+      <c r="M29" s="418"/>
+      <c r="N29" s="418"/>
+      <c r="O29" s="418"/>
+      <c r="P29" s="418"/>
+      <c r="Q29" s="419"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5291,56 +5313,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="417">
+      <c r="AB29" s="420">
         <f>AB17</f>
         <v>4981</v>
       </c>
-      <c r="AC29" s="418"/>
-      <c r="AD29" s="418"/>
-      <c r="AE29" s="418"/>
-      <c r="AF29" s="418"/>
-      <c r="AG29" s="419"/>
+      <c r="AC29" s="421"/>
+      <c r="AD29" s="421"/>
+      <c r="AE29" s="421"/>
+      <c r="AF29" s="421"/>
+      <c r="AG29" s="422"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:35" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="B30" s="420" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="423" t="s">
         <v>106</v>
       </c>
-      <c r="C30" s="420"/>
-      <c r="D30" s="420"/>
-      <c r="E30" s="420"/>
-      <c r="F30" s="420"/>
-      <c r="G30" s="420"/>
-      <c r="H30" s="420"/>
-      <c r="I30" s="420"/>
-      <c r="J30" s="420"/>
-      <c r="K30" s="420"/>
-      <c r="L30" s="420"/>
-      <c r="M30" s="420"/>
-      <c r="N30" s="420"/>
-      <c r="O30" s="420"/>
-      <c r="P30" s="420"/>
-      <c r="Q30" s="420"/>
-      <c r="R30" s="420"/>
-      <c r="S30" s="420"/>
-      <c r="T30" s="420"/>
-      <c r="U30" s="420"/>
-      <c r="V30" s="420"/>
-      <c r="W30" s="420"/>
-      <c r="X30" s="420"/>
-      <c r="Y30" s="420"/>
-      <c r="Z30" s="420"/>
-      <c r="AA30" s="420"/>
-      <c r="AB30" s="421"/>
-      <c r="AC30" s="421"/>
-      <c r="AD30" s="421"/>
-      <c r="AE30" s="421"/>
-      <c r="AF30" s="421"/>
-      <c r="AG30" s="422"/>
+      <c r="C30" s="423"/>
+      <c r="D30" s="423"/>
+      <c r="E30" s="423"/>
+      <c r="F30" s="423"/>
+      <c r="G30" s="423"/>
+      <c r="H30" s="423"/>
+      <c r="I30" s="423"/>
+      <c r="J30" s="423"/>
+      <c r="K30" s="423"/>
+      <c r="L30" s="423"/>
+      <c r="M30" s="423"/>
+      <c r="N30" s="423"/>
+      <c r="O30" s="423"/>
+      <c r="P30" s="423"/>
+      <c r="Q30" s="423"/>
+      <c r="R30" s="423"/>
+      <c r="S30" s="423"/>
+      <c r="T30" s="423"/>
+      <c r="U30" s="423"/>
+      <c r="V30" s="423"/>
+      <c r="W30" s="423"/>
+      <c r="X30" s="423"/>
+      <c r="Y30" s="423"/>
+      <c r="Z30" s="423"/>
+      <c r="AA30" s="423"/>
+      <c r="AB30" s="424"/>
+      <c r="AC30" s="424"/>
+      <c r="AD30" s="424"/>
+      <c r="AE30" s="424"/>
+      <c r="AF30" s="424"/>
+      <c r="AG30" s="425"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5385,80 +5407,80 @@
     </row>
     <row r="32" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="121"/>
-      <c r="B32" s="423" t="str">
+      <c r="B32" s="426" t="str">
         <f>ORS!C37</f>
         <v>DR. CARINA S. CRUZ</v>
       </c>
-      <c r="C32" s="412"/>
-      <c r="D32" s="412"/>
-      <c r="E32" s="412"/>
-      <c r="F32" s="412"/>
-      <c r="G32" s="412"/>
-      <c r="H32" s="412"/>
-      <c r="I32" s="412"/>
-      <c r="J32" s="412"/>
-      <c r="K32" s="412"/>
-      <c r="L32" s="412"/>
-      <c r="M32" s="412"/>
-      <c r="N32" s="412"/>
-      <c r="O32" s="412"/>
-      <c r="P32" s="412"/>
-      <c r="Q32" s="412"/>
-      <c r="R32" s="412"/>
-      <c r="S32" s="412"/>
-      <c r="T32" s="412"/>
-      <c r="U32" s="412"/>
-      <c r="V32" s="412"/>
-      <c r="W32" s="412"/>
-      <c r="X32" s="412"/>
-      <c r="Y32" s="412"/>
-      <c r="Z32" s="412"/>
-      <c r="AA32" s="412"/>
-      <c r="AB32" s="412"/>
-      <c r="AC32" s="412"/>
-      <c r="AD32" s="412"/>
-      <c r="AE32" s="412"/>
-      <c r="AF32" s="412"/>
+      <c r="C32" s="415"/>
+      <c r="D32" s="415"/>
+      <c r="E32" s="415"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="415"/>
+      <c r="I32" s="415"/>
+      <c r="J32" s="415"/>
+      <c r="K32" s="415"/>
+      <c r="L32" s="415"/>
+      <c r="M32" s="415"/>
+      <c r="N32" s="415"/>
+      <c r="O32" s="415"/>
+      <c r="P32" s="415"/>
+      <c r="Q32" s="415"/>
+      <c r="R32" s="415"/>
+      <c r="S32" s="415"/>
+      <c r="T32" s="415"/>
+      <c r="U32" s="415"/>
+      <c r="V32" s="415"/>
+      <c r="W32" s="415"/>
+      <c r="X32" s="415"/>
+      <c r="Y32" s="415"/>
+      <c r="Z32" s="415"/>
+      <c r="AA32" s="415"/>
+      <c r="AB32" s="415"/>
+      <c r="AC32" s="415"/>
+      <c r="AD32" s="415"/>
+      <c r="AE32" s="415"/>
+      <c r="AF32" s="415"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="121"/>
-      <c r="B33" s="424" t="str">
+      <c r="B33" s="427" t="str">
         <f>ORS!C39</f>
         <v>Chief, FAD</v>
       </c>
-      <c r="C33" s="424"/>
-      <c r="D33" s="424"/>
-      <c r="E33" s="424"/>
-      <c r="F33" s="424"/>
-      <c r="G33" s="424"/>
-      <c r="H33" s="424"/>
-      <c r="I33" s="424"/>
-      <c r="J33" s="424"/>
-      <c r="K33" s="424"/>
-      <c r="L33" s="424"/>
-      <c r="M33" s="424"/>
-      <c r="N33" s="424"/>
-      <c r="O33" s="424"/>
-      <c r="P33" s="424"/>
-      <c r="Q33" s="424"/>
-      <c r="R33" s="424"/>
-      <c r="S33" s="424"/>
-      <c r="T33" s="424"/>
-      <c r="U33" s="424"/>
-      <c r="V33" s="424"/>
-      <c r="W33" s="424"/>
-      <c r="X33" s="424"/>
-      <c r="Y33" s="424"/>
-      <c r="Z33" s="424"/>
-      <c r="AA33" s="424"/>
-      <c r="AB33" s="424"/>
-      <c r="AC33" s="424"/>
-      <c r="AD33" s="424"/>
-      <c r="AE33" s="424"/>
-      <c r="AF33" s="424"/>
+      <c r="C33" s="427"/>
+      <c r="D33" s="427"/>
+      <c r="E33" s="427"/>
+      <c r="F33" s="427"/>
+      <c r="G33" s="427"/>
+      <c r="H33" s="427"/>
+      <c r="I33" s="427"/>
+      <c r="J33" s="427"/>
+      <c r="K33" s="427"/>
+      <c r="L33" s="427"/>
+      <c r="M33" s="427"/>
+      <c r="N33" s="427"/>
+      <c r="O33" s="427"/>
+      <c r="P33" s="427"/>
+      <c r="Q33" s="427"/>
+      <c r="R33" s="427"/>
+      <c r="S33" s="427"/>
+      <c r="T33" s="427"/>
+      <c r="U33" s="427"/>
+      <c r="V33" s="427"/>
+      <c r="W33" s="427"/>
+      <c r="X33" s="427"/>
+      <c r="Y33" s="427"/>
+      <c r="Z33" s="427"/>
+      <c r="AA33" s="427"/>
+      <c r="AB33" s="427"/>
+      <c r="AC33" s="427"/>
+      <c r="AD33" s="427"/>
+      <c r="AE33" s="427"/>
+      <c r="AF33" s="427"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5475,19 +5497,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="424"/>
-      <c r="M34" s="424"/>
-      <c r="N34" s="424"/>
-      <c r="O34" s="424"/>
-      <c r="P34" s="424"/>
-      <c r="Q34" s="424"/>
-      <c r="R34" s="424"/>
-      <c r="S34" s="424"/>
-      <c r="T34" s="424"/>
-      <c r="U34" s="424"/>
-      <c r="V34" s="424"/>
-      <c r="W34" s="424"/>
-      <c r="X34" s="424"/>
+      <c r="L34" s="427"/>
+      <c r="M34" s="427"/>
+      <c r="N34" s="427"/>
+      <c r="O34" s="427"/>
+      <c r="P34" s="427"/>
+      <c r="Q34" s="427"/>
+      <c r="R34" s="427"/>
+      <c r="S34" s="427"/>
+      <c r="T34" s="427"/>
+      <c r="U34" s="427"/>
+      <c r="V34" s="427"/>
+      <c r="W34" s="427"/>
+      <c r="X34" s="427"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -5512,19 +5534,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="424"/>
-      <c r="M35" s="424"/>
-      <c r="N35" s="424"/>
-      <c r="O35" s="424"/>
-      <c r="P35" s="424"/>
-      <c r="Q35" s="424"/>
-      <c r="R35" s="424"/>
-      <c r="S35" s="424"/>
-      <c r="T35" s="424"/>
-      <c r="U35" s="424"/>
-      <c r="V35" s="424"/>
-      <c r="W35" s="424"/>
-      <c r="X35" s="424"/>
+      <c r="L35" s="427"/>
+      <c r="M35" s="427"/>
+      <c r="N35" s="427"/>
+      <c r="O35" s="427"/>
+      <c r="P35" s="427"/>
+      <c r="Q35" s="427"/>
+      <c r="R35" s="427"/>
+      <c r="S35" s="427"/>
+      <c r="T35" s="427"/>
+      <c r="U35" s="427"/>
+      <c r="V35" s="427"/>
+      <c r="W35" s="427"/>
+      <c r="X35" s="427"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -5539,7 +5561,7 @@
     </row>
     <row r="36" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="128" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" s="129" t="s">
         <v>108</v>
@@ -5579,47 +5601,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="406" t="s">
+      <c r="A37" s="409" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="407"/>
-      <c r="C37" s="407"/>
-      <c r="D37" s="407"/>
-      <c r="E37" s="407"/>
-      <c r="F37" s="407"/>
-      <c r="G37" s="407"/>
-      <c r="H37" s="407"/>
-      <c r="I37" s="407"/>
-      <c r="J37" s="407"/>
-      <c r="K37" s="407"/>
-      <c r="L37" s="407"/>
-      <c r="M37" s="407"/>
-      <c r="N37" s="407"/>
-      <c r="O37" s="407"/>
-      <c r="P37" s="407"/>
-      <c r="Q37" s="407"/>
-      <c r="R37" s="407"/>
-      <c r="S37" s="407" t="s">
+      <c r="B37" s="410"/>
+      <c r="C37" s="410"/>
+      <c r="D37" s="410"/>
+      <c r="E37" s="410"/>
+      <c r="F37" s="410"/>
+      <c r="G37" s="410"/>
+      <c r="H37" s="410"/>
+      <c r="I37" s="410"/>
+      <c r="J37" s="410"/>
+      <c r="K37" s="410"/>
+      <c r="L37" s="410"/>
+      <c r="M37" s="410"/>
+      <c r="N37" s="410"/>
+      <c r="O37" s="410"/>
+      <c r="P37" s="410"/>
+      <c r="Q37" s="410"/>
+      <c r="R37" s="410"/>
+      <c r="S37" s="410" t="s">
         <v>110</v>
       </c>
-      <c r="T37" s="407"/>
-      <c r="U37" s="407"/>
-      <c r="V37" s="407"/>
-      <c r="W37" s="407"/>
-      <c r="X37" s="408" t="s">
+      <c r="T37" s="410"/>
+      <c r="U37" s="410"/>
+      <c r="V37" s="410"/>
+      <c r="W37" s="410"/>
+      <c r="X37" s="411" t="s">
         <v>111</v>
       </c>
-      <c r="Y37" s="408"/>
-      <c r="Z37" s="408"/>
-      <c r="AA37" s="408"/>
-      <c r="AB37" s="408"/>
-      <c r="AC37" s="409" t="s">
+      <c r="Y37" s="411"/>
+      <c r="Z37" s="411"/>
+      <c r="AA37" s="411"/>
+      <c r="AB37" s="411"/>
+      <c r="AC37" s="412" t="s">
         <v>112</v>
       </c>
-      <c r="AD37" s="409"/>
-      <c r="AE37" s="409"/>
-      <c r="AF37" s="409"/>
-      <c r="AG37" s="410"/>
+      <c r="AD37" s="412"/>
+      <c r="AE37" s="412"/>
+      <c r="AF37" s="412"/>
+      <c r="AG37" s="413"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -5739,7 +5761,7 @@
         <v>69</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -5760,19 +5782,19 @@
       <c r="S41" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="T41" s="395" t="s">
+      <c r="T41" s="398" t="s">
         <v>115</v>
       </c>
-      <c r="U41" s="395"/>
-      <c r="V41" s="395"/>
-      <c r="W41" s="395"/>
-      <c r="X41" s="395"/>
-      <c r="Y41" s="395"/>
-      <c r="Z41" s="395"/>
-      <c r="AA41" s="395"/>
-      <c r="AB41" s="395"/>
-      <c r="AC41" s="395"/>
-      <c r="AD41" s="395"/>
+      <c r="U41" s="398"/>
+      <c r="V41" s="398"/>
+      <c r="W41" s="398"/>
+      <c r="X41" s="398"/>
+      <c r="Y41" s="398"/>
+      <c r="Z41" s="398"/>
+      <c r="AA41" s="398"/>
+      <c r="AB41" s="398"/>
+      <c r="AC41" s="398"/>
+      <c r="AD41" s="398"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -5799,31 +5821,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="396"/>
-      <c r="T42" s="397"/>
-      <c r="U42" s="397"/>
-      <c r="V42" s="397"/>
-      <c r="W42" s="397"/>
-      <c r="X42" s="397"/>
-      <c r="Y42" s="397"/>
-      <c r="Z42" s="397"/>
-      <c r="AA42" s="397"/>
-      <c r="AB42" s="397"/>
-      <c r="AC42" s="397"/>
-      <c r="AD42" s="397"/>
-      <c r="AE42" s="397"/>
-      <c r="AF42" s="397"/>
-      <c r="AG42" s="398"/>
+      <c r="S42" s="399"/>
+      <c r="T42" s="400"/>
+      <c r="U42" s="400"/>
+      <c r="V42" s="400"/>
+      <c r="W42" s="400"/>
+      <c r="X42" s="400"/>
+      <c r="Y42" s="400"/>
+      <c r="Z42" s="400"/>
+      <c r="AA42" s="400"/>
+      <c r="AB42" s="400"/>
+      <c r="AC42" s="400"/>
+      <c r="AD42" s="400"/>
+      <c r="AE42" s="400"/>
+      <c r="AF42" s="400"/>
+      <c r="AG42" s="401"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:35" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="405"/>
-      <c r="B43" s="337"/>
-      <c r="C43" s="337"/>
-      <c r="D43" s="337"/>
-      <c r="E43" s="337"/>
-      <c r="F43" s="337"/>
-      <c r="G43" s="337"/>
+      <c r="A43" s="408"/>
+      <c r="B43" s="340"/>
+      <c r="C43" s="340"/>
+      <c r="D43" s="340"/>
+      <c r="E43" s="340"/>
+      <c r="F43" s="340"/>
+      <c r="G43" s="340"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -5835,21 +5857,21 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="399"/>
-      <c r="T43" s="400"/>
-      <c r="U43" s="400"/>
-      <c r="V43" s="400"/>
-      <c r="W43" s="400"/>
-      <c r="X43" s="400"/>
-      <c r="Y43" s="400"/>
-      <c r="Z43" s="400"/>
-      <c r="AA43" s="400"/>
-      <c r="AB43" s="400"/>
-      <c r="AC43" s="400"/>
-      <c r="AD43" s="400"/>
-      <c r="AE43" s="400"/>
-      <c r="AF43" s="400"/>
-      <c r="AG43" s="401"/>
+      <c r="S43" s="402"/>
+      <c r="T43" s="403"/>
+      <c r="U43" s="403"/>
+      <c r="V43" s="403"/>
+      <c r="W43" s="403"/>
+      <c r="X43" s="403"/>
+      <c r="Y43" s="403"/>
+      <c r="Z43" s="403"/>
+      <c r="AA43" s="403"/>
+      <c r="AB43" s="403"/>
+      <c r="AC43" s="403"/>
+      <c r="AD43" s="403"/>
+      <c r="AE43" s="403"/>
+      <c r="AF43" s="403"/>
+      <c r="AG43" s="404"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5873,57 +5895,57 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="399"/>
-      <c r="T44" s="400"/>
-      <c r="U44" s="400"/>
-      <c r="V44" s="400"/>
-      <c r="W44" s="400"/>
-      <c r="X44" s="400"/>
-      <c r="Y44" s="400"/>
-      <c r="Z44" s="400"/>
-      <c r="AA44" s="400"/>
-      <c r="AB44" s="400"/>
-      <c r="AC44" s="400"/>
-      <c r="AD44" s="400"/>
-      <c r="AE44" s="400"/>
-      <c r="AF44" s="400"/>
-      <c r="AG44" s="401"/>
+      <c r="S44" s="402"/>
+      <c r="T44" s="403"/>
+      <c r="U44" s="403"/>
+      <c r="V44" s="403"/>
+      <c r="W44" s="403"/>
+      <c r="X44" s="403"/>
+      <c r="Y44" s="403"/>
+      <c r="Z44" s="403"/>
+      <c r="AA44" s="403"/>
+      <c r="AB44" s="403"/>
+      <c r="AC44" s="403"/>
+      <c r="AD44" s="403"/>
+      <c r="AE44" s="403"/>
+      <c r="AF44" s="403"/>
+      <c r="AG44" s="404"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:35" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="405"/>
-      <c r="B45" s="337"/>
-      <c r="C45" s="337"/>
-      <c r="D45" s="337"/>
-      <c r="E45" s="337"/>
-      <c r="F45" s="337"/>
-      <c r="G45" s="337"/>
-      <c r="H45" s="337"/>
-      <c r="I45" s="337"/>
-      <c r="J45" s="337"/>
-      <c r="K45" s="337"/>
-      <c r="L45" s="337"/>
-      <c r="M45" s="337"/>
-      <c r="N45" s="337"/>
-      <c r="O45" s="337"/>
-      <c r="P45" s="337"/>
-      <c r="Q45" s="337"/>
-      <c r="R45" s="338"/>
-      <c r="S45" s="399"/>
-      <c r="T45" s="400"/>
-      <c r="U45" s="400"/>
-      <c r="V45" s="400"/>
-      <c r="W45" s="400"/>
-      <c r="X45" s="400"/>
-      <c r="Y45" s="400"/>
-      <c r="Z45" s="400"/>
-      <c r="AA45" s="400"/>
-      <c r="AB45" s="400"/>
-      <c r="AC45" s="400"/>
-      <c r="AD45" s="400"/>
-      <c r="AE45" s="400"/>
-      <c r="AF45" s="400"/>
-      <c r="AG45" s="401"/>
+      <c r="A45" s="408"/>
+      <c r="B45" s="340"/>
+      <c r="C45" s="340"/>
+      <c r="D45" s="340"/>
+      <c r="E45" s="340"/>
+      <c r="F45" s="340"/>
+      <c r="G45" s="340"/>
+      <c r="H45" s="340"/>
+      <c r="I45" s="340"/>
+      <c r="J45" s="340"/>
+      <c r="K45" s="340"/>
+      <c r="L45" s="340"/>
+      <c r="M45" s="340"/>
+      <c r="N45" s="340"/>
+      <c r="O45" s="340"/>
+      <c r="P45" s="340"/>
+      <c r="Q45" s="340"/>
+      <c r="R45" s="341"/>
+      <c r="S45" s="402"/>
+      <c r="T45" s="403"/>
+      <c r="U45" s="403"/>
+      <c r="V45" s="403"/>
+      <c r="W45" s="403"/>
+      <c r="X45" s="403"/>
+      <c r="Y45" s="403"/>
+      <c r="Z45" s="403"/>
+      <c r="AA45" s="403"/>
+      <c r="AB45" s="403"/>
+      <c r="AC45" s="403"/>
+      <c r="AD45" s="403"/>
+      <c r="AE45" s="403"/>
+      <c r="AF45" s="403"/>
+      <c r="AG45" s="404"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,21 +5971,21 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="399"/>
-      <c r="T46" s="400"/>
-      <c r="U46" s="400"/>
-      <c r="V46" s="400"/>
-      <c r="W46" s="400"/>
-      <c r="X46" s="400"/>
-      <c r="Y46" s="400"/>
-      <c r="Z46" s="400"/>
-      <c r="AA46" s="400"/>
-      <c r="AB46" s="400"/>
-      <c r="AC46" s="400"/>
-      <c r="AD46" s="400"/>
-      <c r="AE46" s="400"/>
-      <c r="AF46" s="400"/>
-      <c r="AG46" s="401"/>
+      <c r="S46" s="402"/>
+      <c r="T46" s="403"/>
+      <c r="U46" s="403"/>
+      <c r="V46" s="403"/>
+      <c r="W46" s="403"/>
+      <c r="X46" s="403"/>
+      <c r="Y46" s="403"/>
+      <c r="Z46" s="403"/>
+      <c r="AA46" s="403"/>
+      <c r="AB46" s="403"/>
+      <c r="AC46" s="403"/>
+      <c r="AD46" s="403"/>
+      <c r="AE46" s="403"/>
+      <c r="AF46" s="403"/>
+      <c r="AG46" s="404"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5987,21 +6009,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="399"/>
-      <c r="T47" s="400"/>
-      <c r="U47" s="400"/>
-      <c r="V47" s="400"/>
-      <c r="W47" s="400"/>
-      <c r="X47" s="400"/>
-      <c r="Y47" s="400"/>
-      <c r="Z47" s="400"/>
-      <c r="AA47" s="400"/>
-      <c r="AB47" s="400"/>
-      <c r="AC47" s="400"/>
-      <c r="AD47" s="400"/>
-      <c r="AE47" s="400"/>
-      <c r="AF47" s="400"/>
-      <c r="AG47" s="401"/>
+      <c r="S47" s="402"/>
+      <c r="T47" s="403"/>
+      <c r="U47" s="403"/>
+      <c r="V47" s="403"/>
+      <c r="W47" s="403"/>
+      <c r="X47" s="403"/>
+      <c r="Y47" s="403"/>
+      <c r="Z47" s="403"/>
+      <c r="AA47" s="403"/>
+      <c r="AB47" s="403"/>
+      <c r="AC47" s="403"/>
+      <c r="AD47" s="403"/>
+      <c r="AE47" s="403"/>
+      <c r="AF47" s="403"/>
+      <c r="AG47" s="404"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:35" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6023,336 +6045,336 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="402"/>
-      <c r="T48" s="403"/>
-      <c r="U48" s="403"/>
-      <c r="V48" s="403"/>
-      <c r="W48" s="403"/>
-      <c r="X48" s="403"/>
-      <c r="Y48" s="403"/>
-      <c r="Z48" s="403"/>
-      <c r="AA48" s="403"/>
-      <c r="AB48" s="403"/>
-      <c r="AC48" s="403"/>
-      <c r="AD48" s="403"/>
-      <c r="AE48" s="403"/>
-      <c r="AF48" s="403"/>
-      <c r="AG48" s="404"/>
+      <c r="S48" s="405"/>
+      <c r="T48" s="406"/>
+      <c r="U48" s="406"/>
+      <c r="V48" s="406"/>
+      <c r="W48" s="406"/>
+      <c r="X48" s="406"/>
+      <c r="Y48" s="406"/>
+      <c r="Z48" s="406"/>
+      <c r="AA48" s="406"/>
+      <c r="AB48" s="406"/>
+      <c r="AC48" s="406"/>
+      <c r="AD48" s="406"/>
+      <c r="AE48" s="406"/>
+      <c r="AF48" s="406"/>
+      <c r="AG48" s="407"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="346" t="s">
+      <c r="A49" s="349" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="372"/>
-      <c r="C49" s="372"/>
-      <c r="D49" s="372"/>
-      <c r="E49" s="350"/>
-      <c r="F49" s="337"/>
-      <c r="G49" s="337"/>
-      <c r="H49" s="337"/>
-      <c r="I49" s="337"/>
-      <c r="J49" s="337"/>
-      <c r="K49" s="337"/>
-      <c r="L49" s="337"/>
-      <c r="M49" s="337"/>
-      <c r="N49" s="337"/>
-      <c r="O49" s="337"/>
-      <c r="P49" s="337"/>
-      <c r="Q49" s="337"/>
-      <c r="R49" s="338"/>
-      <c r="S49" s="346" t="s">
+      <c r="B49" s="375"/>
+      <c r="C49" s="375"/>
+      <c r="D49" s="375"/>
+      <c r="E49" s="353"/>
+      <c r="F49" s="340"/>
+      <c r="G49" s="340"/>
+      <c r="H49" s="340"/>
+      <c r="I49" s="340"/>
+      <c r="J49" s="340"/>
+      <c r="K49" s="340"/>
+      <c r="L49" s="340"/>
+      <c r="M49" s="340"/>
+      <c r="N49" s="340"/>
+      <c r="O49" s="340"/>
+      <c r="P49" s="340"/>
+      <c r="Q49" s="340"/>
+      <c r="R49" s="341"/>
+      <c r="S49" s="349" t="s">
         <v>120</v>
       </c>
-      <c r="T49" s="347"/>
-      <c r="U49" s="347"/>
-      <c r="V49" s="376"/>
-      <c r="W49" s="359"/>
-      <c r="X49" s="356"/>
-      <c r="Y49" s="356"/>
-      <c r="Z49" s="356"/>
-      <c r="AA49" s="356"/>
-      <c r="AB49" s="356"/>
-      <c r="AC49" s="356"/>
-      <c r="AD49" s="356"/>
-      <c r="AE49" s="356"/>
-      <c r="AF49" s="356"/>
-      <c r="AG49" s="360"/>
+      <c r="T49" s="350"/>
+      <c r="U49" s="350"/>
+      <c r="V49" s="379"/>
+      <c r="W49" s="362"/>
+      <c r="X49" s="359"/>
+      <c r="Y49" s="359"/>
+      <c r="Z49" s="359"/>
+      <c r="AA49" s="359"/>
+      <c r="AB49" s="359"/>
+      <c r="AC49" s="359"/>
+      <c r="AD49" s="359"/>
+      <c r="AE49" s="359"/>
+      <c r="AF49" s="359"/>
+      <c r="AG49" s="363"/>
       <c r="AH49" s="8"/>
     </row>
     <row r="50" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="373"/>
-      <c r="B50" s="374"/>
-      <c r="C50" s="374"/>
-      <c r="D50" s="374"/>
-      <c r="E50" s="329"/>
-      <c r="F50" s="326"/>
-      <c r="G50" s="326"/>
-      <c r="H50" s="326"/>
-      <c r="I50" s="326"/>
-      <c r="J50" s="326"/>
-      <c r="K50" s="326"/>
-      <c r="L50" s="326"/>
-      <c r="M50" s="326"/>
-      <c r="N50" s="326"/>
-      <c r="O50" s="326"/>
-      <c r="P50" s="326"/>
-      <c r="Q50" s="326"/>
-      <c r="R50" s="375"/>
-      <c r="S50" s="348"/>
-      <c r="T50" s="349"/>
-      <c r="U50" s="349"/>
-      <c r="V50" s="358"/>
-      <c r="W50" s="361"/>
-      <c r="X50" s="349"/>
-      <c r="Y50" s="349"/>
-      <c r="Z50" s="349"/>
-      <c r="AA50" s="349"/>
-      <c r="AB50" s="349"/>
-      <c r="AC50" s="349"/>
-      <c r="AD50" s="349"/>
-      <c r="AE50" s="349"/>
-      <c r="AF50" s="349"/>
-      <c r="AG50" s="362"/>
+      <c r="A50" s="376"/>
+      <c r="B50" s="377"/>
+      <c r="C50" s="377"/>
+      <c r="D50" s="377"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="329"/>
+      <c r="G50" s="329"/>
+      <c r="H50" s="329"/>
+      <c r="I50" s="329"/>
+      <c r="J50" s="329"/>
+      <c r="K50" s="329"/>
+      <c r="L50" s="329"/>
+      <c r="M50" s="329"/>
+      <c r="N50" s="329"/>
+      <c r="O50" s="329"/>
+      <c r="P50" s="329"/>
+      <c r="Q50" s="329"/>
+      <c r="R50" s="378"/>
+      <c r="S50" s="351"/>
+      <c r="T50" s="352"/>
+      <c r="U50" s="352"/>
+      <c r="V50" s="361"/>
+      <c r="W50" s="364"/>
+      <c r="X50" s="352"/>
+      <c r="Y50" s="352"/>
+      <c r="Z50" s="352"/>
+      <c r="AA50" s="352"/>
+      <c r="AB50" s="352"/>
+      <c r="AC50" s="352"/>
+      <c r="AD50" s="352"/>
+      <c r="AE50" s="352"/>
+      <c r="AF50" s="352"/>
+      <c r="AG50" s="365"/>
       <c r="AH50" s="8"/>
     </row>
     <row r="51" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="322" t="s">
+      <c r="A51" s="325" t="s">
         <v>121</v>
       </c>
-      <c r="B51" s="377"/>
-      <c r="C51" s="377"/>
-      <c r="D51" s="378"/>
-      <c r="E51" s="380" t="s">
+      <c r="B51" s="380"/>
+      <c r="C51" s="380"/>
+      <c r="D51" s="381"/>
+      <c r="E51" s="383" t="s">
         <v>122</v>
       </c>
-      <c r="F51" s="381"/>
-      <c r="G51" s="381"/>
-      <c r="H51" s="381"/>
-      <c r="I51" s="381"/>
-      <c r="J51" s="381"/>
-      <c r="K51" s="381"/>
-      <c r="L51" s="381"/>
-      <c r="M51" s="381"/>
-      <c r="N51" s="381"/>
-      <c r="O51" s="381"/>
-      <c r="P51" s="381"/>
-      <c r="Q51" s="381"/>
-      <c r="R51" s="382"/>
-      <c r="S51" s="322" t="s">
+      <c r="F51" s="384"/>
+      <c r="G51" s="384"/>
+      <c r="H51" s="384"/>
+      <c r="I51" s="384"/>
+      <c r="J51" s="384"/>
+      <c r="K51" s="384"/>
+      <c r="L51" s="384"/>
+      <c r="M51" s="384"/>
+      <c r="N51" s="384"/>
+      <c r="O51" s="384"/>
+      <c r="P51" s="384"/>
+      <c r="Q51" s="384"/>
+      <c r="R51" s="385"/>
+      <c r="S51" s="325" t="s">
         <v>121</v>
       </c>
-      <c r="T51" s="356"/>
-      <c r="U51" s="356"/>
-      <c r="V51" s="357"/>
-      <c r="W51" s="386" t="s">
-        <v>28</v>
-      </c>
-      <c r="X51" s="387"/>
-      <c r="Y51" s="387"/>
-      <c r="Z51" s="387"/>
-      <c r="AA51" s="387"/>
-      <c r="AB51" s="387"/>
-      <c r="AC51" s="387"/>
-      <c r="AD51" s="387"/>
-      <c r="AE51" s="387"/>
-      <c r="AF51" s="387"/>
-      <c r="AG51" s="388"/>
+      <c r="T51" s="359"/>
+      <c r="U51" s="359"/>
+      <c r="V51" s="360"/>
+      <c r="W51" s="389" t="s">
+        <v>27</v>
+      </c>
+      <c r="X51" s="390"/>
+      <c r="Y51" s="390"/>
+      <c r="Z51" s="390"/>
+      <c r="AA51" s="390"/>
+      <c r="AB51" s="390"/>
+      <c r="AC51" s="390"/>
+      <c r="AD51" s="390"/>
+      <c r="AE51" s="390"/>
+      <c r="AF51" s="390"/>
+      <c r="AG51" s="391"/>
       <c r="AH51" s="8"/>
     </row>
     <row r="52" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="373"/>
-      <c r="B52" s="374"/>
-      <c r="C52" s="374"/>
-      <c r="D52" s="379"/>
-      <c r="E52" s="383"/>
-      <c r="F52" s="384"/>
-      <c r="G52" s="384"/>
-      <c r="H52" s="384"/>
-      <c r="I52" s="384"/>
-      <c r="J52" s="384"/>
-      <c r="K52" s="384"/>
-      <c r="L52" s="384"/>
-      <c r="M52" s="384"/>
-      <c r="N52" s="384"/>
-      <c r="O52" s="384"/>
-      <c r="P52" s="384"/>
-      <c r="Q52" s="384"/>
-      <c r="R52" s="385"/>
-      <c r="S52" s="348"/>
-      <c r="T52" s="349"/>
-      <c r="U52" s="349"/>
-      <c r="V52" s="358"/>
-      <c r="W52" s="389"/>
-      <c r="X52" s="390"/>
-      <c r="Y52" s="390"/>
-      <c r="Z52" s="390"/>
-      <c r="AA52" s="390"/>
-      <c r="AB52" s="390"/>
-      <c r="AC52" s="390"/>
-      <c r="AD52" s="390"/>
-      <c r="AE52" s="390"/>
-      <c r="AF52" s="390"/>
-      <c r="AG52" s="391"/>
+      <c r="A52" s="376"/>
+      <c r="B52" s="377"/>
+      <c r="C52" s="377"/>
+      <c r="D52" s="382"/>
+      <c r="E52" s="386"/>
+      <c r="F52" s="387"/>
+      <c r="G52" s="387"/>
+      <c r="H52" s="387"/>
+      <c r="I52" s="387"/>
+      <c r="J52" s="387"/>
+      <c r="K52" s="387"/>
+      <c r="L52" s="387"/>
+      <c r="M52" s="387"/>
+      <c r="N52" s="387"/>
+      <c r="O52" s="387"/>
+      <c r="P52" s="387"/>
+      <c r="Q52" s="387"/>
+      <c r="R52" s="388"/>
+      <c r="S52" s="351"/>
+      <c r="T52" s="352"/>
+      <c r="U52" s="352"/>
+      <c r="V52" s="361"/>
+      <c r="W52" s="392"/>
+      <c r="X52" s="393"/>
+      <c r="Y52" s="393"/>
+      <c r="Z52" s="393"/>
+      <c r="AA52" s="393"/>
+      <c r="AB52" s="393"/>
+      <c r="AC52" s="393"/>
+      <c r="AD52" s="393"/>
+      <c r="AE52" s="393"/>
+      <c r="AF52" s="393"/>
+      <c r="AG52" s="394"/>
       <c r="AH52" s="8"/>
     </row>
     <row r="53" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="322" t="s">
+      <c r="A53" s="325" t="s">
         <v>123</v>
       </c>
-      <c r="B53" s="356"/>
-      <c r="C53" s="356"/>
-      <c r="D53" s="357"/>
-      <c r="E53" s="359" t="s">
+      <c r="B53" s="359"/>
+      <c r="C53" s="359"/>
+      <c r="D53" s="360"/>
+      <c r="E53" s="362" t="s">
         <v>124</v>
       </c>
-      <c r="F53" s="356"/>
-      <c r="G53" s="356"/>
-      <c r="H53" s="356"/>
-      <c r="I53" s="356"/>
-      <c r="J53" s="356"/>
-      <c r="K53" s="356"/>
-      <c r="L53" s="356"/>
-      <c r="M53" s="356"/>
-      <c r="N53" s="356"/>
-      <c r="O53" s="356"/>
-      <c r="P53" s="356"/>
-      <c r="Q53" s="356"/>
-      <c r="R53" s="360"/>
-      <c r="S53" s="322" t="s">
+      <c r="F53" s="359"/>
+      <c r="G53" s="359"/>
+      <c r="H53" s="359"/>
+      <c r="I53" s="359"/>
+      <c r="J53" s="359"/>
+      <c r="K53" s="359"/>
+      <c r="L53" s="359"/>
+      <c r="M53" s="359"/>
+      <c r="N53" s="359"/>
+      <c r="O53" s="359"/>
+      <c r="P53" s="359"/>
+      <c r="Q53" s="359"/>
+      <c r="R53" s="363"/>
+      <c r="S53" s="325" t="s">
         <v>123</v>
       </c>
-      <c r="T53" s="356"/>
-      <c r="U53" s="356"/>
-      <c r="V53" s="357"/>
-      <c r="W53" s="359" t="s">
+      <c r="T53" s="359"/>
+      <c r="U53" s="359"/>
+      <c r="V53" s="360"/>
+      <c r="W53" s="362" t="s">
         <v>125</v>
       </c>
-      <c r="X53" s="356"/>
-      <c r="Y53" s="356"/>
-      <c r="Z53" s="356"/>
-      <c r="AA53" s="356"/>
-      <c r="AB53" s="356"/>
-      <c r="AC53" s="356"/>
-      <c r="AD53" s="356"/>
-      <c r="AE53" s="356"/>
-      <c r="AF53" s="356"/>
-      <c r="AG53" s="360"/>
+      <c r="X53" s="359"/>
+      <c r="Y53" s="359"/>
+      <c r="Z53" s="359"/>
+      <c r="AA53" s="359"/>
+      <c r="AB53" s="359"/>
+      <c r="AC53" s="359"/>
+      <c r="AD53" s="359"/>
+      <c r="AE53" s="359"/>
+      <c r="AF53" s="359"/>
+      <c r="AG53" s="363"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="348"/>
-      <c r="B54" s="349"/>
-      <c r="C54" s="349"/>
-      <c r="D54" s="358"/>
-      <c r="E54" s="361"/>
-      <c r="F54" s="349"/>
-      <c r="G54" s="349"/>
-      <c r="H54" s="349"/>
-      <c r="I54" s="349"/>
-      <c r="J54" s="349"/>
-      <c r="K54" s="349"/>
-      <c r="L54" s="349"/>
-      <c r="M54" s="349"/>
-      <c r="N54" s="349"/>
-      <c r="O54" s="349"/>
-      <c r="P54" s="349"/>
-      <c r="Q54" s="349"/>
-      <c r="R54" s="362"/>
-      <c r="S54" s="348"/>
-      <c r="T54" s="349"/>
-      <c r="U54" s="349"/>
-      <c r="V54" s="358"/>
-      <c r="W54" s="361"/>
-      <c r="X54" s="349"/>
-      <c r="Y54" s="349"/>
-      <c r="Z54" s="349"/>
-      <c r="AA54" s="349"/>
-      <c r="AB54" s="349"/>
-      <c r="AC54" s="349"/>
-      <c r="AD54" s="349"/>
-      <c r="AE54" s="349"/>
-      <c r="AF54" s="349"/>
-      <c r="AG54" s="362"/>
+      <c r="A54" s="351"/>
+      <c r="B54" s="352"/>
+      <c r="C54" s="352"/>
+      <c r="D54" s="361"/>
+      <c r="E54" s="364"/>
+      <c r="F54" s="352"/>
+      <c r="G54" s="352"/>
+      <c r="H54" s="352"/>
+      <c r="I54" s="352"/>
+      <c r="J54" s="352"/>
+      <c r="K54" s="352"/>
+      <c r="L54" s="352"/>
+      <c r="M54" s="352"/>
+      <c r="N54" s="352"/>
+      <c r="O54" s="352"/>
+      <c r="P54" s="352"/>
+      <c r="Q54" s="352"/>
+      <c r="R54" s="365"/>
+      <c r="S54" s="351"/>
+      <c r="T54" s="352"/>
+      <c r="U54" s="352"/>
+      <c r="V54" s="361"/>
+      <c r="W54" s="364"/>
+      <c r="X54" s="352"/>
+      <c r="Y54" s="352"/>
+      <c r="Z54" s="352"/>
+      <c r="AA54" s="352"/>
+      <c r="AB54" s="352"/>
+      <c r="AC54" s="352"/>
+      <c r="AD54" s="352"/>
+      <c r="AE54" s="352"/>
+      <c r="AF54" s="352"/>
+      <c r="AG54" s="365"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="322" t="s">
+      <c r="A55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="356"/>
-      <c r="C55" s="356"/>
-      <c r="D55" s="357"/>
-      <c r="E55" s="350"/>
-      <c r="F55" s="337"/>
-      <c r="G55" s="337"/>
-      <c r="H55" s="337"/>
-      <c r="I55" s="337"/>
-      <c r="J55" s="337"/>
-      <c r="K55" s="337"/>
-      <c r="L55" s="337"/>
-      <c r="M55" s="337"/>
-      <c r="N55" s="337"/>
-      <c r="O55" s="337"/>
-      <c r="P55" s="337"/>
-      <c r="Q55" s="337"/>
-      <c r="R55" s="338"/>
-      <c r="S55" s="322" t="s">
+      <c r="B55" s="359"/>
+      <c r="C55" s="359"/>
+      <c r="D55" s="360"/>
+      <c r="E55" s="353"/>
+      <c r="F55" s="340"/>
+      <c r="G55" s="340"/>
+      <c r="H55" s="340"/>
+      <c r="I55" s="340"/>
+      <c r="J55" s="340"/>
+      <c r="K55" s="340"/>
+      <c r="L55" s="340"/>
+      <c r="M55" s="340"/>
+      <c r="N55" s="340"/>
+      <c r="O55" s="340"/>
+      <c r="P55" s="340"/>
+      <c r="Q55" s="340"/>
+      <c r="R55" s="341"/>
+      <c r="S55" s="325" t="s">
         <v>14</v>
       </c>
-      <c r="T55" s="356"/>
-      <c r="U55" s="356"/>
-      <c r="V55" s="357"/>
-      <c r="W55" s="359"/>
-      <c r="X55" s="356"/>
-      <c r="Y55" s="356"/>
-      <c r="Z55" s="356"/>
-      <c r="AA55" s="356"/>
-      <c r="AB55" s="356"/>
-      <c r="AC55" s="356"/>
-      <c r="AD55" s="356"/>
-      <c r="AE55" s="356"/>
-      <c r="AF55" s="356"/>
-      <c r="AG55" s="360"/>
+      <c r="T55" s="359"/>
+      <c r="U55" s="359"/>
+      <c r="V55" s="360"/>
+      <c r="W55" s="362"/>
+      <c r="X55" s="359"/>
+      <c r="Y55" s="359"/>
+      <c r="Z55" s="359"/>
+      <c r="AA55" s="359"/>
+      <c r="AB55" s="359"/>
+      <c r="AC55" s="359"/>
+      <c r="AD55" s="359"/>
+      <c r="AE55" s="359"/>
+      <c r="AF55" s="359"/>
+      <c r="AG55" s="363"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="368"/>
-      <c r="B56" s="369"/>
-      <c r="C56" s="369"/>
-      <c r="D56" s="370"/>
-      <c r="E56" s="371"/>
-      <c r="F56" s="339"/>
-      <c r="G56" s="339"/>
-      <c r="H56" s="339"/>
-      <c r="I56" s="339"/>
-      <c r="J56" s="339"/>
-      <c r="K56" s="339"/>
-      <c r="L56" s="339"/>
-      <c r="M56" s="339"/>
-      <c r="N56" s="339"/>
-      <c r="O56" s="339"/>
-      <c r="P56" s="339"/>
-      <c r="Q56" s="339"/>
-      <c r="R56" s="340"/>
-      <c r="S56" s="363"/>
-      <c r="T56" s="364"/>
-      <c r="U56" s="364"/>
-      <c r="V56" s="365"/>
-      <c r="W56" s="366"/>
-      <c r="X56" s="364"/>
-      <c r="Y56" s="364"/>
-      <c r="Z56" s="364"/>
-      <c r="AA56" s="364"/>
-      <c r="AB56" s="364"/>
-      <c r="AC56" s="364"/>
-      <c r="AD56" s="364"/>
-      <c r="AE56" s="364"/>
-      <c r="AF56" s="364"/>
-      <c r="AG56" s="367"/>
+      <c r="A56" s="371"/>
+      <c r="B56" s="372"/>
+      <c r="C56" s="372"/>
+      <c r="D56" s="373"/>
+      <c r="E56" s="374"/>
+      <c r="F56" s="342"/>
+      <c r="G56" s="342"/>
+      <c r="H56" s="342"/>
+      <c r="I56" s="342"/>
+      <c r="J56" s="342"/>
+      <c r="K56" s="342"/>
+      <c r="L56" s="342"/>
+      <c r="M56" s="342"/>
+      <c r="N56" s="342"/>
+      <c r="O56" s="342"/>
+      <c r="P56" s="342"/>
+      <c r="Q56" s="342"/>
+      <c r="R56" s="343"/>
+      <c r="S56" s="366"/>
+      <c r="T56" s="367"/>
+      <c r="U56" s="367"/>
+      <c r="V56" s="368"/>
+      <c r="W56" s="369"/>
+      <c r="X56" s="367"/>
+      <c r="Y56" s="367"/>
+      <c r="Z56" s="367"/>
+      <c r="AA56" s="367"/>
+      <c r="AB56" s="367"/>
+      <c r="AC56" s="367"/>
+      <c r="AD56" s="367"/>
+      <c r="AE56" s="367"/>
+      <c r="AF56" s="367"/>
+      <c r="AG56" s="370"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6392,45 +6414,45 @@
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="344"/>
-      <c r="AF57" s="344"/>
-      <c r="AG57" s="345"/>
+      <c r="AE57" s="347"/>
+      <c r="AF57" s="347"/>
+      <c r="AG57" s="348"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="346" t="s">
+      <c r="A58" s="349" t="s">
         <v>129</v>
       </c>
-      <c r="B58" s="347"/>
-      <c r="C58" s="347"/>
+      <c r="B58" s="350"/>
+      <c r="C58" s="350"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="350"/>
-      <c r="F58" s="337"/>
-      <c r="G58" s="337"/>
-      <c r="H58" s="337"/>
-      <c r="I58" s="337"/>
-      <c r="J58" s="337"/>
-      <c r="K58" s="337"/>
-      <c r="L58" s="337"/>
-      <c r="M58" s="351"/>
-      <c r="N58" s="352" t="s">
+      <c r="E58" s="353"/>
+      <c r="F58" s="340"/>
+      <c r="G58" s="340"/>
+      <c r="H58" s="340"/>
+      <c r="I58" s="340"/>
+      <c r="J58" s="340"/>
+      <c r="K58" s="340"/>
+      <c r="L58" s="340"/>
+      <c r="M58" s="354"/>
+      <c r="N58" s="355" t="s">
         <v>87</v>
       </c>
-      <c r="O58" s="353"/>
-      <c r="P58" s="353"/>
-      <c r="Q58" s="353"/>
-      <c r="R58" s="354"/>
-      <c r="S58" s="355" t="s">
+      <c r="O58" s="356"/>
+      <c r="P58" s="356"/>
+      <c r="Q58" s="356"/>
+      <c r="R58" s="357"/>
+      <c r="S58" s="358" t="s">
         <v>130</v>
       </c>
-      <c r="T58" s="353"/>
-      <c r="U58" s="353"/>
-      <c r="V58" s="353"/>
-      <c r="W58" s="353"/>
-      <c r="X58" s="353"/>
-      <c r="Y58" s="353"/>
-      <c r="Z58" s="353"/>
-      <c r="AA58" s="354"/>
+      <c r="T58" s="356"/>
+      <c r="U58" s="356"/>
+      <c r="V58" s="356"/>
+      <c r="W58" s="356"/>
+      <c r="X58" s="356"/>
+      <c r="Y58" s="356"/>
+      <c r="Z58" s="356"/>
+      <c r="AA58" s="357"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6440,33 +6462,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="348"/>
-      <c r="B59" s="349"/>
-      <c r="C59" s="349"/>
+      <c r="A59" s="351"/>
+      <c r="B59" s="352"/>
+      <c r="C59" s="352"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="329"/>
-      <c r="F59" s="326"/>
-      <c r="G59" s="326"/>
-      <c r="H59" s="326"/>
-      <c r="I59" s="326"/>
-      <c r="J59" s="326"/>
-      <c r="K59" s="326"/>
-      <c r="L59" s="326"/>
-      <c r="M59" s="327"/>
-      <c r="N59" s="333"/>
-      <c r="O59" s="334"/>
-      <c r="P59" s="334"/>
-      <c r="Q59" s="334"/>
-      <c r="R59" s="335"/>
-      <c r="S59" s="333"/>
-      <c r="T59" s="334"/>
-      <c r="U59" s="334"/>
-      <c r="V59" s="334"/>
-      <c r="W59" s="334"/>
-      <c r="X59" s="334"/>
-      <c r="Y59" s="334"/>
-      <c r="Z59" s="334"/>
-      <c r="AA59" s="335"/>
+      <c r="E59" s="332"/>
+      <c r="F59" s="329"/>
+      <c r="G59" s="329"/>
+      <c r="H59" s="329"/>
+      <c r="I59" s="329"/>
+      <c r="J59" s="329"/>
+      <c r="K59" s="329"/>
+      <c r="L59" s="329"/>
+      <c r="M59" s="330"/>
+      <c r="N59" s="336"/>
+      <c r="O59" s="337"/>
+      <c r="P59" s="337"/>
+      <c r="Q59" s="337"/>
+      <c r="R59" s="338"/>
+      <c r="S59" s="336"/>
+      <c r="T59" s="337"/>
+      <c r="U59" s="337"/>
+      <c r="V59" s="337"/>
+      <c r="W59" s="337"/>
+      <c r="X59" s="337"/>
+      <c r="Y59" s="337"/>
+      <c r="Z59" s="337"/>
+      <c r="AA59" s="338"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6476,121 +6498,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="322" t="s">
+      <c r="A60" s="325" t="s">
         <v>131</v>
       </c>
-      <c r="B60" s="323"/>
-      <c r="C60" s="323"/>
-      <c r="D60" s="324"/>
-      <c r="E60" s="328"/>
-      <c r="F60" s="323"/>
-      <c r="G60" s="323"/>
-      <c r="H60" s="323"/>
-      <c r="I60" s="323"/>
-      <c r="J60" s="323"/>
-      <c r="K60" s="323"/>
-      <c r="L60" s="323"/>
-      <c r="M60" s="324"/>
-      <c r="N60" s="330" t="s">
+      <c r="B60" s="326"/>
+      <c r="C60" s="326"/>
+      <c r="D60" s="327"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="326"/>
+      <c r="G60" s="326"/>
+      <c r="H60" s="326"/>
+      <c r="I60" s="326"/>
+      <c r="J60" s="326"/>
+      <c r="K60" s="326"/>
+      <c r="L60" s="326"/>
+      <c r="M60" s="327"/>
+      <c r="N60" s="333" t="s">
         <v>87</v>
       </c>
-      <c r="O60" s="331"/>
-      <c r="P60" s="331"/>
-      <c r="Q60" s="331"/>
-      <c r="R60" s="332"/>
-      <c r="S60" s="330" t="s">
-        <v>61</v>
-      </c>
-      <c r="T60" s="331"/>
-      <c r="U60" s="331"/>
-      <c r="V60" s="331"/>
-      <c r="W60" s="331"/>
-      <c r="X60" s="331"/>
-      <c r="Y60" s="331"/>
-      <c r="Z60" s="331"/>
-      <c r="AA60" s="332"/>
+      <c r="O60" s="334"/>
+      <c r="P60" s="334"/>
+      <c r="Q60" s="334"/>
+      <c r="R60" s="335"/>
+      <c r="S60" s="333" t="s">
+        <v>60</v>
+      </c>
+      <c r="T60" s="334"/>
+      <c r="U60" s="334"/>
+      <c r="V60" s="334"/>
+      <c r="W60" s="334"/>
+      <c r="X60" s="334"/>
+      <c r="Y60" s="334"/>
+      <c r="Z60" s="334"/>
+      <c r="AA60" s="335"/>
       <c r="AB60" s="164" t="s">
         <v>14</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="323"/>
-      <c r="AE60" s="323"/>
-      <c r="AF60" s="323"/>
-      <c r="AG60" s="336"/>
+      <c r="AD60" s="326"/>
+      <c r="AE60" s="326"/>
+      <c r="AF60" s="326"/>
+      <c r="AG60" s="339"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="325"/>
-      <c r="B61" s="326"/>
-      <c r="C61" s="326"/>
-      <c r="D61" s="327"/>
-      <c r="E61" s="329"/>
-      <c r="F61" s="326"/>
-      <c r="G61" s="326"/>
-      <c r="H61" s="326"/>
-      <c r="I61" s="326"/>
-      <c r="J61" s="326"/>
-      <c r="K61" s="326"/>
-      <c r="L61" s="326"/>
-      <c r="M61" s="327"/>
-      <c r="N61" s="333"/>
-      <c r="O61" s="334"/>
-      <c r="P61" s="334"/>
-      <c r="Q61" s="334"/>
-      <c r="R61" s="335"/>
-      <c r="S61" s="333"/>
-      <c r="T61" s="334"/>
-      <c r="U61" s="334"/>
-      <c r="V61" s="334"/>
-      <c r="W61" s="334"/>
-      <c r="X61" s="334"/>
-      <c r="Y61" s="334"/>
-      <c r="Z61" s="334"/>
-      <c r="AA61" s="335"/>
-      <c r="AB61" s="337"/>
-      <c r="AC61" s="337"/>
-      <c r="AD61" s="337"/>
-      <c r="AE61" s="337"/>
-      <c r="AF61" s="337"/>
-      <c r="AG61" s="338"/>
+      <c r="A61" s="328"/>
+      <c r="B61" s="329"/>
+      <c r="C61" s="329"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="329"/>
+      <c r="G61" s="329"/>
+      <c r="H61" s="329"/>
+      <c r="I61" s="329"/>
+      <c r="J61" s="329"/>
+      <c r="K61" s="329"/>
+      <c r="L61" s="329"/>
+      <c r="M61" s="330"/>
+      <c r="N61" s="336"/>
+      <c r="O61" s="337"/>
+      <c r="P61" s="337"/>
+      <c r="Q61" s="337"/>
+      <c r="R61" s="338"/>
+      <c r="S61" s="336"/>
+      <c r="T61" s="337"/>
+      <c r="U61" s="337"/>
+      <c r="V61" s="337"/>
+      <c r="W61" s="337"/>
+      <c r="X61" s="337"/>
+      <c r="Y61" s="337"/>
+      <c r="Z61" s="337"/>
+      <c r="AA61" s="338"/>
+      <c r="AB61" s="340"/>
+      <c r="AC61" s="340"/>
+      <c r="AD61" s="340"/>
+      <c r="AE61" s="340"/>
+      <c r="AF61" s="340"/>
+      <c r="AG61" s="341"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="341" t="s">
+      <c r="A62" s="344" t="s">
         <v>132</v>
       </c>
-      <c r="B62" s="342"/>
-      <c r="C62" s="342"/>
-      <c r="D62" s="342"/>
-      <c r="E62" s="342"/>
-      <c r="F62" s="342"/>
-      <c r="G62" s="342"/>
-      <c r="H62" s="342"/>
-      <c r="I62" s="342"/>
-      <c r="J62" s="342"/>
-      <c r="K62" s="342"/>
-      <c r="L62" s="342"/>
-      <c r="M62" s="342"/>
-      <c r="N62" s="342"/>
-      <c r="O62" s="342"/>
-      <c r="P62" s="342"/>
-      <c r="Q62" s="342"/>
-      <c r="R62" s="342"/>
-      <c r="S62" s="342"/>
-      <c r="T62" s="342"/>
-      <c r="U62" s="342"/>
-      <c r="V62" s="342"/>
-      <c r="W62" s="342"/>
-      <c r="X62" s="342"/>
-      <c r="Y62" s="342"/>
-      <c r="Z62" s="342"/>
-      <c r="AA62" s="343"/>
-      <c r="AB62" s="339"/>
-      <c r="AC62" s="339"/>
-      <c r="AD62" s="339"/>
-      <c r="AE62" s="339"/>
-      <c r="AF62" s="339"/>
-      <c r="AG62" s="340"/>
+      <c r="B62" s="345"/>
+      <c r="C62" s="345"/>
+      <c r="D62" s="345"/>
+      <c r="E62" s="345"/>
+      <c r="F62" s="345"/>
+      <c r="G62" s="345"/>
+      <c r="H62" s="345"/>
+      <c r="I62" s="345"/>
+      <c r="J62" s="345"/>
+      <c r="K62" s="345"/>
+      <c r="L62" s="345"/>
+      <c r="M62" s="345"/>
+      <c r="N62" s="345"/>
+      <c r="O62" s="345"/>
+      <c r="P62" s="345"/>
+      <c r="Q62" s="345"/>
+      <c r="R62" s="345"/>
+      <c r="S62" s="345"/>
+      <c r="T62" s="345"/>
+      <c r="U62" s="345"/>
+      <c r="V62" s="345"/>
+      <c r="W62" s="345"/>
+      <c r="X62" s="345"/>
+      <c r="Y62" s="345"/>
+      <c r="Z62" s="345"/>
+      <c r="AA62" s="346"/>
+      <c r="AB62" s="342"/>
+      <c r="AC62" s="342"/>
+      <c r="AD62" s="342"/>
+      <c r="AE62" s="342"/>
+      <c r="AF62" s="342"/>
+      <c r="AG62" s="343"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>

--- a/library/export_travelclaim.xlsx
+++ b/library/export_travelclaim.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28680" windowHeight="12345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12480"/>
   </bookViews>
   <sheets>
     <sheet name="Itinerary" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,14 @@
     <sheet name="DV" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Itinerary!$A$1:$J$16</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Itinerary!$A$1:$J$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="128">
   <si>
     <t xml:space="preserve">   Appendix 45</t>
   </si>
@@ -44,30 +44,15 @@
     <t xml:space="preserve">Name : </t>
   </si>
   <si>
-    <t>MARK KIM SACLUTI</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date of Travel : </t>
   </si>
   <si>
-    <t>2020-08-01</t>
-  </si>
-  <si>
     <t>Position:</t>
   </si>
   <si>
-    <t>Web Developer</t>
-  </si>
-  <si>
-    <t>Purpose of Travel: AAAAA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Official Station : </t>
   </si>
   <si>
-    <t>Regional Office</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -105,6 +90,9 @@
   </si>
   <si>
     <t>Diem</t>
+  </si>
+  <si>
+    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>NOEL R. BARTOLABAC, CESO V</t>
@@ -217,9 +205,6 @@
   </si>
   <si>
     <t>Printed Name:</t>
-  </si>
-  <si>
-    <t>DR. CARINA S. CRUZ</t>
   </si>
   <si>
     <t>JORIELYN S. CUBIO</t>
@@ -493,17 +478,17 @@
       <name val="Times New Roman"/>
     </font>
     <font>
+      <i/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
       <b/>
       <i/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
     </font>
     <font>
       <i/>
@@ -519,15 +504,15 @@
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -541,7 +526,7 @@
       <patternFill patternType="none"/>
     </fill>
   </fills>
-  <borders count="61">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -996,6 +981,47 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1004,6 +1030,82 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1027,37 +1129,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -1086,108 +1164,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1225,16 +1201,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -1243,9 +1232,7 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
@@ -1256,16 +1243,61 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1273,7 +1305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="487">
+  <cellXfs count="481">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1607,22 +1639,76 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="18" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1631,126 +1717,315 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1775,21 +2050,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1799,280 +2062,469 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,18 +2533,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
@@ -2102,29 +2545,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
@@ -2132,428 +2557,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2862,10 +2876,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2883,37 +2897,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H1" s="176" t="s">
+      <c r="H1" s="194" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="176"/>
-      <c r="J1" s="176"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
-      <c r="E2" s="177"/>
-      <c r="F2" s="177"/>
-      <c r="G2" s="177"/>
-      <c r="H2" s="177"/>
-      <c r="I2" s="177"/>
-      <c r="J2" s="177"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="195"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="196" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
+      <c r="B3" s="196"/>
+      <c r="C3" s="196"/>
+      <c r="D3" s="196"/>
+      <c r="E3" s="196"/>
+      <c r="F3" s="196"/>
+      <c r="G3" s="196"/>
+      <c r="H3" s="196"/>
+      <c r="I3" s="196"/>
+      <c r="J3" s="196"/>
     </row>
     <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="170"/>
@@ -2931,8 +2945,8 @@
       <c r="A5" s="168" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="180"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2945,8 +2959,8 @@
       <c r="A6" s="168" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="180"/>
-      <c r="C6" s="180"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="14"/>
@@ -2959,17 +2973,17 @@
       <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="181"/>
-      <c r="C7" s="181"/>
+      <c r="B7" s="198"/>
+      <c r="C7" s="198"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="14"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="179" t="s">
+      <c r="H7" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="179"/>
-      <c r="J7" s="179"/>
+      <c r="I7" s="176"/>
+      <c r="J7" s="176"/>
     </row>
     <row r="8" spans="1:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -2987,55 +3001,45 @@
       <c r="A9" s="167" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="182" t="s">
+      <c r="B9" s="181"/>
+      <c r="C9" s="181"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="167" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="182"/>
-      <c r="D9" s="182"/>
-      <c r="E9" s="184"/>
-      <c r="F9" s="167" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="182" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="182"/>
-      <c r="I9" s="182"/>
-      <c r="J9" s="183"/>
+      <c r="G9" s="181"/>
+      <c r="H9" s="181"/>
+      <c r="I9" s="181"/>
+      <c r="J9" s="182"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="193" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="205" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="179"/>
-      <c r="H10" s="179"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="206"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="192"/>
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="175"/>
+      <c r="G10" s="176"/>
+      <c r="H10" s="176"/>
+      <c r="I10" s="176"/>
+      <c r="J10" s="177"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B11" s="169"/>
-      <c r="C11" s="193" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="193"/>
-      <c r="E11" s="194"/>
-      <c r="F11" s="205"/>
-      <c r="G11" s="179"/>
-      <c r="H11" s="179"/>
-      <c r="I11" s="179"/>
-      <c r="J11" s="206"/>
+      <c r="C11" s="192"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="176"/>
+      <c r="H11" s="176"/>
+      <c r="I11" s="176"/>
+      <c r="J11" s="177"/>
     </row>
     <row r="12" spans="1:10" ht="4.1500000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -3050,88 +3054,77 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="196" t="s">
+      <c r="A13" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="179" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="180"/>
+      <c r="D13" s="173" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="174"/>
+      <c r="F13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="184" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="I13" s="186" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="208"/>
-      <c r="D13" s="198" t="s">
+      <c r="J13" s="188" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="199"/>
-      <c r="F13" s="15" t="s">
+    </row>
+    <row r="14" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="172"/>
+      <c r="B14" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="G13" s="185" t="s">
+      <c r="C14" s="191"/>
+      <c r="D14" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="18" t="s">
+      <c r="E14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I13" s="187" t="s">
+      <c r="F14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="189" t="s">
+      <c r="G14" s="185"/>
+      <c r="H14" s="22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" s="19" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="197"/>
-      <c r="B14" s="191" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="192"/>
-      <c r="D14" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="G14" s="186"/>
-      <c r="H14" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="188"/>
-      <c r="J14" s="190"/>
-    </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="200"/>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="202"/>
-      <c r="E15" s="203"/>
-      <c r="F15" s="201"/>
-      <c r="G15" s="201"/>
-      <c r="H15" s="201"/>
-      <c r="I15" s="201"/>
-      <c r="J15" s="204"/>
-    </row>
-    <row r="16" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="171"/>
-      <c r="B16" s="195"/>
-      <c r="C16" s="195"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="173"/>
-      <c r="G16" s="174"/>
-      <c r="H16" s="174"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="174"/>
+      <c r="I14" s="187"/>
+      <c r="J14" s="189"/>
+    </row>
+    <row r="15" spans="1:10" s="23" customFormat="1" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="477"/>
+      <c r="B15" s="478"/>
+      <c r="C15" s="478"/>
+      <c r="D15" s="478"/>
+      <c r="E15" s="479"/>
+      <c r="F15" s="478"/>
+      <c r="G15" s="478"/>
+      <c r="H15" s="478"/>
+      <c r="I15" s="478"/>
+      <c r="J15" s="480"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="21">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A15:J15"/>
-    <mergeCell ref="F10:J11"/>
-    <mergeCell ref="B13:C13"/>
+  <mergeCells count="20">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
     <mergeCell ref="G9:J9"/>
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="G13:G14"/>
@@ -3140,17 +3133,15 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A15:J15"/>
+    <mergeCell ref="F10:J11"/>
+    <mergeCell ref="B13:C13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="1.2598425196850001" right="0.98425196850394003" top="0.78740157480314998" bottom="0.51181102362205" header="0" footer="0.51181102362205"/>
-  <pageSetup scale="76" fitToHeight="10" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="76" fitToHeight="10" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</oddFooter>
     <evenFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 121</evenFooter>
@@ -3201,10 +3192,10 @@
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
-      <c r="L1" s="313" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="313"/>
+      <c r="L1" s="201" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="201"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -3218,443 +3209,443 @@
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
-      <c r="L2" s="314"/>
-      <c r="M2" s="314"/>
+      <c r="L2" s="202"/>
+      <c r="M2" s="202"/>
     </row>
     <row r="3" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="315" t="s">
+      <c r="A3" s="203" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="204"/>
+      <c r="C3" s="204"/>
+      <c r="D3" s="204"/>
+      <c r="E3" s="204"/>
+      <c r="F3" s="204"/>
+      <c r="G3" s="204"/>
+      <c r="H3" s="204"/>
+      <c r="I3" s="204"/>
+      <c r="J3" s="205"/>
+      <c r="K3" s="206" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="207"/>
+      <c r="M3" s="208"/>
+    </row>
+    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="209" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="210"/>
+      <c r="C4" s="210"/>
+      <c r="D4" s="210"/>
+      <c r="E4" s="210"/>
+      <c r="F4" s="210"/>
+      <c r="G4" s="210"/>
+      <c r="H4" s="210"/>
+      <c r="I4" s="210"/>
+      <c r="J4" s="211"/>
+      <c r="K4" s="212" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="213"/>
+      <c r="M4" s="214"/>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="316"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="316"/>
-      <c r="G3" s="316"/>
-      <c r="H3" s="316"/>
-      <c r="I3" s="316"/>
-      <c r="J3" s="317"/>
-      <c r="K3" s="318" t="s">
+      <c r="B5" s="216"/>
+      <c r="C5" s="216"/>
+      <c r="D5" s="216"/>
+      <c r="E5" s="216"/>
+      <c r="F5" s="216"/>
+      <c r="G5" s="216"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="218" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="319"/>
-      <c r="M3" s="320"/>
-    </row>
-    <row r="4" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="321" t="s">
+      <c r="L5" s="219"/>
+      <c r="M5" s="220"/>
+    </row>
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="221"/>
+      <c r="B6" s="222"/>
+      <c r="C6" s="223"/>
+      <c r="D6" s="227" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="322"/>
-      <c r="C4" s="322"/>
-      <c r="D4" s="322"/>
-      <c r="E4" s="322"/>
-      <c r="F4" s="322"/>
-      <c r="G4" s="322"/>
-      <c r="H4" s="322"/>
-      <c r="I4" s="322"/>
-      <c r="J4" s="323"/>
-      <c r="K4" s="236" t="s">
+      <c r="E6" s="228"/>
+      <c r="F6" s="228"/>
+      <c r="G6" s="228"/>
+      <c r="H6" s="228"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="228"/>
+      <c r="L6" s="228"/>
+      <c r="M6" s="229"/>
+    </row>
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="224"/>
+      <c r="B7" s="225"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="230"/>
+      <c r="E7" s="231"/>
+      <c r="F7" s="231"/>
+      <c r="G7" s="231"/>
+      <c r="H7" s="231"/>
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="231"/>
+      <c r="M7" s="232"/>
+    </row>
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="237"/>
-      <c r="M4" s="324"/>
-    </row>
-    <row r="5" spans="1:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="295" t="s">
+      <c r="B8" s="234"/>
+      <c r="C8" s="235"/>
+      <c r="D8" s="236" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="296"/>
-      <c r="C5" s="296"/>
-      <c r="D5" s="296"/>
-      <c r="E5" s="296"/>
-      <c r="F5" s="296"/>
-      <c r="G5" s="296"/>
-      <c r="H5" s="296"/>
-      <c r="I5" s="296"/>
-      <c r="J5" s="297"/>
-      <c r="K5" s="298" t="s">
+      <c r="E8" s="237"/>
+      <c r="F8" s="237"/>
+      <c r="G8" s="237"/>
+      <c r="H8" s="237"/>
+      <c r="I8" s="237"/>
+      <c r="J8" s="237"/>
+      <c r="K8" s="237"/>
+      <c r="L8" s="237"/>
+      <c r="M8" s="238"/>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="224"/>
+      <c r="B9" s="225"/>
+      <c r="C9" s="226"/>
+      <c r="D9" s="239"/>
+      <c r="E9" s="240"/>
+      <c r="F9" s="240"/>
+      <c r="G9" s="240"/>
+      <c r="H9" s="240"/>
+      <c r="I9" s="240"/>
+      <c r="J9" s="240"/>
+      <c r="K9" s="240"/>
+      <c r="L9" s="240"/>
+      <c r="M9" s="241"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="233" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="299"/>
-      <c r="M5" s="300"/>
-    </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="283"/>
-      <c r="B6" s="284"/>
-      <c r="C6" s="285"/>
-      <c r="D6" s="304" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="305"/>
-      <c r="F6" s="305"/>
-      <c r="G6" s="305"/>
-      <c r="H6" s="305"/>
-      <c r="I6" s="305"/>
-      <c r="J6" s="305"/>
-      <c r="K6" s="305"/>
-      <c r="L6" s="305"/>
-      <c r="M6" s="306"/>
-    </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="301"/>
-      <c r="B7" s="302"/>
-      <c r="C7" s="303"/>
-      <c r="D7" s="307"/>
-      <c r="E7" s="308"/>
-      <c r="F7" s="308"/>
-      <c r="G7" s="308"/>
-      <c r="H7" s="308"/>
-      <c r="I7" s="308"/>
-      <c r="J7" s="308"/>
-      <c r="K7" s="308"/>
-      <c r="L7" s="308"/>
-      <c r="M7" s="309"/>
-    </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="272" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="273"/>
-      <c r="C8" s="274"/>
-      <c r="D8" s="277" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="278"/>
-      <c r="F8" s="278"/>
-      <c r="G8" s="278"/>
-      <c r="H8" s="278"/>
-      <c r="I8" s="278"/>
-      <c r="J8" s="278"/>
-      <c r="K8" s="278"/>
-      <c r="L8" s="278"/>
-      <c r="M8" s="279"/>
-    </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="301"/>
-      <c r="B9" s="302"/>
-      <c r="C9" s="303"/>
-      <c r="D9" s="310"/>
-      <c r="E9" s="311"/>
-      <c r="F9" s="311"/>
-      <c r="G9" s="311"/>
-      <c r="H9" s="311"/>
-      <c r="I9" s="311"/>
-      <c r="J9" s="311"/>
-      <c r="K9" s="311"/>
-      <c r="L9" s="311"/>
-      <c r="M9" s="312"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="272" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="273"/>
-      <c r="C10" s="274"/>
-      <c r="D10" s="277" t="e">
+      <c r="B10" s="234"/>
+      <c r="C10" s="235"/>
+      <c r="D10" s="236" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E10" s="278"/>
-      <c r="F10" s="278"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="278"/>
-      <c r="I10" s="278"/>
-      <c r="J10" s="278"/>
-      <c r="K10" s="278"/>
-      <c r="L10" s="278"/>
-      <c r="M10" s="279"/>
+      <c r="E10" s="237"/>
+      <c r="F10" s="237"/>
+      <c r="G10" s="237"/>
+      <c r="H10" s="237"/>
+      <c r="I10" s="237"/>
+      <c r="J10" s="237"/>
+      <c r="K10" s="237"/>
+      <c r="L10" s="237"/>
+      <c r="M10" s="238"/>
     </row>
     <row r="11" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="275"/>
-      <c r="B11" s="230"/>
-      <c r="C11" s="276"/>
-      <c r="D11" s="280"/>
-      <c r="E11" s="281"/>
-      <c r="F11" s="281"/>
-      <c r="G11" s="281"/>
-      <c r="H11" s="281"/>
-      <c r="I11" s="281"/>
-      <c r="J11" s="281"/>
-      <c r="K11" s="281"/>
-      <c r="L11" s="281"/>
-      <c r="M11" s="282"/>
+      <c r="A11" s="242"/>
+      <c r="B11" s="243"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="245"/>
+      <c r="E11" s="246"/>
+      <c r="F11" s="246"/>
+      <c r="G11" s="246"/>
+      <c r="H11" s="246"/>
+      <c r="I11" s="246"/>
+      <c r="J11" s="246"/>
+      <c r="K11" s="246"/>
+      <c r="L11" s="246"/>
+      <c r="M11" s="247"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="283" t="s">
+      <c r="A12" s="221" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="222"/>
+      <c r="C12" s="223"/>
+      <c r="D12" s="248" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="249"/>
+      <c r="F12" s="249"/>
+      <c r="G12" s="249"/>
+      <c r="H12" s="250"/>
+      <c r="I12" s="248" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="223"/>
+      <c r="K12" s="255" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" s="248" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="284"/>
-      <c r="C12" s="285"/>
-      <c r="D12" s="286" t="s">
+      <c r="M12" s="257"/>
+    </row>
+    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="242"/>
+      <c r="B13" s="243"/>
+      <c r="C13" s="244"/>
+      <c r="D13" s="251"/>
+      <c r="E13" s="252"/>
+      <c r="F13" s="252"/>
+      <c r="G13" s="252"/>
+      <c r="H13" s="253"/>
+      <c r="I13" s="254"/>
+      <c r="J13" s="244"/>
+      <c r="K13" s="256"/>
+      <c r="L13" s="254"/>
+      <c r="M13" s="258"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="199"/>
+      <c r="B14" s="259"/>
+      <c r="C14" s="260"/>
+      <c r="D14" s="263" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="287"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="287"/>
-      <c r="H12" s="288"/>
-      <c r="I12" s="286" t="s">
+      <c r="E14" s="259"/>
+      <c r="F14" s="259"/>
+      <c r="G14" s="259"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="263"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="263"/>
+      <c r="M14" s="264"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="199"/>
+      <c r="B15" s="259"/>
+      <c r="C15" s="260"/>
+      <c r="D15" s="299" t="s">
         <v>41</v>
       </c>
-      <c r="J12" s="285"/>
-      <c r="K12" s="292" t="s">
+      <c r="E15" s="279"/>
+      <c r="F15" s="279"/>
+      <c r="G15" s="279"/>
+      <c r="H15" s="300"/>
+      <c r="I15" s="263"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="265">
+        <v>4981</v>
+      </c>
+      <c r="M15" s="266"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="199"/>
+      <c r="B16" s="259"/>
+      <c r="C16" s="260"/>
+      <c r="D16" s="299"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="300"/>
+      <c r="I16" s="263"/>
+      <c r="J16" s="260"/>
+      <c r="K16" s="32"/>
+      <c r="L16" s="263"/>
+      <c r="M16" s="264"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="199"/>
+      <c r="B17" s="259"/>
+      <c r="C17" s="260"/>
+      <c r="D17" s="299"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="300"/>
+      <c r="I17" s="263"/>
+      <c r="J17" s="260"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="267"/>
+      <c r="M17" s="268"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="199"/>
+      <c r="B18" s="259"/>
+      <c r="C18" s="260"/>
+      <c r="D18" s="299"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="300"/>
+      <c r="I18" s="261"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="263"/>
+      <c r="M18" s="264"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="199"/>
+      <c r="B19" s="259"/>
+      <c r="C19" s="260"/>
+      <c r="D19" s="299"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="300"/>
+      <c r="I19" s="263"/>
+      <c r="J19" s="260"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="263"/>
+      <c r="M19" s="264"/>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="199"/>
+      <c r="B20" s="259"/>
+      <c r="C20" s="260"/>
+      <c r="D20" s="299"/>
+      <c r="E20" s="279"/>
+      <c r="F20" s="279"/>
+      <c r="G20" s="279"/>
+      <c r="H20" s="300"/>
+      <c r="I20" s="263"/>
+      <c r="J20" s="260"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="263"/>
+      <c r="M20" s="264"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="199"/>
+      <c r="B21" s="259"/>
+      <c r="C21" s="260"/>
+      <c r="D21" s="299"/>
+      <c r="E21" s="279"/>
+      <c r="F21" s="279"/>
+      <c r="G21" s="279"/>
+      <c r="H21" s="300"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="260"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="263"/>
+      <c r="M21" s="264"/>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="199"/>
+      <c r="B22" s="259"/>
+      <c r="C22" s="260"/>
+      <c r="D22" s="261"/>
+      <c r="E22" s="269"/>
+      <c r="F22" s="269"/>
+      <c r="G22" s="269"/>
+      <c r="H22" s="262"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="260"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="263"/>
+      <c r="M22" s="264"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="199"/>
+      <c r="B23" s="259"/>
+      <c r="C23" s="260"/>
+      <c r="D23" s="261"/>
+      <c r="E23" s="269"/>
+      <c r="F23" s="269"/>
+      <c r="G23" s="269"/>
+      <c r="H23" s="262"/>
+      <c r="I23" s="263"/>
+      <c r="J23" s="260"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="263"/>
+      <c r="M23" s="264"/>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="199"/>
+      <c r="B24" s="259"/>
+      <c r="C24" s="260"/>
+      <c r="D24" s="261"/>
+      <c r="E24" s="269"/>
+      <c r="F24" s="269"/>
+      <c r="G24" s="269"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="260"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="263"/>
+      <c r="M24" s="264"/>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="199"/>
+      <c r="B25" s="259"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="263"/>
+      <c r="E25" s="259"/>
+      <c r="F25" s="259"/>
+      <c r="G25" s="259"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="263"/>
+      <c r="J25" s="260"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="263"/>
+      <c r="M25" s="264"/>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="199"/>
+      <c r="B26" s="259"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="263"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="259"/>
+      <c r="G26" s="259"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="263"/>
+      <c r="J26" s="260"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="263"/>
+      <c r="M26" s="264"/>
+    </row>
+    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="270"/>
+      <c r="B27" s="271"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="273" t="s">
         <v>42</v>
       </c>
-      <c r="L12" s="286" t="s">
-        <v>43</v>
-      </c>
-      <c r="M12" s="294"/>
-    </row>
-    <row r="13" spans="1:13" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="275"/>
-      <c r="B13" s="230"/>
-      <c r="C13" s="276"/>
-      <c r="D13" s="289"/>
-      <c r="E13" s="290"/>
-      <c r="F13" s="290"/>
-      <c r="G13" s="290"/>
-      <c r="H13" s="291"/>
-      <c r="I13" s="229"/>
-      <c r="J13" s="276"/>
-      <c r="K13" s="293"/>
-      <c r="L13" s="229"/>
-      <c r="M13" s="231"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="253"/>
-      <c r="B14" s="209"/>
-      <c r="C14" s="254"/>
-      <c r="D14" s="255" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="254"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="254"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="255"/>
-      <c r="M14" s="256"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="253"/>
-      <c r="B15" s="209"/>
-      <c r="C15" s="254"/>
-      <c r="D15" s="217" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="218"/>
-      <c r="F15" s="218"/>
-      <c r="G15" s="218"/>
-      <c r="H15" s="219"/>
-      <c r="I15" s="255"/>
-      <c r="J15" s="254"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="268">
-        <v>4981</v>
-      </c>
-      <c r="M15" s="269"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="253"/>
-      <c r="B16" s="209"/>
-      <c r="C16" s="254"/>
-      <c r="D16" s="217"/>
-      <c r="E16" s="218"/>
-      <c r="F16" s="218"/>
-      <c r="G16" s="218"/>
-      <c r="H16" s="219"/>
-      <c r="I16" s="255"/>
-      <c r="J16" s="254"/>
-      <c r="K16" s="32"/>
-      <c r="L16" s="255"/>
-      <c r="M16" s="256"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="253"/>
-      <c r="B17" s="209"/>
-      <c r="C17" s="254"/>
-      <c r="D17" s="217"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="219"/>
-      <c r="I17" s="255"/>
-      <c r="J17" s="254"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="270"/>
-      <c r="M17" s="271"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="253"/>
-      <c r="B18" s="209"/>
-      <c r="C18" s="254"/>
-      <c r="D18" s="217"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="219"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="267"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="255"/>
-      <c r="M18" s="256"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="253"/>
-      <c r="B19" s="209"/>
-      <c r="C19" s="254"/>
-      <c r="D19" s="217"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="219"/>
-      <c r="I19" s="255"/>
-      <c r="J19" s="254"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="255"/>
-      <c r="M19" s="256"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="253"/>
-      <c r="B20" s="209"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="217"/>
-      <c r="E20" s="218"/>
-      <c r="F20" s="218"/>
-      <c r="G20" s="218"/>
-      <c r="H20" s="219"/>
-      <c r="I20" s="255"/>
-      <c r="J20" s="254"/>
-      <c r="K20" s="32"/>
-      <c r="L20" s="255"/>
-      <c r="M20" s="256"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="253"/>
-      <c r="B21" s="209"/>
-      <c r="C21" s="254"/>
-      <c r="D21" s="217"/>
-      <c r="E21" s="218"/>
-      <c r="F21" s="218"/>
-      <c r="G21" s="218"/>
-      <c r="H21" s="219"/>
-      <c r="I21" s="255"/>
-      <c r="J21" s="254"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="255"/>
-      <c r="M21" s="256"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="253"/>
-      <c r="B22" s="209"/>
-      <c r="C22" s="254"/>
-      <c r="D22" s="266"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
-      <c r="H22" s="267"/>
-      <c r="I22" s="255"/>
-      <c r="J22" s="254"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="255"/>
-      <c r="M22" s="256"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="253"/>
-      <c r="B23" s="209"/>
-      <c r="C23" s="254"/>
-      <c r="D23" s="266"/>
-      <c r="E23" s="247"/>
-      <c r="F23" s="247"/>
-      <c r="G23" s="247"/>
-      <c r="H23" s="267"/>
-      <c r="I23" s="255"/>
-      <c r="J23" s="254"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="255"/>
-      <c r="M23" s="256"/>
-    </row>
-    <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="253"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="254"/>
-      <c r="D24" s="266"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="267"/>
-      <c r="I24" s="255"/>
-      <c r="J24" s="254"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="255"/>
-      <c r="M24" s="256"/>
-    </row>
-    <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="253"/>
-      <c r="B25" s="209"/>
-      <c r="C25" s="254"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="209"/>
-      <c r="F25" s="209"/>
-      <c r="G25" s="209"/>
-      <c r="H25" s="254"/>
-      <c r="I25" s="255"/>
-      <c r="J25" s="254"/>
-      <c r="K25" s="33"/>
-      <c r="L25" s="255"/>
-      <c r="M25" s="256"/>
-    </row>
-    <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="253"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="254"/>
-      <c r="D26" s="255"/>
-      <c r="E26" s="209"/>
-      <c r="F26" s="209"/>
-      <c r="G26" s="209"/>
-      <c r="H26" s="254"/>
-      <c r="I26" s="255"/>
-      <c r="J26" s="254"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="255"/>
-      <c r="M26" s="256"/>
-    </row>
-    <row r="27" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="257"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
-      <c r="D27" s="260" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="263"/>
-      <c r="J27" s="259"/>
+      <c r="E27" s="274"/>
+      <c r="F27" s="274"/>
+      <c r="G27" s="274"/>
+      <c r="H27" s="275"/>
+      <c r="I27" s="276"/>
+      <c r="J27" s="272"/>
       <c r="K27" s="30"/>
-      <c r="L27" s="264">
+      <c r="L27" s="277">
         <f>L15</f>
         <v>4981</v>
       </c>
-      <c r="M27" s="265"/>
+      <c r="M27" s="278"/>
     </row>
     <row r="28" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="241" t="s">
-        <v>47</v>
+      <c r="A28" s="280" t="s">
+        <v>43</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="17"/>
-      <c r="D28" s="215" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" s="243"/>
-      <c r="F28" s="243"/>
-      <c r="G28" s="243"/>
-      <c r="H28" s="244"/>
-      <c r="I28" s="245" t="s">
-        <v>49</v>
+      <c r="D28" s="282" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" s="283"/>
+      <c r="F28" s="283"/>
+      <c r="G28" s="283"/>
+      <c r="H28" s="284"/>
+      <c r="I28" s="285" t="s">
+        <v>45</v>
       </c>
       <c r="J28" s="35"/>
       <c r="K28" s="17"/>
@@ -3662,19 +3653,19 @@
       <c r="M28" s="13"/>
     </row>
     <row r="29" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="242"/>
-      <c r="B29" s="246" t="s">
-        <v>50</v>
-      </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="243"/>
-      <c r="E29" s="243"/>
-      <c r="F29" s="243"/>
-      <c r="G29" s="243"/>
-      <c r="H29" s="244"/>
-      <c r="I29" s="245"/>
+      <c r="A29" s="281"/>
+      <c r="B29" s="286" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="195"/>
+      <c r="D29" s="283"/>
+      <c r="E29" s="283"/>
+      <c r="F29" s="283"/>
+      <c r="G29" s="283"/>
+      <c r="H29" s="284"/>
+      <c r="I29" s="285"/>
       <c r="J29" s="36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="K29" s="2"/>
       <c r="L29" s="17"/>
@@ -3682,27 +3673,27 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
-      <c r="B30" s="247" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="247"/>
-      <c r="D30" s="247"/>
-      <c r="E30" s="247"/>
-      <c r="F30" s="247"/>
-      <c r="G30" s="247"/>
-      <c r="H30" s="248"/>
+      <c r="B30" s="269" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="269"/>
+      <c r="D30" s="269"/>
+      <c r="E30" s="269"/>
+      <c r="F30" s="269"/>
+      <c r="G30" s="269"/>
+      <c r="H30" s="287"/>
       <c r="I30" s="16"/>
       <c r="J30" s="17" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="17"/>
       <c r="M30" s="13"/>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="249"/>
+      <c r="A31" s="200"/>
       <c r="B31" s="17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C31" s="17"/>
       <c r="D31" s="17"/>
@@ -3712,14 +3703,14 @@
       <c r="H31" s="13"/>
       <c r="I31" s="17"/>
       <c r="J31" s="17" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K31" s="2"/>
       <c r="L31" s="17"/>
       <c r="M31" s="13"/>
     </row>
     <row r="32" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="249"/>
+      <c r="A32" s="200"/>
       <c r="B32" s="17"/>
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
@@ -3764,24 +3755,24 @@
       <c r="M34" s="13"/>
     </row>
     <row r="35" spans="1:13" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="250" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="227"/>
-      <c r="C35" s="218" t="s">
-        <v>57</v>
-      </c>
-      <c r="D35" s="218"/>
-      <c r="E35" s="218"/>
-      <c r="F35" s="218"/>
-      <c r="G35" s="218"/>
-      <c r="H35" s="235"/>
+      <c r="A35" s="288" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35" s="289"/>
+      <c r="C35" s="279" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="279"/>
+      <c r="E35" s="279"/>
+      <c r="F35" s="279"/>
+      <c r="G35" s="279"/>
+      <c r="H35" s="290"/>
       <c r="I35" s="17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="J35" s="17"/>
       <c r="K35" s="25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="L35" s="17"/>
       <c r="M35" s="13"/>
@@ -3802,12 +3793,12 @@
       <c r="M36" s="13"/>
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="251" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="252"/>
+      <c r="A37" s="291" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" s="292"/>
       <c r="C37" s="14" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D37" s="44"/>
       <c r="E37" s="44"/>
@@ -3815,11 +3806,11 @@
       <c r="G37" s="44"/>
       <c r="H37" s="45"/>
       <c r="I37" s="17" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J37" s="17"/>
       <c r="K37" s="14" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L37" s="17"/>
       <c r="M37" s="13"/>
@@ -3840,24 +3831,24 @@
       <c r="M38" s="13"/>
     </row>
     <row r="39" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="250" t="s">
-        <v>63</v>
-      </c>
-      <c r="B39" s="227"/>
-      <c r="C39" s="215" t="s">
-        <v>64</v>
-      </c>
-      <c r="D39" s="215"/>
-      <c r="E39" s="215"/>
-      <c r="F39" s="215"/>
-      <c r="G39" s="215"/>
-      <c r="H39" s="216"/>
+      <c r="A39" s="288" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="289"/>
+      <c r="C39" s="282" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="282"/>
+      <c r="E39" s="282"/>
+      <c r="F39" s="282"/>
+      <c r="G39" s="282"/>
+      <c r="H39" s="293"/>
       <c r="I39" s="17" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="J39" s="17"/>
       <c r="K39" s="25" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L39" s="17"/>
       <c r="M39" s="13"/>
@@ -3865,37 +3856,37 @@
     <row r="40" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="41"/>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
-      <c r="E40" s="218"/>
-      <c r="F40" s="218"/>
-      <c r="G40" s="218"/>
+      <c r="C40" s="279"/>
+      <c r="D40" s="279"/>
+      <c r="E40" s="279"/>
+      <c r="F40" s="279"/>
+      <c r="G40" s="279"/>
       <c r="H40" s="43"/>
       <c r="I40" s="17"/>
       <c r="J40" s="17"/>
-      <c r="K40" s="218"/>
-      <c r="L40" s="218"/>
-      <c r="M40" s="235"/>
+      <c r="K40" s="279"/>
+      <c r="L40" s="279"/>
+      <c r="M40" s="290"/>
     </row>
     <row r="41" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="236" t="s">
-        <v>66</v>
-      </c>
-      <c r="B41" s="237"/>
-      <c r="C41" s="215" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="215"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="215"/>
-      <c r="H41" s="216"/>
+      <c r="A41" s="212" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="213"/>
+      <c r="C41" s="282" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="282"/>
+      <c r="E41" s="282"/>
+      <c r="F41" s="282"/>
+      <c r="G41" s="282"/>
+      <c r="H41" s="293"/>
       <c r="I41" s="17" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="J41" s="17"/>
       <c r="K41" s="17" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="L41" s="17"/>
       <c r="M41" s="13"/>
@@ -3932,113 +3923,113 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="312" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" s="313"/>
+      <c r="D44" s="313"/>
+      <c r="E44" s="313"/>
+      <c r="F44" s="313"/>
+      <c r="G44" s="313"/>
+      <c r="H44" s="313"/>
+      <c r="I44" s="313"/>
+      <c r="J44" s="313"/>
+      <c r="K44" s="313"/>
+      <c r="L44" s="313"/>
+      <c r="M44" s="314"/>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="173" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="313"/>
+      <c r="C45" s="313"/>
+      <c r="D45" s="313"/>
+      <c r="E45" s="313"/>
+      <c r="F45" s="313"/>
+      <c r="G45" s="314"/>
+      <c r="H45" s="173" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="313"/>
+      <c r="J45" s="313"/>
+      <c r="K45" s="313"/>
+      <c r="L45" s="313"/>
+      <c r="M45" s="314"/>
+    </row>
+    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="301" t="s">
+        <v>9</v>
+      </c>
+      <c r="B46" s="303" t="s">
+        <v>36</v>
+      </c>
+      <c r="C46" s="304"/>
+      <c r="D46" s="304"/>
+      <c r="E46" s="307" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="289"/>
+      <c r="G46" s="308"/>
+      <c r="H46" s="301" t="s">
+        <v>68</v>
+      </c>
+      <c r="I46" s="309" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="238" t="s">
+      <c r="J46" s="310"/>
+      <c r="K46" s="311" t="s">
         <v>70</v>
       </c>
-      <c r="C44" s="239"/>
-      <c r="D44" s="239"/>
-      <c r="E44" s="239"/>
-      <c r="F44" s="239"/>
-      <c r="G44" s="239"/>
-      <c r="H44" s="239"/>
-      <c r="I44" s="239"/>
-      <c r="J44" s="239"/>
-      <c r="K44" s="239"/>
-      <c r="L44" s="239"/>
-      <c r="M44" s="240"/>
-    </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="198" t="s">
+      <c r="L46" s="294" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="239"/>
-      <c r="C45" s="239"/>
-      <c r="D45" s="239"/>
-      <c r="E45" s="239"/>
-      <c r="F45" s="239"/>
-      <c r="G45" s="240"/>
-      <c r="H45" s="198" t="s">
-        <v>43</v>
-      </c>
-      <c r="I45" s="239"/>
-      <c r="J45" s="239"/>
-      <c r="K45" s="239"/>
-      <c r="L45" s="239"/>
-      <c r="M45" s="240"/>
-    </row>
-    <row r="46" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="220" t="s">
-        <v>14</v>
-      </c>
-      <c r="B46" s="222" t="s">
-        <v>40</v>
-      </c>
-      <c r="C46" s="223"/>
-      <c r="D46" s="223"/>
-      <c r="E46" s="226" t="s">
+      <c r="M46" s="295"/>
+    </row>
+    <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="301"/>
+      <c r="B47" s="303"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="304"/>
+      <c r="E47" s="307"/>
+      <c r="F47" s="289"/>
+      <c r="G47" s="308"/>
+      <c r="H47" s="301"/>
+      <c r="I47" s="309"/>
+      <c r="J47" s="310"/>
+      <c r="K47" s="311"/>
+      <c r="L47" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="F46" s="227"/>
-      <c r="G46" s="228"/>
-      <c r="H46" s="220" t="s">
+      <c r="M47" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="I46" s="232" t="s">
+    </row>
+    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="302"/>
+      <c r="B48" s="305"/>
+      <c r="C48" s="306"/>
+      <c r="D48" s="306"/>
+      <c r="E48" s="254"/>
+      <c r="F48" s="243"/>
+      <c r="G48" s="258"/>
+      <c r="H48" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="J46" s="233"/>
-      <c r="K46" s="234" t="s">
+      <c r="I48" s="296" t="s">
         <v>75</v>
       </c>
-      <c r="L46" s="210" t="s">
+      <c r="J48" s="297"/>
+      <c r="K48" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="M46" s="211"/>
-    </row>
-    <row r="47" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="220"/>
-      <c r="B47" s="222"/>
-      <c r="C47" s="223"/>
-      <c r="D47" s="223"/>
-      <c r="E47" s="226"/>
-      <c r="F47" s="227"/>
-      <c r="G47" s="228"/>
-      <c r="H47" s="220"/>
-      <c r="I47" s="232"/>
-      <c r="J47" s="233"/>
-      <c r="K47" s="234"/>
-      <c r="L47" s="52" t="s">
+      <c r="L48" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="M47" s="53" t="s">
+      <c r="M48" s="57" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="221"/>
-      <c r="B48" s="224"/>
-      <c r="C48" s="225"/>
-      <c r="D48" s="225"/>
-      <c r="E48" s="229"/>
-      <c r="F48" s="230"/>
-      <c r="G48" s="231"/>
-      <c r="H48" s="54" t="s">
-        <v>79</v>
-      </c>
-      <c r="I48" s="212" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="213"/>
-      <c r="K48" s="55" t="s">
-        <v>81</v>
-      </c>
-      <c r="L48" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="M48" s="57" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4076,9 +4067,9 @@
       <c r="B51" s="68"/>
       <c r="C51" s="17"/>
       <c r="D51" s="60"/>
-      <c r="E51" s="214"/>
-      <c r="F51" s="215"/>
-      <c r="G51" s="216"/>
+      <c r="E51" s="298"/>
+      <c r="F51" s="282"/>
+      <c r="G51" s="293"/>
       <c r="H51" s="69"/>
       <c r="I51" s="70"/>
       <c r="J51" s="71"/>
@@ -4149,25 +4140,67 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="96">
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="A6:C7"/>
-    <mergeCell ref="D6:M7"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="D8:M9"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="D10:M11"/>
-    <mergeCell ref="A12:C13"/>
-    <mergeCell ref="D12:H13"/>
-    <mergeCell ref="I12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="L46:M46"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="D15:H21"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:D48"/>
+    <mergeCell ref="E46:G48"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="B44:M44"/>
+    <mergeCell ref="A45:G45"/>
+    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="D28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:H35"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:H39"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="L26:M26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="L24:M24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="L25:M25"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="L23:M23"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="L21:M21"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="L20:M20"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="I18:J18"/>
     <mergeCell ref="L18:M18"/>
@@ -4184,67 +4217,25 @@
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="L17:M17"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="L21:M21"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="L20:M20"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:H22"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="L23:M23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="L24:M24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="L25:M25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:H26"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="D28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="L46:M46"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="D15:H21"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:D48"/>
-    <mergeCell ref="E46:G48"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="B44:M44"/>
-    <mergeCell ref="A45:G45"/>
-    <mergeCell ref="H45:M45"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="D10:M11"/>
+    <mergeCell ref="A12:C13"/>
+    <mergeCell ref="D12:H13"/>
+    <mergeCell ref="I12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="A6:C7"/>
+    <mergeCell ref="D6:M7"/>
+    <mergeCell ref="A8:C9"/>
+    <mergeCell ref="D8:M9"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait"/>
@@ -4277,260 +4268,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AB1" s="474" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC1" s="474"/>
-      <c r="AD1" s="474"/>
-      <c r="AE1" s="474"/>
-      <c r="AF1" s="474"/>
-      <c r="AG1" s="474"/>
+      <c r="AB1" s="315" t="s">
+        <v>79</v>
+      </c>
+      <c r="AC1" s="315"/>
+      <c r="AD1" s="315"/>
+      <c r="AE1" s="315"/>
+      <c r="AF1" s="315"/>
+      <c r="AG1" s="315"/>
     </row>
     <row r="2" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AB2" s="87"/>
     </row>
     <row r="3" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="475" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="476"/>
-      <c r="C3" s="476"/>
-      <c r="D3" s="476"/>
-      <c r="E3" s="476"/>
-      <c r="F3" s="476"/>
-      <c r="G3" s="476"/>
-      <c r="H3" s="476"/>
-      <c r="I3" s="476"/>
-      <c r="J3" s="476"/>
-      <c r="K3" s="476"/>
-      <c r="L3" s="476"/>
-      <c r="M3" s="476"/>
-      <c r="N3" s="476"/>
-      <c r="O3" s="476"/>
-      <c r="P3" s="476"/>
-      <c r="Q3" s="476"/>
-      <c r="R3" s="476"/>
-      <c r="S3" s="476"/>
-      <c r="T3" s="476"/>
-      <c r="U3" s="476"/>
-      <c r="V3" s="476"/>
-      <c r="W3" s="476"/>
-      <c r="X3" s="476"/>
-      <c r="Y3" s="476"/>
-      <c r="Z3" s="476"/>
-      <c r="AA3" s="477"/>
-      <c r="AB3" s="478" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC3" s="479"/>
-      <c r="AD3" s="479"/>
-      <c r="AE3" s="479"/>
-      <c r="AF3" s="479"/>
-      <c r="AG3" s="480"/>
+      <c r="A3" s="316" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="317"/>
+      <c r="C3" s="317"/>
+      <c r="D3" s="317"/>
+      <c r="E3" s="317"/>
+      <c r="F3" s="317"/>
+      <c r="G3" s="317"/>
+      <c r="H3" s="317"/>
+      <c r="I3" s="317"/>
+      <c r="J3" s="317"/>
+      <c r="K3" s="317"/>
+      <c r="L3" s="317"/>
+      <c r="M3" s="317"/>
+      <c r="N3" s="317"/>
+      <c r="O3" s="317"/>
+      <c r="P3" s="317"/>
+      <c r="Q3" s="317"/>
+      <c r="R3" s="317"/>
+      <c r="S3" s="317"/>
+      <c r="T3" s="317"/>
+      <c r="U3" s="317"/>
+      <c r="V3" s="317"/>
+      <c r="W3" s="317"/>
+      <c r="X3" s="317"/>
+      <c r="Y3" s="317"/>
+      <c r="Z3" s="317"/>
+      <c r="AA3" s="318"/>
+      <c r="AB3" s="319" t="s">
+        <v>80</v>
+      </c>
+      <c r="AC3" s="320"/>
+      <c r="AD3" s="320"/>
+      <c r="AE3" s="320"/>
+      <c r="AF3" s="320"/>
+      <c r="AG3" s="321"/>
     </row>
     <row r="4" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="481" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="482"/>
-      <c r="C4" s="482"/>
-      <c r="D4" s="482"/>
-      <c r="E4" s="482"/>
-      <c r="F4" s="482"/>
-      <c r="G4" s="482"/>
-      <c r="H4" s="482"/>
-      <c r="I4" s="482"/>
-      <c r="J4" s="482"/>
-      <c r="K4" s="482"/>
-      <c r="L4" s="482"/>
-      <c r="M4" s="482"/>
-      <c r="N4" s="482"/>
-      <c r="O4" s="482"/>
-      <c r="P4" s="482"/>
-      <c r="Q4" s="482"/>
-      <c r="R4" s="482"/>
-      <c r="S4" s="482"/>
-      <c r="T4" s="482"/>
-      <c r="U4" s="482"/>
-      <c r="V4" s="482"/>
-      <c r="W4" s="482"/>
-      <c r="X4" s="482"/>
-      <c r="Y4" s="482"/>
-      <c r="Z4" s="482"/>
-      <c r="AA4" s="483"/>
-      <c r="AB4" s="484"/>
-      <c r="AC4" s="485"/>
-      <c r="AD4" s="485"/>
-      <c r="AE4" s="485"/>
-      <c r="AF4" s="485"/>
-      <c r="AG4" s="486"/>
+      <c r="A4" s="322" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="323"/>
+      <c r="C4" s="323"/>
+      <c r="D4" s="323"/>
+      <c r="E4" s="323"/>
+      <c r="F4" s="323"/>
+      <c r="G4" s="323"/>
+      <c r="H4" s="323"/>
+      <c r="I4" s="323"/>
+      <c r="J4" s="323"/>
+      <c r="K4" s="323"/>
+      <c r="L4" s="323"/>
+      <c r="M4" s="323"/>
+      <c r="N4" s="323"/>
+      <c r="O4" s="323"/>
+      <c r="P4" s="323"/>
+      <c r="Q4" s="323"/>
+      <c r="R4" s="323"/>
+      <c r="S4" s="323"/>
+      <c r="T4" s="323"/>
+      <c r="U4" s="323"/>
+      <c r="V4" s="323"/>
+      <c r="W4" s="323"/>
+      <c r="X4" s="323"/>
+      <c r="Y4" s="323"/>
+      <c r="Z4" s="323"/>
+      <c r="AA4" s="324"/>
+      <c r="AB4" s="325"/>
+      <c r="AC4" s="326"/>
+      <c r="AD4" s="326"/>
+      <c r="AE4" s="326"/>
+      <c r="AF4" s="326"/>
+      <c r="AG4" s="327"/>
     </row>
     <row r="5" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="440" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="441"/>
-      <c r="C5" s="441"/>
-      <c r="D5" s="441"/>
-      <c r="E5" s="441"/>
-      <c r="F5" s="441"/>
-      <c r="G5" s="441"/>
-      <c r="H5" s="441"/>
-      <c r="I5" s="441"/>
-      <c r="J5" s="441"/>
-      <c r="K5" s="441"/>
-      <c r="L5" s="441"/>
-      <c r="M5" s="441"/>
-      <c r="N5" s="441"/>
-      <c r="O5" s="441"/>
-      <c r="P5" s="441"/>
-      <c r="Q5" s="441"/>
-      <c r="R5" s="441"/>
-      <c r="S5" s="441"/>
-      <c r="T5" s="441"/>
-      <c r="U5" s="441"/>
-      <c r="V5" s="441"/>
-      <c r="W5" s="441"/>
-      <c r="X5" s="441"/>
-      <c r="Y5" s="441"/>
-      <c r="Z5" s="441"/>
-      <c r="AA5" s="442"/>
-      <c r="AB5" s="456" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC5" s="457"/>
-      <c r="AD5" s="457"/>
-      <c r="AE5" s="457"/>
-      <c r="AF5" s="457"/>
-      <c r="AG5" s="458"/>
+      <c r="A5" s="346" t="s">
+        <v>81</v>
+      </c>
+      <c r="B5" s="347"/>
+      <c r="C5" s="347"/>
+      <c r="D5" s="347"/>
+      <c r="E5" s="347"/>
+      <c r="F5" s="347"/>
+      <c r="G5" s="347"/>
+      <c r="H5" s="347"/>
+      <c r="I5" s="347"/>
+      <c r="J5" s="347"/>
+      <c r="K5" s="347"/>
+      <c r="L5" s="347"/>
+      <c r="M5" s="347"/>
+      <c r="N5" s="347"/>
+      <c r="O5" s="347"/>
+      <c r="P5" s="347"/>
+      <c r="Q5" s="347"/>
+      <c r="R5" s="347"/>
+      <c r="S5" s="347"/>
+      <c r="T5" s="347"/>
+      <c r="U5" s="347"/>
+      <c r="V5" s="347"/>
+      <c r="W5" s="347"/>
+      <c r="X5" s="347"/>
+      <c r="Y5" s="347"/>
+      <c r="Z5" s="347"/>
+      <c r="AA5" s="348"/>
+      <c r="AB5" s="359" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC5" s="360"/>
+      <c r="AD5" s="360"/>
+      <c r="AE5" s="360"/>
+      <c r="AF5" s="360"/>
+      <c r="AG5" s="361"/>
     </row>
     <row r="6" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="440"/>
-      <c r="B6" s="441"/>
-      <c r="C6" s="441"/>
-      <c r="D6" s="441"/>
-      <c r="E6" s="441"/>
-      <c r="F6" s="441"/>
-      <c r="G6" s="441"/>
-      <c r="H6" s="441"/>
-      <c r="I6" s="441"/>
-      <c r="J6" s="441"/>
-      <c r="K6" s="441"/>
-      <c r="L6" s="441"/>
-      <c r="M6" s="441"/>
-      <c r="N6" s="441"/>
-      <c r="O6" s="441"/>
-      <c r="P6" s="441"/>
-      <c r="Q6" s="441"/>
-      <c r="R6" s="441"/>
-      <c r="S6" s="441"/>
-      <c r="T6" s="441"/>
-      <c r="U6" s="441"/>
-      <c r="V6" s="441"/>
-      <c r="W6" s="441"/>
-      <c r="X6" s="441"/>
-      <c r="Y6" s="441"/>
-      <c r="Z6" s="441"/>
-      <c r="AA6" s="442"/>
-      <c r="AB6" s="459" t="s">
-        <v>88</v>
-      </c>
-      <c r="AC6" s="460"/>
-      <c r="AD6" s="460"/>
-      <c r="AE6" s="460"/>
-      <c r="AF6" s="460"/>
-      <c r="AG6" s="461"/>
+      <c r="A6" s="346"/>
+      <c r="B6" s="347"/>
+      <c r="C6" s="347"/>
+      <c r="D6" s="347"/>
+      <c r="E6" s="347"/>
+      <c r="F6" s="347"/>
+      <c r="G6" s="347"/>
+      <c r="H6" s="347"/>
+      <c r="I6" s="347"/>
+      <c r="J6" s="347"/>
+      <c r="K6" s="347"/>
+      <c r="L6" s="347"/>
+      <c r="M6" s="347"/>
+      <c r="N6" s="347"/>
+      <c r="O6" s="347"/>
+      <c r="P6" s="347"/>
+      <c r="Q6" s="347"/>
+      <c r="R6" s="347"/>
+      <c r="S6" s="347"/>
+      <c r="T6" s="347"/>
+      <c r="U6" s="347"/>
+      <c r="V6" s="347"/>
+      <c r="W6" s="347"/>
+      <c r="X6" s="347"/>
+      <c r="Y6" s="347"/>
+      <c r="Z6" s="347"/>
+      <c r="AA6" s="348"/>
+      <c r="AB6" s="362" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC6" s="363"/>
+      <c r="AD6" s="363"/>
+      <c r="AE6" s="363"/>
+      <c r="AF6" s="363"/>
+      <c r="AG6" s="364"/>
     </row>
     <row r="7" spans="1:34" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="443"/>
-      <c r="B7" s="444"/>
-      <c r="C7" s="444"/>
-      <c r="D7" s="444"/>
-      <c r="E7" s="444"/>
-      <c r="F7" s="444"/>
-      <c r="G7" s="444"/>
-      <c r="H7" s="444"/>
-      <c r="I7" s="444"/>
-      <c r="J7" s="444"/>
-      <c r="K7" s="444"/>
-      <c r="L7" s="444"/>
-      <c r="M7" s="444"/>
-      <c r="N7" s="444"/>
-      <c r="O7" s="444"/>
-      <c r="P7" s="444"/>
-      <c r="Q7" s="444"/>
-      <c r="R7" s="444"/>
-      <c r="S7" s="444"/>
-      <c r="T7" s="444"/>
-      <c r="U7" s="444"/>
-      <c r="V7" s="444"/>
-      <c r="W7" s="444"/>
-      <c r="X7" s="444"/>
-      <c r="Y7" s="444"/>
-      <c r="Z7" s="444"/>
-      <c r="AA7" s="445"/>
-      <c r="AB7" s="462"/>
-      <c r="AC7" s="462"/>
-      <c r="AD7" s="462"/>
-      <c r="AE7" s="462"/>
-      <c r="AF7" s="462"/>
-      <c r="AG7" s="463"/>
+      <c r="A7" s="349"/>
+      <c r="B7" s="350"/>
+      <c r="C7" s="350"/>
+      <c r="D7" s="350"/>
+      <c r="E7" s="350"/>
+      <c r="F7" s="350"/>
+      <c r="G7" s="350"/>
+      <c r="H7" s="350"/>
+      <c r="I7" s="350"/>
+      <c r="J7" s="350"/>
+      <c r="K7" s="350"/>
+      <c r="L7" s="350"/>
+      <c r="M7" s="350"/>
+      <c r="N7" s="350"/>
+      <c r="O7" s="350"/>
+      <c r="P7" s="350"/>
+      <c r="Q7" s="350"/>
+      <c r="R7" s="350"/>
+      <c r="S7" s="350"/>
+      <c r="T7" s="350"/>
+      <c r="U7" s="350"/>
+      <c r="V7" s="350"/>
+      <c r="W7" s="350"/>
+      <c r="X7" s="350"/>
+      <c r="Y7" s="350"/>
+      <c r="Z7" s="350"/>
+      <c r="AA7" s="351"/>
+      <c r="AB7" s="365"/>
+      <c r="AC7" s="365"/>
+      <c r="AD7" s="365"/>
+      <c r="AE7" s="365"/>
+      <c r="AF7" s="365"/>
+      <c r="AG7" s="366"/>
     </row>
     <row r="8" spans="1:34" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="446" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" s="447"/>
-      <c r="C8" s="448"/>
+      <c r="A8" s="328" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="329"/>
+      <c r="C8" s="330"/>
       <c r="D8" s="88"/>
-      <c r="E8" s="455"/>
-      <c r="F8" s="347"/>
-      <c r="G8" s="347"/>
-      <c r="H8" s="347"/>
-      <c r="I8" s="347"/>
-      <c r="J8" s="347"/>
-      <c r="K8" s="347"/>
-      <c r="L8" s="347"/>
-      <c r="M8" s="347"/>
-      <c r="N8" s="347"/>
-      <c r="O8" s="347"/>
-      <c r="P8" s="347"/>
-      <c r="Q8" s="347"/>
-      <c r="R8" s="347"/>
-      <c r="S8" s="347"/>
-      <c r="T8" s="347"/>
-      <c r="U8" s="347"/>
-      <c r="V8" s="347"/>
-      <c r="W8" s="347"/>
-      <c r="X8" s="347"/>
-      <c r="Y8" s="347"/>
-      <c r="Z8" s="347"/>
-      <c r="AA8" s="347"/>
-      <c r="AB8" s="347"/>
-      <c r="AC8" s="347"/>
-      <c r="AD8" s="347"/>
-      <c r="AE8" s="347"/>
-      <c r="AF8" s="347"/>
-      <c r="AG8" s="348"/>
+      <c r="E8" s="355"/>
+      <c r="F8" s="356"/>
+      <c r="G8" s="356"/>
+      <c r="H8" s="356"/>
+      <c r="I8" s="356"/>
+      <c r="J8" s="356"/>
+      <c r="K8" s="356"/>
+      <c r="L8" s="356"/>
+      <c r="M8" s="356"/>
+      <c r="N8" s="356"/>
+      <c r="O8" s="356"/>
+      <c r="P8" s="356"/>
+      <c r="Q8" s="356"/>
+      <c r="R8" s="356"/>
+      <c r="S8" s="356"/>
+      <c r="T8" s="356"/>
+      <c r="U8" s="356"/>
+      <c r="V8" s="356"/>
+      <c r="W8" s="356"/>
+      <c r="X8" s="356"/>
+      <c r="Y8" s="356"/>
+      <c r="Z8" s="356"/>
+      <c r="AA8" s="356"/>
+      <c r="AB8" s="356"/>
+      <c r="AC8" s="356"/>
+      <c r="AD8" s="356"/>
+      <c r="AE8" s="356"/>
+      <c r="AF8" s="356"/>
+      <c r="AG8" s="357"/>
       <c r="AH8" s="8"/>
     </row>
     <row r="9" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="449"/>
-      <c r="B9" s="450"/>
-      <c r="C9" s="451"/>
+      <c r="A9" s="331"/>
+      <c r="B9" s="332"/>
+      <c r="C9" s="333"/>
       <c r="D9" s="90"/>
       <c r="E9" s="91"/>
       <c r="F9" s="92"/>
       <c r="G9" s="93"/>
       <c r="H9" s="94" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I9" s="90"/>
       <c r="J9" s="90"/>
       <c r="K9" s="94"/>
       <c r="L9" s="93"/>
       <c r="M9" s="90" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="N9" s="92"/>
       <c r="O9" s="90"/>
@@ -4539,13 +4530,13 @@
       <c r="R9" s="90"/>
       <c r="S9" s="93"/>
       <c r="T9" s="90" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="U9" s="92"/>
       <c r="V9" s="90"/>
       <c r="W9" s="93"/>
       <c r="X9" s="90" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Y9" s="90"/>
       <c r="Z9" s="10"/>
@@ -4559,26 +4550,26 @@
       <c r="AH9" s="8"/>
     </row>
     <row r="10" spans="1:34" s="2" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="452"/>
-      <c r="B10" s="453"/>
-      <c r="C10" s="454"/>
+      <c r="A10" s="352"/>
+      <c r="B10" s="353"/>
+      <c r="C10" s="354"/>
       <c r="D10" s="81"/>
       <c r="E10" s="95"/>
       <c r="F10" s="96"/>
       <c r="G10" s="96"/>
       <c r="H10" s="96"/>
       <c r="I10" s="81"/>
-      <c r="J10" s="342"/>
-      <c r="K10" s="342"/>
-      <c r="L10" s="342"/>
-      <c r="M10" s="342"/>
+      <c r="J10" s="358"/>
+      <c r="K10" s="358"/>
+      <c r="L10" s="358"/>
+      <c r="M10" s="358"/>
       <c r="N10" s="96"/>
-      <c r="O10" s="342"/>
-      <c r="P10" s="342"/>
-      <c r="Q10" s="342"/>
-      <c r="R10" s="342"/>
-      <c r="S10" s="340"/>
-      <c r="T10" s="340"/>
+      <c r="O10" s="358"/>
+      <c r="P10" s="358"/>
+      <c r="Q10" s="358"/>
+      <c r="R10" s="358"/>
+      <c r="S10" s="344"/>
+      <c r="T10" s="344"/>
       <c r="U10" s="92"/>
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
@@ -4595,110 +4586,110 @@
       <c r="AH10" s="8"/>
     </row>
     <row r="11" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="446" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="447"/>
-      <c r="C11" s="448"/>
+      <c r="A11" s="328" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="329"/>
+      <c r="C11" s="330"/>
       <c r="D11" s="99"/>
-      <c r="E11" s="464" t="str">
+      <c r="E11" s="334" t="str">
         <f>ORS!D6</f>
         <v>MAYBELLINE M. MONTEIRO</v>
       </c>
-      <c r="F11" s="447"/>
-      <c r="G11" s="447"/>
-      <c r="H11" s="447"/>
-      <c r="I11" s="447"/>
-      <c r="J11" s="447"/>
-      <c r="K11" s="447"/>
-      <c r="L11" s="447"/>
-      <c r="M11" s="447"/>
-      <c r="N11" s="447"/>
-      <c r="O11" s="447"/>
-      <c r="P11" s="447"/>
-      <c r="Q11" s="447"/>
-      <c r="R11" s="447"/>
-      <c r="S11" s="466" t="s">
-        <v>95</v>
-      </c>
-      <c r="T11" s="467"/>
-      <c r="U11" s="467"/>
-      <c r="V11" s="467"/>
-      <c r="W11" s="467"/>
-      <c r="X11" s="467"/>
-      <c r="Y11" s="467"/>
-      <c r="Z11" s="467"/>
-      <c r="AA11" s="468"/>
-      <c r="AB11" s="469" t="s">
-        <v>96</v>
-      </c>
-      <c r="AC11" s="469"/>
-      <c r="AD11" s="469"/>
-      <c r="AE11" s="469"/>
-      <c r="AF11" s="469"/>
-      <c r="AG11" s="470"/>
+      <c r="F11" s="329"/>
+      <c r="G11" s="329"/>
+      <c r="H11" s="329"/>
+      <c r="I11" s="329"/>
+      <c r="J11" s="329"/>
+      <c r="K11" s="329"/>
+      <c r="L11" s="329"/>
+      <c r="M11" s="329"/>
+      <c r="N11" s="329"/>
+      <c r="O11" s="329"/>
+      <c r="P11" s="329"/>
+      <c r="Q11" s="329"/>
+      <c r="R11" s="329"/>
+      <c r="S11" s="336" t="s">
+        <v>90</v>
+      </c>
+      <c r="T11" s="337"/>
+      <c r="U11" s="337"/>
+      <c r="V11" s="337"/>
+      <c r="W11" s="337"/>
+      <c r="X11" s="337"/>
+      <c r="Y11" s="337"/>
+      <c r="Z11" s="337"/>
+      <c r="AA11" s="338"/>
+      <c r="AB11" s="339" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC11" s="339"/>
+      <c r="AD11" s="339"/>
+      <c r="AE11" s="339"/>
+      <c r="AF11" s="339"/>
+      <c r="AG11" s="340"/>
       <c r="AH11" s="11"/>
     </row>
     <row r="12" spans="1:34" s="2" customFormat="1" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="449"/>
-      <c r="B12" s="450"/>
-      <c r="C12" s="451"/>
+      <c r="A12" s="331"/>
+      <c r="B12" s="332"/>
+      <c r="C12" s="333"/>
       <c r="D12" s="90"/>
-      <c r="E12" s="465"/>
-      <c r="F12" s="450"/>
-      <c r="G12" s="450"/>
-      <c r="H12" s="450"/>
-      <c r="I12" s="450"/>
-      <c r="J12" s="450"/>
-      <c r="K12" s="450"/>
-      <c r="L12" s="450"/>
-      <c r="M12" s="450"/>
-      <c r="N12" s="450"/>
-      <c r="O12" s="450"/>
-      <c r="P12" s="450"/>
-      <c r="Q12" s="450"/>
-      <c r="R12" s="450"/>
-      <c r="S12" s="471"/>
-      <c r="T12" s="472"/>
-      <c r="U12" s="472"/>
-      <c r="V12" s="472"/>
-      <c r="W12" s="472"/>
-      <c r="X12" s="472"/>
-      <c r="Y12" s="472"/>
-      <c r="Z12" s="472"/>
-      <c r="AA12" s="473"/>
-      <c r="AB12" s="340"/>
-      <c r="AC12" s="340"/>
-      <c r="AD12" s="340"/>
-      <c r="AE12" s="340"/>
-      <c r="AF12" s="340"/>
-      <c r="AG12" s="341"/>
+      <c r="E12" s="335"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="332"/>
+      <c r="J12" s="332"/>
+      <c r="K12" s="332"/>
+      <c r="L12" s="332"/>
+      <c r="M12" s="332"/>
+      <c r="N12" s="332"/>
+      <c r="O12" s="332"/>
+      <c r="P12" s="332"/>
+      <c r="Q12" s="332"/>
+      <c r="R12" s="332"/>
+      <c r="S12" s="341"/>
+      <c r="T12" s="342"/>
+      <c r="U12" s="342"/>
+      <c r="V12" s="342"/>
+      <c r="W12" s="342"/>
+      <c r="X12" s="342"/>
+      <c r="Y12" s="342"/>
+      <c r="Z12" s="342"/>
+      <c r="AA12" s="343"/>
+      <c r="AB12" s="344"/>
+      <c r="AC12" s="344"/>
+      <c r="AD12" s="344"/>
+      <c r="AE12" s="344"/>
+      <c r="AF12" s="344"/>
+      <c r="AG12" s="345"/>
       <c r="AH12" s="8"/>
     </row>
     <row r="13" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="428" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="429"/>
-      <c r="C13" s="430"/>
+      <c r="A13" s="368" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="369"/>
+      <c r="C13" s="370"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="434" t="e">
+      <c r="E13" s="374" t="e">
         <f>ORS!D10</f>
         <v>#REF!</v>
       </c>
-      <c r="F13" s="429"/>
-      <c r="G13" s="429"/>
-      <c r="H13" s="429"/>
-      <c r="I13" s="429"/>
-      <c r="J13" s="429"/>
-      <c r="K13" s="429"/>
-      <c r="L13" s="429"/>
-      <c r="M13" s="429"/>
-      <c r="N13" s="429"/>
-      <c r="O13" s="429"/>
-      <c r="P13" s="429"/>
-      <c r="Q13" s="429"/>
-      <c r="R13" s="429"/>
+      <c r="F13" s="369"/>
+      <c r="G13" s="369"/>
+      <c r="H13" s="369"/>
+      <c r="I13" s="369"/>
+      <c r="J13" s="369"/>
+      <c r="K13" s="369"/>
+      <c r="L13" s="369"/>
+      <c r="M13" s="369"/>
+      <c r="N13" s="369"/>
+      <c r="O13" s="369"/>
+      <c r="P13" s="369"/>
+      <c r="Q13" s="369"/>
+      <c r="R13" s="369"/>
       <c r="S13" s="89"/>
       <c r="T13" s="89"/>
       <c r="U13" s="89"/>
@@ -4717,24 +4708,24 @@
       <c r="AH13" s="8"/>
     </row>
     <row r="14" spans="1:34" s="2" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="431"/>
-      <c r="B14" s="432"/>
-      <c r="C14" s="433"/>
+      <c r="A14" s="371"/>
+      <c r="B14" s="372"/>
+      <c r="C14" s="373"/>
       <c r="D14" s="81"/>
-      <c r="E14" s="435"/>
-      <c r="F14" s="432"/>
-      <c r="G14" s="432"/>
-      <c r="H14" s="432"/>
-      <c r="I14" s="432"/>
-      <c r="J14" s="432"/>
-      <c r="K14" s="432"/>
-      <c r="L14" s="432"/>
-      <c r="M14" s="432"/>
-      <c r="N14" s="432"/>
-      <c r="O14" s="432"/>
-      <c r="P14" s="432"/>
-      <c r="Q14" s="432"/>
-      <c r="R14" s="432"/>
+      <c r="E14" s="375"/>
+      <c r="F14" s="372"/>
+      <c r="G14" s="372"/>
+      <c r="H14" s="372"/>
+      <c r="I14" s="372"/>
+      <c r="J14" s="372"/>
+      <c r="K14" s="372"/>
+      <c r="L14" s="372"/>
+      <c r="M14" s="372"/>
+      <c r="N14" s="372"/>
+      <c r="O14" s="372"/>
+      <c r="P14" s="372"/>
+      <c r="Q14" s="372"/>
+      <c r="R14" s="372"/>
       <c r="S14" s="96"/>
       <c r="T14" s="96"/>
       <c r="U14" s="96"/>
@@ -4753,47 +4744,47 @@
       <c r="AH14" s="12"/>
     </row>
     <row r="15" spans="1:34" s="103" customFormat="1" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="436" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="396"/>
-      <c r="C15" s="396"/>
-      <c r="D15" s="396"/>
-      <c r="E15" s="396"/>
-      <c r="F15" s="396"/>
-      <c r="G15" s="396"/>
-      <c r="H15" s="396"/>
-      <c r="I15" s="396"/>
-      <c r="J15" s="396"/>
-      <c r="K15" s="396"/>
-      <c r="L15" s="396"/>
-      <c r="M15" s="396"/>
-      <c r="N15" s="396"/>
-      <c r="O15" s="396"/>
-      <c r="P15" s="396"/>
-      <c r="Q15" s="437"/>
-      <c r="R15" s="395" t="s">
+      <c r="A15" s="376" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="377"/>
+      <c r="C15" s="377"/>
+      <c r="D15" s="377"/>
+      <c r="E15" s="377"/>
+      <c r="F15" s="377"/>
+      <c r="G15" s="377"/>
+      <c r="H15" s="377"/>
+      <c r="I15" s="377"/>
+      <c r="J15" s="377"/>
+      <c r="K15" s="377"/>
+      <c r="L15" s="377"/>
+      <c r="M15" s="377"/>
+      <c r="N15" s="377"/>
+      <c r="O15" s="377"/>
+      <c r="P15" s="377"/>
+      <c r="Q15" s="378"/>
+      <c r="R15" s="379" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="380"/>
+      <c r="T15" s="380"/>
+      <c r="U15" s="380"/>
+      <c r="V15" s="381"/>
+      <c r="W15" s="379" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="377"/>
+      <c r="Y15" s="377"/>
+      <c r="Z15" s="377"/>
+      <c r="AA15" s="378"/>
+      <c r="AB15" s="379" t="s">
         <v>39</v>
       </c>
-      <c r="S15" s="438"/>
-      <c r="T15" s="438"/>
-      <c r="U15" s="438"/>
-      <c r="V15" s="439"/>
-      <c r="W15" s="395" t="s">
-        <v>41</v>
-      </c>
-      <c r="X15" s="396"/>
-      <c r="Y15" s="396"/>
-      <c r="Z15" s="396"/>
-      <c r="AA15" s="437"/>
-      <c r="AB15" s="395" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC15" s="396"/>
-      <c r="AD15" s="396"/>
-      <c r="AE15" s="396"/>
-      <c r="AF15" s="396"/>
-      <c r="AG15" s="397"/>
+      <c r="AC15" s="377"/>
+      <c r="AD15" s="377"/>
+      <c r="AE15" s="377"/>
+      <c r="AF15" s="377"/>
+      <c r="AG15" s="382"/>
       <c r="AH15" s="102"/>
     </row>
     <row r="16" spans="1:34" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4834,23 +4825,23 @@
     </row>
     <row r="17" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="111"/>
-      <c r="B17" s="218" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" s="218"/>
-      <c r="D17" s="218"/>
-      <c r="E17" s="218"/>
-      <c r="F17" s="218"/>
-      <c r="G17" s="218"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="218"/>
-      <c r="J17" s="218"/>
-      <c r="K17" s="218"/>
-      <c r="L17" s="218"/>
-      <c r="M17" s="218"/>
-      <c r="N17" s="218"/>
-      <c r="O17" s="218"/>
-      <c r="P17" s="218"/>
+      <c r="B17" s="279" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="279"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
+      <c r="F17" s="279"/>
+      <c r="G17" s="279"/>
+      <c r="H17" s="279"/>
+      <c r="I17" s="279"/>
+      <c r="J17" s="279"/>
+      <c r="K17" s="279"/>
+      <c r="L17" s="279"/>
+      <c r="M17" s="279"/>
+      <c r="N17" s="279"/>
+      <c r="O17" s="279"/>
+      <c r="P17" s="279"/>
       <c r="Q17" s="112"/>
       <c r="R17" s="113"/>
       <c r="S17" s="114"/>
@@ -4862,34 +4853,34 @@
       <c r="Y17" s="114"/>
       <c r="Z17" s="114"/>
       <c r="AA17" s="112"/>
-      <c r="AB17" s="414">
+      <c r="AB17" s="399">
         <f>ORS!L15</f>
         <v>4981</v>
       </c>
-      <c r="AC17" s="415"/>
-      <c r="AD17" s="415"/>
-      <c r="AE17" s="415"/>
-      <c r="AF17" s="415"/>
-      <c r="AG17" s="416"/>
+      <c r="AC17" s="400"/>
+      <c r="AD17" s="400"/>
+      <c r="AE17" s="400"/>
+      <c r="AF17" s="400"/>
+      <c r="AG17" s="401"/>
       <c r="AH17" s="8"/>
     </row>
     <row r="18" spans="1:35" s="2" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="111"/>
-      <c r="B18" s="218"/>
-      <c r="C18" s="218"/>
-      <c r="D18" s="218"/>
-      <c r="E18" s="218"/>
-      <c r="F18" s="218"/>
-      <c r="G18" s="218"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="218"/>
-      <c r="J18" s="218"/>
-      <c r="K18" s="218"/>
-      <c r="L18" s="218"/>
-      <c r="M18" s="218"/>
-      <c r="N18" s="218"/>
-      <c r="O18" s="218"/>
-      <c r="P18" s="218"/>
+      <c r="B18" s="279"/>
+      <c r="C18" s="279"/>
+      <c r="D18" s="279"/>
+      <c r="E18" s="279"/>
+      <c r="F18" s="279"/>
+      <c r="G18" s="279"/>
+      <c r="H18" s="279"/>
+      <c r="I18" s="279"/>
+      <c r="J18" s="279"/>
+      <c r="K18" s="279"/>
+      <c r="L18" s="279"/>
+      <c r="M18" s="279"/>
+      <c r="N18" s="279"/>
+      <c r="O18" s="279"/>
+      <c r="P18" s="279"/>
       <c r="Q18" s="112"/>
       <c r="R18" s="113"/>
       <c r="S18" s="114"/>
@@ -4911,21 +4902,21 @@
     </row>
     <row r="19" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="111"/>
-      <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
-      <c r="D19" s="218"/>
-      <c r="E19" s="218"/>
-      <c r="F19" s="218"/>
-      <c r="G19" s="218"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="218"/>
-      <c r="J19" s="218"/>
-      <c r="K19" s="218"/>
-      <c r="L19" s="218"/>
-      <c r="M19" s="218"/>
-      <c r="N19" s="218"/>
-      <c r="O19" s="218"/>
-      <c r="P19" s="218"/>
+      <c r="B19" s="279"/>
+      <c r="C19" s="279"/>
+      <c r="D19" s="279"/>
+      <c r="E19" s="279"/>
+      <c r="F19" s="279"/>
+      <c r="G19" s="279"/>
+      <c r="H19" s="279"/>
+      <c r="I19" s="279"/>
+      <c r="J19" s="279"/>
+      <c r="K19" s="279"/>
+      <c r="L19" s="279"/>
+      <c r="M19" s="279"/>
+      <c r="N19" s="279"/>
+      <c r="O19" s="279"/>
+      <c r="P19" s="279"/>
       <c r="Q19" s="112"/>
       <c r="R19" s="113"/>
       <c r="S19" s="114"/>
@@ -4984,7 +4975,7 @@
     <row r="21" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="111"/>
       <c r="B21" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
@@ -5022,7 +5013,7 @@
     <row r="22" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="111"/>
       <c r="B22" s="17" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -5060,7 +5051,7 @@
     <row r="23" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="111"/>
       <c r="B23" s="17" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="17"/>
@@ -5098,7 +5089,7 @@
     <row r="24" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="111"/>
       <c r="B24" s="17" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
@@ -5136,7 +5127,7 @@
     <row r="25" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="111"/>
       <c r="B25" s="17" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
@@ -5174,7 +5165,7 @@
     <row r="26" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="111"/>
       <c r="B26" s="17" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C26" s="17"/>
       <c r="D26" s="17"/>
@@ -5212,7 +5203,7 @@
     <row r="27" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="111"/>
       <c r="B27" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C27" s="17"/>
       <c r="D27" s="17"/>
@@ -5284,25 +5275,25 @@
       <c r="AH28" s="8"/>
     </row>
     <row r="29" spans="1:35" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="417" t="s">
-        <v>105</v>
-      </c>
-      <c r="B29" s="418"/>
-      <c r="C29" s="418"/>
-      <c r="D29" s="418"/>
-      <c r="E29" s="418"/>
-      <c r="F29" s="418"/>
-      <c r="G29" s="418"/>
-      <c r="H29" s="418"/>
-      <c r="I29" s="418"/>
-      <c r="J29" s="418"/>
-      <c r="K29" s="418"/>
-      <c r="L29" s="418"/>
-      <c r="M29" s="418"/>
-      <c r="N29" s="418"/>
-      <c r="O29" s="418"/>
-      <c r="P29" s="418"/>
-      <c r="Q29" s="419"/>
+      <c r="A29" s="402" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="403"/>
+      <c r="C29" s="403"/>
+      <c r="D29" s="403"/>
+      <c r="E29" s="403"/>
+      <c r="F29" s="403"/>
+      <c r="G29" s="403"/>
+      <c r="H29" s="403"/>
+      <c r="I29" s="403"/>
+      <c r="J29" s="403"/>
+      <c r="K29" s="403"/>
+      <c r="L29" s="403"/>
+      <c r="M29" s="403"/>
+      <c r="N29" s="403"/>
+      <c r="O29" s="403"/>
+      <c r="P29" s="403"/>
+      <c r="Q29" s="404"/>
       <c r="R29" s="117"/>
       <c r="S29" s="118"/>
       <c r="T29" s="118"/>
@@ -5313,56 +5304,56 @@
       <c r="Y29" s="118"/>
       <c r="Z29" s="118"/>
       <c r="AA29" s="112"/>
-      <c r="AB29" s="420">
+      <c r="AB29" s="405">
         <f>AB17</f>
         <v>4981</v>
       </c>
-      <c r="AC29" s="421"/>
-      <c r="AD29" s="421"/>
-      <c r="AE29" s="421"/>
-      <c r="AF29" s="421"/>
-      <c r="AG29" s="422"/>
+      <c r="AC29" s="406"/>
+      <c r="AD29" s="406"/>
+      <c r="AE29" s="406"/>
+      <c r="AF29" s="406"/>
+      <c r="AG29" s="407"/>
       <c r="AH29" s="8"/>
       <c r="AI29" s="4"/>
     </row>
     <row r="30" spans="1:35" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="B30" s="423" t="s">
-        <v>106</v>
-      </c>
-      <c r="C30" s="423"/>
-      <c r="D30" s="423"/>
-      <c r="E30" s="423"/>
-      <c r="F30" s="423"/>
-      <c r="G30" s="423"/>
-      <c r="H30" s="423"/>
-      <c r="I30" s="423"/>
-      <c r="J30" s="423"/>
-      <c r="K30" s="423"/>
-      <c r="L30" s="423"/>
-      <c r="M30" s="423"/>
-      <c r="N30" s="423"/>
-      <c r="O30" s="423"/>
-      <c r="P30" s="423"/>
-      <c r="Q30" s="423"/>
-      <c r="R30" s="423"/>
-      <c r="S30" s="423"/>
-      <c r="T30" s="423"/>
-      <c r="U30" s="423"/>
-      <c r="V30" s="423"/>
-      <c r="W30" s="423"/>
-      <c r="X30" s="423"/>
-      <c r="Y30" s="423"/>
-      <c r="Z30" s="423"/>
-      <c r="AA30" s="423"/>
-      <c r="AB30" s="424"/>
-      <c r="AC30" s="424"/>
-      <c r="AD30" s="424"/>
-      <c r="AE30" s="424"/>
-      <c r="AF30" s="424"/>
-      <c r="AG30" s="425"/>
+        <v>43</v>
+      </c>
+      <c r="B30" s="408" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="408"/>
+      <c r="D30" s="408"/>
+      <c r="E30" s="408"/>
+      <c r="F30" s="408"/>
+      <c r="G30" s="408"/>
+      <c r="H30" s="408"/>
+      <c r="I30" s="408"/>
+      <c r="J30" s="408"/>
+      <c r="K30" s="408"/>
+      <c r="L30" s="408"/>
+      <c r="M30" s="408"/>
+      <c r="N30" s="408"/>
+      <c r="O30" s="408"/>
+      <c r="P30" s="408"/>
+      <c r="Q30" s="408"/>
+      <c r="R30" s="408"/>
+      <c r="S30" s="408"/>
+      <c r="T30" s="408"/>
+      <c r="U30" s="408"/>
+      <c r="V30" s="408"/>
+      <c r="W30" s="408"/>
+      <c r="X30" s="408"/>
+      <c r="Y30" s="408"/>
+      <c r="Z30" s="408"/>
+      <c r="AA30" s="408"/>
+      <c r="AB30" s="409"/>
+      <c r="AC30" s="409"/>
+      <c r="AD30" s="409"/>
+      <c r="AE30" s="409"/>
+      <c r="AF30" s="409"/>
+      <c r="AG30" s="410"/>
       <c r="AH30" s="8"/>
       <c r="AI30" s="4"/>
     </row>
@@ -5372,7 +5363,7 @@
       <c r="C31" s="115"/>
       <c r="D31" s="115"/>
       <c r="E31" s="92" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F31" s="92"/>
       <c r="G31" s="92"/>
@@ -5407,80 +5398,80 @@
     </row>
     <row r="32" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="121"/>
-      <c r="B32" s="426" t="str">
+      <c r="B32" s="411" t="str">
         <f>ORS!C37</f>
         <v>DR. CARINA S. CRUZ</v>
       </c>
-      <c r="C32" s="415"/>
-      <c r="D32" s="415"/>
-      <c r="E32" s="415"/>
-      <c r="F32" s="415"/>
-      <c r="G32" s="415"/>
-      <c r="H32" s="415"/>
-      <c r="I32" s="415"/>
-      <c r="J32" s="415"/>
-      <c r="K32" s="415"/>
-      <c r="L32" s="415"/>
-      <c r="M32" s="415"/>
-      <c r="N32" s="415"/>
-      <c r="O32" s="415"/>
-      <c r="P32" s="415"/>
-      <c r="Q32" s="415"/>
-      <c r="R32" s="415"/>
-      <c r="S32" s="415"/>
-      <c r="T32" s="415"/>
-      <c r="U32" s="415"/>
-      <c r="V32" s="415"/>
-      <c r="W32" s="415"/>
-      <c r="X32" s="415"/>
-      <c r="Y32" s="415"/>
-      <c r="Z32" s="415"/>
-      <c r="AA32" s="415"/>
-      <c r="AB32" s="415"/>
-      <c r="AC32" s="415"/>
-      <c r="AD32" s="415"/>
-      <c r="AE32" s="415"/>
-      <c r="AF32" s="415"/>
+      <c r="C32" s="400"/>
+      <c r="D32" s="400"/>
+      <c r="E32" s="400"/>
+      <c r="F32" s="400"/>
+      <c r="G32" s="400"/>
+      <c r="H32" s="400"/>
+      <c r="I32" s="400"/>
+      <c r="J32" s="400"/>
+      <c r="K32" s="400"/>
+      <c r="L32" s="400"/>
+      <c r="M32" s="400"/>
+      <c r="N32" s="400"/>
+      <c r="O32" s="400"/>
+      <c r="P32" s="400"/>
+      <c r="Q32" s="400"/>
+      <c r="R32" s="400"/>
+      <c r="S32" s="400"/>
+      <c r="T32" s="400"/>
+      <c r="U32" s="400"/>
+      <c r="V32" s="400"/>
+      <c r="W32" s="400"/>
+      <c r="X32" s="400"/>
+      <c r="Y32" s="400"/>
+      <c r="Z32" s="400"/>
+      <c r="AA32" s="400"/>
+      <c r="AB32" s="400"/>
+      <c r="AC32" s="400"/>
+      <c r="AD32" s="400"/>
+      <c r="AE32" s="400"/>
+      <c r="AF32" s="400"/>
       <c r="AG32" s="125"/>
       <c r="AH32" s="8"/>
       <c r="AI32" s="4"/>
     </row>
     <row r="33" spans="1:35" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="121"/>
-      <c r="B33" s="427" t="str">
+      <c r="B33" s="367" t="str">
         <f>ORS!C39</f>
         <v>Chief, FAD</v>
       </c>
-      <c r="C33" s="427"/>
-      <c r="D33" s="427"/>
-      <c r="E33" s="427"/>
-      <c r="F33" s="427"/>
-      <c r="G33" s="427"/>
-      <c r="H33" s="427"/>
-      <c r="I33" s="427"/>
-      <c r="J33" s="427"/>
-      <c r="K33" s="427"/>
-      <c r="L33" s="427"/>
-      <c r="M33" s="427"/>
-      <c r="N33" s="427"/>
-      <c r="O33" s="427"/>
-      <c r="P33" s="427"/>
-      <c r="Q33" s="427"/>
-      <c r="R33" s="427"/>
-      <c r="S33" s="427"/>
-      <c r="T33" s="427"/>
-      <c r="U33" s="427"/>
-      <c r="V33" s="427"/>
-      <c r="W33" s="427"/>
-      <c r="X33" s="427"/>
-      <c r="Y33" s="427"/>
-      <c r="Z33" s="427"/>
-      <c r="AA33" s="427"/>
-      <c r="AB33" s="427"/>
-      <c r="AC33" s="427"/>
-      <c r="AD33" s="427"/>
-      <c r="AE33" s="427"/>
-      <c r="AF33" s="427"/>
+      <c r="C33" s="367"/>
+      <c r="D33" s="367"/>
+      <c r="E33" s="367"/>
+      <c r="F33" s="367"/>
+      <c r="G33" s="367"/>
+      <c r="H33" s="367"/>
+      <c r="I33" s="367"/>
+      <c r="J33" s="367"/>
+      <c r="K33" s="367"/>
+      <c r="L33" s="367"/>
+      <c r="M33" s="367"/>
+      <c r="N33" s="367"/>
+      <c r="O33" s="367"/>
+      <c r="P33" s="367"/>
+      <c r="Q33" s="367"/>
+      <c r="R33" s="367"/>
+      <c r="S33" s="367"/>
+      <c r="T33" s="367"/>
+      <c r="U33" s="367"/>
+      <c r="V33" s="367"/>
+      <c r="W33" s="367"/>
+      <c r="X33" s="367"/>
+      <c r="Y33" s="367"/>
+      <c r="Z33" s="367"/>
+      <c r="AA33" s="367"/>
+      <c r="AB33" s="367"/>
+      <c r="AC33" s="367"/>
+      <c r="AD33" s="367"/>
+      <c r="AE33" s="367"/>
+      <c r="AF33" s="367"/>
       <c r="AG33" s="125"/>
       <c r="AH33" s="8"/>
       <c r="AI33" s="4"/>
@@ -5497,19 +5488,19 @@
       <c r="I34" s="94"/>
       <c r="J34" s="94"/>
       <c r="K34" s="94"/>
-      <c r="L34" s="427"/>
-      <c r="M34" s="427"/>
-      <c r="N34" s="427"/>
-      <c r="O34" s="427"/>
-      <c r="P34" s="427"/>
-      <c r="Q34" s="427"/>
-      <c r="R34" s="427"/>
-      <c r="S34" s="427"/>
-      <c r="T34" s="427"/>
-      <c r="U34" s="427"/>
-      <c r="V34" s="427"/>
-      <c r="W34" s="427"/>
-      <c r="X34" s="427"/>
+      <c r="L34" s="367"/>
+      <c r="M34" s="367"/>
+      <c r="N34" s="367"/>
+      <c r="O34" s="367"/>
+      <c r="P34" s="367"/>
+      <c r="Q34" s="367"/>
+      <c r="R34" s="367"/>
+      <c r="S34" s="367"/>
+      <c r="T34" s="367"/>
+      <c r="U34" s="367"/>
+      <c r="V34" s="367"/>
+      <c r="W34" s="367"/>
+      <c r="X34" s="367"/>
       <c r="Y34" s="92"/>
       <c r="Z34" s="122"/>
       <c r="AA34" s="122"/>
@@ -5534,19 +5525,19 @@
       <c r="I35" s="90"/>
       <c r="J35" s="90"/>
       <c r="K35" s="90"/>
-      <c r="L35" s="427"/>
-      <c r="M35" s="427"/>
-      <c r="N35" s="427"/>
-      <c r="O35" s="427"/>
-      <c r="P35" s="427"/>
-      <c r="Q35" s="427"/>
-      <c r="R35" s="427"/>
-      <c r="S35" s="427"/>
-      <c r="T35" s="427"/>
-      <c r="U35" s="427"/>
-      <c r="V35" s="427"/>
-      <c r="W35" s="427"/>
-      <c r="X35" s="427"/>
+      <c r="L35" s="367"/>
+      <c r="M35" s="367"/>
+      <c r="N35" s="367"/>
+      <c r="O35" s="367"/>
+      <c r="P35" s="367"/>
+      <c r="Q35" s="367"/>
+      <c r="R35" s="367"/>
+      <c r="S35" s="367"/>
+      <c r="T35" s="367"/>
+      <c r="U35" s="367"/>
+      <c r="V35" s="367"/>
+      <c r="W35" s="367"/>
+      <c r="X35" s="367"/>
       <c r="Y35" s="94"/>
       <c r="Z35" s="94"/>
       <c r="AA35" s="94"/>
@@ -5561,10 +5552,10 @@
     </row>
     <row r="36" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="128" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B36" s="129" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C36" s="130"/>
       <c r="D36" s="130"/>
@@ -5601,47 +5592,47 @@
       <c r="AI36" s="4"/>
     </row>
     <row r="37" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="409" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="410"/>
-      <c r="C37" s="410"/>
-      <c r="D37" s="410"/>
-      <c r="E37" s="410"/>
-      <c r="F37" s="410"/>
-      <c r="G37" s="410"/>
-      <c r="H37" s="410"/>
-      <c r="I37" s="410"/>
-      <c r="J37" s="410"/>
-      <c r="K37" s="410"/>
-      <c r="L37" s="410"/>
-      <c r="M37" s="410"/>
-      <c r="N37" s="410"/>
-      <c r="O37" s="410"/>
-      <c r="P37" s="410"/>
-      <c r="Q37" s="410"/>
-      <c r="R37" s="410"/>
-      <c r="S37" s="410" t="s">
-        <v>110</v>
-      </c>
-      <c r="T37" s="410"/>
-      <c r="U37" s="410"/>
-      <c r="V37" s="410"/>
-      <c r="W37" s="410"/>
-      <c r="X37" s="411" t="s">
-        <v>111</v>
-      </c>
-      <c r="Y37" s="411"/>
-      <c r="Z37" s="411"/>
-      <c r="AA37" s="411"/>
-      <c r="AB37" s="411"/>
-      <c r="AC37" s="412" t="s">
-        <v>112</v>
-      </c>
-      <c r="AD37" s="412"/>
-      <c r="AE37" s="412"/>
-      <c r="AF37" s="412"/>
-      <c r="AG37" s="413"/>
+      <c r="A37" s="394" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="395"/>
+      <c r="C37" s="395"/>
+      <c r="D37" s="395"/>
+      <c r="E37" s="395"/>
+      <c r="F37" s="395"/>
+      <c r="G37" s="395"/>
+      <c r="H37" s="395"/>
+      <c r="I37" s="395"/>
+      <c r="J37" s="395"/>
+      <c r="K37" s="395"/>
+      <c r="L37" s="395"/>
+      <c r="M37" s="395"/>
+      <c r="N37" s="395"/>
+      <c r="O37" s="395"/>
+      <c r="P37" s="395"/>
+      <c r="Q37" s="395"/>
+      <c r="R37" s="395"/>
+      <c r="S37" s="395" t="s">
+        <v>105</v>
+      </c>
+      <c r="T37" s="395"/>
+      <c r="U37" s="395"/>
+      <c r="V37" s="395"/>
+      <c r="W37" s="395"/>
+      <c r="X37" s="396" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y37" s="396"/>
+      <c r="Z37" s="396"/>
+      <c r="AA37" s="396"/>
+      <c r="AB37" s="396"/>
+      <c r="AC37" s="397" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD37" s="397"/>
+      <c r="AE37" s="397"/>
+      <c r="AF37" s="397"/>
+      <c r="AG37" s="398"/>
       <c r="AH37" s="8"/>
       <c r="AI37" s="4"/>
     </row>
@@ -5721,7 +5712,7 @@
     <row r="40" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="138"/>
       <c r="B40" s="139" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C40" s="139"/>
       <c r="D40" s="139"/>
@@ -5758,10 +5749,10 @@
     </row>
     <row r="41" spans="1:35" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="142" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B41" s="143" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C41" s="143"/>
       <c r="D41" s="143"/>
@@ -5780,21 +5771,21 @@
       <c r="Q41" s="145"/>
       <c r="R41" s="146"/>
       <c r="S41" s="142" t="s">
-        <v>114</v>
-      </c>
-      <c r="T41" s="398" t="s">
-        <v>115</v>
-      </c>
-      <c r="U41" s="398"/>
-      <c r="V41" s="398"/>
-      <c r="W41" s="398"/>
-      <c r="X41" s="398"/>
-      <c r="Y41" s="398"/>
-      <c r="Z41" s="398"/>
-      <c r="AA41" s="398"/>
-      <c r="AB41" s="398"/>
-      <c r="AC41" s="398"/>
-      <c r="AD41" s="398"/>
+        <v>109</v>
+      </c>
+      <c r="T41" s="383" t="s">
+        <v>110</v>
+      </c>
+      <c r="U41" s="383"/>
+      <c r="V41" s="383"/>
+      <c r="W41" s="383"/>
+      <c r="X41" s="383"/>
+      <c r="Y41" s="383"/>
+      <c r="Z41" s="383"/>
+      <c r="AA41" s="383"/>
+      <c r="AB41" s="383"/>
+      <c r="AC41" s="383"/>
+      <c r="AD41" s="383"/>
       <c r="AE41" s="147"/>
       <c r="AF41" s="147"/>
       <c r="AG41" s="148"/>
@@ -5804,7 +5795,7 @@
       <c r="A42" s="126"/>
       <c r="B42" s="149"/>
       <c r="C42" s="90" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D42" s="90"/>
       <c r="E42" s="90"/>
@@ -5821,31 +5812,31 @@
       <c r="P42" s="94"/>
       <c r="Q42" s="94"/>
       <c r="R42" s="127"/>
-      <c r="S42" s="399"/>
-      <c r="T42" s="400"/>
-      <c r="U42" s="400"/>
-      <c r="V42" s="400"/>
-      <c r="W42" s="400"/>
-      <c r="X42" s="400"/>
-      <c r="Y42" s="400"/>
-      <c r="Z42" s="400"/>
-      <c r="AA42" s="400"/>
-      <c r="AB42" s="400"/>
-      <c r="AC42" s="400"/>
-      <c r="AD42" s="400"/>
-      <c r="AE42" s="400"/>
-      <c r="AF42" s="400"/>
-      <c r="AG42" s="401"/>
+      <c r="S42" s="384"/>
+      <c r="T42" s="385"/>
+      <c r="U42" s="385"/>
+      <c r="V42" s="385"/>
+      <c r="W42" s="385"/>
+      <c r="X42" s="385"/>
+      <c r="Y42" s="385"/>
+      <c r="Z42" s="385"/>
+      <c r="AA42" s="385"/>
+      <c r="AB42" s="385"/>
+      <c r="AC42" s="385"/>
+      <c r="AD42" s="385"/>
+      <c r="AE42" s="385"/>
+      <c r="AF42" s="385"/>
+      <c r="AG42" s="386"/>
       <c r="AH42" s="8"/>
     </row>
     <row r="43" spans="1:35" s="2" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="408"/>
-      <c r="B43" s="340"/>
-      <c r="C43" s="340"/>
-      <c r="D43" s="340"/>
-      <c r="E43" s="340"/>
-      <c r="F43" s="340"/>
-      <c r="G43" s="340"/>
+      <c r="A43" s="393"/>
+      <c r="B43" s="344"/>
+      <c r="C43" s="344"/>
+      <c r="D43" s="344"/>
+      <c r="E43" s="344"/>
+      <c r="F43" s="344"/>
+      <c r="G43" s="344"/>
       <c r="H43" s="94"/>
       <c r="I43" s="94"/>
       <c r="J43" s="94"/>
@@ -5857,28 +5848,28 @@
       <c r="P43" s="94"/>
       <c r="Q43" s="94"/>
       <c r="R43" s="127"/>
-      <c r="S43" s="402"/>
-      <c r="T43" s="403"/>
-      <c r="U43" s="403"/>
-      <c r="V43" s="403"/>
-      <c r="W43" s="403"/>
-      <c r="X43" s="403"/>
-      <c r="Y43" s="403"/>
-      <c r="Z43" s="403"/>
-      <c r="AA43" s="403"/>
-      <c r="AB43" s="403"/>
-      <c r="AC43" s="403"/>
-      <c r="AD43" s="403"/>
-      <c r="AE43" s="403"/>
-      <c r="AF43" s="403"/>
-      <c r="AG43" s="404"/>
+      <c r="S43" s="387"/>
+      <c r="T43" s="388"/>
+      <c r="U43" s="388"/>
+      <c r="V43" s="388"/>
+      <c r="W43" s="388"/>
+      <c r="X43" s="388"/>
+      <c r="Y43" s="388"/>
+      <c r="Z43" s="388"/>
+      <c r="AA43" s="388"/>
+      <c r="AB43" s="388"/>
+      <c r="AC43" s="388"/>
+      <c r="AD43" s="388"/>
+      <c r="AE43" s="388"/>
+      <c r="AF43" s="388"/>
+      <c r="AG43" s="389"/>
       <c r="AH43" s="8"/>
     </row>
     <row r="44" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="126"/>
       <c r="B44" s="93"/>
       <c r="C44" s="90" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D44" s="90"/>
       <c r="E44" s="90"/>
@@ -5895,67 +5886,67 @@
       <c r="P44" s="90"/>
       <c r="Q44" s="90"/>
       <c r="R44" s="150"/>
-      <c r="S44" s="402"/>
-      <c r="T44" s="403"/>
-      <c r="U44" s="403"/>
-      <c r="V44" s="403"/>
-      <c r="W44" s="403"/>
-      <c r="X44" s="403"/>
-      <c r="Y44" s="403"/>
-      <c r="Z44" s="403"/>
-      <c r="AA44" s="403"/>
-      <c r="AB44" s="403"/>
-      <c r="AC44" s="403"/>
-      <c r="AD44" s="403"/>
-      <c r="AE44" s="403"/>
-      <c r="AF44" s="403"/>
-      <c r="AG44" s="404"/>
+      <c r="S44" s="387"/>
+      <c r="T44" s="388"/>
+      <c r="U44" s="388"/>
+      <c r="V44" s="388"/>
+      <c r="W44" s="388"/>
+      <c r="X44" s="388"/>
+      <c r="Y44" s="388"/>
+      <c r="Z44" s="388"/>
+      <c r="AA44" s="388"/>
+      <c r="AB44" s="388"/>
+      <c r="AC44" s="388"/>
+      <c r="AD44" s="388"/>
+      <c r="AE44" s="388"/>
+      <c r="AF44" s="388"/>
+      <c r="AG44" s="389"/>
       <c r="AH44" s="8"/>
     </row>
     <row r="45" spans="1:35" s="2" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="408"/>
-      <c r="B45" s="340"/>
-      <c r="C45" s="340"/>
-      <c r="D45" s="340"/>
-      <c r="E45" s="340"/>
-      <c r="F45" s="340"/>
-      <c r="G45" s="340"/>
-      <c r="H45" s="340"/>
-      <c r="I45" s="340"/>
-      <c r="J45" s="340"/>
-      <c r="K45" s="340"/>
-      <c r="L45" s="340"/>
-      <c r="M45" s="340"/>
-      <c r="N45" s="340"/>
-      <c r="O45" s="340"/>
-      <c r="P45" s="340"/>
-      <c r="Q45" s="340"/>
-      <c r="R45" s="341"/>
-      <c r="S45" s="402"/>
-      <c r="T45" s="403"/>
-      <c r="U45" s="403"/>
-      <c r="V45" s="403"/>
-      <c r="W45" s="403"/>
-      <c r="X45" s="403"/>
-      <c r="Y45" s="403"/>
-      <c r="Z45" s="403"/>
-      <c r="AA45" s="403"/>
-      <c r="AB45" s="403"/>
-      <c r="AC45" s="403"/>
-      <c r="AD45" s="403"/>
-      <c r="AE45" s="403"/>
-      <c r="AF45" s="403"/>
-      <c r="AG45" s="404"/>
+      <c r="A45" s="393"/>
+      <c r="B45" s="344"/>
+      <c r="C45" s="344"/>
+      <c r="D45" s="344"/>
+      <c r="E45" s="344"/>
+      <c r="F45" s="344"/>
+      <c r="G45" s="344"/>
+      <c r="H45" s="344"/>
+      <c r="I45" s="344"/>
+      <c r="J45" s="344"/>
+      <c r="K45" s="344"/>
+      <c r="L45" s="344"/>
+      <c r="M45" s="344"/>
+      <c r="N45" s="344"/>
+      <c r="O45" s="344"/>
+      <c r="P45" s="344"/>
+      <c r="Q45" s="344"/>
+      <c r="R45" s="345"/>
+      <c r="S45" s="387"/>
+      <c r="T45" s="388"/>
+      <c r="U45" s="388"/>
+      <c r="V45" s="388"/>
+      <c r="W45" s="388"/>
+      <c r="X45" s="388"/>
+      <c r="Y45" s="388"/>
+      <c r="Z45" s="388"/>
+      <c r="AA45" s="388"/>
+      <c r="AB45" s="388"/>
+      <c r="AC45" s="388"/>
+      <c r="AD45" s="388"/>
+      <c r="AE45" s="388"/>
+      <c r="AF45" s="388"/>
+      <c r="AG45" s="389"/>
       <c r="AH45" s="8"/>
     </row>
     <row r="46" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="126"/>
       <c r="B46" s="93"/>
       <c r="C46" s="151" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="D46" s="151" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E46" s="151"/>
       <c r="F46" s="151"/>
@@ -5971,28 +5962,28 @@
       <c r="P46" s="152"/>
       <c r="Q46" s="152"/>
       <c r="R46" s="153"/>
-      <c r="S46" s="402"/>
-      <c r="T46" s="403"/>
-      <c r="U46" s="403"/>
-      <c r="V46" s="403"/>
-      <c r="W46" s="403"/>
-      <c r="X46" s="403"/>
-      <c r="Y46" s="403"/>
-      <c r="Z46" s="403"/>
-      <c r="AA46" s="403"/>
-      <c r="AB46" s="403"/>
-      <c r="AC46" s="403"/>
-      <c r="AD46" s="403"/>
-      <c r="AE46" s="403"/>
-      <c r="AF46" s="403"/>
-      <c r="AG46" s="404"/>
+      <c r="S46" s="387"/>
+      <c r="T46" s="388"/>
+      <c r="U46" s="388"/>
+      <c r="V46" s="388"/>
+      <c r="W46" s="388"/>
+      <c r="X46" s="388"/>
+      <c r="Y46" s="388"/>
+      <c r="Z46" s="388"/>
+      <c r="AA46" s="388"/>
+      <c r="AB46" s="388"/>
+      <c r="AC46" s="388"/>
+      <c r="AD46" s="388"/>
+      <c r="AE46" s="388"/>
+      <c r="AF46" s="388"/>
+      <c r="AG46" s="389"/>
       <c r="AH46" s="8"/>
     </row>
     <row r="47" spans="1:35" s="2" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="126"/>
       <c r="B47" s="90"/>
       <c r="C47" s="154" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D47" s="151"/>
       <c r="E47" s="151"/>
@@ -6009,21 +6000,21 @@
       <c r="P47" s="152"/>
       <c r="Q47" s="152"/>
       <c r="R47" s="153"/>
-      <c r="S47" s="402"/>
-      <c r="T47" s="403"/>
-      <c r="U47" s="403"/>
-      <c r="V47" s="403"/>
-      <c r="W47" s="403"/>
-      <c r="X47" s="403"/>
-      <c r="Y47" s="403"/>
-      <c r="Z47" s="403"/>
-      <c r="AA47" s="403"/>
-      <c r="AB47" s="403"/>
-      <c r="AC47" s="403"/>
-      <c r="AD47" s="403"/>
-      <c r="AE47" s="403"/>
-      <c r="AF47" s="403"/>
-      <c r="AG47" s="404"/>
+      <c r="S47" s="387"/>
+      <c r="T47" s="388"/>
+      <c r="U47" s="388"/>
+      <c r="V47" s="388"/>
+      <c r="W47" s="388"/>
+      <c r="X47" s="388"/>
+      <c r="Y47" s="388"/>
+      <c r="Z47" s="388"/>
+      <c r="AA47" s="388"/>
+      <c r="AB47" s="388"/>
+      <c r="AC47" s="388"/>
+      <c r="AD47" s="388"/>
+      <c r="AE47" s="388"/>
+      <c r="AF47" s="388"/>
+      <c r="AG47" s="389"/>
       <c r="AH47" s="8"/>
     </row>
     <row r="48" spans="1:35" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -6045,344 +6036,344 @@
       <c r="P48" s="157"/>
       <c r="Q48" s="157"/>
       <c r="R48" s="158"/>
-      <c r="S48" s="405"/>
-      <c r="T48" s="406"/>
-      <c r="U48" s="406"/>
-      <c r="V48" s="406"/>
-      <c r="W48" s="406"/>
-      <c r="X48" s="406"/>
-      <c r="Y48" s="406"/>
-      <c r="Z48" s="406"/>
-      <c r="AA48" s="406"/>
-      <c r="AB48" s="406"/>
-      <c r="AC48" s="406"/>
-      <c r="AD48" s="406"/>
-      <c r="AE48" s="406"/>
-      <c r="AF48" s="406"/>
-      <c r="AG48" s="407"/>
+      <c r="S48" s="390"/>
+      <c r="T48" s="391"/>
+      <c r="U48" s="391"/>
+      <c r="V48" s="391"/>
+      <c r="W48" s="391"/>
+      <c r="X48" s="391"/>
+      <c r="Y48" s="391"/>
+      <c r="Z48" s="391"/>
+      <c r="AA48" s="391"/>
+      <c r="AB48" s="391"/>
+      <c r="AC48" s="391"/>
+      <c r="AD48" s="391"/>
+      <c r="AE48" s="391"/>
+      <c r="AF48" s="391"/>
+      <c r="AG48" s="392"/>
       <c r="AH48" s="8"/>
     </row>
     <row r="49" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="349" t="s">
+      <c r="A49" s="412" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="413"/>
+      <c r="C49" s="413"/>
+      <c r="D49" s="413"/>
+      <c r="E49" s="416"/>
+      <c r="F49" s="344"/>
+      <c r="G49" s="344"/>
+      <c r="H49" s="344"/>
+      <c r="I49" s="344"/>
+      <c r="J49" s="344"/>
+      <c r="K49" s="344"/>
+      <c r="L49" s="344"/>
+      <c r="M49" s="344"/>
+      <c r="N49" s="344"/>
+      <c r="O49" s="344"/>
+      <c r="P49" s="344"/>
+      <c r="Q49" s="344"/>
+      <c r="R49" s="345"/>
+      <c r="S49" s="412" t="s">
+        <v>115</v>
+      </c>
+      <c r="T49" s="420"/>
+      <c r="U49" s="420"/>
+      <c r="V49" s="421"/>
+      <c r="W49" s="425"/>
+      <c r="X49" s="426"/>
+      <c r="Y49" s="426"/>
+      <c r="Z49" s="426"/>
+      <c r="AA49" s="426"/>
+      <c r="AB49" s="426"/>
+      <c r="AC49" s="426"/>
+      <c r="AD49" s="426"/>
+      <c r="AE49" s="426"/>
+      <c r="AF49" s="426"/>
+      <c r="AG49" s="427"/>
+      <c r="AH49" s="8"/>
+    </row>
+    <row r="50" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="414"/>
+      <c r="B50" s="415"/>
+      <c r="C50" s="415"/>
+      <c r="D50" s="415"/>
+      <c r="E50" s="417"/>
+      <c r="F50" s="418"/>
+      <c r="G50" s="418"/>
+      <c r="H50" s="418"/>
+      <c r="I50" s="418"/>
+      <c r="J50" s="418"/>
+      <c r="K50" s="418"/>
+      <c r="L50" s="418"/>
+      <c r="M50" s="418"/>
+      <c r="N50" s="418"/>
+      <c r="O50" s="418"/>
+      <c r="P50" s="418"/>
+      <c r="Q50" s="418"/>
+      <c r="R50" s="419"/>
+      <c r="S50" s="422"/>
+      <c r="T50" s="423"/>
+      <c r="U50" s="423"/>
+      <c r="V50" s="424"/>
+      <c r="W50" s="428"/>
+      <c r="X50" s="423"/>
+      <c r="Y50" s="423"/>
+      <c r="Z50" s="423"/>
+      <c r="AA50" s="423"/>
+      <c r="AB50" s="423"/>
+      <c r="AC50" s="423"/>
+      <c r="AD50" s="423"/>
+      <c r="AE50" s="423"/>
+      <c r="AF50" s="423"/>
+      <c r="AG50" s="429"/>
+      <c r="AH50" s="8"/>
+    </row>
+    <row r="51" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="430" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="431"/>
+      <c r="C51" s="431"/>
+      <c r="D51" s="432"/>
+      <c r="E51" s="434" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="435"/>
+      <c r="G51" s="435"/>
+      <c r="H51" s="435"/>
+      <c r="I51" s="435"/>
+      <c r="J51" s="435"/>
+      <c r="K51" s="435"/>
+      <c r="L51" s="435"/>
+      <c r="M51" s="435"/>
+      <c r="N51" s="435"/>
+      <c r="O51" s="435"/>
+      <c r="P51" s="435"/>
+      <c r="Q51" s="435"/>
+      <c r="R51" s="436"/>
+      <c r="S51" s="430" t="s">
+        <v>116</v>
+      </c>
+      <c r="T51" s="426"/>
+      <c r="U51" s="426"/>
+      <c r="V51" s="440"/>
+      <c r="W51" s="441" t="s">
+        <v>23</v>
+      </c>
+      <c r="X51" s="442"/>
+      <c r="Y51" s="442"/>
+      <c r="Z51" s="442"/>
+      <c r="AA51" s="442"/>
+      <c r="AB51" s="442"/>
+      <c r="AC51" s="442"/>
+      <c r="AD51" s="442"/>
+      <c r="AE51" s="442"/>
+      <c r="AF51" s="442"/>
+      <c r="AG51" s="443"/>
+      <c r="AH51" s="8"/>
+    </row>
+    <row r="52" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="414"/>
+      <c r="B52" s="415"/>
+      <c r="C52" s="415"/>
+      <c r="D52" s="433"/>
+      <c r="E52" s="437"/>
+      <c r="F52" s="438"/>
+      <c r="G52" s="438"/>
+      <c r="H52" s="438"/>
+      <c r="I52" s="438"/>
+      <c r="J52" s="438"/>
+      <c r="K52" s="438"/>
+      <c r="L52" s="438"/>
+      <c r="M52" s="438"/>
+      <c r="N52" s="438"/>
+      <c r="O52" s="438"/>
+      <c r="P52" s="438"/>
+      <c r="Q52" s="438"/>
+      <c r="R52" s="439"/>
+      <c r="S52" s="422"/>
+      <c r="T52" s="423"/>
+      <c r="U52" s="423"/>
+      <c r="V52" s="424"/>
+      <c r="W52" s="444"/>
+      <c r="X52" s="445"/>
+      <c r="Y52" s="445"/>
+      <c r="Z52" s="445"/>
+      <c r="AA52" s="445"/>
+      <c r="AB52" s="445"/>
+      <c r="AC52" s="445"/>
+      <c r="AD52" s="445"/>
+      <c r="AE52" s="445"/>
+      <c r="AF52" s="445"/>
+      <c r="AG52" s="446"/>
+      <c r="AH52" s="8"/>
+    </row>
+    <row r="53" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="430" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="426"/>
+      <c r="C53" s="426"/>
+      <c r="D53" s="440"/>
+      <c r="E53" s="425" t="s">
+        <v>119</v>
+      </c>
+      <c r="F53" s="426"/>
+      <c r="G53" s="426"/>
+      <c r="H53" s="426"/>
+      <c r="I53" s="426"/>
+      <c r="J53" s="426"/>
+      <c r="K53" s="426"/>
+      <c r="L53" s="426"/>
+      <c r="M53" s="426"/>
+      <c r="N53" s="426"/>
+      <c r="O53" s="426"/>
+      <c r="P53" s="426"/>
+      <c r="Q53" s="426"/>
+      <c r="R53" s="427"/>
+      <c r="S53" s="430" t="s">
+        <v>118</v>
+      </c>
+      <c r="T53" s="426"/>
+      <c r="U53" s="426"/>
+      <c r="V53" s="440"/>
+      <c r="W53" s="425" t="s">
         <v>120</v>
       </c>
-      <c r="B49" s="375"/>
-      <c r="C49" s="375"/>
-      <c r="D49" s="375"/>
-      <c r="E49" s="353"/>
-      <c r="F49" s="340"/>
-      <c r="G49" s="340"/>
-      <c r="H49" s="340"/>
-      <c r="I49" s="340"/>
-      <c r="J49" s="340"/>
-      <c r="K49" s="340"/>
-      <c r="L49" s="340"/>
-      <c r="M49" s="340"/>
-      <c r="N49" s="340"/>
-      <c r="O49" s="340"/>
-      <c r="P49" s="340"/>
-      <c r="Q49" s="340"/>
-      <c r="R49" s="341"/>
-      <c r="S49" s="349" t="s">
-        <v>120</v>
-      </c>
-      <c r="T49" s="350"/>
-      <c r="U49" s="350"/>
-      <c r="V49" s="379"/>
-      <c r="W49" s="362"/>
-      <c r="X49" s="359"/>
-      <c r="Y49" s="359"/>
-      <c r="Z49" s="359"/>
-      <c r="AA49" s="359"/>
-      <c r="AB49" s="359"/>
-      <c r="AC49" s="359"/>
-      <c r="AD49" s="359"/>
-      <c r="AE49" s="359"/>
-      <c r="AF49" s="359"/>
-      <c r="AG49" s="363"/>
-      <c r="AH49" s="8"/>
-    </row>
-    <row r="50" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="376"/>
-      <c r="B50" s="377"/>
-      <c r="C50" s="377"/>
-      <c r="D50" s="377"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="329"/>
-      <c r="G50" s="329"/>
-      <c r="H50" s="329"/>
-      <c r="I50" s="329"/>
-      <c r="J50" s="329"/>
-      <c r="K50" s="329"/>
-      <c r="L50" s="329"/>
-      <c r="M50" s="329"/>
-      <c r="N50" s="329"/>
-      <c r="O50" s="329"/>
-      <c r="P50" s="329"/>
-      <c r="Q50" s="329"/>
-      <c r="R50" s="378"/>
-      <c r="S50" s="351"/>
-      <c r="T50" s="352"/>
-      <c r="U50" s="352"/>
-      <c r="V50" s="361"/>
-      <c r="W50" s="364"/>
-      <c r="X50" s="352"/>
-      <c r="Y50" s="352"/>
-      <c r="Z50" s="352"/>
-      <c r="AA50" s="352"/>
-      <c r="AB50" s="352"/>
-      <c r="AC50" s="352"/>
-      <c r="AD50" s="352"/>
-      <c r="AE50" s="352"/>
-      <c r="AF50" s="352"/>
-      <c r="AG50" s="365"/>
-      <c r="AH50" s="8"/>
-    </row>
-    <row r="51" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="325" t="s">
-        <v>121</v>
-      </c>
-      <c r="B51" s="380"/>
-      <c r="C51" s="380"/>
-      <c r="D51" s="381"/>
-      <c r="E51" s="383" t="s">
-        <v>122</v>
-      </c>
-      <c r="F51" s="384"/>
-      <c r="G51" s="384"/>
-      <c r="H51" s="384"/>
-      <c r="I51" s="384"/>
-      <c r="J51" s="384"/>
-      <c r="K51" s="384"/>
-      <c r="L51" s="384"/>
-      <c r="M51" s="384"/>
-      <c r="N51" s="384"/>
-      <c r="O51" s="384"/>
-      <c r="P51" s="384"/>
-      <c r="Q51" s="384"/>
-      <c r="R51" s="385"/>
-      <c r="S51" s="325" t="s">
-        <v>121</v>
-      </c>
-      <c r="T51" s="359"/>
-      <c r="U51" s="359"/>
-      <c r="V51" s="360"/>
-      <c r="W51" s="389" t="s">
-        <v>27</v>
-      </c>
-      <c r="X51" s="390"/>
-      <c r="Y51" s="390"/>
-      <c r="Z51" s="390"/>
-      <c r="AA51" s="390"/>
-      <c r="AB51" s="390"/>
-      <c r="AC51" s="390"/>
-      <c r="AD51" s="390"/>
-      <c r="AE51" s="390"/>
-      <c r="AF51" s="390"/>
-      <c r="AG51" s="391"/>
-      <c r="AH51" s="8"/>
-    </row>
-    <row r="52" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="376"/>
-      <c r="B52" s="377"/>
-      <c r="C52" s="377"/>
-      <c r="D52" s="382"/>
-      <c r="E52" s="386"/>
-      <c r="F52" s="387"/>
-      <c r="G52" s="387"/>
-      <c r="H52" s="387"/>
-      <c r="I52" s="387"/>
-      <c r="J52" s="387"/>
-      <c r="K52" s="387"/>
-      <c r="L52" s="387"/>
-      <c r="M52" s="387"/>
-      <c r="N52" s="387"/>
-      <c r="O52" s="387"/>
-      <c r="P52" s="387"/>
-      <c r="Q52" s="387"/>
-      <c r="R52" s="388"/>
-      <c r="S52" s="351"/>
-      <c r="T52" s="352"/>
-      <c r="U52" s="352"/>
-      <c r="V52" s="361"/>
-      <c r="W52" s="392"/>
-      <c r="X52" s="393"/>
-      <c r="Y52" s="393"/>
-      <c r="Z52" s="393"/>
-      <c r="AA52" s="393"/>
-      <c r="AB52" s="393"/>
-      <c r="AC52" s="393"/>
-      <c r="AD52" s="393"/>
-      <c r="AE52" s="393"/>
-      <c r="AF52" s="393"/>
-      <c r="AG52" s="394"/>
-      <c r="AH52" s="8"/>
-    </row>
-    <row r="53" spans="1:38" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="325" t="s">
-        <v>123</v>
-      </c>
-      <c r="B53" s="359"/>
-      <c r="C53" s="359"/>
-      <c r="D53" s="360"/>
-      <c r="E53" s="362" t="s">
-        <v>124</v>
-      </c>
-      <c r="F53" s="359"/>
-      <c r="G53" s="359"/>
-      <c r="H53" s="359"/>
-      <c r="I53" s="359"/>
-      <c r="J53" s="359"/>
-      <c r="K53" s="359"/>
-      <c r="L53" s="359"/>
-      <c r="M53" s="359"/>
-      <c r="N53" s="359"/>
-      <c r="O53" s="359"/>
-      <c r="P53" s="359"/>
-      <c r="Q53" s="359"/>
-      <c r="R53" s="363"/>
-      <c r="S53" s="325" t="s">
-        <v>123</v>
-      </c>
-      <c r="T53" s="359"/>
-      <c r="U53" s="359"/>
-      <c r="V53" s="360"/>
-      <c r="W53" s="362" t="s">
-        <v>125</v>
-      </c>
-      <c r="X53" s="359"/>
-      <c r="Y53" s="359"/>
-      <c r="Z53" s="359"/>
-      <c r="AA53" s="359"/>
-      <c r="AB53" s="359"/>
-      <c r="AC53" s="359"/>
-      <c r="AD53" s="359"/>
-      <c r="AE53" s="359"/>
-      <c r="AF53" s="359"/>
-      <c r="AG53" s="363"/>
+      <c r="X53" s="426"/>
+      <c r="Y53" s="426"/>
+      <c r="Z53" s="426"/>
+      <c r="AA53" s="426"/>
+      <c r="AB53" s="426"/>
+      <c r="AC53" s="426"/>
+      <c r="AD53" s="426"/>
+      <c r="AE53" s="426"/>
+      <c r="AF53" s="426"/>
+      <c r="AG53" s="427"/>
       <c r="AH53" s="161"/>
       <c r="AI53" s="10"/>
       <c r="AJ53" s="10"/>
       <c r="AK53" s="10"/>
     </row>
     <row r="54" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="351"/>
-      <c r="B54" s="352"/>
-      <c r="C54" s="352"/>
-      <c r="D54" s="361"/>
-      <c r="E54" s="364"/>
-      <c r="F54" s="352"/>
-      <c r="G54" s="352"/>
-      <c r="H54" s="352"/>
-      <c r="I54" s="352"/>
-      <c r="J54" s="352"/>
-      <c r="K54" s="352"/>
-      <c r="L54" s="352"/>
-      <c r="M54" s="352"/>
-      <c r="N54" s="352"/>
-      <c r="O54" s="352"/>
-      <c r="P54" s="352"/>
-      <c r="Q54" s="352"/>
-      <c r="R54" s="365"/>
-      <c r="S54" s="351"/>
-      <c r="T54" s="352"/>
-      <c r="U54" s="352"/>
-      <c r="V54" s="361"/>
-      <c r="W54" s="364"/>
-      <c r="X54" s="352"/>
-      <c r="Y54" s="352"/>
-      <c r="Z54" s="352"/>
-      <c r="AA54" s="352"/>
-      <c r="AB54" s="352"/>
-      <c r="AC54" s="352"/>
-      <c r="AD54" s="352"/>
-      <c r="AE54" s="352"/>
-      <c r="AF54" s="352"/>
-      <c r="AG54" s="365"/>
+      <c r="A54" s="422"/>
+      <c r="B54" s="423"/>
+      <c r="C54" s="423"/>
+      <c r="D54" s="424"/>
+      <c r="E54" s="428"/>
+      <c r="F54" s="423"/>
+      <c r="G54" s="423"/>
+      <c r="H54" s="423"/>
+      <c r="I54" s="423"/>
+      <c r="J54" s="423"/>
+      <c r="K54" s="423"/>
+      <c r="L54" s="423"/>
+      <c r="M54" s="423"/>
+      <c r="N54" s="423"/>
+      <c r="O54" s="423"/>
+      <c r="P54" s="423"/>
+      <c r="Q54" s="423"/>
+      <c r="R54" s="429"/>
+      <c r="S54" s="422"/>
+      <c r="T54" s="423"/>
+      <c r="U54" s="423"/>
+      <c r="V54" s="424"/>
+      <c r="W54" s="428"/>
+      <c r="X54" s="423"/>
+      <c r="Y54" s="423"/>
+      <c r="Z54" s="423"/>
+      <c r="AA54" s="423"/>
+      <c r="AB54" s="423"/>
+      <c r="AC54" s="423"/>
+      <c r="AD54" s="423"/>
+      <c r="AE54" s="423"/>
+      <c r="AF54" s="423"/>
+      <c r="AG54" s="429"/>
       <c r="AH54" s="8"/>
     </row>
     <row r="55" spans="1:38" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="325" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" s="359"/>
-      <c r="C55" s="359"/>
-      <c r="D55" s="360"/>
-      <c r="E55" s="353"/>
-      <c r="F55" s="340"/>
-      <c r="G55" s="340"/>
-      <c r="H55" s="340"/>
-      <c r="I55" s="340"/>
-      <c r="J55" s="340"/>
-      <c r="K55" s="340"/>
-      <c r="L55" s="340"/>
-      <c r="M55" s="340"/>
-      <c r="N55" s="340"/>
-      <c r="O55" s="340"/>
-      <c r="P55" s="340"/>
-      <c r="Q55" s="340"/>
-      <c r="R55" s="341"/>
-      <c r="S55" s="325" t="s">
-        <v>14</v>
-      </c>
-      <c r="T55" s="359"/>
-      <c r="U55" s="359"/>
-      <c r="V55" s="360"/>
-      <c r="W55" s="362"/>
-      <c r="X55" s="359"/>
-      <c r="Y55" s="359"/>
-      <c r="Z55" s="359"/>
-      <c r="AA55" s="359"/>
-      <c r="AB55" s="359"/>
-      <c r="AC55" s="359"/>
-      <c r="AD55" s="359"/>
-      <c r="AE55" s="359"/>
-      <c r="AF55" s="359"/>
-      <c r="AG55" s="363"/>
+      <c r="A55" s="430" t="s">
+        <v>9</v>
+      </c>
+      <c r="B55" s="426"/>
+      <c r="C55" s="426"/>
+      <c r="D55" s="440"/>
+      <c r="E55" s="416"/>
+      <c r="F55" s="344"/>
+      <c r="G55" s="344"/>
+      <c r="H55" s="344"/>
+      <c r="I55" s="344"/>
+      <c r="J55" s="344"/>
+      <c r="K55" s="344"/>
+      <c r="L55" s="344"/>
+      <c r="M55" s="344"/>
+      <c r="N55" s="344"/>
+      <c r="O55" s="344"/>
+      <c r="P55" s="344"/>
+      <c r="Q55" s="344"/>
+      <c r="R55" s="345"/>
+      <c r="S55" s="430" t="s">
+        <v>9</v>
+      </c>
+      <c r="T55" s="426"/>
+      <c r="U55" s="426"/>
+      <c r="V55" s="440"/>
+      <c r="W55" s="425"/>
+      <c r="X55" s="426"/>
+      <c r="Y55" s="426"/>
+      <c r="Z55" s="426"/>
+      <c r="AA55" s="426"/>
+      <c r="AB55" s="426"/>
+      <c r="AC55" s="426"/>
+      <c r="AD55" s="426"/>
+      <c r="AE55" s="426"/>
+      <c r="AF55" s="426"/>
+      <c r="AG55" s="427"/>
       <c r="AH55" s="8"/>
     </row>
     <row r="56" spans="1:38" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="371"/>
-      <c r="B56" s="372"/>
-      <c r="C56" s="372"/>
-      <c r="D56" s="373"/>
-      <c r="E56" s="374"/>
-      <c r="F56" s="342"/>
-      <c r="G56" s="342"/>
-      <c r="H56" s="342"/>
-      <c r="I56" s="342"/>
-      <c r="J56" s="342"/>
-      <c r="K56" s="342"/>
-      <c r="L56" s="342"/>
-      <c r="M56" s="342"/>
-      <c r="N56" s="342"/>
-      <c r="O56" s="342"/>
-      <c r="P56" s="342"/>
-      <c r="Q56" s="342"/>
-      <c r="R56" s="343"/>
-      <c r="S56" s="366"/>
-      <c r="T56" s="367"/>
-      <c r="U56" s="367"/>
-      <c r="V56" s="368"/>
-      <c r="W56" s="369"/>
-      <c r="X56" s="367"/>
-      <c r="Y56" s="367"/>
-      <c r="Z56" s="367"/>
-      <c r="AA56" s="367"/>
-      <c r="AB56" s="367"/>
-      <c r="AC56" s="367"/>
-      <c r="AD56" s="367"/>
-      <c r="AE56" s="367"/>
-      <c r="AF56" s="367"/>
-      <c r="AG56" s="370"/>
+      <c r="A56" s="452"/>
+      <c r="B56" s="453"/>
+      <c r="C56" s="453"/>
+      <c r="D56" s="454"/>
+      <c r="E56" s="455"/>
+      <c r="F56" s="358"/>
+      <c r="G56" s="358"/>
+      <c r="H56" s="358"/>
+      <c r="I56" s="358"/>
+      <c r="J56" s="358"/>
+      <c r="K56" s="358"/>
+      <c r="L56" s="358"/>
+      <c r="M56" s="358"/>
+      <c r="N56" s="358"/>
+      <c r="O56" s="358"/>
+      <c r="P56" s="358"/>
+      <c r="Q56" s="358"/>
+      <c r="R56" s="456"/>
+      <c r="S56" s="447"/>
+      <c r="T56" s="448"/>
+      <c r="U56" s="448"/>
+      <c r="V56" s="449"/>
+      <c r="W56" s="450"/>
+      <c r="X56" s="448"/>
+      <c r="Y56" s="448"/>
+      <c r="Z56" s="448"/>
+      <c r="AA56" s="448"/>
+      <c r="AB56" s="448"/>
+      <c r="AC56" s="448"/>
+      <c r="AD56" s="448"/>
+      <c r="AE56" s="448"/>
+      <c r="AF56" s="448"/>
+      <c r="AG56" s="451"/>
       <c r="AH56" s="8"/>
     </row>
     <row r="57" spans="1:38" s="2" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="142" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B57" s="162" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C57" s="162"/>
       <c r="D57" s="162"/>
@@ -6410,49 +6401,49 @@
       <c r="Z57" s="162"/>
       <c r="AA57" s="163"/>
       <c r="AB57" s="99" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="AC57" s="99"/>
       <c r="AD57" s="99"/>
-      <c r="AE57" s="347"/>
-      <c r="AF57" s="347"/>
-      <c r="AG57" s="348"/>
+      <c r="AE57" s="356"/>
+      <c r="AF57" s="356"/>
+      <c r="AG57" s="357"/>
       <c r="AH57" s="8"/>
     </row>
     <row r="58" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="349" t="s">
-        <v>129</v>
-      </c>
-      <c r="B58" s="350"/>
-      <c r="C58" s="350"/>
+      <c r="A58" s="412" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="420"/>
+      <c r="C58" s="420"/>
       <c r="D58" s="90"/>
-      <c r="E58" s="353"/>
-      <c r="F58" s="340"/>
-      <c r="G58" s="340"/>
-      <c r="H58" s="340"/>
-      <c r="I58" s="340"/>
-      <c r="J58" s="340"/>
-      <c r="K58" s="340"/>
-      <c r="L58" s="340"/>
-      <c r="M58" s="354"/>
-      <c r="N58" s="355" t="s">
-        <v>87</v>
-      </c>
-      <c r="O58" s="356"/>
-      <c r="P58" s="356"/>
-      <c r="Q58" s="356"/>
-      <c r="R58" s="357"/>
-      <c r="S58" s="358" t="s">
-        <v>130</v>
-      </c>
-      <c r="T58" s="356"/>
-      <c r="U58" s="356"/>
-      <c r="V58" s="356"/>
-      <c r="W58" s="356"/>
-      <c r="X58" s="356"/>
-      <c r="Y58" s="356"/>
-      <c r="Z58" s="356"/>
-      <c r="AA58" s="357"/>
+      <c r="E58" s="416"/>
+      <c r="F58" s="344"/>
+      <c r="G58" s="344"/>
+      <c r="H58" s="344"/>
+      <c r="I58" s="344"/>
+      <c r="J58" s="344"/>
+      <c r="K58" s="344"/>
+      <c r="L58" s="344"/>
+      <c r="M58" s="457"/>
+      <c r="N58" s="459" t="s">
+        <v>82</v>
+      </c>
+      <c r="O58" s="460"/>
+      <c r="P58" s="460"/>
+      <c r="Q58" s="460"/>
+      <c r="R58" s="461"/>
+      <c r="S58" s="465" t="s">
+        <v>125</v>
+      </c>
+      <c r="T58" s="460"/>
+      <c r="U58" s="460"/>
+      <c r="V58" s="460"/>
+      <c r="W58" s="460"/>
+      <c r="X58" s="460"/>
+      <c r="Y58" s="460"/>
+      <c r="Z58" s="460"/>
+      <c r="AA58" s="461"/>
       <c r="AB58" s="92"/>
       <c r="AC58" s="92"/>
       <c r="AD58" s="92"/>
@@ -6462,33 +6453,33 @@
       <c r="AH58" s="8"/>
     </row>
     <row r="59" spans="1:38" s="2" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="351"/>
-      <c r="B59" s="352"/>
-      <c r="C59" s="352"/>
+      <c r="A59" s="422"/>
+      <c r="B59" s="423"/>
+      <c r="C59" s="423"/>
       <c r="D59" s="156"/>
-      <c r="E59" s="332"/>
-      <c r="F59" s="329"/>
-      <c r="G59" s="329"/>
-      <c r="H59" s="329"/>
-      <c r="I59" s="329"/>
-      <c r="J59" s="329"/>
-      <c r="K59" s="329"/>
-      <c r="L59" s="329"/>
-      <c r="M59" s="330"/>
-      <c r="N59" s="336"/>
-      <c r="O59" s="337"/>
-      <c r="P59" s="337"/>
-      <c r="Q59" s="337"/>
-      <c r="R59" s="338"/>
-      <c r="S59" s="336"/>
-      <c r="T59" s="337"/>
-      <c r="U59" s="337"/>
-      <c r="V59" s="337"/>
-      <c r="W59" s="337"/>
-      <c r="X59" s="337"/>
-      <c r="Y59" s="337"/>
-      <c r="Z59" s="337"/>
-      <c r="AA59" s="338"/>
+      <c r="E59" s="417"/>
+      <c r="F59" s="418"/>
+      <c r="G59" s="418"/>
+      <c r="H59" s="418"/>
+      <c r="I59" s="418"/>
+      <c r="J59" s="418"/>
+      <c r="K59" s="418"/>
+      <c r="L59" s="418"/>
+      <c r="M59" s="458"/>
+      <c r="N59" s="462"/>
+      <c r="O59" s="463"/>
+      <c r="P59" s="463"/>
+      <c r="Q59" s="463"/>
+      <c r="R59" s="464"/>
+      <c r="S59" s="462"/>
+      <c r="T59" s="463"/>
+      <c r="U59" s="463"/>
+      <c r="V59" s="463"/>
+      <c r="W59" s="463"/>
+      <c r="X59" s="463"/>
+      <c r="Y59" s="463"/>
+      <c r="Z59" s="463"/>
+      <c r="AA59" s="464"/>
       <c r="AB59" s="156"/>
       <c r="AC59" s="156"/>
       <c r="AD59" s="159"/>
@@ -6498,121 +6489,121 @@
       <c r="AH59" s="8"/>
     </row>
     <row r="60" spans="1:38" s="2" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="325" t="s">
-        <v>131</v>
-      </c>
-      <c r="B60" s="326"/>
-      <c r="C60" s="326"/>
-      <c r="D60" s="327"/>
-      <c r="E60" s="331"/>
-      <c r="F60" s="326"/>
-      <c r="G60" s="326"/>
-      <c r="H60" s="326"/>
-      <c r="I60" s="326"/>
-      <c r="J60" s="326"/>
-      <c r="K60" s="326"/>
-      <c r="L60" s="326"/>
-      <c r="M60" s="327"/>
-      <c r="N60" s="333" t="s">
-        <v>87</v>
-      </c>
-      <c r="O60" s="334"/>
-      <c r="P60" s="334"/>
-      <c r="Q60" s="334"/>
-      <c r="R60" s="335"/>
-      <c r="S60" s="333" t="s">
-        <v>60</v>
-      </c>
-      <c r="T60" s="334"/>
-      <c r="U60" s="334"/>
-      <c r="V60" s="334"/>
-      <c r="W60" s="334"/>
-      <c r="X60" s="334"/>
-      <c r="Y60" s="334"/>
-      <c r="Z60" s="334"/>
-      <c r="AA60" s="335"/>
+      <c r="A60" s="430" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" s="466"/>
+      <c r="C60" s="466"/>
+      <c r="D60" s="467"/>
+      <c r="E60" s="469"/>
+      <c r="F60" s="466"/>
+      <c r="G60" s="466"/>
+      <c r="H60" s="466"/>
+      <c r="I60" s="466"/>
+      <c r="J60" s="466"/>
+      <c r="K60" s="466"/>
+      <c r="L60" s="466"/>
+      <c r="M60" s="467"/>
+      <c r="N60" s="470" t="s">
+        <v>82</v>
+      </c>
+      <c r="O60" s="471"/>
+      <c r="P60" s="471"/>
+      <c r="Q60" s="471"/>
+      <c r="R60" s="472"/>
+      <c r="S60" s="470" t="s">
+        <v>56</v>
+      </c>
+      <c r="T60" s="471"/>
+      <c r="U60" s="471"/>
+      <c r="V60" s="471"/>
+      <c r="W60" s="471"/>
+      <c r="X60" s="471"/>
+      <c r="Y60" s="471"/>
+      <c r="Z60" s="471"/>
+      <c r="AA60" s="472"/>
       <c r="AB60" s="164" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AC60" s="164"/>
-      <c r="AD60" s="326"/>
-      <c r="AE60" s="326"/>
-      <c r="AF60" s="326"/>
-      <c r="AG60" s="339"/>
+      <c r="AD60" s="466"/>
+      <c r="AE60" s="466"/>
+      <c r="AF60" s="466"/>
+      <c r="AG60" s="473"/>
       <c r="AH60" s="8"/>
     </row>
     <row r="61" spans="1:38" s="2" customFormat="1" ht="9.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="328"/>
-      <c r="B61" s="329"/>
-      <c r="C61" s="329"/>
-      <c r="D61" s="330"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="329"/>
-      <c r="G61" s="329"/>
-      <c r="H61" s="329"/>
-      <c r="I61" s="329"/>
-      <c r="J61" s="329"/>
-      <c r="K61" s="329"/>
-      <c r="L61" s="329"/>
-      <c r="M61" s="330"/>
-      <c r="N61" s="336"/>
-      <c r="O61" s="337"/>
-      <c r="P61" s="337"/>
-      <c r="Q61" s="337"/>
-      <c r="R61" s="338"/>
-      <c r="S61" s="336"/>
-      <c r="T61" s="337"/>
-      <c r="U61" s="337"/>
-      <c r="V61" s="337"/>
-      <c r="W61" s="337"/>
-      <c r="X61" s="337"/>
-      <c r="Y61" s="337"/>
-      <c r="Z61" s="337"/>
-      <c r="AA61" s="338"/>
-      <c r="AB61" s="340"/>
-      <c r="AC61" s="340"/>
-      <c r="AD61" s="340"/>
-      <c r="AE61" s="340"/>
-      <c r="AF61" s="340"/>
-      <c r="AG61" s="341"/>
+      <c r="A61" s="468"/>
+      <c r="B61" s="418"/>
+      <c r="C61" s="418"/>
+      <c r="D61" s="458"/>
+      <c r="E61" s="417"/>
+      <c r="F61" s="418"/>
+      <c r="G61" s="418"/>
+      <c r="H61" s="418"/>
+      <c r="I61" s="418"/>
+      <c r="J61" s="418"/>
+      <c r="K61" s="418"/>
+      <c r="L61" s="418"/>
+      <c r="M61" s="458"/>
+      <c r="N61" s="462"/>
+      <c r="O61" s="463"/>
+      <c r="P61" s="463"/>
+      <c r="Q61" s="463"/>
+      <c r="R61" s="464"/>
+      <c r="S61" s="462"/>
+      <c r="T61" s="463"/>
+      <c r="U61" s="463"/>
+      <c r="V61" s="463"/>
+      <c r="W61" s="463"/>
+      <c r="X61" s="463"/>
+      <c r="Y61" s="463"/>
+      <c r="Z61" s="463"/>
+      <c r="AA61" s="464"/>
+      <c r="AB61" s="344"/>
+      <c r="AC61" s="344"/>
+      <c r="AD61" s="344"/>
+      <c r="AE61" s="344"/>
+      <c r="AF61" s="344"/>
+      <c r="AG61" s="345"/>
       <c r="AH61" s="8"/>
     </row>
     <row r="62" spans="1:38" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="344" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="345"/>
-      <c r="C62" s="345"/>
-      <c r="D62" s="345"/>
-      <c r="E62" s="345"/>
-      <c r="F62" s="345"/>
-      <c r="G62" s="345"/>
-      <c r="H62" s="345"/>
-      <c r="I62" s="345"/>
-      <c r="J62" s="345"/>
-      <c r="K62" s="345"/>
-      <c r="L62" s="345"/>
-      <c r="M62" s="345"/>
-      <c r="N62" s="345"/>
-      <c r="O62" s="345"/>
-      <c r="P62" s="345"/>
-      <c r="Q62" s="345"/>
-      <c r="R62" s="345"/>
-      <c r="S62" s="345"/>
-      <c r="T62" s="345"/>
-      <c r="U62" s="345"/>
-      <c r="V62" s="345"/>
-      <c r="W62" s="345"/>
-      <c r="X62" s="345"/>
-      <c r="Y62" s="345"/>
-      <c r="Z62" s="345"/>
-      <c r="AA62" s="346"/>
-      <c r="AB62" s="342"/>
-      <c r="AC62" s="342"/>
-      <c r="AD62" s="342"/>
-      <c r="AE62" s="342"/>
-      <c r="AF62" s="342"/>
-      <c r="AG62" s="343"/>
+      <c r="A62" s="474" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="475"/>
+      <c r="C62" s="475"/>
+      <c r="D62" s="475"/>
+      <c r="E62" s="475"/>
+      <c r="F62" s="475"/>
+      <c r="G62" s="475"/>
+      <c r="H62" s="475"/>
+      <c r="I62" s="475"/>
+      <c r="J62" s="475"/>
+      <c r="K62" s="475"/>
+      <c r="L62" s="475"/>
+      <c r="M62" s="475"/>
+      <c r="N62" s="475"/>
+      <c r="O62" s="475"/>
+      <c r="P62" s="475"/>
+      <c r="Q62" s="475"/>
+      <c r="R62" s="475"/>
+      <c r="S62" s="475"/>
+      <c r="T62" s="475"/>
+      <c r="U62" s="475"/>
+      <c r="V62" s="475"/>
+      <c r="W62" s="475"/>
+      <c r="X62" s="475"/>
+      <c r="Y62" s="475"/>
+      <c r="Z62" s="475"/>
+      <c r="AA62" s="476"/>
+      <c r="AB62" s="358"/>
+      <c r="AC62" s="358"/>
+      <c r="AD62" s="358"/>
+      <c r="AE62" s="358"/>
+      <c r="AF62" s="358"/>
+      <c r="AG62" s="456"/>
       <c r="AH62" s="165"/>
       <c r="AI62" s="25"/>
       <c r="AJ62" s="25"/>
@@ -6622,32 +6613,34 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <mergeCells count="70">
-    <mergeCell ref="AB1:AG1"/>
-    <mergeCell ref="A3:AA3"/>
-    <mergeCell ref="AB3:AG3"/>
-    <mergeCell ref="A4:AA4"/>
-    <mergeCell ref="AB4:AG4"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="E11:R12"/>
-    <mergeCell ref="S11:AA11"/>
-    <mergeCell ref="AB11:AG11"/>
-    <mergeCell ref="S12:AA12"/>
-    <mergeCell ref="AB12:AG12"/>
-    <mergeCell ref="A5:AA7"/>
-    <mergeCell ref="A8:C10"/>
-    <mergeCell ref="E8:AG8"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="O10:T10"/>
-    <mergeCell ref="AB5:AG5"/>
-    <mergeCell ref="AB6:AG6"/>
-    <mergeCell ref="AB7:AG7"/>
-    <mergeCell ref="L34:X34"/>
-    <mergeCell ref="L35:X35"/>
-    <mergeCell ref="A13:C14"/>
-    <mergeCell ref="E13:R14"/>
-    <mergeCell ref="A15:Q15"/>
-    <mergeCell ref="R15:V15"/>
-    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="A60:D61"/>
+    <mergeCell ref="E60:M61"/>
+    <mergeCell ref="N60:R61"/>
+    <mergeCell ref="S60:AA61"/>
+    <mergeCell ref="AD60:AG60"/>
+    <mergeCell ref="AB61:AG62"/>
+    <mergeCell ref="A62:AA62"/>
+    <mergeCell ref="AE57:AG57"/>
+    <mergeCell ref="A58:C59"/>
+    <mergeCell ref="E58:M59"/>
+    <mergeCell ref="N58:R59"/>
+    <mergeCell ref="S58:AA59"/>
+    <mergeCell ref="A53:D54"/>
+    <mergeCell ref="E53:R54"/>
+    <mergeCell ref="S53:V54"/>
+    <mergeCell ref="W53:AG54"/>
+    <mergeCell ref="S55:V56"/>
+    <mergeCell ref="W55:AG56"/>
+    <mergeCell ref="A55:D56"/>
+    <mergeCell ref="E55:R56"/>
+    <mergeCell ref="A49:D50"/>
+    <mergeCell ref="E49:R50"/>
+    <mergeCell ref="S49:V50"/>
+    <mergeCell ref="W49:AG50"/>
+    <mergeCell ref="A51:D52"/>
+    <mergeCell ref="E51:R52"/>
+    <mergeCell ref="S51:V52"/>
+    <mergeCell ref="W51:AG52"/>
     <mergeCell ref="AB15:AG15"/>
     <mergeCell ref="B17:P19"/>
     <mergeCell ref="T41:AD41"/>
@@ -6664,34 +6657,32 @@
     <mergeCell ref="B30:AG30"/>
     <mergeCell ref="B32:AF32"/>
     <mergeCell ref="B33:AF33"/>
-    <mergeCell ref="A49:D50"/>
-    <mergeCell ref="E49:R50"/>
-    <mergeCell ref="S49:V50"/>
-    <mergeCell ref="W49:AG50"/>
-    <mergeCell ref="A51:D52"/>
-    <mergeCell ref="E51:R52"/>
-    <mergeCell ref="S51:V52"/>
-    <mergeCell ref="W51:AG52"/>
-    <mergeCell ref="A53:D54"/>
-    <mergeCell ref="E53:R54"/>
-    <mergeCell ref="S53:V54"/>
-    <mergeCell ref="W53:AG54"/>
-    <mergeCell ref="S55:V56"/>
-    <mergeCell ref="W55:AG56"/>
-    <mergeCell ref="A55:D56"/>
-    <mergeCell ref="E55:R56"/>
-    <mergeCell ref="AE57:AG57"/>
-    <mergeCell ref="A58:C59"/>
-    <mergeCell ref="E58:M59"/>
-    <mergeCell ref="N58:R59"/>
-    <mergeCell ref="S58:AA59"/>
-    <mergeCell ref="A60:D61"/>
-    <mergeCell ref="E60:M61"/>
-    <mergeCell ref="N60:R61"/>
-    <mergeCell ref="S60:AA61"/>
-    <mergeCell ref="AD60:AG60"/>
-    <mergeCell ref="AB61:AG62"/>
-    <mergeCell ref="A62:AA62"/>
+    <mergeCell ref="L34:X34"/>
+    <mergeCell ref="L35:X35"/>
+    <mergeCell ref="A13:C14"/>
+    <mergeCell ref="E13:R14"/>
+    <mergeCell ref="A15:Q15"/>
+    <mergeCell ref="R15:V15"/>
+    <mergeCell ref="W15:AA15"/>
+    <mergeCell ref="A5:AA7"/>
+    <mergeCell ref="A8:C10"/>
+    <mergeCell ref="E8:AG8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="O10:T10"/>
+    <mergeCell ref="AB5:AG5"/>
+    <mergeCell ref="AB6:AG6"/>
+    <mergeCell ref="AB7:AG7"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="E11:R12"/>
+    <mergeCell ref="S11:AA11"/>
+    <mergeCell ref="AB11:AG11"/>
+    <mergeCell ref="S12:AA12"/>
+    <mergeCell ref="AB12:AG12"/>
+    <mergeCell ref="AB1:AG1"/>
+    <mergeCell ref="A3:AA3"/>
+    <mergeCell ref="AB3:AG3"/>
+    <mergeCell ref="A4:AA4"/>
+    <mergeCell ref="AB4:AG4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" orientation="portrait"/>
